--- a/stonks.xlsx
+++ b/stonks.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F506"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +392,11 @@
           <t>PE</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -418,6 +423,11 @@
       <c r="F2" t="n">
         <v>29.070852</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation develops, licenses, and supports software, services, devices, and solutions worldwide. Its Productivity and Business Processes segment offers Office, Exchange, SharePoint, Microsoft Teams, Office 365 Security and Compliance, and Skype for Business, as well as related Client Access Licenses (CAL); and Skype, Outlook.com, and OneDrive. It also provides LinkedIn that includes Talent and marketing solutions, and subscriptions; and Dynamics 365, a set of cloud-based and on-premises business solutions for small and medium businesses, large organizations, and divisions of enterprises. Its Intelligent Cloud segment licenses SQL and Windows Servers, Visual Studio, System Center, and related CALs; GitHub that provides a collaboration platform and code hosting service for developers; and Azure, a cloud platform. It also provides support services and Microsoft consulting services to assist customers in developing, deploying, and managing Microsoft server and desktop solutions; and training and certification to developers and IT professionals on various Microsoft products. Its More Personal Computing segment offers Windows OEM licensing and other non-volume licensing of the Windows operating system; Windows Commercial, such as volume licensing of the Windows operating system, Windows cloud services, and other Windows commercial offerings; patent licensing; Windows Internet of Things; and MSN advertising. It also provides Microsoft Surface, PC accessories, and other intelligent devices; Gaming, including Xbox hardware, and Xbox software and services; video games and third-party video game royalties; and Search, including Bing and Microsoft advertising. It sells its products through distributors and resellers; and directly through digital marketplaces, online stores, and retail stores. It has strategic partnerships with Humana Inc., Nokia, Telkomsel, Swiss Re, and Kubota Corporation. The company was founded in 1975 and is headquartered in Redmond, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -444,6 +454,11 @@
       <c r="F3" t="n">
         <v>21.014257</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Apple Inc. designs, manufactures, and markets smartphones, personal computers, tablets, wearables, and accessories worldwide. It also sells various related services. The company offers iPhone, a line of smartphones; Mac, a line of personal computers; iPad, a line of multi-purpose tablets; and wearables, home, and accessories comprising AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch, and other Apple-branded and third-party accessories. It also provides digital content stores and streaming services; AppleCare support services; and iCloud, a cloud service, which stores music, photos, contacts, calendars, mail, documents, and others. In addition, the company offers various service, such as Apple Arcade, a game subscription service; Apple Card, a co-branded credit card; Apple News+, a subscription news and magazine service; and Apple Pay, a cashless payment service, as well as licenses its intellectual property, and provides other related services. The company serves consumers, and small and mid-sized businesses; and the education, enterprise, and government markets. It sells and delivers third-party applications for its products through the App Store, Mac App Store, and Watch App Store. The company also sells its products through its retail and online stores, and direct sales force; and third-party cellular network carriers, wholesalers, retailers, and resellers. Apple Inc. has a collaboration with Google to develop COVID-19 tracking system for Android and iOS devices. Apple Inc. was founded in 1977 and is headquartered in Cupertino, California.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -470,6 +485,11 @@
       <c r="F4" t="n">
         <v>62.502617</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Amazon.com, Inc. engages in the retail sale of consumer products and subscriptions in North America and internationally. The company operates through three segments: North America, International, and Amazon Web Services (AWS). It sells merchandise and content purchased for resale from third-party sellers through physical and online stores. The company also manufactures and sells electronic devices, including Kindle, Fire tablets, Fire TVs, Rings, and Echo and other devices; provides Kindle Direct Publishing, an online service that allows independent authors and publishers to make their books available in the Kindle Store; and develops and produces media content. In addition, it offers programs that enable sellers to sell their products on its Websites, as well as its stores; and programs that allow authors, musicians, filmmakers, skill and app developers, and others to publish and sell content. Further, the company provides compute, storage, database, and other AWS services, as well as fulfillment, advertising, publishing, and digital content subscriptions. Additionally, it offers Amazon Prime, a membership program, which provides free shipping of various items; access to streaming of movies and TV episodes; and other services. It serves consumers, sellers, developers, enterprises, and content creators. The company was founded in 1994 and is headquartered in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -496,6 +516,11 @@
       <c r="F5" t="n">
         <v>21.081549</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Facebook, Inc. develops products that enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality headsets, and in-home devices worldwide. The company's products include Facebook that enables people to connect, share, discover, and communicate with each other on mobile devices and personal computers; Instagram, a community for sharing photos, videos, and private messages; Messenger, a messaging application for people to connect with friends, family, groups, and businesses across platforms and devices; and WhatsApp, a messaging application that is used by people and businesses to communicate in a private way. It also provides Oculus, a hardware, software, and developer ecosystem, which allows people to come together and connect with each other through its Oculus virtual reality products. Facebook, Inc. was founded in 2004 and is headquartered in Menlo Park, California.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -522,6 +547,11 @@
       <c r="F6" t="n">
         <v>24.81002</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alphabet Inc. provides online advertising services in the United States, Europe, the Middle East, Africa, the Asia-Pacific, Canada, and Latin America. It offers performance and brand advertising services. The company operates through Google and Other Bets segments. The Google segment offers products, such as Ads, Android, Chrome, Google Cloud, Google Maps, Google Play, Hardware, Search, and YouTube, as well as technical infrastructure. It also offers digital content, cloud services, hardware devices, and other miscellaneous products and services. The Other Bets segment includes businesses, including Access, Calico, CapitalG, GV, Verily, Waymo, and X, as well as Internet and television services. Alphabet Inc. was founded in 1998 and is headquartered in Mountain View, California.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -548,6 +578,11 @@
       <c r="F7" t="n">
         <v>24.652428</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alphabet Inc. provides online advertising services in the United States, Europe, the Middle East, Africa, the Asia-Pacific, Canada, and Latin America. It offers performance and brand advertising services. The company operates through Google and Other Bets segments. The Google segment offers products, such as Ads, Android, Chrome, Google Cloud, Google Maps, Google Play, Hardware, Search, and YouTube, as well as technical infrastructure. It also offers digital content, cloud services, hardware devices, and other miscellaneous products and services. The Other Bets segment includes businesses, including Access, Calico, CapitalG, GV, Verily, Waymo, and X, as well as Internet and television services. Alphabet Inc. was founded in 1998 and is headquartered in Mountain View, California.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -574,6 +609,11 @@
       <c r="F8" t="n">
         <v>16.295805</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson researches and develops, manufactures, and sells various products in the health care field worldwide. It operates in three segments: Consumer, Pharmaceutical, and Medical Devices. The Consumer segment offers baby care products under the JOHNSON'S brand; oral care products under the LISTERINE brand; beauty products under the AVEENO, CLEAN &amp; CLEAR, DABAO, JOHNSON'S Adult, LE PETITE MARSEILLAIS, NEUTROGENA, and OGX brands; over-the-counter medicines, including acetaminophen products under the TYLENOL brand; cold, flu, and allergy products under the SUDAFED brand; allergy products under the BENADRYL and ZYRTEC brands; ibuprofen products under the MOTRIN IB brand; and acid reflux products under the PEPCID brand. This segment also provides women's health products, such as sanitary pads and tampons under the STAYFREE, CAREFREE, and o.b. brands; wound care products comprising adhesive bandages under the BAND-AID brand; and first aid products under the NEOSPORIN brand. The Pharmaceutical segment offers products in various therapeutic areas, including immunology, infectious diseases, neuroscience, oncology, pulmonary hypertension, and cardiovascular and metabolic diseases. The Medical Devices segment provides orthopedic products; general surgery, biosurgical, endomechanical, and energy products; electrophysiology products to treat cardiovascular diseases; sterilization and disinfection products to reduce surgical infection; diabetes care products; and vision care products, such as disposable contact lenses and ophthalmic products related to cataract and laser refractive surgery. The company markets its products to general public, and retail outlets and distributors, as well as distributes directly to wholesalers, hospitals, and health care professionals for prescription use. It has collaboration agreements with Morphic Therapeutic; and Emergent BioSolutions, Inc. The company was founded in 1886 and is based in New Brunswick, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -595,10 +635,15 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>415269289984</v>
+        <v>415172132864</v>
       </c>
       <c r="F9" t="n">
-        <v>15.399097</v>
+        <v>15.395494</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Berkshire Hathaway Inc., through its subsidiaries, engages in insurance, freight rail transportation, and utility businesses. It provides property, casualty, life, accident, and health insurance and reinsurance; and operates railroad systems in North America. The company also generates, transmits, stores, and distributes electricity from natural gas, coal, wind, solar, hydro, nuclear, and geothermal sources; operates natural gas distribution and storage facilities, interstate pipelines, and compressor and meter stations; and holds interest in coal mining assets. In addition, it offers real estate brokerage services; and leases transportation equipment and furniture. Further, the company manufactures boxed chocolates and other confectionery products; specialty chemicals, metal cutting tools, and components for aerospace and power generation applications; flooring, insulation, roofing and engineered, building and engineered components, paints and coatings, and bricks and masonry products, as well as offers homebuilding and manufactured housing finance; and recreational vehicles, apparel products, jewelry, and custom picture framing products, and alkaline batteries. Additionally, it manufactures castings, forgings, fasteners/fastener systems, and aerostructures; and seamless pipes, fittings, downhole casing and tubing, and various mill forms. The company distributes newspapers, televisions, and information; franchises and services quick service restaurants; distributes electronic components; and offers logistics services, grocery and foodservice distribution services, and professional aviation training and fractional aircraft ownership programs. It also retails automobiles; furniture, bedding, and accessories; household appliances, electronics, and computers; jewelry, watches, crystal, china, stemware, flatware, gifts, and collectibles; kitchenware; and motorcycle accessories. The company was incorporated in 1998 and is headquartered in Omaha, Nebraska.</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -626,6 +671,11 @@
       <c r="F10" t="n">
         <v>30.609137</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Visa Inc. operates as a payments technology company worldwide. The company facilitates commerce through the transfer of value and information among consumers, merchants, financial institutions, businesses, strategic partners, and government entities. It operates VisaNet, a processing network that enables authorization, clearing, and settlement of payment transactions. In addition, the company offers card products, as well as value-added services. It provides its services under the Visa, Visa Electron, Interlink, V PAY, and PLUS brands. Visa Inc. has a strategic partnership with NovoPayment to enable financial institutions and merchants to deploy Visa's digital solutions in Latin America and the Caribbean; and a strategic agreement with Intuit Inc. The company was founded in 1958 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -652,6 +702,11 @@
       <c r="F11" t="n">
         <v>21.88654</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>The Procter &amp; Gamble Company provides branded consumer packaged goods to consumers in North and Latin America, Europe, the Asia Pacific, Greater China, India, the Middle East, and Africa. It operates in five segments: Beauty; Grooming; Health Care; Fabric &amp; Home Care; and Baby, Feminine &amp; Family Care. The Beauty segment offers conditioners, shampoos, styling aids, and treatments; and antiperspirants and deodorants, and personal cleansing and skin care products under the Head &amp; Shoulders, Herbal Essences, Pantene, Rejoice, Olay, Old Spice, Safeguard, SK-II, and Secret brands. The Grooming segment provides female and male blades and razors, pre- and post-shave products, and other shave care products; and appliances that include electric shavers and epilators under the Braun, Gillette, and Venus brands. The Health Care segment offers toothbrushes, toothpaste, and other oral care products; and gastrointestinal, rapid diagnostics, respiratory, vitamins/minerals/supplements, pain relief, and other personal health care products under the Crest, Oral-B, Metamucil, Neurobion, Pepto Bismol, and Vicks brands. The Fabric &amp; Home Care segment provides fabric enhancers, laundry additives, and laundry detergents; and air care, dish care, P&amp;G professional, and surface care products under the Ariel, Downy, Gain, Tide, Cascade, Dawn, Fairy, Febreze, Mr. Clean, and Swiffer brands. The Baby, Feminine &amp; Family Care segment baby wipes, taped diapers, and pants; adult incontinence and feminine care products; and paper towels, tissues, and toilet papers under the Luvs, Pampers Always, Always Discreet, Tampax Bounty, Charmin, and Puffs brands. The company sells its products through mass merchandisers, e-commerce, grocery stores, membership club stores, drug stores, department stores, distributors, wholesalers, baby stores, specialty beauty stores, high-frequency stores, and pharmacies. The Procter &amp; Gamble Company was founded in 1837 and is headquartered in Cincinnati, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -678,6 +733,11 @@
       <c r="F12" t="n">
         <v>10.01373</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase &amp; Co. operates as a financial services company worldwide. It operates in four segments: Consumer &amp; Community Banking (CCB), Corporate &amp; Investment Bank (CIB), Commercial Banking (CB), and Asset &amp; Wealth Management (AWM). The CCB segment offers deposit and investment products and services to consumers; lending, deposit, and cash management and payment solutions to small businesses; mortgage origination and servicing activities; residential mortgages and home equity loans; and credit card, payment processing, auto loan, and leasing services. The CIB segment provides investment banking products and services, including corporate strategy and structure advisory, and equity and debt markets capital-raising services, as well as loan origination and syndication; cash management and liquidity solutions; and cash securities and derivative instruments, risk management solutions, prime brokerage, and research. This segment also offers securities services, including custody, fund accounting and administration, and securities lending products for asset managers, insurance companies, and public and private investment funds. The CB segment provides financial solutions, including lending, treasury, investment banking, and asset management to small business, large and midsized corporations, local governments, and nonprofit clients; and commercial real estate banking services to investors, developers, and owners of multifamily, as well as to office, retail, industrial, and affordable housing properties. The AWM segment offers investment and wealth management services across equities, fixed income, alternatives, and money market fund asset classes; multi-asset investment management services; retirement products and services; and brokerage and banking services. The company also provides ATM, online and mobile, and telephone banking services. The company was founded in 1799 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -704,6 +764,11 @@
       <c r="F13" t="n">
         <v>15.75976</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>UnitedHealth Group Incorporated operates as a diversified health care company in the United States. It operates through four segments: UnitedHealthcare, OptumHealth, OptumInsight, and OptumRx. The UnitedHealthcare segment offers consumer-oriented health benefit plans and services for national employers, public sector employers, mid-sized employers, small businesses, and individuals; health and well-being services to individuals age 50 and older, addressing their needs for preventive and acute health care services, as well as services dealing with chronic disease and other specialized issues for older individuals; Medicaid plans, Children's Health Insurance Program, and health care programs; medical and dental benefits; and health care delivery. The OptumHealth segment provides access to networks of care provider specialists, health management services, care delivery, consumer engagement, and financial services. This segment serves individuals through programs offered by employers, payers, government entities, and directly with the care delivery systems. The OptumInsight segment offers software and information products, advisory consulting arrangements, and services outsourcing contracts to hospital systems, physicians, health plans, governments, life sciences companies, and other organizations. The OptumRx segment provides pharmacy care services and programs, including retail network contracting, home delivery, specialty and compounding pharmacy, and purchasing and clinical, as well as develops programs in areas, such as step therapy, formulary management, drug adherence, and disease/drug therapy management. UnitedHealth Group Incorporated was founded in 1974 and is based in Minnetonka, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -730,6 +795,11 @@
       <c r="F14" t="n">
         <v>12.181444</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Intel Corporation provides computing, networking, data storage, and communication solutions worldwide. It operates through Data Center Group, Internet of Things Group, Non-Volatile Memory Solutions Group, Programmable Solutions Group, Client Computing Group, and All Other segments. The company offers platform products, such as CPU and chipset, system-on-chip, and multichip package products for cloud, enterprise, and communication infrastructure markets. It also provides NAND flash memory and DC persistent products for enterprise and cloud-based data centers, and users of business and consumer desktops and laptops; programmable semiconductors, such as field-programmable gate arrays, application-specific integrated circuits, and related products for communications, data center, industrial, and military markets; and various processors for notebooks, mobiles, and desktop PCs. In addition, it offers boards and systems, such as server boards and small form factor systems; and connectivity products for cellular modems, Ethernet controllers, silicon photonics, Wi-Fi, and Bluetooth. Further, the company develops computer vision and machine learning- based sensing, data analysis, localization, mapping, and driving policy technologies for advanced driver assistance systems and autonomous driving. It serves original equipment manufacturers, original design manufacturers, industrial and communication equipment manufacturers, and cloud service providers. The company was founded in 1968 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -756,6 +826,11 @@
       <c r="F15" t="n">
         <v>21.45288</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>The Home Depot, Inc. operates as a home improvement retailer. It operates The Home Depot stores that sell various building materials, home improvement products, lawn and garden products, and décor products, as well as provide installation, home maintenance, and professional service programs to do-it-yourself and professional customers. The company also offers installation programs that include flooring, cabinets and cabinet makeovers, countertops, furnaces and central air systems, and windows; and professional installation in various categories sold through its stores and in-home sales programs, as well as acts as a general contractor to provide installation services to its do-it-for-me customers through third-party installers. In addition, it provides tool and equipment rental services. The company primarily serves home owners; and professional renovators/remodelers, general contractors, handymen, property managers, building service contractors, and specialty tradesmen, such as electricians, plumbers, and painters. It also sells its products online. As of February 25, 2020, the company operated 2,291 retail stores in the United States, including the Commonwealth of Puerto Rico, and the territories of the U.S. Virgin Islands and Guam; Canada; and Mexico. The Home Depot, Inc. was founded in 1978 and is based in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -782,6 +857,11 @@
       <c r="F16" t="n">
         <v>31.54835</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mastercard Incorporated, a technology company, provides transaction processing and other payment-related products and services in the United States and internationally. It facilitates the processing of payment transactions, including authorization, clearing, and settlement, as well as delivers related products and services. The company offers integrated products and services for account holders, merchants, financial institutions, businesses, governments, and other organizations, such as programs that enable issuers to provide consumers with credits to defer payments; payment products and solutions that allow its customers to access funds in deposit and other accounts; prepaid payment programs and management services; and commercial payment products and solutions. It also provides value-added products and services comprising safety and security products, loyalty and reward programs, information and analytics services, consulting services, and issuer and acquirer processing services. The company offers payment solutions and services under the MasterCard, Maestro, and Cirrus brands. Mastercard Incorporated has strategic partnerships with Network International to develop electronic payments in Africa and the Middle East; and R3 to develop and pilot a new blockchain-enabled cross-border payments solution, as well as a strategic alliance with Finexio. The company was founded in 1966 and is headquartered in Purchase, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -808,6 +888,11 @@
       <c r="F17" t="n">
         <v>11.206122</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Verizon Communications Inc. offers communications, information, and entertainment products and services to consumers, businesses, and governmental entities worldwide. Its Consumer segment provides postpaid and prepaid service plans; Internet access on notebook computers and tablets; wireless equipment, including smartphones and other handsets; and wireless-enabled Internet devices, such as tablets, laptop computers and netbooks, and other wireless-enabled connected devices, such as smart watches and other wearables. It also provides residential fixed connectivity solutions, including Internet, video, and voice services; and sells network access to mobile virtual network operators. As of December 31, 2019, it had approximately 95 million wireless retail connections, 6 million broadband connections, and 4 million Fios video connections. The company's Business segment provides network connectivity products, including private networking, private cloud connectivity, virtual and software defined networking, and Internet access services; and Internet protocol-based voice services, unified communications and collaboration tools, and customer contact center solutions. It also offers a suite of management and data security services; domestic and global voice and data solutions, including voice calling, messaging services, conferencing, contact center solutions, and private line and data access networks; customer premises equipment; installation, maintenance, and site services; and IoT products and services. This segment had 25 million wireless retail postpaid connections and 489 thousand broadband connections. The company has strategic partnership with HERE Technologies and Dignitas; and Emory Healthcare to develop and test 5G Ultra Wideband-enabled use cases. The company was formerly known as Bell Atlantic Corporation and changed its name to Verizon Communications Inc. in June 2000. Verizon Communications Inc. was founded in 1983 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -834,6 +919,11 @@
       <c r="F18" t="n">
         <v>8.531343</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AT&amp;T Inc. provides telecommunication, media, and technology services worldwide. The company operates through four segments: Communications, WarnerMedia, Latin America, and Xandr. The Communications segment provides wireless and wireline telecom, video, and broadband and Internet services; video entertainment services using satellite, IP-based, and streaming options; and audio programming services under the AT&amp;T, Cricket, AT&amp;T PREPAID, and DIRECTV brands to residential and business customers. This segment also sells handsets, wirelessly enabled computers, and wireless data cards manufactured by various suppliers for use with company's voice and data services, as well as various accessories, such as carrying cases and hands-free devices through the company-owned stores, agents, and third-party retail stores. The WarnerMedia segment primarily produces, distributes, and licenses television programming and feature films; distributes home entertainment products in physical and digital formats; and produces and distributes mobile and console games, and consumer products, as well as offers brand licensing services. It also operates cable networks, multichannel premium pay television, and over-the-top services; and digital media properties. The Latin America segment offers video entertainment and audio programming services under the DIRECTV and SKY brands primarily to residential customers; pay-TV services, including HD sports video content; and postpaid and prepaid wireless services under the AT&amp;T and Unefon brands, as well as sells various handsets through company-owned stores, agents, and third-party retail stores. The Xandr segment provides digital and video advertising services. The company was formerly known as SBC Communications Inc. and changed its name to AT&amp;T Inc. in November 2005. AT&amp;T Inc. was incorporated in 1983 and is based in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -860,6 +950,11 @@
       <c r="F19" t="n">
         <v>12.311688</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pfizer Inc. develops, manufactures, and sells healthcare products worldwide. It offers medicines and vaccines in various therapeutic areas, including internal medicine, such as cardiovascular metabolic and pain under the Eliquis, Chantix/Champix, and Premarin family brands; oncology, such as biologics, small molecules, immunotherapies, and biosimilars under the Ibrance, Sutent, Xtandi, Xalkori, Inlyta, Braftovi + Mektovi brands; and sterile injectable and anti-infective medicines under the Sulperazon, Medrol, Vfend, and Zithromax brands. The company also provides medicines and vaccines in various therapeutic areas, such as pneumococcal disease, meningococcal disease, and tick-borne encephalitis under the Prevnar 13/Prevenar 13 (pediatric/adult), FSME-IMMUN, Nimenrix, and Trumenba brands; biosimilars for chronic immune and inflammatory diseases under the Xeljanz, Enbrel, Inflectra, and Eucrisa brands; and amyloidosis, hemophilia, and endocrine diseases under the Vyndaqel/Vyndamax, BeneFIX, Genotropin, and Refacto AF/Xyntha brands. In addition, the company is involved in the contract manufacturing business. It serves wholesalers, retailers, hospitals, clinics, government agencies, pharmacies, and individual provider offices, as well as disease control and prevention centers. The company has collaboration and/or co-promotion agreements with Bristol-Myers Squibb Company and Astellas Pharma US, Inc.; licensing agreement with Akcea Therapeutics, Inc; strategic alliance with Verily Life Sciences LLC; collaboration agreement with Merck KGaA; clinical trial collaboration and supply agreement with IDEAYA Biosciences, Inc.; material transfer and collaboration agreement with BioNTech SE to co-develop COVID-19 vaccine; clinical supply collaboration Jiangsu Alphamab Biopharmaceuticals Co., Ltd; and collaboration with Valneva SE to develop and commercialize Valneva's Lyme disease vaccine candidate VLA15. Pfizer Inc. was founded in 1849 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -886,6 +981,11 @@
       <c r="F20" t="n">
         <v>13.187809</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Merck &amp; Co., Inc. provides healthcare solutions worldwide. It operates through Pharmaceutical and Animal Health segments. The company offers therapeutic and preventive agents to treat cardiovascular, type 2 diabetes, chronic hepatitis C virus, HIV-1 infection, intra-abdominal, fungal infection, insomnia, and inflammatory diseases; neuromuscular blocking agents; cholesterol modifying medicines; and anti-bacterial and vaginal contraceptive products. It provides products to prevent chemotherapy-induced and post-operative nausea and vomiting; treat non-small-cell lung, ovarian and breast, esophageal, thyroid, cervical, and brain cancers; and prevent diseases caused by human papillomavirus, as well as vaccines for measles, mumps, rubella, varicella, shingles, rotavirus gastroenteritis, and pneumococcal diseases. In addition, the company offers drugs for hepatocellular and merkel cell carcinoma; antibiotic and anti-inflammatory drugs to treat infectious and respiratory diseases, fertility disorders, and pneumonia in cattle, bovine, and swine; vaccines for poultry; parasiticides for sea lice in salmon; and antibiotics and vaccines for fish. Further, it provides companion animal products; diabetes mellitus treatment and anthelmintic products for dogs and cats; products to treat fleas, ticks, mosquitoes, and sandflies; horse fertility management products for swine; and dog, cat, and horse vaccines. Additionally, the company offers services and solutions that focus on engagement, clinical, and health analytics. Merck &amp; Co., Inc. has collaborations with AstraZeneca PLC; Bayer AG; Eisai Co., Ltd.; and Almac Discovery Ltd. It serves drug wholesalers and retailers, hospitals, and government agencies; managed health care providers, such as health maintenance organizations, pharmacy benefit managers, and other institutions; and physicians and physician distributors, veterinarians, and animal producers. The company was founded in 1891 and is headquartered in Kenilworth, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -912,6 +1012,11 @@
       <c r="F21" t="n">
         <v>51.44936</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Netflix, Inc. provides subscription streaming entertainment service. It offers TV series, documentaries, and feature films across various genres and languages. The company provides members the ability to receive streaming content through a host of Internet-connected screens, including TVs, digital video players, television set-top boxes, and mobile devices. It also provides DVDs-by-mail membership services. The company has approximately 167 million paid members in 190 countries. Netflix, Inc. was founded in 1997 and is headquartered in Los Gatos, California.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -938,6 +1043,11 @@
       <c r="F22" t="n">
         <v>35.182915</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation operates as a visual computing company worldwide. It operates in two segments, GPU and Tegra Processor. The GPU segment offers processors, which include GeForce for PC gaming and mainstream PCs; GeForce NOW for cloud-based gaming; Quadro for design professionals working in computer-aided design, video editing, special effects, and other creative applications; Tesla for artificial intelligence (AI) utilizing deep learning, accelerated computing, and general purpose computing; GRID, which provides power of NVIDIA graphics through the cloud and datacenters; DGX for AI scientists, researchers, and developers; and EGX for accelerated AI computing at the edge. The Tegra Processor segment provides processors comprising SHIELD devices and services designed to harness the power of mobile-cloud to revolutionize home entertainment, AI, and gaming; AGX, a power-efficient AI computing platform for intelligent edge devices; DRIVE AGX for self-driving vehicles; Clara AGX for medical instruments; and Jetson AGX for robotics and other embedded use. The company's products are used in gaming, professional visualization, datacenter, and automotive markets. NVIDIA Corporation sells its products to original equipment manufacturers, original device manufacturers, system builders, add-in board manufacturers, retailers/distributors, Internet and cloud service providers, automotive manufacturers and tier-1 automotive suppliers, mapping companies, start-ups, and other ecosystem participants. NVIDIA Corporation was founded in 1993 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -964,6 +1074,11 @@
       <c r="F23" t="n">
         <v>23.587975</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>The Walt Disney Company, together with its subsidiaries, operates as an entertainment company worldwide. The company's Media Networks segment operates domestic cable networks under the Disney, ESPN, Freeform, FX, and National Geographic brands; and television broadcast network under the ABC brand, as well as eight owned domestic television stations. This segment is also involved in the television production and distribution; and operation of National Geographic magazines. Its Parks, Experiences and Products segment operates theme parks and resorts, such as Walt Disney World Resort in Florida; Disneyland Resort in California; Disneyland Paris; Hong Kong Disneyland Resort; and Shanghai Disney Resort; Disney Cruise Line, Disney Vacation Club, National Geographic Expeditions, and Adventures by Disney; and Aulani, a Disney resort and spa in Hawaii, as well as licenses its intellectual property to a third party for the operations of the Tokyo Disney Resort in Japan. The company's Studio Entertainment segment produces and distributes motion pictures under the Walt Disney Pictures, Twentieth Century Fox, Marvel, Lucasfilm, Pixar, Fox Searchlight Pictures, and Blue Sky Studios banners; develops, produces, and licenses live entertainment events; produces and distributes music; and provides post-production services, including visual and audio effects. Its Direct-To-Consumer &amp; International segment operates international television networks and channels comprising Disney, ESPN, Fox, National Geographic, Star, and Other India Channels; direct-to-consumer streaming services consisting of Disney +, ESPN+, Hotstar, and Hulu; and operates branded apps and Websites, such as Disney Movie Club and Disney Digital Network, as well as provides streaming technology support services. The company was founded in 1923 and is based in Burbank, California.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -990,6 +1105,11 @@
       <c r="F24" t="n">
         <v>22.594229</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc. operates as a food and beverage company worldwide. The company operates through seven segments: FLNA, QFNA, PBNA, LatAm, Europe, AMESA, and APAC. It offers branded dips, cheese-flavored snacks, and tortillas, as well as corn, potato, and tortilla chips; cereals, rice, pasta, mixes and syrups, granola bars, grits, oat squares, oatmeal, rice cakes, simply granola, and side dishes; beverage concentrates, fountain syrups, and finished goods; ready-to-drink tea, coffee, and juices; and dairy products. The company provides its products primarily under the Cheetos, Doritos, Fritos, Lay's, Ruffles, Tostitos, Aunt Jemima, Cap'n crunch, Life, Pasta Roni, Quaker Chewy, Quaker, Rice-A-Roni, Aquafina, Diet Mountain Dew, Diet Pepsi, Gatorade, Mountain Dew, Pepsi, Propel, Sierra Mist, Tropicana, Emperador, Marias Gamesa, Rosquinhas Mabel, Sabritas, Saladitas, 7UP, Gatorade, H2oh!, Manzanita Sol, Mirinda, Pepsi, Pepsi Black, San Carlos, Toddy, Agusha, Chudo, and Domik v Derevne brands. It serves wholesale and other distributors, foodservice customers, grocery stores, drug stores, convenience stores, discount/dollar stores, mass merchandisers, membership stores, hard discounters, e-commerce retailers and authorized independent bottlers, and others through a network of direct-store-delivery, customer warehouse, and distributor networks, as well as directly to consumers through e-commerce platforms and retailers. The company was founded in 1898 and is headquartered in Purchase, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1016,6 +1136,11 @@
       <c r="F25" t="n">
         <v>13.920634</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cisco Systems, Inc. designs, manufactures, and sells Internet Protocol based networking and other products related to the communications and information technology industry in the Americas, Europe, the Middle East, Africa, the Asia Pacific, Japan, and China. It provides infrastructure platforms, including networking technologies of switching, routing, wireless, and data center products that are designed to work together to deliver networking capabilities, and transport and/or store data. The company also offers collaboration products comprising unified communications, Cisco TelePresence, and conferencing, as well as the Internet of Things and analytics software. In addition, it provides security products, such as network security, cloud and email security, identity and access management, advanced threat protection, and unified threat management products; and cloud and system management products. Further, the company offers a range of service and support options for its customers, including technical support and advanced services. It serves businesses of various sizes, public institutions, governments, and service providers. The company sells its products and services directly, as well as through systems integrators, service providers, other resellers, and distributors. Cisco Systems, Inc. was founded in 1984 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1037,10 +1162,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>178947178496</v>
+        <v>179074105344</v>
       </c>
       <c r="F26" t="n">
-        <v>28.199999</v>
+        <v>28.220001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation explores for and produces crude oil and natural gas in the United States, Canada/other Americas, Europe, Africa, Asia, and Australia/Oceania. It operates through Upstream, Downstream, and Chemical segments. The company is also involved in the manufacture, trade, transport, and sale of crude oil, petroleum products, and other specialty products; and manufactures and markets petrochemicals, including olefins, polyolefins, aromatics, and various other petrochemicals. As of December 31, 2019, it had approximately 23,857 net operated wells with proved reserves of 22.4 billion oil-equivalent barrels. In addition, the company produces raw materials, such as polypropylene and isopropyl alcohol for medical masks, gowns, and hand sanitizer. The company was founded in 1870 and is based in Irving, Texas.</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1068,6 +1198,11 @@
       <c r="F27" t="n">
         <v>22.771217</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Walmart Inc. engages in the retail and wholesale operations in various formats worldwide. The company operates through three segments: Walmart U.S., Walmart International, and Sam's Club. It operates supercenters, supermarkets, hypermarkets, warehouse clubs, cash and carry stores, discount stores, drugstores, and convenience stores; membership-only warehouse clubs; e-commerce Websites, such as walmart.com, jet.com, shoes.com, and samsclub.com; and mobile commerce applications. The company offers grocery products, including meat, produce, natural and organics, deli and bakery, dairy, frozen foods, alcoholic and nonalcoholic beverages, floral and dry grocery, as well as consumables, such as health and beauty aids, baby products, household chemicals, paper goods, and pet supplies; and health and wellness products. It also provides electronics, cameras and supplies, photo processing services, wireless, movies, music, video games, and books; stationery, automotive, hardware and paint, sporting goods, and outdoor living and horticulture; apparel for women, girls, men, boys, and infants, as well as shoes, jewelry, and accessories; and home furnishings, housewares and small appliances, bedding, home decor, toys, fabrics, crafts, and seasonal merchandise, as well as brand name merchandise. In addition, the company offers fuel and financial services and related products, including money orders, prepaid cards, wire and money transfers, check cashing, and bill payment. It operates approximately 11,300 stores and various e-commerce Websites under the 58 banners in 27 countries. The company was formerly known as Wal-Mart Stores, Inc. and changed its name to Walmart Inc. in February 2018. Walmart Inc. was founded in 1945 and is based in Bentonville, Arkansas.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1094,6 +1229,11 @@
       <c r="F28" t="n">
         <v>31.816473</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Adobe Inc. operates as a diversified software company worldwide. Its Digital Media segment provides tools and solutions that enable individuals, small and medium businesses, and enterprises to create, publish, promote, and monetize their digital content. Its flagship product is Creative Cloud, a subscription service that allows customer to download and access the latest versions of its creative products. This segment serves traditional content creators, Web application developers, and digital media professionals, as well as their management in marketing departments and agencies, companies, and publishers. The company's Digital Experience segment offers solutions for how digital advertising and marketing are created, managed, executed, measured, and optimized. This segment provides analytics, social marketing, targeting, media optimization, digital experience management, cross-channel campaign management, marketing automation, audience management, and video delivery and monetization solutions to digital marketers, advertisers, publishers, merchandisers, Web analysts, chief marketing officers, chief information officers, and chief revenue officers. Its Publishing segment offers products and services, such as e-learning solutions, technical document publishing, Web application development, and high-end printing, as well as publishing needs of technical and business, and original equipment manufacturers (OEMs) printing businesses. The company offers its products and services directly to enterprise customers through its sales force, as well as to end-users through app stores and through its Website at adobe.com. It also distributes products and services through a network of distributors, value-added resellers, systems integrators, software vendors and developers, retailers, and OEMs. The company was formerly known as Adobe Systems Incorporated and changed its name to Adobe Inc. in October 2018. The company was founded in 1982 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1120,6 +1260,11 @@
       <c r="F29" t="n">
         <v>20.710901</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>The Coca-Cola Company, a beverage company, manufactures, markets, and sells various nonalcoholic beverages worldwide. The company provides sparkling soft drinks; water, enhanced water, and sports drinks; juice, dairy, and plantbased beverages; tea and coffee; and energy drinks. It also offers beverage concentrates and syrups, as well as fountain syrups to fountain retailers, such as restaurants and convenience stores. The company sells its products under the Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite, Thums Up, Aquarius, Ciel, Dasani, glacéau smartwater, glacéau vitaminwater, Ice Dew, I LOHAS, Powerade, Topo Chico, AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy, Simply, ZICO, Ayataka, Costa, dogadan, FUZE TEA, Georgia, Gold Peak, HONEST TEA, and Kochakaden brands. It operates through a network of company-owned or controlled bottling and distribution operators, as well as through independent bottling partners, distributors, wholesalers, and retailers. The company was founded in 1886 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1146,6 +1291,11 @@
       <c r="F30" t="n">
         <v>9.691964</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Bank of America Corporation, through its subsidiaries, provides banking and financial products and services for individual consumers, small- and middle-market businesses, institutional investors, large corporations, and governments worldwide. It operates in Consumer Banking, Global Wealth &amp; Investment Management (GWIM), Global Banking, and Global Markets segments. The Consumer Banking segment offers traditional and money market savings accounts, CDs and IRAs, noninterest- and interest-bearing checking accounts, and investment accounts and products; and credit and debit cards, residential mortgages, and home equity loans, as well as direct and indirect loans, such as automotive, recreational vehicle, and consumer personal loans. The GWIM segment offers investment management, brokerage, banking, and trust and retirement products; and wealth management solutions, as well as customized solutions, including specialty asset management services. The Global Banking segment provides lending products and services, including commercial loans, leases, commitment facilities, trade finance, and real estate and asset-based lending; treasury solutions, such as treasury management, foreign exchange, and short-term investing options; working capital management solutions; and debt and equity underwriting and distribution, and merger-related and other advisory services. The Global Markets segment offers market-making, financing, securities clearing, settlement, and custody services, as well as risk management, fixed-income, and mortgage-related products. As of March 10, 2019, it served 66 million consumer and small business clients with approximately 4,300 retail financial centers; 16,800 ATMs; and digital banking platforms with approximately 38 million active users. Bank of America Corporation is based in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1172,6 +1322,11 @@
       <c r="F31" t="n">
         <v>36.19298</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PayPal Holdings, Inc. operates as a technology platform and digital payments company that enables digital and mobile payments on behalf of consumers and merchants worldwide. Its payment solutions include PayPal, PayPal Credit, Braintree, Venmo, Xoom, and iZettle products. The company's payments platform allows consumers to send and receive payments, withdraw funds to their bank accounts, and hold balances in their PayPal accounts in various currencies. It also offers gateway services that enable merchants to accept payments online with credit or debit cards, as well as digital wallets. PayPal Holdings, Inc. was founded in 1998 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1198,6 +1353,11 @@
       <c r="F32" t="n">
         <v>47.394737</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Chevron Corporation, through its subsidiaries, engages in integrated energy, chemicals, and petroleum operations worldwide. The company operates in two segments, Upstream and Downstream. The Upstream segment is involved in the exploration, development, and production of crude oil and natural gas; processing, liquefaction, transportation, and regasification associated with liquefied natural gas; transportation of crude oil through pipelines; and transportation, storage, and marketing of natural gas, as well as operates a gas-to-liquids plant. The Downstream segment engages in refining crude oil into petroleum products; marketing crude oil and refined products; transporting crude oil and refined products through pipeline, marine vessel, motor equipment, and rail car; and manufacturing and marketing commodity petrochemicals, and fuel and lubricant additives, as well as plastics for industrial uses. Chevron Corporation is also involved in the cash management and debt financing activities; insurance operations; real estate activities; and technology businesses. The company was formerly known as ChevronTexaco Corporation and changed its name to Chevron Corporation in 2005. Chevron Corporation was founded in 1879 and is headquartered in San Ramon, California.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1224,6 +1384,11 @@
       <c r="F33" t="n">
         <v>25.008173</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Abbott Laboratories discovers, develops, manufactures, and sells health care products worldwide. Its Established Pharmaceutical Products segment offers branded generic pharmaceuticals for the treatment of pancreatic exocrine insufficiency; irritable bowel syndrome or biliary spasm; intrahepatic cholestasis or depressive symptom; gynecological disorder; hormone replacement therapy; dyslipidemia; hypertension; hypothyroidism; Ménière's disease and vestibular vertigo; pain, fever, and inflammation; migraine; and anti-infective clarithromycin, as well as provides influenza vaccines and products that regulate physiological rhythm of the colon. The company's Diagnostic Products segment offers core laboratory systems in the areas of immunoassay, clinical chemistry, hematology, and transfusion; molecular diagnostics systems that automates the extraction, purification, and preparation of DNA and RNA from patient samples, as well as detects and measures infectious agents; cartridges for blood analysis; rapid diagnostics systems for infectious diseases; molecular point-of-care testing for HIV, influenza A and B, RSV, and strep A; cardiometabolic test systems; drug and alcohol test systems, as well as remote patient monitoring and consumer self-test systems; and informatics and automation solutions for use in laboratories. Its Nutritional Products segment provides pediatric and adult nutritional products. The company's Medical Devices segment offers rhythm management, electrophysiology, heart failure, vascular, and structural heart devices for the treatment of cardiovascular diseases, as well as neuromodulation devices for the management of chronic pain and movement disorders. This segment also provides glucose and blood glucose monitoring systems, including test strips, sensors, data management decision software, and accessories for people with diabetes. The company was founded in 1888 and is headquartered in Abbott Park, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1250,6 +1415,11 @@
       <c r="F34" t="n">
         <v>12.204778</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Comcast Corporation operates as a media and technology company worldwide. It operates through Cable Communications, Cable Networks, Broadcast Television, Filmed Entertainment, Theme Parks, and Sky segments. The Cable Communications segment offers cable services, including high-speed Internet, video, voice, and security and automation services to residential and business customers under the Xfinity name; and advertising services. The Cable Networks segment operates national cable networks that provide various entertainment, news and information, and sports content; regional sports and news networks; international cable networks; and various digital properties, including brand-aligned Websites, as well as engages in the cable television studio production operations. The Broadcast Television segment operates NBC and Telemundo broadcast networks, NBC and Telemundo local broadcast television stations, broadcast television studio production operations, and various digital properties. The Filmed Entertainment segment produces, acquires, markets, and distributes filmed entertainment under the Universal Pictures, Illumination, DreamWorks Animation, and Focus Features names. It also develops, produces, and licenses stage plays; and distributes filmed entertainment produced by third parties. The Theme Parks segment operates Universal theme parks in Orlando, Florida; Hollywood, California; and Osaka, Japan. The Sky segment offers direct-to-consumer services, such as video, high-speed Internet, voice, and wireless phone services; and content services comprising operating entertainment networks, the Sky News broadcast network, and Sky Sports networks. The company also provides a wireless phone service under the Xfinity Mobile name; and owns the Philadelphia Flyers, as well as the Wells Fargo Center arena in Philadelphia, Pennsylvania. Comcast Corporation was founded in 1963 and is headquartered in Philadelphia, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1276,6 +1446,11 @@
       <c r="F35" t="n">
         <v>8.723568999999999</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>AbbVie Inc., a research-based biopharmaceutical company, develops and markets pharmaceutical products in the United States, Japan, Germany, Canada, France, Spain, Italy, the Netherlands, the United Kingdom, Brazil, and internationally. The company offers HUMIRA, a biologic therapy administered as an injection for autoimmune and intestinal diseases; SKYRIZI to treat moderate to severe plaque psoriasis in adults; RINVOQ, a JAK inhibitor for the treatment of moderate to severe active rheumatoid arthritis in adult patients; IMBRUVICA to treat adult patients with chronic lymphocytic leukemia (CLL), small lymphocytic lymphoma (SLL), mantle cell lymphoma, waldenström's macroglobulinemia, marginal zone lymphoma, and chronic graft versus host disease; VENCLEXTA, a BCL-2 inhibitor used to treat adults with CLL or SLL; VIEKIRA PAK, an interferon-free therapy to treat adults with genotype 1 chronic hepatitis C virus (HCV); TECHNIVIE to treat adults with genotype 4 HCV infection; and MAVYRET to treat patients with chronic HCV genotype 1-6 infection. It also provides SYNAGIS that protects at-risk infants from severe respiratory disease; KALETRA, a prescription anti-HIV-1 medicine; CREON, a pancreatic enzyme therapy for exocrine pancreatic insufficiency; Synthroid used in the treatment of hypothyroidism; AndroGel for males diagnosed with symptomatic low testosterone; and Lupron, a product for the palliative treatment of advanced prostate cancer, treatment of endometriosis and central precocious puberty, and for the treatment of patients with anemia caused by uterine fibroids. In addition, the company offers ORILISSA, a nonpeptide small molecule gonadotropin-releasing hormone antagonist; Duopa and Duodopa, a levodopa-carbidopa intestinal gel to treat Parkinson's disease; and Sevoflurane, an anesthesia product. It has collaborations with Calico Life Sciences LLC; Alector, Inc.; and Janssen Biotech, Inc. The company was incorporated in 2012 and is based in North Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1296,12 +1471,13 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>150113796096</v>
+      </c>
+      <c r="F36" t="n">
+        <v>43.041237</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1332,6 +1508,11 @@
       <c r="F37" t="n">
         <v>8.640922</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bristol-Myers Squibb Company discovers, develops, licenses, manufactures, markets, distributes, and sells biopharmaceutical products worldwide. It offers products in the following therapeutic classes: hematology, oncology, cardiovascular, and immunology. The company's products include Opdivo, a biological product for anti-cancer indications; Eliquis, an oral inhibitor targeted at stroke prevention in adult patients with non-valvular atrial fibrillation, and the prevention and treatment of venous thromboembolic disorders; and Orencia, a biological product for adult patients with active RA and prostate-specific antigen, as well as reducing signs and symptoms in pediatric patients with active polyarticular juvenile idiopathic arthritis. It also provides Sprycel, a tyrosine kinase inhibitor for the treatment of Philadelphia chromosome-positive chronic myeloid leukemia; Yervoy, a monoclonal antibody for the treatment of patients with unresectable or metastatic melanoma; Empliciti, a humanized monoclonal antibody for the treatment of multiple myeloma; and Baraclude, an oral antiviral agent for the treatment of chronic hepatitis B. In addition, it offers Reyataz, a protease inhibitor for the treatment of human immunodeficiency virus (HIV); Sustiva franchise, a non-nucleoside reverse transcriptase inhibitor for the treatment of HIV; and Daklinza NS5A replication complex inhibitor, Sunvepra NS3 protease inhibitor, and Beclabuvir NS5B inhibitor. It sells products to wholesalers, retail pharmacies, hospitals, government entities, and medical profession. The company has collaboration agreements with Pfizer, Otsuka, Ono, and Nektar; clinical collaboration agreement with NeoImmuneTech, Inc.; and partnership with Astrazeneca Plc. The company was formerly known as Bristol-Myers Company and changed its name to Bristol-Myers Squibb Company in 1989. Bristol-Myers Squibb Company was founded in 1887 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1358,6 +1539,11 @@
       <c r="F38" t="n">
         <v>13.998823</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Amgen Inc. discovers, develops, manufactures, and delivers human therapeutics worldwide. It focuses on inflammation, oncology/hematology, bone health, cardiovascular disease, nephrology and neuroscience areas. The company's products include Enbrel to treat plaque psoriasis, rheumatoid arthritis, and psoriatic arthritis; Neulasta, a pegylated protein to treat cancer patients; Prolia to treat postmenopausal women with osteoporosis; Xgeva for skeletal-related events prevention; Aranesp to treat a lower-than-normal number of red blood cells and anemia; KYPROLIS to treat patients with relapsed or refractory multiple myeloma; Sensipar/Mimpara to treat secondary hyperparathyroidism; and EPOGEN to treat anemia caused by chronic kidney disease. It also markets other products in various markets, including Nplate, Vectibix, Repatha, Parsabiv, BLINCYTO, Aimovig, NEUPOGEN, Otezla, AMGEVITA, KANJINTI, EVENITY, IMLYGIC, MVASI, and Corlanor. Amgen Inc. serves healthcare providers, including physicians or their clinics, dialysis centers, hospitals, and pharmacies. It distributes its products through pharmaceutical wholesale distributors, as well as direct-to-consumer channels. The company has collaboration agreements with Novartis; UCB; Bayer HealthCare LLC; BeiGene, Ltd.; QIAGEN N.V.; and Adaptive Biotechnologies. Amgen Inc. was founded in 1980 and is headquartered in Thousand Oaks, California.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1384,6 +1570,11 @@
       <c r="F39" t="n">
         <v>23.57023</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific Inc. provides analytical and other instruments, laboratory equipment, software, consumables, reagents, instrument systems, chemicals, supplies, and services worldwide. The company's Life Sciences Solutions segment offers reagents, instruments, and consumables for biological and medical research, discovery and production of new drugs and vaccines, and diagnosis of diseases to pharmaceutical, biotechnology, agricultural, clinical, academic, and government markets. Its Analytical Instruments segment provides instruments, consumables, software, and services for use in laboratory, on production line, and in field for pharmaceutical, biotechnology, academic, government, environmental, and research and industrial markets, as well as clinical laboratories. The company's Specialty Diagnostics segment offers liquid, ready-to-use, and lyophilized immunodiagnostic reagent kits, as well as calibrators, controls, and calibration verification fluids; blood-test systems and antibody tests; dehydrated and prepared culture media, collection and transport systems, instrumentation, and consumables; cancer diagnosis and medical research products; human leukocyte antigen typing and testing for organ transplant market; and healthcare products. Its Laboratory Products and Services segment provides laboratory refrigerators and freezers, and ultralow-temperature freezers and cryopreservation storage tanks; temperature control, sample preparation and preservation, centrifugation, and biological safety cabinet products; water analysis instruments; laboratory plastics and chemicals; and pharma services. The company was incorporated in 1956 and is headquartered in Waltham, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1410,6 +1601,11 @@
       <c r="F40" t="n">
         <v>31.989326</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Costco Wholesale Corporation, together with its subsidiaries, operates membership warehouses in the United States, Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Korea, Australia, Spain, France, Iceland, China, and Taiwan. It offers branded and private-label products in a range of merchandise categories. The company provides dry and packaged foods, and groceries; snack foods, candies, alcoholic and nonalcoholic beverages, and cleaning supplies; appliances, electronics, health and beauty aids, hardware, and garden and patio products; meat, bakery, and deli products, as well as produce; and apparel and small appliances. It also operates gas stations, pharmacies, optical dispensing centers, food courts, and hearing-aid centers; and offers business delivery, travel, and various other services online in various countries. As of September 1, 2019, the company operated 782 warehouses, including 543 in the United States and Puerto Rico, 100 in Canada, 39 in Mexico, 29 in the United Kingdom, 26 in Japan, 16 in South Korea, 13 in Taiwan, 11 in Australia, 2 in Spain, 1 in Iceland, 1 in France, and 1 in China. It also operates e-commerce Websites in the United States, Canada, the United Kingdom, Mexico, South Korea, and Taiwan. The company was formerly known as Costco Companies, Inc. and changed its name to Costco Wholesale Corporation in August 1999. Costco Wholesale Corporation was founded in 1976 and is based in Issaquah, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1436,6 +1632,11 @@
       <c r="F41" t="n">
         <v>20.098986</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Eli Lilly and Company discovers, develops, manufactures, and markets pharmaceutical products worldwide. It offers endocrinology products for diabetes; osteoporosis in postmenopausal women and men; and human growth hormone deficiency and paediatric growth conditions. The company also provides neuroscience products for treating depressive disorder, diabetic peripheral neuropathic pain, anxiety disorder, fibromyalgia, and chronic musculoskeletal pain; migraine and episodic cluster headache; attention-deficit hyperactivity disorder; and schizophrenia. In addition, it offers immunology products for the treatment of rheumatoid arthritis, plaque psoriasis, psoriatic arthritis, and ankylosing spondylitis; oncology products to treat non-small cell lung, colorectal, head and neck, pancreatic, metastatic breast, ovarian, bladder, and metastatic gastric cancers, as well as malignant pleural mesothelioma; and products to treat erectile dysfunction and benign prostatic hyperplasia. Eli Lilly and Company primarily has collaborations with Incyte Corporation; Pfizer Inc.; Dicerna Pharmaceuticals, Inc.; AC Immune SA; Centrexion Therapeutics Corporation; ImmuNext, Inc.; Avidity Biosciences, Inc.; and AbCellera Biologics Inc., as well as an agreement with Junshi Biosciences to co-develop therapeutic antibodies for the potential prevention and treatment of COVID-19, the disease caused by the SARS-CoV-2 novel coronavirus. The company was founded in 1876 and is headquartered in Indianapolis, Indiana.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1462,6 +1663,11 @@
       <c r="F42" t="n">
         <v>22.147728</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>McDonald's Corporation operates and franchises McDonald's restaurants in the United States and internationally. Its restaurants offer various food products and beverages, as well as breakfast menu. As of December 31, 2019, the company operated 38,695 restaurants. McDonald's Corporation was founded in 1940 and is based in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1488,6 +1694,11 @@
       <c r="F43" t="n">
         <v>18.252918</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Medtronic plc develops, manufactures, distributes, and sells device-based medical therapies to hospitals, physicians, clinicians, and patients worldwide. It operates in four segments: Cardiac and Vascular Group, Minimally Invasive Therapies Group, Restorative Therapies Group, and Diabetes Group. The Cardiac and Vascular Group segment offers implantable cardiac pacemakers, cardioverter defibrillators, and cardiac resynchronization therapy devices; AF ablation products; insertable cardiac monitor systems; mechanical circulatory support; TYRX products; and remote monitoring and patient-centered software. It also provides aortic valves; percutaneous coronary intervention stents, surgical valve replacement and repair products, endovascular stent grafts, percutaneous angioplasty balloons, and products to treat superficial venous diseases in the lower extremities. The Minimally Invasive Therapies Group segment offers surgical products, including surgical stapling devices, vessel sealing instruments, wound closure, electrosurgery products, hernia mechanical devices, mesh implants, and gynecology products; hardware instruments and mesh fixation device; and gastrointestinal, inhalation therapy, and renal care solutions. The Restorative Therapies Group segment offers products for spinal surgeons, neurosurgeons, neurologists, pain management specialists, anesthesiologists, orthopedic surgeons, urologists, colorectal surgeons, urogynecologists, interventional radiologists, and ear, nose, and throat specialists; and systems that incorporate energy surgical instruments. It also provides image-guided surgery and intra-operative imaging systems and robotic guidance systems used in robot assisted spine procedures; and therapies for vasculature in and around the brain. The Diabetes Group segment offers insulin pumps and consumables, continuous glucose monitoring systems, and therapy management software. The company was founded in 1949 and is headquartered in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1514,6 +1725,11 @@
       <c r="F44" t="n">
         <v>22.248455</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Accenture plc provides consulting, technology, and outsourcing services worldwide. Its Communications, Media &amp; Technology segment provides professional services for clients to accelerate and deliver digital transformation, develop industry-specific solutions, and enhance efficiencies and business results for communications, media, high tech, software, and platform companies. The company's Financial Services segment offers services for profitability pressures, industry consolidation, regulatory changes, and the need to continually adapt to new digital technologies for banking, capital market, and insurance industries. Its Health &amp; Public Service segment provides consulting services and digital solutions to help clients deliver social, economic, and health outcomes for healthcare payers and providers, government departments and agencies, public service organizations, educational institutions, and non-profit organizations. The company's Products segment helps clients enhance their performance in distribution, sales, and marketing; in research and development, and manufacturing; and in business functions, such as finance, human resources, procurement, and supply chain. This segment serves clients in consumer goods, retail, and travel services industries; automotive, freight and logistics, industrial and electrical equipment, consumer durable and heavy equipment, and construction and infrastructure management companies; and pharmaceutical, medical technology, and biotechnology companies. Its Resources segment enables clients in chemicals, energy, forest products, metals and mining, and utilities and related industries to develop and implement strategies, improve operations, manage complex change initiatives, and integrate digital technologies. Accenture plc has alliance relationships with Amazon Web Services, Google, Microsoft, Oracle, Pegasystems, Salesforce, SAP, Workday, TradeIX, and others. Accenture plc was founded in 1989 and is based in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1540,6 +1756,11 @@
       <c r="F45" t="n">
         <v>23.552738</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NextEra Energy, Inc., through its subsidiaries, generates, transmits, distributes, and sells electric power to retail and wholesale customers in North America. The company generates electricity through wind, solar, nuclear, and fossil fuel, such as coal and natural gas facilities. It also develops, constructs, and operates long-term contracted assets with a focus on renewable generation facilities, natural gas pipelines, and battery storage projects; and owns, develops, constructs, manages and operates electric generation facilities in wholesale energy markets. As of December 31, 2019, the company operated approximately 27,400 megawatts of net generating capacity. It serves approximately 10 million people through approximately 5 million customer accounts in the east and lower west coasts of Florida with approximately 75,400 circuit miles of transmission and distribution lines and 661 substations. The company was formerly known as FPL Group, Inc. and changed its name to NextEra Energy, Inc. in 2010. NextEra Energy, Inc. was founded in 1925 and is headquartered in Juno Beach, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1566,6 +1787,11 @@
       <c r="F46" t="n">
         <v>12.749397</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Oracle Corporation provides products and services that address enterprise information technology environments worldwide. The company's cloud and license business engages in the sale, marketing, and delivery of its applications and infrastructure technologies through cloud and on-premise deployment models, including cloud services and license support; and cloud license and on-premise license. Its Software as a Service offerings include a suite of cloud software applications that cover various business functions, including enterprise resource planning, human capital management, customer experience, supply chain management, and others, as well as cloud-based industry solutions. The company also provides cloud Infrastructure as a Service; enterprise database; database products, including MySQL, Oracle TimesTen In-Memory Database, Oracle Berkeley DB, and Oracle NoSQL Database; middleware software; Java; server and storage products; hardware products and services comprising point-of-sale terminals and related hardware for managing businesses within the food and beverage, hotel and retail industries; and hardware products and services for communications networks, including network signaling, policy control and subscriber data management solutions, and session border control technology, among others. In addition, it offers operating systems, including Oracle Linux and Oracle Solaris, virtualization software, and other hardware-related software; management technologies and products, such as Oracle Enterprise Manager; and product repairs, maintenance services, and technical support services. It serves businesses of various sizes, government agencies, educational institutions, and resellers. The company was founded in 1977 and is headquartered in Redwood Shores, California.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1592,6 +1818,11 @@
       <c r="F47" t="n">
         <v>31.587593</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NIKE, Inc., together with its subsidiaries, designs, develops, markets, and sells athletic footwear, apparel, equipment, and accessories worldwide. The company offers NIKE brand products in six categories, including running, NIKE basketball, the Jordan brand, football, training, and sportswear. It also markets products designed for kids, as well as for other athletic and recreational uses, such as American football, baseball, cricket, golf, lacrosse, skateboarding, tennis, volleyball, walking, wrestling, and other outdoor activities; and apparel with licensed college and professional team and league logos, as well as sells sports apparel. In addition, the company sells a line of performance equipment and accessories comprising bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment, and other equipment for sports activities; and various plastic products to other manufacturers. Further, it provides athletic and casual footwear, apparel, and accessories under the Jumpman trademark; casual sneakers, apparel, and accessories under the Converse, Chuck Taylor, All Star, One Star, Star Chevron, and Jack Purcell trademarks; and action sports and youth lifestyle apparel and accessories under the Hurley trademark. Additionally, the company licenses agreements that permit unaffiliated parties to manufacture and sell apparel, digital devices, and applications and other equipment for sports activities under NIKE-owned trademarks. It sells its products to footwear stores; sporting goods stores; athletic specialty stores; department stores; skate, tennis, and golf shops; and other retail accounts through NIKE-owned retail stores, digital platforms, independent distributors, licensees, and sales representatives. The company was formerly known as Blue Ribbon Sports, Inc. and changed its name to NIKE, Inc. in 1971. NIKE, Inc. was founded in 1964 and is headquartered in Beaverton, Oregon.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1618,6 +1849,11 @@
       <c r="F48" t="n">
         <v>12.631969</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Philip Morris International Inc., through its subsidiaries, manufactures and sells cigarettes, other nicotine-containing products, smoke-free products, and related electronic devices and accessories. The company offers IQOS smoke-free products, including heated tobacco and nicotine-containing vapor products under the HEETS, HEETS Marlboro, and HEETS FROM MARLBORO brands, as well as the Marlboro HeatSticks and Parliament HeatSticks brands. It also sells its products under the Marlboro, Parliament, Bond Street, Chesterfield, L&amp;M, Lark, and Philip Morris brands. In addition, the company owns various cigarette brands, such as Dji Sam Soe, Sampoerna A, and Sampoerna U in Indonesia; and Fortune and Jackpot in the Philippines. It markets and sells its products in the European Union, Eastern Europe, the Middle East, Africa, South and Southeast Asia, East Asia, Australia, Latin America, and Canada. Philip Morris International Inc. was incorporated in 1987 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1644,6 +1880,11 @@
       <c r="F49" t="n">
         <v>16.90022</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Union Pacific Corporation, through its subsidiary, Union Pacific Railroad Company, engages in the railroad business in the United States. It offers transportation services for agricultural products, including grains, commodities produced from grains, fertilizers, and food and beverage products to grain processors, animal feeders, ethanol producers, and other agricultural users; coal and sand, as well as petroleum, liquid petroleum gases, and renewables; and construction products, industrial chemicals, plastics, forest products, specialized products, metals and ores, and soda ash, as well as intermodal and finished vehicles. As of December 31, 2019, its rail network included 32,340 route miles linking Pacific Coast and Gulf Coast ports with the Midwest and Eastern United States gateways. Union Pacific Corporation was founded in 1862 and is headquartered in Omaha, Nebraska.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1670,6 +1911,11 @@
       <c r="F50" t="n">
         <v>11.229992</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Broadcom Inc. designs, develops, and supplies a range of semiconductor devices with a focus on complex digital and mixed signal complementary metal oxide semiconductor based devices and analog III-V based products worldwide. The company operates through three segments: Semiconductor Solutions, Infrastructure Software, and Intellectual Property licensing. It provides set-top box system-on-chips (SoCs); cable, digital subscriber line, and passive optical networking central office/consumer premise equipment SoCs; Wireless local area network access point SoCs; Ethernet switching and routing application specific standard products; embedded processors and controllers; serializer/deserializer application specific integrated circuits; optical and copper, and physical layers; and fiber optic laser and receiver components. The company also offers RF front end modules, filters, and power amplifiers; Wi-Fi, Bluetooth, and global positioning system/global navigation satellite system SoCs; custom touch controllers; serial attached small computer system interface, and redundant array of independent disks controllers and adapters; peripheral component interconnect express switches; fiber channel host bus adapters; read channel based SoCs; custom flash controllers; preamplifiers; and optocouplers, industrial fiber optics, motion control encoders and subsystems, and light emitting diodes. In addition, it provides mainframe and enterprise software solution and cybersecurity solutions. Its products are used in various applications, including enterprise and data center networking, home connectivity, set-top boxes, broadband access, telecommunication equipment, smartphones and base stations, data center servers and storage systems, factory automation, power generation and alternative energy systems, and electronic displays. Broadcom Inc. was incorporated in 2018 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1696,6 +1942,11 @@
       <c r="F51" t="n">
         <v>9.393573999999999</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>International Business Machines Corporation operates as an integrated solutions and services company worldwide. Its Cloud &amp; Cognitive Software segment offers software for vertical and domain-specific solutions in health, financial services, and Internet of Things (IoT), weather, and security software and services application areas; and customer information control system and storage, and analytics and integration software solutions to support client mission critical on-premise workloads in banking, airline, and retail industries. It also offers middleware and data platform software, including Red Hat, which enables the operation of clients' hybrid multi-cloud environments; and Cloud Paks, WebSphere distributed, and analytics platform software, such as DB2 distributed, information integration, and enterprise content management, as well as IoT, Blockchain and AI/Watson platforms. The company's Global Business Services segment offers business consulting services; system integration, application management, maintenance, and support services for packaged software; finance, procurement, talent and engagement, and industry-specific business process outsourcing services; and IT infrastructure and platform services. Its Global Technology Services segment provides project, managed, outsourcing, and cloud-delivered services for enterprise IT infrastructure environments; and IT infrastructure support services. The company's Systems segment offers servers for businesses, cloud service providers, and scientific computing organizations; data storage products and solutions; and z/OS, an enterprise operating system, as well as Linux. Its Global Financing segment provides lease, installment payment, loan financing, short-term working capital financing, and remanufacturing and remarketing services. The company was formerly known as Computing-Tabulating-Recording Co. and changed its name to International Business Machines Corporation in 1924. The company was founded in 1911 and is headquartered in Armonk, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1722,6 +1973,11 @@
       <c r="F52" t="n">
         <v>47.053276</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>American Tower, one of the largest global REITs, is a leading independent owner, operator and developer of multitenant communications real estate with a portfolio of approximately 180,000 communications sites.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1748,6 +2004,11 @@
       <c r="F53" t="n">
         <v>22.752577</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Texas Instruments Incorporated designs, manufactures, and sells semiconductors to electronics designers and manufacturers worldwide. It operates in two segments, Analog and Embedded Processing. The Analog segment offers power products to manage power requirements in various levels using battery management solutions, portable components, power supply controls, point-of-load products, switches and interfaces, integrated protection devices, high-voltage products, and mobile lighting and display products. This segment also provides signal chain products that sense, condition, and measure signals to allow information to be transferred or converted for further processing and control for use in end markets, including amplifiers, data converters, interface products, motor drives, clocks, and sensing products.; and high volume products comprising integrated analog and standard products, which are primarily for sale into personal electronics, industrial, and automotive markets. The Embedded Processing segment offers connected microcontrollers, such as microcontrollers, microcontrollers with integrated wireless capabilities, and stand-alone wireless connectivity solutions that are used in electronic equipment; digital signal processors for mathematical computations; and applications processors for specific computing activity. This segment offers products for use in various markets, such as industrial, automotive, Personal electronics, communications equipment, enterprise systems, and calculators and other. The company also provides DLP products primarily for use in projectors to create high-definition images; calculators; and application-specific integrated circuits. Texas Instruments Incorporated markets and sells its semiconductor products through direct sales and distributors, as well as through its website. The company was founded in 1930 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1769,10 +2030,15 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>114296864768</v>
+        <v>114339282944</v>
       </c>
       <c r="F54" t="n">
-        <v>27.776632</v>
+        <v>27.786942</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Danaher Corporation designs, manufactures, and markets professional, medical, industrial, and commercial products and services worldwide. The company operates through three segments; Life Sciences, Diagnostics, and Environmental &amp; Applied Solutions. The Life Sciences segment provides mass spectrometers; cellular analysis, lab automation, and centrifugation instruments; microscopes; and genomics consumables. This segment also offers filtration, separation, and purification technologies to the biopharmaceutical, food and beverage, medical, aerospace, microelectronics, and general industrial sectors. The Diagnostics segment provides chemistry, immunoassay, microbiology, and automation systems, as well as hematology and molecular diagnostics products. This segment offers analytical instruments, reagents, consumables, software, and services for hospitals, physicians' offices, reference laboratories, and other critical care settings. The Environmental &amp; Applied Solutions segment offers instrumentation, consumables, software, services, and disinfection systems to analyze, treat, and manage ultra-pure, potable, industrial, waste, ground, source, and ocean water in residential, commercial, industrial, and natural resource applications. This segment also provides equipment, software, services, and consumables for various color and appearance management, packaging design and quality management, packaging converting, printing, marking, coding, and traceability applications for consumer, pharmaceutical, and industrial products. The company was formerly known as Diversified Mortgage Investors, Inc. and changed its name to Danaher Corporation in 1984. Danaher Corporation was founded in 1969 and is headquartered in Washington, the District of Columbia.</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1800,6 +2066,11 @@
       <c r="F55" t="n">
         <v>12.067188</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Gilead Sciences, Inc., a research-based biopharmaceutical company, discovers, develops, and commercializes medicines in the areas of unmet medical needs in the United States, Europe, and internationally. The company's products include Biktarvy, Descovy, Odefsey, Genvoya, Stribild, Complera/Eviplera, Atripla, and Truvada for the treatment of human immunodeficiency virus (HIV) infection; and Vosevi, Vemlidy, Epclusa, Harvoni, and Viread products for treating liver diseases. It also provides Yescarta, a chimeric antigen receptor T cell therapy for adult patients with relapsed or refractory large B-cell lymphoma; Zydelig, a kinase inhibitor; Letairis, an oral formulation of an endothelin receptor antagonist for pulmonary arterial hypertension; Ranexa, a tablet to treat chronic angina; and AmBisome, an antifungal agent to treat serious invasive fungal infections. In addition, the company offers its products under the name Cayston, Emtriva, Hepsera, Sovaldi, and Tybost. Further, it develops product candidates for the treatment of viral diseases, inflammatory and fibrotic diseases, and oncology. The company markets its products through its commercial teams; and in conjunction with third-party distributors and corporate partners. Gilead Sciences, Inc. has collaboration agreements with Bristol-Myers Squibb Company; Janssen Sciences Ireland UC; Japan Tobacco Inc.; Galapagos NV; Second Genome; Gadeta; Carna Biosciences Inc.; Nurix Therapeutics, Inc.; Humanigen, Inc.; Kiniksa Pharmaceuticals, Ltd.; Kyverna Therapeutics, Inc.; Glympse Bio, Inc.; Renown Institute for Health Innovation; Goldfinch Bio, Inc.; Insitro, Inc.; Novo Nordisk A/S; Yuhan Corporation; Kite Pharma, Inc.; and oNKo-innate Pty. Ltd. The company was founded in 1987 and is headquartered in Foster City, California.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1826,6 +2097,11 @@
       <c r="F56" t="n">
         <v>20.770567</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Linde plc operates as an industrial gas company in primarily North and South America, Europe, the Middle East, Africa, and the Asia Pacific. It manufactures and distributes atmospheric gases, such as oxygen, nitrogen, argon, and rare gases; and process gases, including carbon dioxide, helium, hydrogen, carbon monoxide, electronic gases, specialty gases, and acetylene. The company also designs and manufactures equipment for air separation and other industrial gas applications, as well as gas production and processing services, such as olefin plants, natural gas plants, air separation plants, hydrogen and synthesis gas plants, and other types of plants. It serves healthcare, petroleum refining, manufacturing, food, beverage carbonation, fiber-optics, steel making, aerospace, chemicals, electronics, and water treatment industries. Linde plc was founded in 2017 and is based in Guildford, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1852,6 +2128,11 @@
       <c r="F57" t="n">
         <v>13.464853</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lockheed Martin Corporation, a security and aerospace company, engages in the research, design, development, manufacture, integration, and sustainment of technology systems, products, and services worldwide. It operates through four segments: Aeronautics, Missiles and Fire Control, Rotary and Mission Systems, and Space Systems. The Aeronautics segment offers combat and air mobility aircraft, unmanned air vehicles, and related technologies. The Missiles and Fire Control segment provides air and missile defense systems; tactical missiles and air-to-ground precision strike weapon systems; logistics; fire control systems; mission operations support, readiness, engineering support, and integration services; manned and unmanned ground vehicles; and energy management solutions. The Rotary and Mission Systems segment offers military and commercial helicopters; ship and submarine mission and combat systems; mission systems and sensors for rotary and fixed-wing aircraft; sea and land-based missile defense systems; radar systems; the Littoral combat ship; simulation and training services; and unmanned systems and technologies. It also supports government customers in cybersecurity; and delivers communications, and command and control capabilities through mission solutions for defense applications. The Space Systems segment offers satellites; space transportation systems; strategic, advanced strike, and defensive missile systems; and classified systems and services in support of national security systems. This segment also provides network-enabled situational awareness and integrates space and ground-based systems to help its customers gather, analyze, and securely distribute critical intelligence data. Lockheed Martin Corporation was founded in 1995 and is headquartered in Bethesda, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1878,6 +2159,11 @@
       <c r="F58" t="n">
         <v>13.699829</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>QUALCOMM Incorporated designs, develops, manufactures, and markets digital communication products worldwide. It operates through three segments: Qualcomm CDMA Technologies (QCT); Qualcomm Technology Licensing (QTL); and Qualcomm Strategic Initiatives (QSI). The QCT segment develops and supplies integrated circuits and system software based on code division multiple access (CDMA), orthogonal frequency division multiple access, and other technologies for use in wireless voice and data communications, networking, application processing, multimedia, and global positioning system products. This segment also provides products designed for the implementation of small cells. The QTL segment grants licenses or provides rights to use portions of its intellectual property portfolio, which include various patent rights useful in the manufacture and sale of wireless products comprising products implementing CDMA2000, wideband CDMA, CDMA time division duplex, long term evolution, and/or fifth generation standards and their derivatives. The QSI segment invests in early-stage companies in various industries, including artificial intelligence, automotive, digital healthcare, enterprise software and solutions, mobile and networking and investment for supporting the design and introduction of new products and services for voice and data communications, and new industry segments. The company also provides development, and other services and related products to the United States government agencies and their contractors. QUALCOMM Incorporated was founded in 1985 and is headquartered in San Diego, California.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2190,11 @@
       <c r="F59" t="n">
         <v>6.7296004</v>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Citigroup Inc., a diversified financial services holding company, provides various financial products and services for consumers, corporations, governments, and institutions in North America, Latin America, Asia, Europe, the Middle East, and Africa. The company operates through two segments, Global Consumer Banking (GCB) and Institutional Clients Group (ICG). The GCB segment offers traditional banking services to retail customers through retail banking, commercial banking, Citi-branded cards, and Citi retail services. It also provides various banking, credit card lending, and investment services through a network of local branches, offices, and electronic delivery systems. The ICG segment provides wholesale banking products and services, including fixed income and equity sales and trading, foreign exchange, prime brokerage, derivative services, equity and fixed income research, corporate and consumer loans, investment banking and advisory services, private banking, cash management, trade finance, and securities services to corporate, institutional, public sector, and high-net-worth clients. As of December 31, 2018, it operated 2,410 branches in the United States, Mexico, and Asia. Citigroup Inc. was founded in 1812 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1930,6 +2221,11 @@
       <c r="F60" t="n">
         <v>15.569854</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Honeywell International Inc. operates as a diversified technology and manufacturing company worldwide. The Aerospace segment offers auxiliary power units, propulsion engines, integrated avionics, environmental control and electric power systems, engine controls, flight safety, communications, navigation hardware, data and software applications, radar and surveillance systems, aircraft lighting, advanced systems and instruments, satellite and space components, and aircraft wheels and brakes; spare parts; repair, overhaul, and maintenance services; thermal systems; and connected solutions and data services for the aftermarket, as well as wireless connectivity, and management and technical services. The company's Honeywell Building Technologies segment offers advanced software applications for building control and optimization; sensors, switches, control systems and instruments for energy management; access control; video surveillance; fire products; remote patient monitoring systems; e-cooling heat transfer agents; and installation, maintenance, and upgrades of systems. Its Performance Materials and Technologies segment offers automation control, instrumentation, and advanced software and related services; catalysts and adsorbents, equipment, and consulting; and materials used to manufacture end products, such as bullet-resistant armor, nylon, computer chips, and pharmaceutical packaging, as well as Honeywell forge connected solutions. The company's Safety and Productivity Solutions segment provides personal protection equipment, apparel, gear, and footwear; gas detection technology; and cloud-based notification and emergency messaging; and mobile devices and software; supply chain and warehouse automation equipment, and software and solutions; custom-engineered sensors, switches, and controls; and software-based data and asset management productivity solutions. Honeywell International Inc. was incorporated in 1985 and is headquartered in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1956,6 +2252,11 @@
       <c r="F61" t="n">
         <v>26.880436</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Starbucks Corporation, together with its subsidiaries, operates as a roaster, marketer, and retailer of specialty coffee worldwide. The company operates in three segments: Americas; International; and Channel Development. Its stores offer coffee and tea beverages, roasted whole bean and ground coffees, single-serve and ready-to-drink beverages, and iced tea; and various food products, such as pastries, breakfast sandwiches, and lunch items. The company also licenses its trademarks through licensed stores, and grocery and foodservice accounts. It offers its products under the Starbucks, Teavana, Seattle's Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve, and Princi brand names. As of October 30, 2019, the company operated approximately 31,000 stores. Starbucks Corporation was founded in 1971 and is based in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1982,6 +2283,11 @@
       <c r="F62" t="n">
         <v>8.383274999999999</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Wells Fargo &amp; Company, a diversified financial services company, provides banking, investment, mortgage, and consumer and commercial finance products and services to individuals, businesses, and institutions in the United States and internationally. It operates in three segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Community Banking segment offers checking and savings accounts; credit and debit cards; and automobile, student, mortgage, home equity, and small business lending products. The Wholesale Banking segment provides commercial, corporate, capital markets, cash management, and real estate banking products and services, including traditional commercial loans and lines of credit, letters of credit, asset-based lending, equipment leasing, international trade facilities, trade financing, collection services, foreign exchange services, treasury management, institutional fixed-income sales, interest rate, commodity and equity risk management, online/electronic products, corporate trust fiduciary and agency services, and investment banking services. It also offers commercial and residential development, land acquisition and development, rehabilitation, permanent securitization, and commercial real estate loans; secured and unsecured lines of credit; affordable housing loans and letters of credit; and interim financing arrangements. The Wealth and Investment Management segment provides personalized wealth management, investment, and retirement products and services; and delivers financial planning, private banking, credit, investment management, and fiduciary services. The company also offers brokerage, and Internet and mobile banking services. As of March 16, 2020, it operated through 7,400 locations; approximately 13,000 ATMs; and offices in 32 countries and territories. The Company was founded in 1852 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2008,6 +2314,11 @@
       <c r="F63" t="n">
         <v>15.929294</v>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Lowe's Companies, Inc., together with its subsidiaries, operates as a home improvement retailer in the United States, Canada, and Mexico. The company offers a line of products for construction, maintenance, repair, remodeling, and decorating. It provides home improvement products in various categories, such as appliances, décor, paint, hardware, millwork, lawn and garden, lighting, lumber and building materials, flooring, kitchens and bath, rough plumbing and electrical, seasonal and outdoor living, and tools. It also offers installation services through independent contractors in various product categories; extended protection plans; and in-warranty and out-of-warranty repair services. The company sells its national brand-name merchandise and private branded products to homeowners, renters, and professional customers. As of January 31, 2020, it operated 1,977 home improvement and hardware stores. The company also sells its products through websites comprising Lowes.com and Lowesforpros.com; and through mobile applications. Lowe's Companies, Inc. was founded in 1946 and is based in Mooresville, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2034,6 +2345,11 @@
       <c r="F64" t="n">
         <v>8.263926</v>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CVS Health Corporation provides health services and plans in the United States. The company's Pharmacy Services segment offers pharmacy benefit management solutions, including plan design and administration, formulary management, retail pharmacy network management, mail order pharmacy, specialty pharmacy and infusion, clinical, and disease and medical spend management services. It serves employers, insurance companies, unions, government employee groups, health plans, prescription drug plans (PDPs), Medicaid managed care plans, plans offered on public health insurance and private health insurance exchanges, other sponsors of health benefit plans, and individuals. This segment operates retail specialty pharmacy stores; and specialty mail order, mail order dispensing, and compounding pharmacies, as well as branches for infusion and enteral nutrition services. Its Retail/LTC segment sells prescription and over-the-counter drugs, beauty and personal care products, and cosmetics; and provides health care services through its MinuteClinic walk-in medical clinics. This segment also distributes prescription drugs; and provides related pharmacy consulting and other ancillary services to chronic care facilities and other care settings. As of December 31, 2019, it operated approximately 9,900 retail locations and 1,100 MinuteClinic locations, as well as online retail pharmacy websites, LTC pharmacies, and onsite pharmacies. The company's Health Care Benefits segment offers traditional, voluntary, and consumer-directed health insurance products and related services. It serves employer groups, individuals, college students, part-time and hourly workers, health plans, health care providers, governmental units, government-sponsored plans, labor groups, and expatriates. The company was formerly known as CVS Caremark Corporation and changed its name to CVS Health Corporation in September 2014. The company was founded in 1963 and is headquartered in Woonsocket, Rhode Island.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2058,6 +2374,11 @@
         <v>81606524928</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Raytheon Technologies Corporation, an aerospace and defense company, provides advanced systems and services for commercial, military, and government customers worldwide. It operates in four businesses: Collins Aerospace Systems, Pratt &amp; Whitney, Raytheon Intelligence &amp; Space, and Raytheon Missiles &amp; Defense. The Collins Aerospace Systems business offers aerostructures, avionics, interiors, mechanical systems, mission systems, and power and control systems that serve customers in the commercial, regional, business aviation, and military sectors. The Pratt &amp; Whitney business designs, manufactures, and services aircraft engines and auxiliary power systems for commercial, military, and business aircraft. The Raytheon Intelligence &amp; Space business engages in developing various sensors, training, and cyber and software solutions. The Raytheon Missiles &amp; Defense business produces a portfolio of advanced technologies, including air and missile defense systems, precision weapons, radars, and command and control systems that delivers end-to-end solutions to detect, track, and engage threats. The company is headquartered in Waltham, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2084,6 +2405,11 @@
       <c r="F66" t="n">
         <v>18.91691</v>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Fidelity National Information Services, Inc. operates as a financial services technology company in the United States and internationally. It operates through three segments: Merchant Solutions, Banking Solutions, and Capital Market Solutions. The Merchant Solutions segment offers merchant acquiring, integrated payment, and global e-commerce solutions. The Banking Solutions segment provides core processing and ancillary applications; digital solutions, including Internet, mobile, and e-banking; fraud, risk management, and compliance solutions; electronic funds transfer and network services; card and retail payment solutions; wealth and retirement solutions; and item processing and output services. The Capital Market Solutions segment offers securities processing and finance, global trading, asset management and insurance, and corporate liquidity solutions. The company was founded in 1968 and is headquartered in Jacksonville, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2110,6 +2436,11 @@
       <c r="F67" t="n">
         <v>15.245516</v>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3M Company develops, manufactures, and markets various products worldwide. It operates through four business segments: Safety &amp; Industrial, Transportation &amp; Electronics, Health Care, and Consumer. The Safety &amp; Industrial segment offers personal safety products, adhesives and tapes, abrasives, closure and masking systems, electrical markets, automotive aftermarket, and roofing granules. The Transportation &amp; Electronics provides electronics, such as display materials and systems, electronic materials solutions; automotive, aerospace, and commercial solutions; advanced materials; and transportation safety products. This segment serves transportation and electronic original equipment manufacturer customers. The Health Care segment offers medical solutions, oral care, separation and purification sciences, health information systems, drug delivery systems, and food safety products. The Consumer segment provides home improvement, home care, and consumer health care products, as well as stationery and office supplies. This segment is also involved in the retail auto care business. The company serves automotive, electronics and automotive electrification, appliance, paper and printing, packaging, food and beverage, construction, medical clinics and hospitals, pharmaceuticals, dental and orthodontic practitioners, health information systems, food manufacturing and testing, consumer and office retail, office business to business, home improvement, drug and pharmacy retail, and other markets. 3M Company was founded in 1902 and is headquartered in St. Paul, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2136,6 +2467,11 @@
       <c r="F68" t="n">
         <v>26.222458</v>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Charter Communications, Inc., through its subsidiaries, provides cable services to residential and commercial customers in the United States. It offers subscription-based video services, including video on demand, high definition television, digital video recorder, pay-per-view, and spectrum mobile and spectrum guide services, as well as ad-supported free online video products. The company also provides Internet services, such as security suite that protects computers from viruses and spyware; in-home WiFi, which provides customers with high performance wireless routers to enhance their in-home wireless Internet experience; out-of-home WiFi; and Spectrum WiFi. In addition, it offers voice communications services using voice over Internet protocol technology; and broadband communications solutions, such as Internet access, data networking, fiber connectivity, video entertainment, and business telephone services to cellular towers and office buildings for business and carrier organizations. Further, the company provides video programming, static IP and business WiFi, email and security, and multi-line telephone services, as well as Web-based service management; sells local advertising across various platforms for networks, such as MTV, CNN, and ESPN; Audience App for optimizes linear inventory; and sells video and online advertising inventory to local, regional, and national advertising customers. Additionally, it offers communications products and managed service solutions; data connectivity services to mobile and wireline carriers on a wholesale basis; and owns and operates regional sports networks and local sports, news, and community channels. As of December 31, 2019, the company served approximately 29.2 million residential and small and medium business customers. Charter Communications, Inc. was founded in 1993 and is based in Stamford, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2162,6 +2498,11 @@
       <c r="F69" t="n">
         <v>27.433273</v>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Inc., together with its subsidiaries, provides ratings, benchmarks, analytics, and data to the capital and commodity markets worldwide. The company operates through four segments: S&amp;P Global Ratings (Ratings), S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Platts (Platts), and S&amp;P Dow Jones Indices (Indices). The Ratings segment offers credit ratings, research, and analytics to investors, corporations, governments, municipalities, commercial and investment banks, insurance companies, asset managers, and other debt issuers. The Market Intelligence segment provides multi-asset-class data, research, and analytical capabilities, which integrate cross-asset analytics and desktop services to investment managers, investment banks, private equity firms, insurance companies, commercial banks, corporations, professional services firms, government agencies, and regulators. The Platts segment offers essential price data, analytics, and industry insights for the commodity and energy markets. It serves producers, traders, and intermediaries within the energy, petrochemicals, metals, and agriculture markets. The Indices segment provides index that maintains various valuation and index benchmarks for investment advisors, wealth managers, and institutional investors. The company also offers analytics, artificial intelligence, machine learning, and data visualization systems to Wall Street's premier global banks and investment institutions, as well as the National Security community; subscription and custom reports on bank deposits, loans, fees and other product data to the financial services industry; and insights on global supply chains. The company was formerly known as McGraw Hill Financial, Inc. and changed its name to S&amp;P Global Inc. in April 2016. S&amp;P Global Inc. was founded in 1860 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2188,6 +2529,11 @@
       <c r="F70" t="n">
         <v>33.930992</v>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Intuit Inc. provides financial management and compliance products and services for consumers, small businesses, self-employed, and accounting professionals in the United States, Canada, and internationally. The company operates in three segments: Small Business &amp; Self-Employed, Consumer, and Strategic Partner. The Small Business &amp; Self-Employed segment provides QuickBooks online services and desktop software solutions comprising QuickBooks Enterprise, a hosted solution; QuickBooks Online Advanced, an online enterprise solution; QuickBooks Self-Employed solution; and QuickBooks Online Accountant and QuickBooks Accountant Desktop Plus solutions; payroll solutions, such as online payroll processing, direct deposit of employee paychecks, payroll reports, electronic payment of federal and state payroll taxes, and electronic filing of federal and state payroll tax forms. This segment also offers payment-processing solutions, including credit and debit cards, and ACH payment services; and financial supplies and financing for small businesses. Its Consumer segment provides TurboTax income tax preparation products and services; and personal finance. The company's Strategic Partner segment offers Lacerte, ProSeries, and ProFile desktop tax-preparation software products; and ProConnect Tax Online tax products, electronic tax filing service, and bank products and related services. It sells products and services through various sales and distribution channels, including multi-channel shop-and-buy experiences, Websites and call centers, mobile application stores, and retail and other channels. Intuit Inc. was founded in 1983 and is headquartered in Mountain View, California.</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2214,6 +2560,11 @@
       <c r="F71" t="n">
         <v>18.007273</v>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Mondelez International, Inc., through its subsidiaries, manufactures, markets, and sells snack food and beverage products worldwide. It offers biscuits, including cookies, crackers, and salted snacks; chocolates; and gums and candies, as well as various cheese and grocery, and powdered beverage products. The company's primary snack brand portfolio includes Cadbury, Milka, and Toblerone chocolates; Oreo, belVita, and LU biscuits; Halls candies; and Trident gums and Tang powdered beverages. It sells its products to supermarket chains, wholesalers, supercenters, club stores, mass merchandisers, distributors, convenience stores, gasoline stations, drug stores, value stores, and other retail food outlets through direct store delivery, company-owned and satellite warehouses, distribution centers, and other facilities, as well as through independent sales offices and agents, and e-commerce platforms. The company was formerly known as Kraft Foods Inc. and changed its name to Mondelez International, Inc. in October 2012. Mondelez International, Inc. was incorporated in 2000 and is headquartered in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2240,6 +2591,11 @@
       <c r="F72" t="n">
         <v>25.319927</v>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Vertex Pharmaceuticals Incorporated engages in developing and commercializing therapies for treating cystic fibrosis. The company markets SYMDEKO/SYMKEVI, ORKAMBI, and KALYDECO to treat patients with cystic fibrosis who have specific mutations in their cystic fibrosis transmembrane conductance regulator gene; and TRIKAFTA for the treatment of patients with CF 12 years of age or older who have at least one F508del mutation in the cystic fibrosis transmembrane conductance regulator, or CFTR, gene. Its pipeline includes Pipeline for Alpha-1 antitrypsin deficiency that is in Phase 2 clinical trial; VX-864, a second investigational small molecule corrector for the treatment of AAT deficiency, which is in Phase 1 clinical trial; and VX-147 that completed a Phase 1 clinical trial for the treatment of APOL1-mediated focal segmental glomerulosclerosis, or FSGS, and other serious kidney diseases. The company sells its products primarily to specialty pharmacy and specialty distributors in the United States, as well as specialty distributors and retail chains, and hospitals and clinics internationally. Vertex Pharmaceuticals Incorporated has collaborations with CRISPR Therapeutics AG; Arbor Biotechnologies, Inc.; Moderna Therapeutics, Inc.; Genomics plc; Merck KGaA; Darmstadt, Germany; X-Chem, Inc.; Janssen Pharmaceuticals, Inc.; Merck KGaA; Kymera Therapeutics; Ribometrix, Inc.; Molecular Templates, Inc.; and Affinia Therapeutics. The company was founded in 1989 and is headquartered in Boston, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2266,6 +2622,11 @@
       <c r="F73" t="n">
         <v>19.930664</v>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Becton, Dickinson and Company develops, manufactures, and sells medical supplies, devices, laboratory equipment, and diagnostic products worldwide. The company's BD Medical segment offers peripheral IV and advanced peripheral catheters, central lines, acute dialysis catheters, vascular care and preparation products, needle-free IV connectors and extensions sets, IV fluids, closed-system drug transfer devices, hazardous drug detection, hypodermic syringes and needles, anesthesia needles and trays, enteral syringes, sharps disposal systems; infusion pumps and dedicated disposables, medication compounding workflow systems, automated medication dispensing, automated supply management systems, medication inventory optimization and tracking systems; syringes, pen needles, and other products for diabetes care; and prefillable drug delivery systems. Its BD Life Sciences segment provides specimen and blood collection products and systems; automated blood and tuberculosis culturing, molecular testing, microorganism identification and drug susceptibility, and liquid-based cytology systems, as well as rapid diagnostic assays, microbiology laboratory automation products, and plated media products; and fluorescence-activated cell sorters and analyzers, antibodies and kits, reagent systems, and solutions for high-throughput single-cell gene expression analysis, as well as clinical oncology, immunological, and transplantation diagnostic/monitoring reagents and analyzers. The company's BD Interventional segment offers hernia and soft tissue repair, biological and bioresorbable grafts, biosurgery, and other surgical products; surgical infection prevention, surgical and laparoscopic instrumentation products; peripheral intervention products; and urology and critical care products. Becton, Dickinson and Company was founded in 1897 and is based in Franklin Lakes, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2292,6 +2653,11 @@
       <c r="F74" t="n">
         <v>68.62499</v>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ServiceNow, Inc. provides enterprise cloud computing solutions that defines, structures, consolidates, manages, and automates services for enterprises worldwide. The company offers information technology (IT) service management applications; and digital workflow products for customer service, human resources, security operations, integrated risk management, and other enterprise departments. It operates the Now platform that offers workflow automation, electronic service catalogs and portals, configuration management systems, data benchmarking, performance analytics, encryption, and collaboration and development tools. The company also provides IT service management product suite for enterprise's employees, customers, and partners; IT operations management product that connects a customer's physical and cloud-based IT infrastructure with applications and platforms; IT Asset Management product to automate IT asset lifecycles with workflows; IT business management product suite to manage IT priorities; and enterprise development operations product for developers' toolchain. In addition, it offers customer service management product for customer service cases and requests; human resources service delivery product; security operations product for security operations management requirements of third-party; governance, risk, and compliance product to create policies and controls; and field service management application. Further, the company provides professional, training, and customer support services; and certification programs. It serves government, financial services, healthcare, telecommunications, manufacturing, IT services, technology, oil and gas, education, and consumer products. The company sells its products through direct sales team and resale partners. The company was formerly known as Service-now.com and changed its name to ServiceNow, Inc. in May 2012. The company was founded in 2004 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2318,6 +2684,11 @@
       <c r="F75" t="n">
         <v>10.810126</v>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Anthem, Inc., through its subsidiaries, operates as a health benefits company in the United States. It operates through three segments: Commercial &amp; Specialty Business, Government Business, and Other. The company offers a spectrum of network-based managed care health benefit plans to large and small group, individual, Medicaid, and Medicare markets. Its managed care plans include preferred provider organizations; health maintenance organizations; point-of-service plans; traditional indemnity plans and other hybrid plans, such as consumer-driven health plans; and hospital only and limited benefit products. The company also provides a range of managed care services to self-funded customers, including claims processing, underwriting, stop loss insurance, actuarial services, provider network access, medical cost management, disease management, wellness programs, and other administrative services. In addition, it offers an array of specialty and other insurance products and services, such as dental, vision, life and disability insurance benefits, radiology benefit management, and analytics-driven personal health care guidance; and Medicare administrative services. Further, the company provides services to the federal government in connection with the Federal Employee Program; and operates as a licensee of the Blue Cross and Blue Shield Association. As of December 31, 2019, it served 41 million medical members through its affiliated health plans. The company was formerly known as WellPoint, Inc. and changed its name to Anthem, Inc. in December 2014. Anthem, Inc. was founded in 1944 and is headquartered in Indianapolis, Indiana.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2344,6 +2715,11 @@
       <c r="F76" t="n">
         <v>8.002207</v>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Altria Group, Inc., through its subsidiaries, manufactures and sells cigarettes, smokeless products, and wine in the United States. It offers cigarettes primarily under the Marlboro brand; cigars principally under the Black &amp; Mild brand; and moist smokeless tobacco products under the Copenhagen, Skoal, Red Seal, and Husky brands, as well as provides on! oral nicotine pouches. The company also produces and sells varietal and blended table wines, and sparkling wines under the Chateau Ste. Michelle and 14 Hands names; owns Stag's Leap Wine Cellars, Conn Creek, Patz &amp; Hall, and Erath wine brands; and imports and markets Antinori, Torres, and Villa Maria Estate wines, as well as Champagne Nicolas Feuillatte in the United States. In addition, it provides finance leasing services primarily in transportation, power generation, real estate, and manufacturing equipment industries. The company sells its tobacco products primarily to wholesalers, including distributors; and large retail organizations, such as chain stores. Altria Group, Inc. was founded in 1822 and is headquartered in Richmond, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2370,6 +2746,11 @@
       <c r="F77" t="n">
         <v>9.015641</v>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Cigna Corporation, a health service organization, provides insurance and related products and services. It operates through Health Services, Integrated Medical, International Markets, and Group Disability and Other segments. The Health Services segment provides pharmacy benefits management, specialty pharmacy services, clinical solutions, home delivery, and health management services. The Integrated Medical segment offers medical, pharmacy, dental, behavioral health, vision, health advocacy programs, and other products and services to insured and self-insured clients; Medicare Advantage, Medicare Supplement, and Medicare Part D plans to Medicare-eligible beneficiaries, as well as Medicaid plans; and health insurance coverage to on and off the public exchanges. The International Markets segment offers supplemental health, life, and accident insurance products; and health care coverage, as well as health care benefits to mobile employees of multinational organizations. This segment offers health coverage, hospitalization, dental, critical illness, personal accident, term life, and variable universal life products. The Group Disability and Other segment provides group long-term and short-term disability, group life, accident, voluntary, and specialty insurance products, as well as related services; permanent insurance contracts to corporations to provide coverage on the lives of certain employees for the purpose of financing employer-paid future benefit obligations; and reinsurance, settlement annuity, individual life insurance, and annuity and retirement benefit business. The company distributes its products and services through insurance brokers and consultants; directly to employers, unions and other groups, or individuals; and private and public exchanges. Cigna Corporation was founded in 1792 and is headquartered in Bloomfield, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2396,6 +2777,11 @@
       <c r="F78" t="n">
         <v>17.235931</v>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Dominion Energy, Inc. produces and transports energy. The company's Dominion Energy Virginia segment engages in the regulated electric generation, transmission, and distribution operations that serve residential, commercial, industrial, and governmental customers in Virginia and North Carolina. Its Gas Transmission &amp; Storage segment operates interstate natural gas transmission pipelines and underground storage systems, as well as engages in nonregulated retail natural gas marketing, and development of renewable natural gas and LNG infrastructure. The company's Gas Distribution segment engages in the regulated natural gas gathering, transportation, distribution, and sales activities. This segment serves residential, commercial, and industrial customers. Its Dominion Energy South Carolina segment generates, transmits, and distributes electricity and natural gas to residential, commercial, and industrial customers in South Carolina. The company's Contracted Generation segment is involved in the energy marketing and price risk activities. As of December 31, 2019, the company's portfolio of assets included approximately 30,700 megawatts of electric generating capacity; 10,400 miles of electric transmission lines; 85,000 miles of electric distribution lines; 14,600 miles of natural gas transmission, gathering, and storage pipelines; and 103,400 miles of gas distribution pipelines. It serves approximately 7 million utility and retail energy customers; and operates underground natural gas storage systems with approximately 1 trillion cubic feet of storage capacity. The company sells electricity at wholesale prices to rural electric cooperatives and municipalities, as well as into wholesale electricity markets. The company was formerly known as Dominion Resources, Inc. and changed its name to Dominion Energy, Inc. in May 2017. Dominion Energy, Inc. was incorporated in 1983 and is headquartered in Richmond, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2422,6 +2808,11 @@
       <c r="F79" t="n">
         <v>14.050458</v>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>The Boeing Company, together with its subsidiaries, designs, develops, manufactures, sales, services, and supports commercial jetliners, military aircraft, satellites, missile defense, human space flight and launch systems, and services worldwide. The company operates through four segments: Commercial Airplanes; Defense, Space &amp; Security; Global Services; and Boeing Capital. The Commercial Airplanes segment provides commercial jet aircraft for passenger and cargo requirements, as well as fleet support services. The Defense, Space &amp; Security segment engages in the research, development, production, and modification of manned and unmanned military aircraft and weapons systems; strategic defense and intelligence systems, which include strategic missile and defense systems, command, control, communications, computers, intelligence, surveillance and reconnaissance, cyber and information solutions, and intelligence systems; and satellite systems, such as government and commercial satellites, and space exploration. The Global Services segment offers products and services, including supply chain and logistics management, engineering, maintenance and modifications, upgrades and conversions, spare parts, pilot and maintenance training systems and services, technical and maintenance documents, and data analytics and digital services to commercial and defense customers. The Boeing Capital segment offers financing services and manages financing exposure for a portfolio of equipment under operating and finance leases, notes and other receivables, assets held for sale or re-lease, and investments. The Boeing Company was founded in 1916 and is based in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2448,6 +2839,11 @@
       <c r="F80" t="n">
         <v>24.198391</v>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CME Group Inc., through its subsidiaries, operates contract markets for the trading of futures and options on futures contracts worldwide. It offers futures and options products based on interest rates, equity indexes, foreign exchange, agricultural commodities, energy, and metals, as well as fixed income products through its electronic trading platforms, open outcry, and privately negotiated transactions. The company also provides clearing for exchange-traded contracts and cleared swaps, as well as settlement services; and transaction lifecycle management services, such as trade and portfolio management, financial resource optimization, regulatory reporting, and trade processing. In addition, the company offers a range of market data services, including real-time and historical data services. It serves professional traders, financial institutions, institutional and individual investors, corporations, manufacturers, producers, governments, and central banks. The company was formerly known as Chicago Mercantile Exchange Holdings Inc. and changed its name to CME Group Inc. in July 2007. CME Group Inc. was founded in 1898 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2474,6 +2870,11 @@
       <c r="F81" t="n">
         <v>54.888084</v>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Crown Castle owns, operates and leases more than 40,000 cell towers and approximately 80,000 route miles of fiber supporting small cells and fiber solutions across every major U.S. market. This nationwide portfolio of communications infrastructure connects cities and communities to essential data, technology and wireless service - bringing information, ideas and innovations to the people and businesses that need them.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2500,6 +2901,11 @@
       <c r="F82" t="n">
         <v>13.136104</v>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>United Parcel Service, Inc. provides letter and package delivery, specialized transportation, logistics, and financial services. It operates through three segments: U.S. Domestic Package, International Package, and Supply Chain &amp; Freight. The U.S. Domestic Package segment offers time-definite delivery of letters, documents, small packages, and palletized freight through air and ground services in the United States. The International Package segment provides guaranteed day and time-definite international shipping services in Europe, the Asia Pacific, Canada and Latin America, the Indian sub-continent, the Middle East, and Africa. This segment offers guaranteed time-definite express options, including Express Plus, Express, and Express Saver. The Supply Chain &amp; Freight segment provides international air and ocean freight forwarding, customs brokerage, distribution and post-sales, and mail and consulting services in approximately 220 countries and territories; and less-than-truckload and truckload services to customers in North America. This segment also offers truckload brokerage services; supply chain solutions to the healthcare and life sciences industry; shipping, visibility, and billing technologies; and financial, insurance, and payment services. The company operates a fleet of approximately 125,000 package cars, vans, tractors, and motorcycles; and owns 52,000 containers that are used to transport cargo in its aircraft. United Parcel Service, Inc. was founded in 1907 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2526,6 +2932,11 @@
       <c r="F83" t="n">
         <v>49.75148</v>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Prologis, Inc. is the global leader in logistics real estate with a focus on high-barrier, high growth markets. As of March 31, 2020, the company owned or had investments in, on a wholly owned basis or through co-investment ventures, properties and development projects expected to total approximately 965 million square feet (90 million square meters) in 19 countries. Prologis leases modern logistics facilities to a diverse base of approximately 5,500 customers principally across two major categories: business-to-business and retail/online fulfillment.</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2552,6 +2963,11 @@
       <c r="F84" t="n">
         <v>35.62745</v>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Advanced Micro Devices, Inc. operates as a semiconductor company worldwide. The company operates in two segments, Computing and Graphics; and Enterprise, Embedded and Semi-Custom. Its products include x86 microprocessors as an accelerated processing unit, chipsets, discrete and integrated graphics processing units (GPUs), data center and professional GPUs, and development services; and server and embedded processors, and semi-custom System-on-Chip (SoC) products, development services, and technology for game consoles. The company provides x86 microprocessors for desktop PCs under the AMD Ryzen, AMD Ryzen PRO, Ryzen, Threadripper, AMD A-Series, AMD FX, AMD Athlon, AMD Athlon PRO, and AMD Pro A-Series processors brands; microprocessors for notebook and 2-in-1s under the AMD Ryzen processors with Radeon Vega GPUs, AMD A-Series, AMD Athlon, AMD Ryzen PRO, and AMD Pro A-Series processors brands; microprocessors for servers under the AMD EPYC and AMD Opteron brands; and chipsets under the AMD trademark. It also offers discrete GPUs for desktop and notebook PCs under the AMD Radeon graphics and AMD Embedded Radeon brands; professional graphics products under the AMD Radeon Pro and AMD FirePro graphics brands; and Radeon Instinct accelerators for servers. In addition, the company provides embedded processor solutions for interactive digital signage, casino gaming, and medical imaging under the AMD Opteron, AMD Athlon, AMD Geode, AMD Ryzen, AMD EPYC, AMD R-Series, and G-Series processors brands; and customer-specific solutions based on AMD CPU, GPU, and multi-media technologies, as well as semi-custom SoC products. It serves original equipment and design manufacturers, datacenters, original design manufacturers, system integrators, independent distributors, online retailers, and add-in-board manufacturers through its direct sales force, independent distributors, and sales representatives. The company was founded in 1969 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2578,6 +2994,11 @@
       <c r="F85" t="n">
         <v>17.357454</v>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Target Corporation operates as a general merchandise retailer in the United States. The company offers food assortments, including perishables, dry grocery, dairy, and frozen items; apparel, accessories, home décor products, electronics, toys, seasonal offerings, and other merchandise; beauty and household essentials; The company also provides in-store amenities, such as Target Café, Target Optical, Starbucks, and other food service offerings. It sells its products through its stores; and digital channels, including Target.com. As of March 25, 2020, the company operated approximately 1,900 stores. Target Corporation was founded in 1902 and is headquartered in Minneapolis, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2604,6 +3025,11 @@
       <c r="F86" t="n">
         <v>70.81202999999999</v>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Equinix, Inc. (Nasdaq: EQIX) connects the world's leading businesses to their customers, employees and partners inside the most interconnected data centers. On this global platform for digital business, companies come together across more than 50 markets on five continents to reach everywhere, interconnect everyone and integrate everything they need to create their digital futures.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2630,6 +3056,11 @@
       <c r="F87" t="n">
         <v>15.07326</v>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Duke Energy Corporation, together with its subsidiaries, operates as an energy company in the United States. It operates through three segments: Electric Utilities and Infrastructure, Gas Utilities and Infrastructure, and Commercial Renewables. The Electric Utilities and Infrastructure segment generates, transmits, distributes, and sells electricity in the Carolinas, Florida, and the Midwest; and uses coal, hydroelectric, natural gas, oil, renewable sources, and nuclear fuel to generate electricity. It also engages in the wholesale of electricity to municipalities, electric cooperative utilities, and load-serving entities. This segment serves approximately 7.8 million retail electric customers in 6 states in the Southeast and Midwest regions of the United States covering a service territory of approximately 91,000 square miles; and owns approximately 51,144 megawatts (MW) of generation capacity. The Gas Utilities and Infrastructure segment distributes natural gas to residential, commercial, industrial, and power generation natural gas customers; and owns, operates, and invests in pipeline transmission and natural gas storage facilities. It has approximately 1.6 million customers, including 1.1 million customers in North Carolina, South Carolina, and Tennessee, as well as 535,000 customers in southwestern Ohio and northern Kentucky. The Commercial Renewables segment acquires, owns, develops, builds, and operates wind and solar renewable generation projects, including nonregulated renewable energy and energy storage services to utilities, electric cooperatives, municipalities, and commercial and industrial customers. It has 22 wind, 126 solar, and 1 battery storage facilities, as well as 11 fuel cell locations with a capacity of 2,282 MW across 19 states. The company was formerly known as Duke Energy Holding Corp. and changed its name to Duke Energy Corporation in April 2005. The company was incorporated in 2005 and is headquartered in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2656,6 +3087,11 @@
       <c r="F88" t="n">
         <v>39.91281</v>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Intuitive Surgical, Inc., together with its subsidiaries, designs, manufactures, and markets da Vinci surgical systems, and related instruments and accessories in the United States and internationally. The company's da Vinci Surgical System include surgeon's consoles, patient-side carts, 3-D vision systems, da Vinci skills simulators, da Vinci Xi integrated table motions, and Firefly fluorescence imaging products that enable surgeons to perform various surgical procedures, including gynecologic, urologic, general, cardiothoracic, and head and neck surgical procedures. It also manufactures EndoWrist instruments, such as forceps, scissors, electrocautery tools, scalpels, and other surgical tools, which incorporate wrist joints for natural dexterity for various surgical procedures. In addition, the company offers EndoWrist Stapler, a wristed stapling instrument for resection, transection, and creation of anastomoses; and EndoWrist One Vessel Sealers that are wristed single-use instruments for bipolar coagulation and mechanical transection of vessels up to 7mm in diameter and tissue bundles that fit in the jaws of the instrument. Additionally, the company sells various accessories comprising sterile drapes for ensuring sterile field during surgery; and vision products that include replacement 3D stereo endoscopes, camera heads, light guides, and other items that facilitate use of the da Vinci Surgical System, as well as Ion endoluminal system for biopsies. Intuitive Surgical, Inc. was founded in 1995 and is headquartered in Sunnyvale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2682,6 +3118,11 @@
       <c r="F89" t="n">
         <v>29.44626</v>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Zoetis Inc. discovers, develops, manufactures, and commercializes animal health medicines, vaccines, and diagnostic products in the United States and internationally. It commercializes products primarily across species, including livestock, such as cattle, swine, poultry, fish, and sheep; and companion animals comprising dogs, cats, and horses. The company offers vaccines, which are biological preparations to prevent diseases of the respiratory, gastrointestinal, and reproductive tracts or induce a specific immune response; anti-infectives that prevent, kill, or slow the growth of bacteria, fungi, or protozoa; and parasiticides, which prevent or eliminate external and internal parasites comprising fleas, ticks, and worms. It also provides other pharmaceutical products comprising pain and sedation, antiemetic, reproductive, and oncology products; dermatology products for itch associated with allergic conditions and atopic dermatitis; and medicated feed additives that offer medicines to livestock. In addition, the company offers portable blood and urine analysis systems, and point-of-care diagnostic products, including instruments and reagents, rapid immunoassay tests, reference laboratory kits, and blood glucose monitors; and other non-pharmaceutical products, such as nutritionals and agribusiness, as well as products and services in the areas of biodevices, genetics tests, and precision livestock farming. It markets its products to veterinarians, livestock producers, and retail outlets, as well as third-party veterinary distributors through its sales representatives, and technical and veterinary operations specialists. The company was founded in 1952 and is headquartered in Parsippany, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2708,6 +3149,11 @@
       <c r="F90" t="n">
         <v>21.986885</v>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Colgate-Palmolive Company, together with its subsidiaries, manufactures and sells consumer products worldwide. The company operates through two segments, Oral, Personal and Home Care; and Pet Nutrition. The Oral, Personal and Home Care segment products include toothpaste, toothbrushes, mouthwash, bar and liquid hand soaps, shower gels, shampoos, conditioners, deodorants and antiperspirants, skin health products, dishwashing detergents, fabric conditioners, household cleaners, and other similar items. This segment markets and sells its products to various retailers, wholesalers, and distributors. The Pet Nutrition segment offers pet nutrition products for everyday nutritional needs; and a range of therapeutic products to manage disease conditions in dogs and cats. This segment markets and sells its products for dogs and cats through pet supply retailers, veterinarians, and e-commerce retailers. Its principal global and regional trademarks include Colgate, Palmolive, elmex, meridol, Tom's of Maine, Sorriso, Hello, Speed Stick, Lady Speed Stick, Softsoap, Irish Spring, Protex, Sanex, Filorga, Elta MD, PCA Skin, Ajax, Axion, Fabuloso, Soupline, and Suavitel, as well as Hill's Science Diet and Hill's Prescription Diet. Colgate-Palmolive Company was founded in 1806 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2734,6 +3180,11 @@
       <c r="F91" t="n">
         <v>20.38409</v>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Stryker Corporation operates as a medical technology company. The company operates through three segments: Orthopaedics, MedSurg, and Neurotechnology and Spine. The Orthopaedics segment provides implants for use in hip and knee joint replacements, and trauma and extremities surgeries. The MedSurg segment offers surgical equipment and surgical navigation systems, endoscopic and communications systems, patient handling, emergency medical equipment and intensive care disposable products, reprocessed and remanufactured medical devices, and other medical devices that are used in various medical specialties. The Neurotechnology and Spine segment provides neurotechnology products, which include products used for minimally invasive endovascular techniques; products for brain and open skull based surgical procedures; orthobiologic and biosurgery products, such as synthetic bone grafts and vertebral augmentation products; and minimally invasive products for the treatment of acute ischemic and hemorrhagic stroke. This segment also provides spinal implant products comprising cervical, thoracolumbar, and interbody systems that are used in spinal injury, deformity, and degenerative therapies. The company sells its products to doctors, hospitals, and other healthcare facilities through company-owned subsidiaries and branches, as well as third-party dealers and distributors in approximately 75 countries. Stryker Corporation was founded in 1941 and is headquartered in Kalamazoo, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2760,6 +3211,11 @@
       <c r="F92" t="n">
         <v>23.469564</v>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Automatic Data Processing, Inc. provides cloud-based human capital management solutions worldwide. It operates through two segments, Employer Services and Professional Employer Organization (PEO) Services. The Employer Services segment offers strategic, cloud-based platforms, and human resources (HR) outsourcing solutions. Its offerings include payroll, benefits administration, talent management, HR management, workforce management, insurance, retirement, and compliance services. The PEO Services segment provides HR outsourcing solutions through a co-employment model. This segment offers protection and compliance, talent engagement, comprehensive outsourcing, and recruitment process outsourcing services. The company was founded in 1949 and is headquartered in Roseland, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2786,6 +3242,11 @@
       <c r="F93" t="n">
         <v>15.257184</v>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Caterpillar Inc. manufactures and sells construction and mining equipment, diesel and natural gas engines, and industrial gas turbines. Its Construction Industries segment offers asphalt pavers, compactors, cold planers, feller bunchers, harvesters, motorgraders, pipelayers, road reclaimers, skidders, telehandlers, and utility vehicles; backhoe, knuckleboom, compact track, multi-terrain, skid steer, and track-type loaders; forestry and wheel excavators; and site prep and track-type tractors. The company's Resource Industries segment provides electric rope and hydraulic shovels, draglines, rotary drills, hard rock vehicles, track-type tractors, mining trucks, longwall miners, wheel loaders, off-highway and articulated trucks, wheel tractor scrapers, wheel dozers, landfill and soil compactors, machinery components, electronics and control systems, select work tools, and hard rock continuous mining systems. Its Energy &amp; Transportation segment offers reciprocating engine powered generator sets; reciprocating engines and integrated systems for the power generation, marine, oil, and gas industries; turbines, centrifugal gas compressors, and related services; remanufactured reciprocating engines and components; and diesel-electric locomotives and components, and other rail-related products. The company's Financial Products segment provides operating and finance leases, installment sale contracts, working capital loans, and wholesale financing; and insurance and risk management products. Its All Other operating segment manufactures filters and fluids, undercarriage, ground engaging tools, fluid transfer products, precision seals, and rubber sealing and connecting components; parts distribution; integrated logistics solutions and distribution services; and digital investments services. The company was formerly known as Caterpillar Tractor Co. and changed its name to Caterpillar Inc. in 1986. The company was founded in 1925 and is headquartered in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2812,6 +3273,11 @@
       <c r="F94" t="n">
         <v>17.073338</v>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>BlackRock, Inc. is a publicly owned investment manager. The firm primarily provides its services to institutional, intermediary, and individual investors including corporate, public, union, and industry pension plans, insurance companies, third-party mutual funds, endowments, public institutions, governments, foundations, charities, sovereign wealth funds, corporations, official institutions, and banks. It also provides global risk management and advisory services. The firm manages separate client-focused equity, fixed income, and balanced portfolios. It also launches and manages open-end and closed-end mutual funds, offshore funds, unit trusts, and alternative investment vehicles including structured funds. The firm launches equity, fixed income, balanced, and real estate mutual funds. It also launches equity, fixed income, balanced, currency, commodity, and multi-asset exchange traded funds. The firm also launches and manages hedge funds. It invests in the public equity, fixed income, real estate, currency, commodity, and alternative markets across the globe. The firm primarily invests in growth and value stocks of small-cap, mid-cap, SMID-cap, large-cap, and multi-cap companies. It also invests in dividend-paying equity securities. The firm invests in investment grade municipal securities, government securities including securities issued or guaranteed by a government or a government agency or instrumentality, corporate bonds, and asset-backed and mortgage-backed securities. It employs fundamental and quantitative analysis with a focus on bottom-up and top-down approach to make its investments. The firm employs liquidity, asset allocation, balanced, real estate, and alternative strategies to make its investments. In real estate sector, it seeks to invest in Poland and Germany. The firm benchmarks the performance of its portfolios against various S&amp;P, Russell, Barclays, MSCI, Citigroup, and Merrill Lynch indices. BlackRock, Inc. was founded in 1988 and is based in New York City with additional offices in Boston, Massachusetts; London, United Kingdom; Gurgaon, India; Hong Kong; Greenwich, Connecticut; Princeton, New Jersey; Edinburgh, United Kingdom; Sydney, Australia; Taipei, Taiwan; Singapore; Sao Paulo, Brazil; Philadelphia, Pennsylvania; Washington, District of Columbia; Toronto, Canada; Wilmington, Delaware; and San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2838,6 +3304,11 @@
       <c r="F95" t="n">
         <v>13.942214</v>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Booking Holdings Inc. provides travel and restaurant online reservation and related services worldwide. The company operates Booking.com, which connects travellers with a selection of places to stay, including apartments, vacation homes, family-run B&amp;Bs, 5-star luxury resorts, tree houses, and igloos; and KAYAK that searches other sites to show travellers the information they need to find the right flights, hotels, rental cars, and vacation packages. It also operates Priceline, an online travel deal service, which provides travellers to save on hotel rooms, airline tickets, rental cars, vacation packages, and cruises; Agoda, which provides online accommodation reservation services. In addition, the company operates Rentalcars.com that offers online rental car reservation services; and OpenTable, an online provider of restaurant reservation services to consumers and restaurant reservation management services to restaurants. Further, it offers travel-related insurance products. The company was formerly known as The Priceline Group Inc. and changed its name to Booking Holdings Inc. in February 2018. Booking Holdings Inc. was founded in 1997 and is headquartered in Norwalk, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2864,6 +3335,11 @@
       <c r="F96" t="n">
         <v>9.693676999999999</v>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Biogen Inc. discovers, develops, manufactures, and delivers therapies for treating neurological and neurodegenerative diseases worldwide. The company offers TECFIDERA, AVONEX, PLEGRIDY, TYSABRI, and FAMPYRA for multiple sclerosis (MS); SPINRAZA for the treatment of spinal muscular atrophy; and FUMADERM to treat plaque psoriasis. It also provides BENEPALI, an etanercept biosimilar referencing ENBREL; IMRALDI, an adalimumab biosimilar referencing HUMIRA; and FLIXABI, an infliximab biosimilar referencing REMICADE. In addition, the company offers RITUXAN for the treatment of non-Hodgkin's lymphoma, chronic lymphocytic leukemia (CLL), rheumatoid arthritis, two forms of ANCA-associated vasculitis, and pemphigus vulgaris; RITUXAN HYCELA for non-Hodgkin's lymphoma and CLL; GAZYVA to treat CLL and follicular lymphoma; and OCREVUS for the treatment of relapsing MS and primary progressive MS; and other anti-CD20 therapies. Further, it is involved in developing Opicinumab, BIIB061, and BIIB091 for MS and neuroimmunology; Aducanumab, BAN2401, BIIB092, BIIB076, and BIIB080 to treat Alzheimer's disease and dementia; BIIB067, BIIB078, BIIB110, and BIIB100 to treat neuromuscular disorders; BIIB054 and BIIB094 for treating movement disorders; BIIB111 and BIIB112 for ophthalmology; Dapirolizumab pegol and BIIB059 to treat immunology and others; BIIB104 for neurocognitive disorders; BIIB093, TMS-007, and Natalizumab to treat acute neurology; BIIB074 and BIIB095 for pain; and SB11 biosimilar, which are under various stages of development. The company offers products through its sales force and marketing groups. Biogen Inc. has collaboration agreements with Genentech, Inc.; Ionis Pharmaceuticals, Inc.; Eisai Co., Ltd.; Alkermes Pharma Ireland Limited; Bristol-Myers Squibb Company; Acorda Therapeutics, Inc.; AbbVie Inc.; Skyhawk Therapeutics, Inc.; Neurimmune SubOne AG; and Sangamo Therapeutics Inc. The company was founded in 1978 and is headquartered in Cambridge, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2890,6 +3366,11 @@
       <c r="F97" t="n">
         <v>18.392591</v>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Fiserv, Inc., together with its subsidiaries, provides financial services technology worldwide. Its First Data segment provides merchant acquiring, e-commerce, mobile commerce, and other business solutions; credit card and loan account processing, commercial payments, customer communications, plastics solutions, customer service, and other products; and various network solutions and security, and risk and fraud management solutions. The company's Payments and Industry Products segment offers electronic bill payment and presentment services; internet and mobile banking software and services; account-to-account transfers; person-to-person payment services; debit and credit card processing and services; payments infrastructure services; and other electronic payments software and services. This segment also offers card and print personalization services; investment account processing services for separately managed accounts; and fraud and risk management products and services. Its Financial Institution Services segment offers account processing, item processing and source capture, loan origination and servicing products, cash management and consulting services, and other products and services that support various types of financial transactions. This segment also provides ACH and treasury management, case management and resolution, and source capture optimization services to the financial services industry. The company also offers bank payment and liquidity management solutions, as well as Internet based mortgage software and mortgage lending technology solutions. It serves business, banks, governments, processors, credit unions, other financial institutions, merchants, and other clients. The company was founded in 1984 and is headquartered in Brookfield, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2916,6 +3397,11 @@
       <c r="F98" t="n">
         <v>16.540785</v>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>The Southern Company, through its subsidiaries, engages in the generation, transmission, and distribution of electricity. It operates in four segments: Gas Distribution Operations, Gas Pipeline Investments, Wholesale Gas Services, and Gas Marketing Services. The company also constructs, acquires, owns, and manages power generation assets, including renewable energy facilities and sells electricity in the wholesale market; and distributes natural gas in Illinois, Georgia, Virginia, and Tennessee, as well as provides gas marketing services, wholesale gas services, and gas pipeline investments operations. It owns and/or operates 30 hydroelectric generating stations, 24 fossil fuel generating stations, 3 nuclear generating stations, 13 combined cycle/cogeneration stations, 42 solar facilities, 10 wind facilities, and 1 biomass facility; and constructs, operates, and maintains 75,585 miles of natural gas pipelines and 14 storage facilities with total capacity of 157 Bcf to provide natural gas to residential, commercial, and industrial customers. The company serves approximately 8 million electric and gas utility customers. It also provides products and services in the areas of energy efficiency, and utility infrastructure. In addition, the company offers digital wireless communications services with various communication options, including push to talk, cellular service, text messaging, wireless Internet access, and wireless data. The Southern Company was incorporated in 1945 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2942,6 +3428,11 @@
       <c r="F99" t="n">
         <v>25.78092</v>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Activision Blizzard, Inc., together with its subsidiaries, develops and distributes content and services on video game consoles, personal computers (PC), and mobile devices in the Americas, Europe, the Middle East, Africa, and the Asia Pacific. The company operates through three segments: Activision Publishing, Inc.; Blizzard Entertainment, Inc.; and King Digital Entertainment. It develops, publishes, and sells interactive software products and entertainment content for the console and PC platforms through retail and digital channels, including subscription, full-game, and in-game sales, as well as by licensing software to third-party or related-party companies; and offer downloadable content. The company also maintains a proprietary online gaming service, Battle.net that facilitates the creation of user generated content, digital distribution, and online social connectivity in its games; and develops and publishes interactive entertainment content and services primarily on mobile platforms, such as Android and iOS, as well as distributes its content and services on the PC platform primarily through Facebook. In addition, it operate esports leagues and offer digital advertising content; and provides warehousing, logistics, and sales distribution services to third-party publishers of interactive entertainment software, as well as manufacturers of interactive entertainment hardware products. The company's key product franchises include Call of Duty, World of Warcraft, Diablo, Hearthstone, Overwatch, and Candy Crush. It serves retailers and distributors, including mass-market retailers, first party digital storefronts, consumer electronics stores, discount warehouses, and game specialty stores through third-party distribution and licensing arrangements. Activision Blizzard, Inc. was incorporated in 1979 and is headquartered in Santa Monica, California.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2968,6 +3459,11 @@
       <c r="F100" t="n">
         <v>8.031768</v>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>The Goldman Sachs Group, Inc. operates as an investment banking, securities, and investment management company worldwide. It operates in four segments: Investment Banking, Global Markets, Asset Management, and Consumer &amp; Wealth Management. The company's Investment Banking segment provides financial advisory services, including strategic advisory assignments related to mergers and acquisitions, divestitures, corporate defense activities, restructurings, and spin-offs; and middle-market lending, relationship lending, and acquisition financing, as well as transaction banking services. This segment also offers underwriting services, such as equity underwriting for common and preferred stock and convertible and exchangeable securities; and debt underwriting for various types of debt instruments, including investment-grade and high-yield debt, bank and bridge loans, and emerging- and growth-market debt. Its Global Markets segment is involved in client execution activities for cash and derivative instruments; credit products; mortgages; currencies; commodities; and equities; and provision of equity intermediation, and equity financing services, as well as offers clearing, settlement and custody services. The company's Asset Management segment manages assets across various asset classes, including equity, fixed income, hedge funds, credit funds, private equity, real estate, currencies, and commodities; and provides customized investment advisory solutions, and financing services, as well as invests in corporate, real estate, and infrastructure entities. Its Consumer &amp; Wealth Management segment offers wealth advisory and banking services, including financial planning, investment management, and lending; private banking and lending services; unsecured loans; and saving and time deposits. The company serves corporations, financial institutions, governments, and individuals. The Goldman Sachs Group, Inc. was founded in 1869 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2994,6 +3490,11 @@
       <c r="F101" t="n">
         <v>17.5451</v>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>The TJX Companies, Inc. operates as an off-price apparel and home fashions retailer. It operates through four segments: Marmaxx, HomeGoods, TJX Canada, and TJX International. The company sells family apparel, including footwear and accessories; home fashions, such as home basics, furniture, rugs, lighting products, giftware, soft home products, decorative accessories, tabletop, and cookware, as well as expanded pet, kids, and gourmet food departments; jewelry and accessories; footwear; and other merchandise. It operates stores under the T.J. Maxx, Marshalls, HomeGoods, Winners, HomeSense, T.K. Maxx, and Sierra Trading Post names, as well as operates e-commerce sites tjmaxx.com, tkmaxx.com, and sierratradingpost.com. The company operates approximately 4,300 stores in the United States, Canada, the United Kingdom, Ireland, Germany, Poland, Austria, the Netherlands, and Australia. The TJX Companies, Inc. was founded in 1956 and is headquartered in Framingham, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3020,6 +3521,11 @@
       <c r="F102" t="n">
         <v>19.981167</v>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Marsh &amp; McLennan Companies, Inc., a professional services company, provides advice and solutions to clients in the areas of risk, strategy, and people worldwide. It operates in two segments, Risk and Insurance Services, and Consulting. The Risk and Insurance Services segment offers risk management services, such as risk advice, risk transfer, and risk control and mitigation solutions, as well as insurance and reinsurance broking, catastrophe and financial modeling, and related advisory services; and insurance program management services. This segment serves businesses, public entities, insurance companies, associations, professional services organizations, and private clients. The Consulting segment provides health, wealth, and career services and products; and specialized management, as well as economic and brand consulting services. The company was founded in 1871 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3046,6 +3552,11 @@
       <c r="F103" t="n">
         <v>11.6564665</v>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>American Express Company, together with its subsidiaries, provides charge and credit payment card products, and travel-related services worldwide. The company operates through three segments: Global Consumer Services Group, Global Commercial Services, and Global Merchant and Network Services. Its products and services include payment and financing products; network services; expense management products and services; and lifestyle services. The company's products and services also comprise merchant acquisition and processing, servicing and settlement, point-of-sale marketing, and information products and services for merchants; and fraud prevention services, as well as the design and operation of customer loyalty programs. It sells its products and services to consumers, small businesses, mid-sized companies, and large corporations through mobile and online applications, third-party vendors and business partners, direct mail, telephone, in-house sales teams, and direct response advertising. American Express Company was founded in 1850 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3072,6 +3583,11 @@
       <c r="F104" t="n">
         <v>21.222929</v>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Newmont Corporation engages in the production and exploration of gold, copper, silver, zinc, and lead. The company has operations and/or assets in the United States, Canada, Mexico, Dominican Republic, Peru, Suriname, Argentina, Chile, Australia, and Ghana. As of December 31, 2019, it had proven and probable gold reserves of 100.2 million ounces and land position of 68,300 square kilometers. Newmont Corporation was founded in 1916 and is headquartered in Greenwood Village, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3098,6 +3614,11 @@
       <c r="F105" t="n">
         <v>20.27174</v>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Intercontinental Exchange, Inc. operates regulated exchanges, clearing houses, and listings venues for commodity, financial, fixed income, and equity markets in the United States, the United Kingdom, European Union, Singapore, Israel, and Canada. It operates in two segments, Trading and Clearing; and Data and Listings. The company operates marketplaces for listing, trading, and clearing an array of derivatives and securities contracts across various asset classes, including energy and agricultural commodities, metals, interest rates, equities, ETFs, credit derivatives, digital assets, bonds, and currencies, as well as offers mortgage and technology services. It also offers data services to support the trading, investment, risk management, and connectivity needs of customers across major asset classes. The company operates exchanges and marketplaces; cash equities, equity options, and bond exchanges; and over-the-counter markets for physical energy, fixed income, credit default swaps, and central counterparty clearing houses. Intercontinental Exchange, Inc. was founded in 2000 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3124,6 +3645,11 @@
       <c r="F106" t="n">
         <v>12.391304</v>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>General Electric Company operates as a high-tech industrial company in the United States, Europe, Asia, the Americas, the Middle East, and Africa. It operates through Power, Renewable Energy, Aviation, Healthcare, and Capital segments. The Power segment offers technologies, solutions, and services related to energy production, including gas and steam turbines, generators, and power generation services. The Renewable Energy segment provides wind turbine platforms, and hardware and software; offshore wind turbines; solutions, products, and services to hydropower industry; blades for onshore and offshore wind turbines; and high voltage equipment. The Aviation segment provides jet engines and turboprops for commercial and military airframes; maintenance, component repair, and overhaul services, as well as replacement parts; integrated digital components; and additive machines and materials, and engineering services. The Healthcare segment provides healthcare technologies in medical imaging, digital solutions, patient monitoring, and diagnostics; drug discovery; biopharmaceutical manufacturing technologies; and performance enhancement solutions to hospitals, medical facilities, pharmaceutical and biotechnology companies, and life science research markets. The Capital segment leases and finances aircraft, aircraft engines, and helicopters; provides financial and underwriting solutions; and manages its run-off insurance operations which provides life and health insurance and reinsurance products. The company was founded in 1892 and is headquartered in Boston, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3150,6 +3676,11 @@
       <c r="F107" t="n">
         <v>12.142078</v>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Northrop Grumman Corporation operates as a security company. It provides various systems, products, and solutions in autonomous systems, cyber, space, strike, and logistics and modernization, as well as in command, control, communications and computers, intelligence, surveillance, and reconnaissance (C4ISR) to customers in the United States and internationally. The company operates through Aeronautics Systems, Defense Systems, Mission Systems, and Space Systems segments. It designs, develops, integrates, and produces manned aircrafts, autonomous systems, spacecraft systems, high-energy laser systems, microelectronics, and other systems and sub-systems for use in the areas of intelligence, surveillance and reconnaissance, strike operations, communications, earth observations, and space science. The company also designs, develops, integrates, and produces flights, armaments, and space systems to enable national security, civil government, and commercial customers in achieving their critical missions. Its space systems include launch vehicles and related propulsion systems; missile products and defense electronics; precision weapons, armament systems and ammunition; satellites and associated space components and services; and aerospace structures. In addition, it offers C4ISR systems; radar, electro-optical/infrared, and acoustic sensors; electronic warfare systems; cyber solutions; space and intelligence processing systems; air and missile defense integration systems; navigation systems; and shipboard missiles and encapsulated payload launch systems. Further, the company provides life-cycle solutions and services in support of networks and systems, including sustainment, modernization, training and simulation, software, engineering services, cyber, rapidly-deployable global logistics, and information technology. The company was founded in 1939 and is based in Falls Church, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3176,6 +3707,11 @@
       <c r="F108" t="n">
         <v>17.560764</v>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Humana Inc., together with its subsidiaries, operates as a health and well-being company in the United States. It operates through Retail, Group and Specialty, and Healthcare Services segments. The company offers medical and supplemental benefit plans to individuals. It also has contract with Centers for Medicare and Medicaid Services to administer the Limited Income Newly Eligible Transition prescription drug plan program; and contracts with various states to provide Medicaid, dual eligible, and long-term support services benefits. In addition, the company provides commercial fully-insured medical and specialty health insurance benefits comprising dental, vision, and other supplemental health benefits; financial protection products; and administrative services only products to individuals and employer groups, as well as military services, such as TRICARE South Region contract. Further, it offers pharmacy solutions, provider services, predictive modeling and informatics services, and clinical care services, such as home health and other services to its health plan members, as well as to third parties. As of December 31, 2019, the company had approximately 17 million members in medical benefit plans, as well as approximately 5 million members in specialty products. Humana Inc. was founded in 1961 and is headquartered in Louisville, Kentucky.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3202,6 +3738,11 @@
       <c r="F109" t="n">
         <v>20.882353</v>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Boston Scientific Corporation develops, manufactures, and markets medical devices for use in various interventional medical specialties worldwide. It operates through three segments: MedSurg, Rhythm and Neuro, and Cardiovascular. The company offers devices to diagnose and treat gastrointestinal and pulmonary conditions; devices to treat various urological and pelvic conditions; implantable cardioverter and implantable cardiac resynchronization therapy defibrillators; pacemakers and implantable cardiac resynchronization therapy pacemakers; and remote patient management systems. It also provides medical technologies to diagnose and treat rate and rhythm disorders of the heart comprising 3-D cardiac mapping and navigation solutions, ablation catheters, diagnostic catheters, mapping catheters, intracardiac ultrasound catheters, delivery sheaths, and other accessories; spinal cord stimulator systems for the management of chronic pain; indirect decompression systems; and deep brain stimulation systems. In addition, the company offers interventional cardiology products, including drug-eluting coronary stent systems used in the treatment of coronary artery disease; percutaneous coronary interventions products to treat atherosclerosis; intravascular catheter-directed ultrasound imaging catheters, fractional flow reserve devices, and systems for use in coronary arteries and heart chambers, as well as various peripheral vessels; and structural heart therapies. Further, it provides stents, balloon catheters, wires, atherectomy systems to treat arterial diseases; thrombectomy and acoustic pulse thrombolysis systems, wires, and stents to treat venous diseases; and peripheral embolization devices, radioactive microspheres, ablation systems, and micro and drainage catheters to treat cancer. The company was founded in 1979 and is headquartered in Marlborough, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3228,6 +3769,11 @@
       <c r="F110" t="n">
         <v>22.905582</v>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Air Products and Chemicals, Inc. provides atmospheric gases, process and specialty gases, equipment, and services worldwide. The company produces atmospheric gases, including oxygen, nitrogen, argon, and rare gases; process gases, such as hydrogen, helium, carbon dioxide, carbon monoxide, syngas, and specialty gases; and equipment for the production or processing of gases comprising air separation units and non-cryogenic generators for customers in various industries, including refining, chemical, gasification, metals, electronics, manufacturing, food and beverage, magnetic resonance imaging, energy production and refining, and metals. It also designs and manufactures equipment for air separation, hydrocarbon recovery and purification, natural gas liquefaction, and liquid helium and liquid hydrogen transport and storage. Air Products and Chemicals, Inc. was founded in 1940 and is headquartered in Allentown, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3254,6 +3800,11 @@
       <c r="F111" t="n">
         <v>21.092426</v>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Global Payments Inc. provides payment technology and software solutions for card, electronic, check, and digital-based payments in North America, Europe, the Asia-Pacific, and Latin America. The company operates through three segments: Merchant Solutions, Issuer Solutions, and Business and Consumer Solutions. The Merchant Solutions segment offers authorization services, settlement and funding services, customer support and help-desk functions, chargeback resolution, terminal rental, sales and deployment, payment security services, consolidated billing and statements, and on-line reporting services. This segment also provides an array of enterprise software solutions that streamline business operations of its customers in various vertical markets; and value-added services, such as point-of-sale solutions, and analytic and engagement tools, as well as payroll services. The Issuer Solutions segment offers solutions that enable financial institutions and retailers to manage their card portfolios through a platform; and commercial payments and ePayables solutions for businesses and governments. The Business and Consumer Solutions segment provides general-purpose reloadable prepaid debit and payroll cards, demand deposit accounts, and other financial service solutions to the underbanked and other consumers, and businesses under the Netspend brand. It markets its products and services through direct sales force, trade associations, agent and enterprise software providers, referral arrangements with value-added resellers, and independent sales organizations. The company was founded in 1967 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3280,6 +3831,11 @@
       <c r="F112" t="n">
         <v>15.210146</v>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CSX Corporation, together with its subsidiaries, provides rail-based freight transportation services. The company offers rail services, as well as transports intermodal containers and trailers. It transports chemicals, automotive, agricultural and food products, minerals, fertilizers, forest products, and metals and equipment; and coal, coke, and iron ore to electricity-generating power plants, steel manufacturers, and industrial plants. The company also exports coal to deep-water port facilities. In addition, it offers intermodal transportation services through a network of approximately 30 terminals transporting manufactured consumer goods in containers in the eastern United States; drayage services, including the pickup and delivery of intermodal shipments; and trucking dispatch services. Further, the company serves the automotive industry with distribution centers and storage locations, as well as connects non-rail served customers through transferring products from rail to trucks, which includes plastics and ethanol. Additionally, it acquires, develops, sells, leases, and manages real estate properties. The company operates approximately 20,500 route mile rail network, which serves various population centers in 23 states east of the Mississippi River, the District of Columbia, and the Canadian provinces of Ontario and Quebec, as well as owns and leases approximately 3,900 locomotives. It also serves production and distribution facilities through track connections. CSX Corporation was founded in 1978 and is based in Jacksonville, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3297,7 +3853,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3305,6 +3861,11 @@
       </c>
       <c r="F113" t="n">
         <v>9.527082</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -3332,6 +3893,11 @@
       <c r="F114" t="n">
         <v>32.073334</v>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Ecolab Inc. provides water, hygiene, and energy technologies and services worldwide. The company operates through Global Industrial, Global Institutional, Global Energy, and Other segments. Its Global Industrial segment offers water treatment and process applications, and cleaning and sanitizing solutions primarily to industrial customers within the manufacturing, food and beverage processing, chemical, mining and primary metals, power generation, pulp and paper, and commercial laundry industries. The company's Global Institutional segment provides specialized cleaning and sanitizing products to the foodservice, hospitality, lodging, healthcare, government, education, and retail industries. Its Global Energy segment offers the process chemicals and water treatment needs of the petroleum and petrochemical industries in upstream and downstream applications. This segment also provides additives for drilling and well stimulation, corrosion inhibitors, oil and water separation, scale control, paraffin and asphaltene control, biocides, hydrate control, hydrogen sulfide removal, oil dispersants, foamers and anti-foamers, flow improvers, anti-foulants, crude desalting, monomer inhibitors, anti-oxidants, fuel and lubricant additives, and water treatment. The company's Other segment offers pest elimination services to detect, eliminate, and prevent pests, such as rodents and insects in restaurants, food and beverage processors, educational and healthcare facilities, hotels, quick service restaurant and grocery operations, and other institutional and commercial customers. This segment also produces and sells colloidal silica for binding and polishing applications in semiconductor, catalyst, and aerospace component manufacturing, as well as chemical industries. Ecolab Inc. sells its products through field sales and corporate account personnel, distributors, and dealers. The company was founded in 1923 and is headquartered in St. Paul, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3358,6 +3924,11 @@
       <c r="F115" t="n">
         <v>41.78396</v>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Illumina, Inc. provides sequencing and array-based solutions for genetic and genomic analysis. The company offers sequencing that provides researchers with various applications and the ability to sequence mammalian genomes; and arrays for a range of deoxyribonucleic acid and RNA analysis applications, including single nucleotide polymorphism genotyping, copy number variations analysis, gene expression analysis, and methylation analysis, as well as enables the detection of known genetic markers on a single array. It also provides various library preparation and sequencing kits to simplify workflows and accelerate analysis; and genome sequencing, genotyping, and noninvasive prenatal testing, as well as products support services. The company serves genomic research centers, academic institutions, government laboratories, and hospitals; and pharmaceutical, biotechnology, and commercial molecular diagnostic laboratories, as well as consumer genomics companies. It markets and distributes its products directly to customers, as well as through life-science distributors. Illumina, Inc. has a collaboration with Roche to broaden the adoption of distributable next-generation sequencing-based (NGS) testing in oncology. The company operates in North America, Europe, Latin America, the Asia-Pacific region, the Middle East, China, and Africa. Illumina, Inc. was founded in 1998 and is headquartered in San Diego, California.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3384,6 +3955,11 @@
       <c r="F116" t="n">
         <v>12.512644</v>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Applied Materials, Inc. provides manufacturing equipment, services, and software to the semiconductor, display, and related industries. It operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. The Semiconductor Systems segment develops, manufactures, and sells various manufacturing equipment that is used to fabricate semiconductor chips or integrated circuits. This segment also offers various technologies, including epitaxy, ion implantation, oxidation and nitridation, rapid thermal processing, physical vapor deposition, chemical vapor deposition, chemical mechanical planarization, electrochemical deposition, atomic layer deposition, etching, and selective removal, as well as metrology and inspection tools. The Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity comprising spares, upgrades, services, remanufactured earlier generation equipment, and factory automation software for semiconductor, display, and other products. The Display and Adjacent Markets segment offers products for manufacturing liquid crystal displays; organic light-emitting diodes; and other display technologies for TVs, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices, as well as equipment for flexible substrates. The company serves manufacturers of semiconductor wafers and chips, liquid crystal and organic light-emitting diode displays, and other electronic devices. It operates in the United States, China, Korea, Taiwan, Japan, Southeast Asia, and Europe. Applied Materials, Inc. was founded in 1967 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3410,6 +3986,11 @@
       <c r="F117" t="n">
         <v>17.73896</v>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Kimberly-Clark Corporation, together with its subsidiaries, manufactures and markets personal care, consumer tissue, and professional products worldwide. It operates through three segments: Personal Care, Consumer Tissue, and K-C Professional. The Personal Care segment offers disposable diapers, training and youth pants, swimpants, baby wipes, feminine and incontinence care products, and other related products under the Huggies, Pull-Ups, Little Swimmers, GoodNites, DryNites, Kotex, U by Kotex, Intimus, Depend, Plenitud, Poise, and other brand names. The Consumer Tissue segment provides facial and bathroom tissues, paper towels, napkins, and related products under the Kleenex, Scott, Cottonelle, Viva, Andrex, Scottex, Neve, and other brand names. The K-C Professional segment offers wipers, tissues, towels, apparel, soaps, and sanitizers under the Kleenex, Scott, WypAll, Kimtech, and KleenGuard brands. The company sells household use products directly to supermarkets, mass merchandisers, drugstores, warehouse clubs, variety and department stores, and other retail outlets, as well as through other distributors and e-commerce; and away-from-home use products directly to manufacturing, lodging, office building, food service, and public facilities, as well as through distributors. Kimberly-Clark Corporation was founded in 1872 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3436,6 +4017,11 @@
       <c r="F118" t="n">
         <v>21.814905</v>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Dollar General Corporation, a discount retailer, provides various merchandise products in the southern, southwestern, Midwestern, and eastern United States. The company offers consumable products, including paper and cleaning products, such as paper towels, bath tissues, paper dinnerware, trash and storage bags, and laundry products; packaged food comprising cereals, canned soups and vegetables, condiments, spices, sugar, and flour; and perishables that include milk, eggs, bread, refrigerated and frozen food, beer, and wine. Its consumable products also comprise snacks, such as candies, cookies, crackers, salty snacks, and carbonated beverages; health and beauty products, including over-the-counter medicines and personal care products, such as soaps, body washes, shampoos, cosmetics, and dental hygiene and foot care products; pet supplies and pet food; and tobacco products. In addition, the company offers seasonal products comprising holiday items, toys, batteries, small electronics, greeting cards, stationery, prepaid phones and accessories, gardening supplies, hardware, and automotive and home office supplies; and home products that include kitchen supplies, cookware, small appliances, light bulbs, storage containers, frames, candles, craft supplies and kitchen, and bed and bath soft goods. Further, it provides apparel, which comprise casual everyday apparel for infants, toddlers, girls, boys, women, and men, as well as socks, underwear, disposable diapers, shoes, and accessories. As of February 28, 2020, Dollar General Corporation operated 16,368 stores in 45 states in the United States. The company was formerly known as J.L. Turner &amp; Son, Inc. and changed its name to Dollar General Corporation in 1968. Dollar General Corporation was founded in 1939 and is based in Goodlettsville, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3466,6 +4052,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3492,6 +4083,11 @@
       <c r="F120" t="n">
         <v>22.951199</v>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>The Sherwin-Williams Company develops, manufactures, distributes, and sells paints, coatings, and related products to professional, industrial, commercial, and retail customers. It operates in three segments: The Americas Group, Consumer Brands Group, and Performance Coatings Group. The Americas Group segment offers architectural paints and coatings, and protective and marine products, as well as OEM product finishes and related products for architectural and industrial paint contractors, and do-it-yourself homeowners. The Consumer Brands Group segment provides branded and private-label architectural paints, stains, varnishes, industrial products, wood finishes products, wood preservatives, applicators, corrosion inhibitors, aerosols, caulks, and adhesives to retailers and distributors. The Performance Coatings Group segment develops and sells industrial coatings for wood finishing and general industrial applications, automotive refinish products, protective and marine coatings, coil coatings, packaging coatings, and performance-based resins and colorants. It serves retailers, dealers, jobbers, licensees, and other third-party distributors through its branches and direct sales staff, as well as through outside sales representatives. The company has operations primarily in North and South America, the Caribbean, Europe, Asia, and Australia. As of March 3, 2020, it operated approximately 4,900 company-operated stores and facilities. The company was founded in 1866 and is headquartered in Cleveland, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3518,6 +4114,11 @@
       <c r="F121" t="n">
         <v>9.002732</v>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Chubb Limited, through its subsidiaries, provides insurance and reinsurance products worldwide. The company's North America Commercial P&amp;C Insurance segment offers commercial property, marine, casualty, workers' compensation, package policies, risk management, professional lines, marine, construction, environmental, medical, cyber risk, surety, and excess casualty; and group accident and health insurance to large, middle market, and small commercial businesses in the United States, Canada, and Bermuda. Its North America Personal P&amp;C Insurance segment provides affluent and high net worth individuals and families with homeowners, automobile and collector cars, valuable articles, personal and excess liability, travel insurance, and recreational marine insurance and services in the United States and Canada. The company's North America Agricultural Insurance segment offers multiple peril crop and crop-hail insurance; and coverage for farm and ranch property, and commercial agriculture products. Its Overseas General Insurance segment provides coverage for traditional commercial property and casualty; specialty categories, such as financial lines, marine, energy, aviation, political risk, and construction risk; and group accident and health, and traditional and specialty personal lines for corporations, middle markets, and small customers through retail brokers, agents, and other channels. The company's Global Reinsurance segment offers traditional and specialty reinsurance under the Chubb Tempest Re brand name to property and casualty companies. Its Life Insurance segment provides protection and savings products comprising whole life, endowment plans, individual term life, group term life, medical and health, personal accident, credit life, universal life, and unit linked contracts. The company was formerly known as ACE Limited and changed its name to Chubb Limited in January 2016. Chubb Limited was founded in 1985 and is headquartered in Zurich, Switzerland.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3544,6 +4145,11 @@
       <c r="F122" t="n">
         <v>21.779184</v>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Illinois Tool Works Inc. manufactures and sells industrial products and equipment worldwide. It operates through seven segments: Automotive OEM; Food Equipment; Test &amp; Measurement and Electronics; Welding; Polymers &amp; Fluids; Construction Products; and Specialty Products. The Automotive OEM segment offers plastic and metal components, fasteners, and assemblies for automobiles, light trucks, and other industrial uses. The Food Equipment segment provides warewashing, cooking, refrigeration, and food processing equipment; kitchen exhaust, ventilation, and pollution control systems; and food equipment maintenance and repair services. The Test &amp; Measurement and Electronics segment produces equipment, consumables, and related software for testing and measuring of materials and structures, as well as equipment and consumables used in the production of electronic subassemblies and microelectronics. The Welding segment produces arc welding equipment; and metal arc welding consumables and related accessories. The Polymers &amp; Fluids segment produces adhesives, sealants, lubrication and cutting fluids, and fluids and polymers for auto aftermarket maintenance and appearance. The Construction Products segment offers engineered fastening systems and solutions for the residential construction, renovation/remodel, and commercial construction markets. The Specialty Products segment offers beverage packaging equipment and consumables, product coding and marking equipment and consumables, and appliance components and fasteners. It serves the automotive OEM/tiers, commercial food equipment, construction, general industrial, and automotive aftermarket end markets. The company distributes its products directly to industrial manufacturers, as well as through independent distributors. Illinois Tool Works Inc. was founded in 1912 and is headquartered in Glenview, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3570,6 +4176,11 @@
       <c r="F123" t="n">
         <v>17.192375</v>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Aon plc, a professional services firm, provides advice and solutions to clients focused on risk, retirement, and health worldwide. It offers commercial risk solutions, including retail brokerage, cyber, and global risk consulting solutions, as well as acts as a captive insurance solutions provider; and health solutions, such as health and benefits brokerages, and health care exchanges. The company also provides treaty and facultative reinsurance, as well as mergers and acquisition, capital raising, strategic advisory, restructuring, and recapitalization services; insurance-linked securities; and corporate finance advisory services, capital markets solutions, and risk management products. In addition, it offers strategic design consulting services on their retirement programs, actuarial services, and risk management for organizations; advice services on developing and maintaining investment programs across a range of plan types, including defined benefit plans, defined contribution plans, endowments, and foundations for public and private companies, and other institutions; and advice and solutions that help clients in accelerating business outcomes by enhancing the performance of their people, including assessment and optimized deployment, as well as the design, alignment, and benchmarking of compensation to business strategy and performance outcomes. Further, the company develops, markets, and administers customized insurance programs and specialty market solutions for organizations, and their members or affiliates; operates the Global Risk Insight Platform, which provides data, analytics, engagement, and consulting services; and offers ReView that provides advisory, analysis, and benchmarking services to help reinsurers. Aon plc was founded in 1919 and is based in London, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3596,6 +4207,11 @@
       <c r="F124" t="n">
         <v>33.765526</v>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Edwards Lifesciences Corporation provides products and technologies for structural heart disease, and critical care and surgical monitoring in the United States and internationally. It offers transcatheter heart valve replacement products for the minimally invasive replacement of heart valves; and transcatheter heart valve repair and replacement products to treat mitral and tricuspid valve diseases. The company also provides surgical heart valve therapy products, such as pericardial valves for aortic and mitral surgical valve replacement; aortic heart valves; annuloplasty rings; cardiac cannula devices; beating heart mitral valve repair system for the treatment of degenerative mitral valve diseases, as well as various procedure-enabling platforms to advance minimally invasive surgery. In addition, it offers critical care products, such as hemodynamic monitoring systems to measure a patient's heart function and fluid status in surgical and intensive care settings; pulmonary artery catheters; arterial pressure monitoring products oximetry central venous catheters, as well as monitoring platforms that display a patient's physiological information; and Acumen Hypotension Prediction Index, which alerts clinicians in advance of a patient developing low blood pressure. The company distributes its products through direct sales force and independent distributors. Edwards Lifesciences Corporation was founded in 1958 and is headquartered in Irvine, California.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3622,6 +4238,11 @@
       <c r="F125" t="n">
         <v>124.78125</v>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ConocoPhillips explores for, produces, transports, and markets crude oil, bitumen, natural gas, liquefied natural gas (LNG), and natural gas liquids worldwide. The company primarily engages in the conventional and tight oil reservoirs, shale gas, heavy oil, LNG, oil sands, and other production operations. Its portfolio includes unconventional plays in North America; conventional assets in North America, Europe, Asia, and Australia; various LNG developments; oil sands assets in Canada; and an inventory of conventional and unconventional exploration prospects. The company was founded in 1917 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3648,6 +4269,11 @@
       <c r="F126" t="n">
         <v>22.402061</v>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Baxter International Inc., through its subsidiaries, develops and provides a portfolio of healthcare products. The company operates through North and South America; Europe, Middle East and Africa; and Asia-Pacific segments. The company offers peritoneal dialysis and hemodialysis, and additional dialysis therapies and services; renal replacement therapies and other organ support therapies focused in the intensive care unit; sterile intravenous (IV) solutions, IV therapies, infusion pumps, administration sets, and drug reconstitution devices; and parenteral nutrition therapies. It also provides biological products and medical devices, and surgical hemostat and sealant products used in surgical procedures for hemostasis, tissue sealing, and adhesion prevention; premixed and oncology drug platforms, inhaled anesthesia and critical care products, and pharmacy compounding services; and generic injectable pharmaceuticals. Its products are used in hospitals, kidney dialysis centers, nursing homes, rehabilitation centers, doctors' offices, and patients at home under physician supervision. The company sells its products through direct sales force, as well as through independent distributors, drug wholesalers, and specialty pharmacy or other alternate site providers in approximately 100 countries. It has an agreement with Celerity Pharmaceutical, LLC to develop acute care generic injectable premix and oncolytic molecules. Baxter International Inc. was founded in 1931 and is headquartered in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3674,6 +4300,11 @@
       <c r="F127" t="n">
         <v>8.383592</v>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Morgan Stanley, a financial holding company, provides various financial products and services to corporations, governments, financial institutions, and individuals in the Americas, Europe, the Middle East, Africa, and Asia. The company operates through Institutional Securities, Wealth Management, and Investment Management segments. The Institutional Securities segment offers capital raising and financial advisory services, including services related to the underwriting of debt, equity, and other securities, as well as advice on mergers and acquisitions, restructurings, real estate, and project finance. This segment also provides sales and trading services, including sales, financing, prime brokerage, and market-making services in equity and fixed income products consisting of foreign exchange and commodities; corporate and commercial real estate loans, which provides secured lending facilities and financing for sales and trading customers, as well as asset-backed and mortgage lending; and wealth management services, investment, and research services. The Wealth Management segment offers various financial services and solutions covering brokerage and investment advisory services; financial and wealth planning services; stock plan administration services; annuity and insurance products; securities-based lending, residential real estate loans, and other lending products; and banking and retirement plan services to individual investors and small to medium-sized businesses and institutions. The Investment Management segment provides various investment strategies and products comprising equity, fixed income, liquidity, and alternative/other products to benefit/defined contribution plans, foundations, endowments, government entities, sovereign wealth funds, insurance companies, and third-party fund sponsors and corporations through a network of institutional and intermediary channels. Morgan Stanley was founded in 1924 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3700,6 +4331,11 @@
       <c r="F128" t="n">
         <v>15.410729</v>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Norfolk Southern Corporation, together with its subsidiaries, engages in the rail transportation of raw materials, intermediate products, and finished goods in the United States. The company transports industrial products, including chemicals, agriculture, and metals and construction materials; and coal, automobiles, and automotive parts. It also transports overseas freight through various Atlantic and Gulf Coast ports; and provides commuter passenger services. As of December 31, 2019, the company operated approximately 19,500 route miles in 22 states and the District of Columbia. Norfolk Southern Corporation was incorporated in 1980 and is based in Norfolk, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3726,6 +4362,11 @@
       <c r="F129" t="n">
         <v>13.706319</v>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>The Progressive Corporation, through its subsidiaries, provides personal and commercial auto insurance, residential property insurance, and other specialty property-casualty insurance and related services primarily in the United States. Its Personal Lines segment writes insurance for personal autos, and recreational and other vehicles. This segment's products include personal auto insurance; and special lines products, including insurance for motorcycles, ATVs, RVs, watercrafts, and snowmobiles. The company's Commercial Lines segment provides auto-related primary liability and physical damage insurance, and business-related general liability and property insurance for autos, vans, pick-up trucks, and dump trucks used by small businesses; tractors, trailers, and straight trucks primarily used by regional general freight and expeditor-type businesses, and non-fleet long-haul operators; dump trucks, log trucks, and garbage trucks used by dirt, sand and gravel, logging, and coal-type businesses; tow trucks and wreckers used in towing services and gas/service station businesses; and non-fleet taxis, black-car services, and airport taxis. Its Property segment provides residential property insurance for homes, condos, manufactured homes, and renters, as well as offers personal umbrella insurance, and primary and excess flood insurance. The company also offers policy issuance and claims adjusting services; home, condominium, renters, and other insurance; and business owner's policies, general liability, professional liability, and workers' compensation insurance. In addition, it offers reinsurance services. The Progressive Corporation sells its products and services through independent insurance agencies, as well as directly on Internet through mobile devices, and over the phone. The Progressive Corporation was founded in 1937 and is headquartered in Mayfield, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3750,6 +4391,11 @@
         <v>43199889408</v>
       </c>
       <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Truist Financial Corporation, a holding company, provides banking and trust services for small and mid-size businesses, public agencies, local governments, corporations, and individuals in the Southeastern and Mid-Atlantic United States. The company operates through four segments: Community Banking Retail and Consumer Finance, Community Banking Commercial, Insurance Holdings, and Financial Services and Commercial Finance. Its deposit products include noninterest-bearing checking, interest-bearing checking, savings, and money market deposit accounts, as well as certificates of deposit and individual retirement accounts. The company also provides funding; asset management; automobile lending; bankcard lending; consumer finance; home equity and mortgage lending; insurance, such as property and casualty, life, health, employee benefits, commercial general liability, surety, title and other insurance products; investment brokerage; mobile/online banking; and payment, lease financing, small business lending, and wealth management/private banking services. In addition, it offers association, capital market, institutional trust, insurance premium and commercial finance, international banking, leasing, merchant, commercial deposit and treasury, commercial middle market lending, floor plan lending, commercial mortgage lending, mortgage warehouse lending, private equity investment, real estate lending, and supply chain financing services. Further, the company provides retail brokerage, equity and debt underwriting, investment advice, and corporate finance, as well as facilitates the origination, trading, and distribution of fixed-income securities and equity products. As of December 31, 2018, the company operated through approximately 1,879 financial centers. The company was formerly known as BB&amp;T Corporation and changed its name to Truist Financial Corporation in December 2019. The company was founded in 1872 and is based in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3776,6 +4422,11 @@
       <c r="F131" t="n">
         <v>11.310983</v>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>The PNC Financial Services Group, Inc. operates as a diversified financial services company in the United States. The Retail Banking segment offers deposit, lending, brokerage, insurance, and investment and cash management services to consumer and small business customers through a network of branches, ATMs, call centers, and online banking and mobile channels. The Corporate &amp; Institutional Banking segment provides secured and unsecured loans, letters of credit, and equipment leases; payables, receivables, deposit and account, liquidity and investments, and online and mobile banking products and services; foreign exchange, derivatives, securities underwriting, loan syndications, and mergers and acquisitions and equity capital markets advisory related services; and commercial loan servicing and technology solutions for the commercial real estate finance industry. The Asset Management Group segment offers investment and retirement planning, customized investment management, private banking, and trust management and administration solutions; and multi-generational family planning products, such as estate, financial, tax planning, fiduciary, investment management and consulting, private banking, personal administrative, asset custody, and customized performance reporting services. This segment also provides chief investment officer, custody, private real estate, cash and fixed income client solutions, and retirement advisory services. The BlackRock segment offers single- and multi-asset class portfolios; and investment and risk management services technology platform. As of December 31, 2019, it operated 2,296 branches and 9,091 ATMs. The PNC Financial Services Group, Inc. was founded in 1852 and is headquartered in Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3802,6 +4453,11 @@
       <c r="F132" t="n">
         <v>9.863924000000001</v>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>U.S. Bancorp, a financial services holding company, provides various financial services in the United States. It operates in five segments: Corporate and Commercial Banking, Consumer and Business Banking, Wealth Management and Investment Services, Payment Services, and Treasury and Corporate Support. The company offers depository services, including checking accounts, savings accounts, and time certificate contracts; lending services, such as traditional credit products; and credit card services, lease financing and import/export trade, asset-backed lending, agricultural finance, and other products, as well as home equity, auto, boat, RV, personal loans, and personal line of credit. It also provides ancillary services comprising capital markets, treasury management, and receivable lock-box collection services to corporate customers; and a range of asset management and fiduciary services for individuals, estates, foundations, business corporations, and charitable organizations. In addition, the company offers investment and insurance products to its customers principally within its markets, as well as fund administration services to a range of mutual and other funds. Further, it provides corporate and purchasing card, and corporate trust services; and merchant processing services, as well as cash and investment management, ATM processing, mortgage banking, and brokerage and leasing services. The company offers its products and services through operating a network of 2,795 banking offices principally operating in the Midwest and West regions of the United States, as well as through online services and over mobile devices. It also operates a network of 4,459 ATMs. The company has a strategic alliance with State Farm Bank. The company was founded in 1863 and is headquartered in Minneapolis, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3828,6 +4484,11 @@
       <c r="F133" t="n">
         <v>26.89301</v>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Moody's Corporation provides credit ratings and assessment services; and credit, capital markets, and economic research, data, and analytical tools worldwide. It operates through two segments, Moody's Investors Service and Moody's Analytics. The Moody's Investors Service segment publishes credit ratings and provides assessment services on various debt obligations and entities that issue such obligations, such as various corporate and governmental obligations, structured finance securities, and commercial paper programs. This segment provides ratings in approximately 130 countries. Its ratings are disseminated through press releases to the public through print and electronic media, including the Internet and real-time information systems used by securities traders and investors. As of December 31, 2019, this segment had ratings relationships with approximately 4,900 non-financial corporate issuers; 4,100 financial institutions issuers; 17,200 public finance issuers; and 1,000 infrastructure and project finance issuers, as well as 9,500 structured finance transactions. The Moody's Analytics segment develops a range of products and services that support financial analysis and risk management activities of institutional participants in financial markets; and offers subscription based research, data, and analytical products comprising credit ratings, credit research, quantitative credit scores and other analytical tools, economic research and forecasts, business intelligence and company information products, and commercial real estate data and analytical tools. It also offers software solutions, as well as related risk management services; and offshore analytical and research services with learning solutions and certification programs. The company was formerly known as Dun and Bradstreet Company and changed its name to Moody's Corporation in September 2000. Moody's Corporation was founded in 1900 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3854,6 +4515,11 @@
       <c r="F134" t="n">
         <v>14.675925</v>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Deere &amp; Company, together with its subsidiaries, manufactures and distributes various equipment worldwide. The company operates through three segments: Agriculture and Turf, Construction and Forestry, and Financial Services. The Agriculture and Turf segment provides various agriculture and turf equipment, and related service parts, including large, medium, and utility tractors; tractor loaders; combines, cotton pickers, cotton strippers, and sugarcane harvesters; harvesting front-end equipment; sugarcane loaders and pull-behind scrapers; tillage, seeding, and application equipment comprising sprayers, nutrient management, and soil preparation machinery; self-propelled forage harvesters and attachments, balers, and mowers; riding lawn equipment and walk-behind mowers, golf course equipment, utility vehicles, and commercial mowing equipment along with associated implements; integrated agricultural management systems technology and solutions; and other outdoor power products. The Construction and Forestry segment offers a range of machines and service parts used in construction, earthmoving, road building, material handling, and timber harvesting, including backhoe loaders; crawler dozers and loaders; four-wheel-drive loaders; excavators; motor graders; articulated dump trucks; landscape loaders; skid-steer loaders; milling machines; recyclers; slipform pavers; surface miners; asphalt pavers; compactors; tandem and static rollers; mobile crushers and screens; mobile and stationary asphalt plants; log skidders; feller bunchers; log loaders; log forwarders; and log harvesters and related logging attachments. The Financial Services segment finances sales and leases agriculture and turf, and construction and forestry equipment. It also offers wholesale financing to dealers of the foregoing equipment; and extended equipment warranties, as well as finances retail revolving charge accounts. The company was founded in 1837 and is headquartered in Moline, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3880,6 +4546,11 @@
       <c r="F135" t="n">
         <v>13.452344</v>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>L3Harris Technologies, Inc., an aerospace and defense technology company, provides mission-critical solutions for government and commercial customers worldwide. The company's Integrated Mission Systems segment provides multi-mission intelligence, surveillance, and reconnaissance (ISR) systems; and communication systems, as well as fleet management support, sensor development, modifications, and periodic depot maintenance services for ISR and airborne missions. It also manufactures and integrates maritime integrated command, control, communications, computers, and cyber ISR systems for maritime platforms; unmanned surface and undersea autonomous solutions; power and ship control systems; and other electronic and electrical products and systems, as well as designs and manufactures electro-optical and infrared sensors and surveillance, and targeting systems. Its Space and Airborne Systems segment offers space payloads, sensors, and full-mission solutions; classified intelligence and cyber defense solutions; and avionics and electronic warfare systems. The company's Communication Systems segment provides tactical radio communications, SATCOM terminals, and battlefield management networks; broadband secured mobile networked communication equipment, including airborne, space, and surface data link terminals, as well as ground stations and transportable tactical SATCOM systems; helmet and weapon mounted integrated night vision systems; and radios, systems applications, and equipment for public safety and professional communications. Its Aviation Systems segment offers defense aviation products; security, detection, and other commercial aviation products; commercial and military pilot training solutions; and mission networks for air traffic management. The company was formerly known as Harris Corporation and changed its name to L3Harris Technologies, Inc. in June 2019. L3Harris Technologies, Inc. was founded in 1895 and is headquartered in Melbourne, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3906,6 +4577,11 @@
       <c r="F136" t="n">
         <v>30.720207</v>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Autodesk, Inc. operates as a software design and services company worldwide. The company offers AutoCAD, a professional design, drafting, detailing, and visualization software; AutoCAD Civil 3D, a surveying, design, analysis, and documentation solution for civil engineering, including land development, transportation, and environmental projects; AutoCAD LT, a drafting and detailing software; BIM 360, a construction management cloud-based software; computer-aided manufacturing (CAM) software for computer numeric control machining, inspection, and modelling for manufacturing; Fusion 360, a 3D CAD, CAM, and computer-aided engineering tool; and Industry Collections software products for professionals in architecture, engineering and construction, product design and manufacturing, and media and entertainment industries. It also provides Inventor tools for 3D mechanical design, simulation, analysis, tooling, visualization, and documentation; Maya and 3ds Max software products that offer 3D modeling, animation, effects, rendering, and compositing solutions; and PlanGrid, a cloud-based field collaboration software, which provides general contractors, subcontractors, owners, and architects access to construction information in real-time. In addition, the company offers Revit software for building information modeling; Shotgun, a cloud-based software for review and production tracking in the media and entertainment industry; and Vault, a data management software to manage data in one central location, accelerate design processes, and streamline internal/external collaboration. Autodesk, Inc. sells its products and services to customers directly, as well as through distributors and resellers. The company was founded in 1982 and is headquartered in San Rafael, California.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3932,6 +4608,11 @@
       <c r="F137" t="n">
         <v>18.084301</v>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>General Mills, Inc. manufactures and markets branded consumer foods worldwide. The company operates in five segments: North America Retail; Convenience Stores &amp; Foodservice; Europe &amp; Australia; Asia &amp; Latin America; and Pet. It offers ready-to-eat cereals, refrigerated yogurt, soup, meal kits, refrigerated and frozen dough products, dessert and baking mixes, frozen pizza and pizza snacks, grain, fruit, and savory snacks, as well as organic products, including refrigerated yogurt, nutrition bars, meal kits, salty snacks, ready-to-eat cereal, and grain snacks. It also supplies branded and unbranded food products to the North American foodservice and commercial baking industries; and manufactures and markets pet food products, including dog and cat food. The company markets its products under the Annie's, Betty Crocker, Bisquick, Blue Buffalo, BLUE Basics, BLUE Freedom, BLUE Wilderness, Bugles, Cascadian Farm, Cheerios, Chex, Cinnamon Toast Crunch, Cocoa Puffs, Cookie Crisp, EPIC, Fiber One, Food Should Taste Good, Fruit by the Foot, Fruit Gushers, Fruit Roll-Ups, Gardetto's, Go-Gurt, Gold Medal, Golden Grahams, Häagen-Dazs, Helpers, Jeno's, Jus-Rol, Kitano, Kix, Lärabar, Latina, Liberté, Lucky Charms, Muir Glen, Nature Valley, Oatmeal Crisp, Old El Paso, Pillsbury, Progresso, Raisin Nut Bran, Total, Totino's, Trix, Wanchai Ferry, Wheaties, Yoki, and Yoplait trademarks. General Mills, Inc. sells its products directly, as well as through broker and distribution arrangements to grocery stores, mass merchandisers, membership stores, natural food chains, e-commerce retailers, commercial and noncommercial foodservice distributors and operators, restaurants, convenience stores, and pet specialty stores, as well as drug, dollar, and discount chains. It operates 525 leased and 365 franchise branded ice cream parlors. General Mills, Inc. was founded in 1866 and is headquartered in Minneapolis, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3958,6 +4639,11 @@
       <c r="F138" t="n">
         <v>16.831896</v>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>American Electric Power Company, Inc., an electric public utility holding company, engages in the generation, transmission, and distribution of electricity for sale to retail and wholesale customers in the United States. It operates through Vertically Integrated Utilities, Transmission and Distribution Utilities, AEP Transmission Holdco, and Generation &amp; Marketing segments. The company generates electricity using coal and lignite, natural gas, nuclear, and hydroelectric, as well as solar, wind, and other energy sources. It also supplies and markets electric power at wholesale to other electric utility companies, rural electric cooperatives, municipalities, and other market participants. The company owns, leases, or controls approximately 4,004 railcars, 468 barges, 8 towboats, and a coal handling terminal with approximately 18 million tons of annual capacity. American Electric Power Company, Inc. was founded in 1906 and is headquartered in Columbus, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3984,6 +4670,11 @@
       <c r="F139" t="n">
         <v>20.523346</v>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Analog Devices, Inc. designs, manufactures, and markets integrated circuits (ICs), algorithms, software, and subsystems that leverage analog, mixed-signal, and digital signal processing technologies. The company offers data converter products, which translate real-world analog signals into digital data, as well as translates digital data into analog signals; high-performance amplifiers to condition analog signals; and radio frequency and microwave ICs to support cellular infrastructure. It also provides power management and reference products for power management and conversion applications in the automotive, communications, industrial, and high-end consumer markets; and microelectromechanical systems technology solutions, including accelerometers used to sense acceleration, gyroscopes to sense rotation, and inertial measurement units to sense multiple degrees of freedom. In addition, the company offers isolators for various applications, such as universal serial bus isolation in patient monitors; and smart metering and satellite applications, as well as digital signal processing products for high-speed numeric calculations. The company serves clients in industrial, automotive, consumer, and communications markets through a direct sales force, third-party distributors, and independent sales representatives in the United States, the rest of North and South America, Europe, Japan, China, and the rest of Asia, as well as through its Website. It has a strategic collaboration with Pinpoint Science Inc. to advance the development and manufacture of novel nanosensor diagnostics. Analog Devices, Inc. was founded in 1965 and is headquartered in Norwood, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4010,6 +4701,11 @@
       <c r="F140" t="n">
         <v>18.152174</v>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>The Charles Schwab Corporation, through its subsidiaries, provides wealth management, securities brokerage, banking, asset management, custody, and financial advisory services. The company operates through two segments, Investor Services and Advisor Services. The Investor Services segment provides retail brokerage and banking services, retirement plan services, and other corporate brokerage services; equity compensation plan sponsors full-service recordkeeping for stock plans, stock options, restricted stock, performance shares, and stock appreciation rights; and retail investor, retirement plan, and mutual fund clearing services. The Advisor Services segment provides custodial, trading, and support services; and retirement business and corporate brokerage retirement services. This segment provides brokerage accounts with cash management capabilities; third-party mutual funds, as well as proprietary mutual funds, plus mutual fund trading, and clearing services to broker-dealers; and exchange-traded funds (ETFs), including proprietary and third-party ETFs. It also offers advice solutions, such as managed portfolios of proprietary and third-party mutual funds and ETFs, separately managed accounts, customized personal advice for tailored portfolios, and specialized planning and portfolio management. In addition, this segment provides banking products and services, including checking and savings accounts, certificates of deposit, first lien residential real estate mortgage loans, home equity loans and lines of credit, and pledged asset lines; and trust services comprising trust custody services, personal trust reporting services, and administrative trustee services. The company serves individuals and institutional clients in the United States, the Commonwealth of Puerto Rico, England, Hong Kong, Singapore, and Australia. The Charles Schwab Corporation was founded in 1971 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4036,6 +4732,11 @@
       <c r="F141" t="n">
         <v>23.028437</v>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Waste Management, Inc., through its subsidiaries, provides waste management environmental services to residential, commercial, industrial, and municipal customers in North America. It provides collection services, including picking up and transporting waste and recyclable materials from where it was generated to a transfer station, material recovery facility (MRF), or disposal site; and owns, develops, and operates landfill gas-to-energy facilities in the United States, as well as owns and operates transfer stations. As of December 31, 2018, the company owned or operated 247 solid waste landfills; 5 secure hazardous waste landfills; 102 MRFs; and 314 transfer stations. It also provides materials processing and commodities recycling services; recycling brokerage services, such as managing the marketing of recyclable materials for third parties; and other strategic business solutions. In addition, the company offers construction and remediation services; services related with the disposal of fly ash, and residue generated from the combustion of coal and other fuel stocks; in-plant services comprising full-service waste management solutions and consulting services; and specialized disposal services for oil and gas exploration and production operations. Further, it offers fluorescent bulb and universal waste mail-back services through LampTracker program; portable restroom services under the Port-o-Let name; and street and parking lot sweeping services, as well as holds interests in oil and gas producing properties. The company was formerly known as USA Waste Services, Inc. and changed its name to Waste Management, Inc. in 1998. Waste Management, Inc. was incorporated in 1987 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4062,6 +4763,11 @@
       <c r="F142" t="n">
         <v>11.410745</v>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Centene Corporation operates as a multi-national healthcare enterprise that provides programs and services to under-insured and uninsured individuals in the United States. Its Managed Care segment offers health plan coverage to individuals through government subsidized programs, including Medicaid, the State children's health insurance program, long-term services and support, foster care, and medicare-medicaid plans, which cover dually eligible individuals, as well as aged, blind, or disabled programs. Its health plans include primary and specialty physician care, inpatient and outpatient hospital care, emergency and urgent care, prenatal care, laboratory and X-ray, home-based primary care, transportation assistance, vision care, dental care, telehealth, immunization, specialty pharmacy, therapy, social work, nurse advisory, and care coordination services, as well as prescriptions and limited over-the-counter drugs, medical equipment, and behavioral health and abuse services. This segment also offers various individual, small group, and large group commercial healthcare products to employers and directly to members in the Managed Care segment. The company's Specialty Services segment provides pharmacy benefits management services; health, triage, wellness, and disease management services; and vision and dental, and management services, as well as care management software that automate the clinical, administrative, and technical components of care management programs; staffing services; and services to Military Health System eligible beneficiaries. This segment offers its services and products to state programs, correctional facilities, healthcare organizations, employer groups, and other commercial organizations. The company provides its services through primary and specialty care physicians, hospitals, and ancillary providers. Centene Corporation was founded in 1984 and is headquartered in St. Louis, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4088,6 +4794,11 @@
       <c r="F143" t="n">
         <v>137.09183</v>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>DexCom, Inc., a medical device company, focuses on the design, development, and commercialization of continuous glucose monitoring (CGM) systems in the United States and internationally. The company offers its systems for use by people with diabetes, as well as for use by healthcare providers. Its products include DexCom G6, a CGM system for diabetes management; DexCom G5 mobile CGM system to communicate directly to patient's mobile device; DexCom G4 PLATINUM system for continuous use by adults with diabetes; and DexCom Share, a remote monitoring system. DexCom, Inc. has a collaboration and license agreement with Verily Life Sciences LLC and Verily Ireland Limited to develop a series of next-generation CGM products; and a collaboration with Companion Medical, Inc. The company markets its products directly to endocrinologists, physicians, and diabetes educators. DexCom, Inc. was founded in 1999 and is headquartered in San Diego, California.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4114,6 +4825,11 @@
       <c r="F144" t="n">
         <v>27.021164</v>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Roper Technologies, Inc. designs and develops software, and engineered products and solutions worldwide. It offers management, campus solutions, laboratory information management, enterprise management, information solutions, transportation management, financial and compliance management, cloud-based financial analytics and performance management, and diagnostic and laboratory information system software; and software, services, and technologies for foodservice operations. The company also provides cloud-based data, collaboration, and estimating automation software; visual effects and 3D content software; electronic marketplace; wireless sensor network and solutions; cloud-based software solutions; supply chain software; health care service and software; RFID card readers; data analytics and information; pharmacies software solutions; and toll system and products, transaction and violation processing services, and intelligent traffic systems. In addition, it offers precision rubber and polymer testing instruments, and data analysis software; ultrasound accessories; radiotherapy solutions; testing and analyzing plastics solutions; dispensers and metering pumps; control valves; precision weighing equipment; automated surgical scrub and linen dispensing equipment; water meters; automated leak detection equipment; medical devices; products and services for water and gas utilities; and equipment and consumables. The company also provides temperature control and emergency shutoff valves; turbomachinery control hardware, software, and services; specialized pumps; low meter calibrators, and controllers; vibration monitoring systems and controls; analytical instrument; drilling power section; pressure and level sensors; and non-destructive testing equipment and solutions. The company was formerly known as Roper Industries, Inc. and changed its name to Roper Technologies, Inc. in April 2015. Roper Technologies, Inc. was incorporated in 1981 and is based in Sarasota, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4140,6 +4856,11 @@
       <c r="F145" t="n">
         <v>30.405556</v>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>The Estée Lauder Companies Inc. manufactures and markets skin care, makeup, fragrance, and hair care products. The company offers a range of skin care products, including moisturizers, serums, cleansers, toners, body care, exfoliators, acne care and oil correctors, facial masks, cleansing devices, and sun care products; and makeup products, such as lipsticks, lip glosses, mascaras, foundations, eyeshadows, nail polishes, and powders, as well as compacts, brushes, and other makeup tools. It also provides fragrance products in various forms comprising eau de parfum sprays and colognes, as well as lotions, powders, creams, candles, and soaps; and hair care products that include shampoos, conditioners, styling products, treatment, finishing sprays, and hair color products, as well as sells ancillary products and services. The company offers its products under Estée Lauder, Aramis, Clinique, Lab Series, Origins, M·A·C, Bobbi Brown, La Mer, Aveda, Jo Malone London, Bumble and bumble, Darphin, Smashbox, Le Labo, Editions de Parfums Frédéric Malle, GLAMGLOW, By Kilian, BECCA, Too Faced, RODIN olio lusso, FLIRT!, Kiton, and Tom Ford brands. It also holds license arrangements for Tommy Hilfiger, Donna Karan New York, DKNY, Michael Kors, Ermenegildo Zegna, Dr. Andrew Weil, TOM FORD BEAUTY, AERIN, and Tory Burch brands. The company sells its products through department stores, specialty-multi retailers, upscale perfumeries and pharmacies, and salons and spas; freestanding stores; its own and authorized retailer Websites; third-party online malls; stores in airports and on cruise ships; in-flight and duty-free shops; and self-select outlets. It has operations in the Americas, Europe, the Middle East, Africa, and the Asia Pacific. The Estée Lauder Companies Inc. was founded in 1946 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4166,6 +4887,11 @@
       <c r="F146" t="n">
         <v>15.120853</v>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Lam Research Corporation designs, manufactures, markets, refurbishes, and services semiconductor processing equipment used in the fabrication of integrated circuits worldwide. The company offers ALTUS systems to deposit conformal films for tungsten metallization applications; SABRE electrochemical deposition product for copper damascene manufacturing; SOLA ultraviolet thermal processing products for film treatment; SPEED gapfill high-density plasma chemical vapor deposition (CVD) products; Striker single-wafer atomic layer deposition (ALD) products; and VECTOR plasma-enhanced CVD ALD products. It also provides Flex for dielectric etch applications; Kiyo for conductor etch applications; Syndion for through-silicon via etch applications; and Versys metal products for metal etch processes. In addition, the company offers Coronus bevel clean products to enhance die yield; Da Vinci, DV-Prime, EOS, and SP to address a range of wafer cleaning appplications; and Metryx mass metrology systems for high precision in-line mass measurement in semiconductor wafer manufacturing. The company was founded in 1980 and is headquartered in Fremont, California.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4192,6 +4918,11 @@
       <c r="F147" t="n">
         <v>79.95180999999999</v>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Digital Realty supports the data center, colocation and interconnection strategies of customers across the Americas, EMEA and APAC, ranging from cloud and information technology services, communications and social networking to financial services, manufacturing, energy, healthcare and consumer products.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4218,6 +4949,11 @@
       <c r="F148" t="n">
         <v>45.62981</v>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>T-Mobile US, Inc., through its subsidiaries, provides wireless services for branded postpaid and prepaid, and wholesale customers in the United States, Puerto Rico, and the United States Virgin Islands. The company offers voice, messaging, and data services. It also provides wireless devices, including smartphones, wearables, tablets, and other mobile communication devices, as well as accessories; and wirelines services. The company offers its services under the T-Mobile, Metro by T-Mobile, and Sprint brands. The company was founded in 1994 and is headquartered in Bellevue, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4244,6 +4980,11 @@
       <c r="F149" t="n">
         <v>12.1548815</v>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Exelon Corporation, a utility services holding company, engages in energy generation and delivery businesses in the United States and Canada. It owns nuclear, fossil, wind, hydroelectric, and solar generating facilities. The company also sells electricity to wholesale and retail customers; and sells natural gas, renewable energy, and other energy-related products and services. In addition, it is involved in the purchase and regulated retail sale of electricity and natural gas; and transmission and distribution of electricity, and distribution of natural gas to retail customers. Further, the company offers corporate governance support services, including corporate strategy and development, legal, human resources, information technology, finance, real estate, security, corporate communications, supply at cost, engineering, distribution and transmission planning, asset management, system operations, and power procurement services. It serves distribution utilities, municipalities, cooperatives, and financial institutions, as well as commercial, industrial, governmental, and residential customers. The company was incorporated in 1999 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4270,6 +5011,11 @@
       <c r="F150" t="n">
         <v>23.612904</v>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Electronic Arts Inc. develops, markets, publishes, and distributes games, content, and services for game consoles, PCs, mobile phones, and tablets worldwide. The company develops and publishes games and services across various genres, such as sports, first-person shooter, action, role-playing, and simulation primarily under the Battlefield, The Sims, Apex Legends, Anthem, Need for Speed, and Plants v. Zombies brands; and license games, including FIFA, Madden NFL, and Star Wars brands. It also provides advertising services; licenses its games to third parties to distribute and host its games. The company markets and sells its games and services through digital distribution channels, as well as through retail channels, such as mass market retailers, electronics specialty stores, and game software specialty stores. Electronic Arts Inc. was founded in 1982 and is headquartered in Redwood City, California.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4296,6 +5042,11 @@
       <c r="F151" t="n">
         <v>15.271573</v>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Sempra Energy operates as an energy-services holding company in the United States and internationally. The company's San Diego Gas &amp; Electric Company segment generates, transmits, and distributes electricity; and supplies natural gas. It provides electric services to a population of approximately 3.7 million and natural gas services to approximately 3.4 million of that population covering an area of 4,100 square miles. Its Southern California Gas Company segment owns and operates a natural gas distribution, transmission, and storage system that supplies natural gas to a population of approximately 22 million covering an area of 24,000 square miles. The company's Sempra Texas Utilities segment is involved in the regulated transmission and distribution of electricity serving approximately 3.6 million homes and businesses, and operating approximately 139,000 miles of transmission and distribution lines. Its transmission system included 17,799 circuit miles of transmission lines, 349 transmission stations, and 775 distribution substations; distribution system consisted of 121,747 miles of overhead and underground lines; and approximately 65 miles of electric transmission lines. Its Sempra Mexico segment develops, owns and operates, or holds interests in natural gas, electric, liquefied natural gas (LNG), liquid petroleum gas (LPG), ethane, and liquid fuels infrastructure; and engages in the purchase of LNG, and purchase and sale of natural gas. This segment operates a natural-gas-fired combined-cycle plant, and wind and solar power generation facilities. Its assets/facilities consisted of 1,850 miles of natural gas transmission pipelines, 13 compressor stations, 139 miles of ethane pipelines, 118 miles of LPG pipelines, and one LPG storage terminal. The company's Sempra LNG segment develops and holds interest in export of LNG; and owns, operates, buys, sells, and transports natural gas. The company was founded in 1998 and is headquartered in San Diego, California.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4322,6 +5073,11 @@
       <c r="F152" t="n">
         <v>12.710674</v>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>DuPont de Nemours, Inc. provides technology-based materials, ingredients, and solutions in the United States, Canada, the Asia Pacific, Latin America, Europe, the Middle East, and Africa. The company provide Electronics &amp; Imaging segment supplies materials to manufacture photovoltaics and solar cells; materials and printing systems to the advanced printing industry; and materials and solutions for the fabrication of semiconductors and integrated circuits addressing front-end and back-end of the manufacturing process. This segment also provides permanent and process chemistries for the fabrication of printed circuit boards to include laminates and substrates, electroless, and electrolytic metallization solutions, as well as patterning solutions, and materials and metallization processes for metal finishing, decorative, and industrial applications. In addition, it offers various materials to manufacture rigid and flexible displays for liquid crystal displays, advanced-matrix organic light emitting diode, and quantum dot applications. It also provide Transportation &amp; Advanced Polymers segment provides engineering resins, adhesives, lubricants, and parts to engineers and designers in the transportation, electronics, healthcare, industrial, and consumer end-markets. The company in Safety &amp; Construction segment provides engineered products and integrated systems for construction, worker safety, energy, oil and gas, transportation, medical device, and water purification and separation industries. The company was formerly known as DowDuPont Inc. and changed its name to DuPont de Nemours, Inc. in June 2019. DuPont de Nemours, Inc. was founded in 1805 is based in Wilmington, Delaware.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4348,6 +5104,11 @@
       <c r="F153" t="n">
         <v>99.975266</v>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>SBA Communications Corporation is a first choice provider and leading owner and operator of wireless communications infrastructure in North, Central, and South America and South Africa. By Building Better Wireless, SBA generates revenue from two primary businesses  site leasing and site development services. The primary focus of the Company is the leasing of antenna space on its multi-tenant communication sites to a variety of wireless service providers under long-term lease contracts.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4374,6 +5135,11 @@
       <c r="F154" t="n">
         <v>12.473294</v>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>eBay Inc. operates the marketplace and classifieds platforms that connect buyers and sellers worldwide. Its Marketplace platform includes its online marketplace at ebay.com and the eBay suite of mobile apps; and Classifieds platform comprises a collection of brands, such as Mobile.de, Kijiji, Gumtree, Marktplaats, eBay Kleinanzeigen, and others that offer online classifieds to help people find what they are looking for in their local communities. Its platforms enable users to list, buy, sell, and pay for items through various online, mobile, and offline channels that include retailers, distributors, liquidators, import and export companies, auctioneers, catalog and mail-order companies, classifieds, directories, search engines, commerce participants, shopping channels, and networks. The company was founded in 1995 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4400,6 +5166,11 @@
       <c r="F155" t="n">
         <v>16.839117</v>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Emerson Electric Co., a technology and engineering company, provides solutions to industrial, commercial, and consumer markets worldwide. It operates through Automation Solutions and Commercial &amp; Residential Solutions segments. The Automation Solutions segment offers measurement and analytical instrumentation, industrial valves and equipment, and process control software and systems. It serves the oil and gas, refining, chemicals and power generation, pharmaceuticals, food and beverage, automotive, pulp and paper, metals and mining, and municipal water supplies markets. The Commercial &amp; Residential Solutions segment offers residential and commercial heating and air conditioning products, such as residential and variable speed scroll compressors; system protector and flow control devices; standard, programmable, and Wi-Fi thermostats; monitoring equipment and electronic controls for gas and electric heating systems; gas valves for furnaces and water heaters; ignition systems for furnaces; sensors and thermistors for home appliances; and temperature sensors and controls. It also provides reciprocating, scroll, and screw compressors; precision flow controls; system diagnostics and controls; and environmental control systems for use in medical, food processing, and cold storage applications. In addition, this segment offers air conditioning, refrigeration, and lighting control technologies, as well as facility design and product management, site commissioning, facility monitoring, and energy modeling services; temperature management and monitoring products for the foodservice markets; and professional and homeowner tools, and appliance solutions. The company was formerly known as The Emerson Electric Manufacturing Company and changed its name to Emerson Electric Co. in 2000. Emerson Electric Co. was founded in 1890 and is headquartered in St. Louis, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4426,6 +5197,11 @@
       <c r="F156" t="n">
         <v>10.904256</v>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Phillips 66 operates as an energy manufacturing and logistics company. It operates through four segments: Midstream, Chemicals, Refining, and Marketing and Specialties (M&amp;S). The Midstream segment transports crude oil and other feedstocks; delivers refined products to market; provides terminaling and storage services for crude oil and petroleum products; transports, stores, fractionates, exports, and markets natural gas liquids; provides other fee-based processing services; and gathers, processes, transports, and markets natural gas. The Chemicals segment manufactures and markets ethylene and other olefin products; aromatics and styrenics products, such as benzene, cyclohexane, styrene, and polystyrene; and various specialty chemical products, including organosulfur chemicals, solvents, catalysts, and chemicals used in drilling and mining. The Refining segment refines crude oil and other feedstocks into petroleum products comprising gasolines, distillates, and aviation fuels at 13 refineries in the United States and Europe. The M&amp;S segment purchases for resale and markets refined petroleum products consisting of gasolines, distillates, and aviation fuels primarily in the United States and Europe. It also manufactures and markets specialty products, such as petroleum coke products, waxes, solvents, and polypropylene. Phillips 66 was founded in 1875 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4446,12 +5222,13 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
+      <c r="E157" t="n">
+        <v>38572208128</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10.701288</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4482,6 +5259,11 @@
       <c r="F158" t="n">
         <v>15.445362</v>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Eaton Corporation plc operates as a power management company worldwide. Its Electrical Products segment offers electrical and industrial components, wiring devices, and structural support systems; and residential, single phase power quality, emergency lighting and fire detection, and circuit protection and lighting products. The company's Electrical Systems and Services segment provides power distribution and assemblies, three phase power quality products, hazardous duty electrical equipment, explosion-proof instrumentation, utility power distribution equipment, power reliability equipment, and services. Its Hydraulics segment offers power, controls and sensing, and fluid conveyance products; and filtration systems solutions, industrial drum and disc brakes, and golf grips. The company's Aerospace segment provides hydraulic power generation and fuel systems, controls and sensing, and fluid and conveyance products for commercial and military use. Its Vehicle segment offers transmissions, clutches, hybrid power systems, superchargers, engine valves and valve actuation systems, cylinder heads, locking and limited slip differentials, transmission controls, and fuel vapor components for vehicle industry. The company's eMobility segment provides voltage inverters, converters, fuses, circuit protection units, vehicle controls, power distribution products, fuel tank isolation valves, and commercial vehicle hybrid systems. It serves industrial, institutional, governmental, utility, commercial, residential, information technology, renewable energy, marine, agriculture, oil and gas, construction, mining, forestry, material handling, truck and bus, machine tools, molding, primary metals, and power generation markets, as well as original equipment manufacturers and aftermarket customers. The company was founded in 1916 and is based in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4508,6 +5290,11 @@
       <c r="F159" t="n">
         <v>19.662163</v>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Xcel Energy Inc., through its subsidiaries, generates, purchases, transmits, distributes, and sells electricity. It operates through Regulated Electric Utility, Regulated Natural Gas Utility, and All Other segments. The company generates electricity through coal, nuclear, natural gas, hydroelectric, solar, biomass, oil, wood/refuse, and wind energy sources. It also purchases, transports, distributes, and sells natural gas to retail customers, as well as transports customer-owned natural gas. In addition, the company develops and leases natural gas pipelines, and storage and compression facilities; and invests in rental housing projects, as well as procures equipment for construction of renewable generation facilities. It serves residential, commercial, and industrial customers in the portions of Colorado, Michigan, Minnesota, New Mexico, North Dakota, South Dakota, Texas, and Wisconsin. The company sells electricity to approximately 3.7 million customers; and natural gas to approximately 2.1 million customers. Xcel Energy Inc. was founded in 1909 and is headquartered in Minneapolis, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4534,6 +5321,11 @@
       <c r="F160" t="n">
         <v>19.079006</v>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Ross Stores, Inc., together with its subsidiaries, operates off-price retail apparel and home fashion stores under the Ross Dress for Less and dd's DISCOUNTS brands. Its stores primarily offers apparel, accessories, footwear, and home fashions. The company's Ross Dress for Less stores sell its products at department and specialty stores primarily to middle income households; and dd's DISCOUNTS stores sell its products at department and discount stores regular prices to customers from households with moderate income. As of March 9, 2020, it operated approximately 1,831 off-price apparel and home fashion stores under the Ross Dress for Less and dd's DISCOUNTS names in 39 states, the District of Columbia, and Guam. The company was founded in 1982 and is headquartered in Dublin, California.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4560,6 +5352,11 @@
       <c r="F161" t="n">
         <v>8.744878999999999</v>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>The Allstate Corporation, through its subsidiaries, provides property and casualty, and other insurance products in the United States and Canada. The company operates through Allstate Protection, Service Businesses, Allstate Life, and Allstate Benefits segments. The Allstate Protection segment offers private passenger auto and homeowners insurance; specialty auto products, including motorcycle, trailer, motor home, and off-road vehicle insurance; other personal lines products, such as renter, condominium, landlord, boat, umbrella, and manufactured home and stand-alone scheduled personal property; liability insurance products; and commercial lines products under the Allstate, Esurance, and Encompass brand names. The Service Businesses segment provides consumer product protection plans; finance and insurance products, including vehicle service contracts, guaranteed asset protection waivers, road hazard tire and wheel, and paint less dent repair protection; roadside assistance; device and mobile data collection services; and analytic solutions using automotive telematics information and identity protection. This segment offers its products under various brands including Allstate Protection Plans, Allstate Dealer Services, Allstate Roadside Services, Arity, and Allstate Identity Protection. The Allstate Life Segment offers traditional, interest-sensitive, and variable life insurance products, as well as non-proprietary retirement product solutions offered by third-party providers. Its Allstate Benefits segment provides life, accident, critical illness, short-term disability, and other health insurance products. The company sells its products through direct contact centers, agencies, financial specialists, brokers, wholesale partners, and affinity groups, as well as through online and mobile applications. The Allstate Corporation was founded in 1931 and is based in Northbrook, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4586,6 +5383,11 @@
       <c r="F162" t="n">
         <v>20.18228</v>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>O'Reilly Automotive, Inc., together with its subsidiaries, engages in the retail of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The company provides new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, lighting products, appearance products, engine additives, filters, fluids, and oil and wiper blades; and accessories, such as floor mats, seat covers, and truck accessories. Its stores offer auto body paint and related materials, automotive tools, and professional service provider service equipment. The company's stores also offer enhanced services and programs comprising used oil, oil filter, and battery recycling; battery, wiper, and bulb replacement; battery diagnostic testing; electrical and module testing; check engine light code extraction; loaner tool program; drum and rotor resurfacing; custom hydraulic hoses; professional paint shop mixing and related materials; and machine shops. Its stores provide do-it-yourself and professional service provider customers a selection of products for domestic and imported automobiles, vans, and trucks. As of December 31, 2019, the company operated 5,439 stores. O'Reilly Automotive, Inc. was founded in 1957 and is headquartered in Springfield, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4612,6 +5414,11 @@
       <c r="F163" t="n">
         <v>6.551433</v>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Walgreens Boots Alliance, Inc. operates as a pharmacy-led health and wellbeing company. It operates through three segments: Retail Pharmacy USA, Retail Pharmacy International, and Pharmaceutical Wholesale. The Retail Pharmacy USA segment sells prescription drugs and an assortment of retail products, including health, wellness, beauty, personal care, consumable, and general merchandise products through its retail drugstores and convenient care clinics. It also provides specialty pharmacy services and mail services; and manages in-store clinics. As of August 31, 2019, this segment operated 9,277 retail stores under the Walgreens and Duane Reade brands in the United States; and 6 specialty pharmacies. The Retail Pharmacy International segment sells prescription drugs; and health and wellness, beauty, personal care, and other consumer products through its pharmacy-led health and beauty stores and optical practices, as well as through boots.com and an integrated mobile application. This segment operated 4,605 retail stores under the Boots, Benavides, and Ahumada in the United Kingdom, Thailand, Norway, the Republic of Ireland, the Netherlands, Mexico, and Chile; and 606 optical practices, including 165 on a franchise basis. The Pharmaceutical Wholesale segment engages in the wholesale and distribution of specialty and generic pharmaceuticals, health and beauty products, and home healthcare supplies and equipment, as well as provides related services to pharmacies and other healthcare providers. This segment operates in the United Kingdom, Germany, France, Turkey, Spain, the Netherlands, Egypt, Norway, Romania, the Czech Republic, and Lithuania. Walgreens Boots Alliance, Inc. was founded in 1901 and is based in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4638,6 +5445,11 @@
       <c r="F164" t="n">
         <v>16.48889</v>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. operates as an energy infrastructure company in North America. The company operates through Natural Gas Pipelines, Products Pipelines, Terminals, and CO2 segments. The Natural Gas Pipelines segment owns and operates interstate and intrastate natural gas pipeline and storage systems; natural gas gathering systems and natural gas processing and treating facilities; natural gas liquids fractionation facilities and transportation systems; and liquefied natural gas liquefaction and storage facilities. The Products Pipelines segment owns and operates refined petroleum products, and crude oil and condensate pipelines; and associated product terminals and petroleum pipeline transmix facilities. The Terminals segment owns and/or operates liquids and bulk terminals that stores and handles various commodities, including gasoline, diesel fuel, chemicals, ethanol, metals, and petroleum coke; and owns tankers. The CO2 segment produces, transports, and markets CO2 to recovery and production crude oil from mature oil fields; and owns interests in/or operates oil fields and gasoline processing plants, as well as operates a crude oil pipeline system in West Texas. It owns and operates approximately 83,000 miles of pipelines and 147 terminals. The company was formerly known as Kinder Morgan Holdco LLC and changed its name to Kinder Morgan, Inc. in February 2011. Kinder Morgan, Inc. was founded in 1936 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4664,6 +5476,11 @@
       <c r="F165" t="n">
         <v>43.852562</v>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>MSCI Inc., together with its subsidiaries, provides investment decision support tools for the clients to manage their investment processes worldwide. The company operates through four segments: Index, Analytics, ESG, and Real Estate. The Index segment primarily provides equity indexes for use in various areas of the investment process, including index-linked product creation and performance benchmarking, as well as portfolio construction and rebalancing, broker-dealer structured products, and asset allocation. The Analytics segment offers risk management, performance attribution and portfolio management content, applications, and services that provide clients with an integrated view of risk and return, and an analysis of market, credit, liquidity, and counterparty risk across various asset classes, spanning short, medium, and long-term time horizons; and various managed services for clients such as consolidation of client portfolio data from various sources, review and reconciliation of input data and results, and customized reporting consultants and investors in hedge funds. The ESG segment provides products and services that help institutional investors understand how environmental, social, and governance (ESG) factors impact the long-term risk of their investments; and data and ratings products for use in the construction of equity and fixed income indexes to help institutional investors benchmark ESG investment performance and issue index-based investment products, as well as manage, measure, and report on ESG mandates. The Real Estate segment offers real estate performance analysis for funds, investors, and managers. This segment provides products and services that include research, reporting, market data, and benchmarking; and business intelligence to real estate owners, managers, developers, and brokers. The company serves asset owners and managers, banks, and wealth managers. MSCI Inc. was founded in 1998 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4690,6 +5507,11 @@
       <c r="F166" t="n">
         <v>52.844448</v>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>EOG Resources, Inc., together with its subsidiaries, explores for, develops, produces, and markets crude oil, and natural gas and natural gas liquids. The company's principal producing areas are located in New Mexico, North Dakota, Texas, and Wyoming in the United States; and the Republic of Trinidad and Tobago, the People's Republic of China, and Canada. As of December 31, 2019, it had total estimated net proved reserves of 3,329 million barrels of oil equivalent, including 1,694 million barrels (MMBbl) crude oil and condensate reserves; 740 MMBbl of natural gas liquid reserves; and 5,370 billion cubic feet of natural gas reserves. The company was formerly known as Enron Oil &amp; Gas Company. EOG Resources, Inc. was founded in 1985 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4716,6 +5538,11 @@
       <c r="F167" t="n">
         <v>8.697050000000001</v>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>The Bank of New York Mellon Corporation provides a range of financial products and services to in the United States and internationally. The company operates through two segments, Investment Management and Investment Services. The Investment Service segment offers custody, accounting, exchange-traded funds services, middle-office solutions, transfer agency, services for private equity and real estate funds, foreign exchange, securities lending, liquidity/lending services, brokerage and data analytics, clearing, trading, investment, wealth and retirement solutions, technology and enterprise data management, corporate trust, depositary receipts, payments, receivables processing and payables management, trade finance and processing, and collateral management services. The Investment Management segment provides diversified investment management strategies and distribution of investment products, investment management, custody, wealth and estate planning, and private banking services. The company also engages in leasing, corporate treasury, derivative and other trading, corporate and bank-owned life insurance, renewable energy investment, and business exit activities. It serves asset managers, banks, broker-dealers, corporations, financial intermediaries, governments, high net worth individuals, insurance companies, non-profit organizations, pensions, and sovereign institutions. The Bank of New York Mellon Corporation was founded in 1784 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4742,6 +5569,12 @@
       <c r="F168" t="n">
         <v>13.164659</v>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>The Kroger Co. operates as a retailer in the United States. The company operates supermarkets, multi-department stores, marketplace stores, and price impact warehouse stores. Its combination food and drug stores offer natural food and organic sections, pharmacies, general merchandise, pet centers, fresh seafood, and organic produce; and multi-department stores provide apparel, home fashion and furnishings, outdoor living, electronics, automotive products, and toys. The company's marketplace stores offer full-service grocery, pharmacy, health and beauty care departments, and perishable goods, as well as general merchandise, including apparel, home goods, and toys; and price impact warehouse stores provides grocery, and health and beauty care items, as well as meat, dairy, baked goods, and fresh produce items. It also manufactures and processes food products for sale in its supermarkets; and sells fuel through 1,567 fuel centers. The company sells its products under the Private Selection, The Kroger, Big K, Check This Out+, Heritage Farm, Simple Truth, and Simple Truth Organic brands. As of February 1, 2020, the company operated 2,757 supermarkets under various banner names in 35 states and the District of Columbia, as well as an online retail store. The Kroger Co. was founded in 1883 and is based in Cincinnati, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4768,6 +5601,11 @@
       <c r="F169" t="n">
         <v>12.345499</v>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions Corporation, a professional services company, provides consulting and technology, and outsourcing services worldwide. The company operates through four segments: Financial Services; Healthcare; Products and Resources; and Communications, Media and Technology. It offers analytics and artificial intelligence, digital engineering, intelligent process automation, interactive, and hybrid cloud services and solutions; and application development, systems integration, application testing and maintenance, infrastructure, and business process services. The company also develops, licenses, implements, and supports proprietary and third-party software products and platforms for the healthcare industry. In addition, it offers revenue cycle management solutions to the healthcare industry; business advisory and data analytics services; and salesforce services. Further, the company develops custom cloud-based software and platforms; and provides consulting services that enable companies to plan, implement, and optimize automated cloud-based business processes and technologies. It serves banking and insurance, healthcare and life sciences, retail and consumer goods, manufacturing and logistics, travel and hospitality, energy and utilities, communications and media, and technology industries. The company markets and sells its services through professional staff, senior management, and direct sales personnel. Cognizant Technology Solutions Corporation was founded in 1994 and is headquartered in Teaneck, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4794,6 +5632,11 @@
       <c r="F170" t="n">
         <v>5.7499995</v>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>General Motors Company designs, builds, and sells cars, trucks, crossovers, and automobile parts worldwide. The company operates through GM North America, GM International, Cruise, and GM Financial segments. It markets its vehicles primarily under the Buick, Cadillac, Chevrolet, GMC, Holden, Baojun, and Wuling brand names. The company also sells trucks, crossovers, and cars to dealers for consumer retail sales, as well as to fleet customers, including daily rental car companies, commercial fleet customers, leasing companies, and governments. In addition, it offers safety and security services for retail and fleet customers, including automatic crash response, emergency services, crisis assist, stolen vehicle assistance, roadside assistance, and turn-by-turn navigation, as well as connected services comprising mobile applications for owners to remotely control their vehicles and electric vehicle owners to locate charging stations, on-demand vehicle diagnostics, smart driver, marketplace in-vehicle commerce, connected navigation, SiriusXM with 360L, and 4G LTE wireless connectivity. Further, the company provides automotive financing services. General Motors Company was founded in 1908 and is headquartered in Detroit, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4820,6 +5663,11 @@
       <c r="F171" t="n">
         <v>8.878245</v>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>HCA Healthcare, Inc., through its subsidiaries, operates as a health care services company in the United States. The company operates general, acute care hospitals that offer medical and surgical services, including inpatient care, intensive care, cardiac care, diagnostic, and emergency services; and outpatient services, such as outpatient surgery, laboratory, radiology, respiratory therapy, cardiology, and physical therapy services. It also operates psychiatric hospitals, which provide therapeutic programs comprising child, adolescent and adult psychiatric care, and adolescent and adult alcohol and drug abuse treatment and counseling. In addition, the company operates outpatient health care facilities consisting of freestanding ambulatory surgery centers, freestanding emergency care facilities, urgent care facilities, walk-in clinics, diagnostic and imaging centers, rehabilitation and physical therapy centers, radiation and oncology therapy centers, physician practices, and various other facilities. As of December 31, 2019, it operated 184 hospitals and 123 freestanding surgery centers located in 21 states and England. The company was formerly known as HCA Holdings, Inc. HCA Healthcare, Inc. was founded in 1968 and is headquartered in Nashville, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4846,6 +5694,11 @@
       <c r="F172" t="n">
         <v>21.230576</v>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>WEC Energy Group, Inc., through its subsidiaries, provides regulated natural gas and electricity, and nonregulated renewable energy services in the United States. The company operates through six segments: Wisconsin, Illinois, Other States, Electric Transmission, Non-Utility Energy Infrastructure, and Corporate and Other. It generates and distributes electricity from coal, natural gas, oil, hydroelectric, wind, and biomass sources; provides electricity transmission services; offers retail natural gas distribution services; transports customer-owned natural gas; and generates, distributes, and sells steam. The company offers electricity to approximately 1.6 million residential, small and large commercial and industrial, and other customers; and natural gas to 2.8 million residential, and commercial and industrial customers. As of December 31, 2018, it operated approximately 36,800 miles of overhead distribution lines and 33,300 miles of underground distribution cable, as well as approximately 500 distribution substations and 500,450 line transformers; and approximately 48,900 miles of natural gas distribution mains, as well as 1,100 miles of natural gas transmission mains. The company was formerly known as Wisconsin Energy Corporation and changed its name to WEC Energy Group, Inc. in June 2015. WEC Energy Group, Inc. was founded in 1896 and is headquartered in Milwaukee, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4867,10 +5720,15 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26200803328</v>
+        <v>26184845312</v>
       </c>
       <c r="F173" t="n">
-        <v>20.984024</v>
+        <v>20.971245</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>IHS Markit Ltd. provides critical information, analytics, and solutions for various industries and markets that drive economies worldwide. The company's information, analytics, and solutions enhance operational efficiency and offer deep insights for customers in business, finance, and government. Its Financial Services segment offers pricing and reference data, indices, valuation and trading services, trade processing, enterprise software, and managed services to traders, portfolio managers, risk managers, research professionals, and other financial market participants, as well as operations, compliance, and enterprise data managers. The company's Transportation segment provides authoritative analysis, as well as sales and production forecasts for light vehicles, medium and heavy commercial vehicles, powertrains, components, and technology systems; and predictive analytics and marketing automation software. It also offers comprehensive data on ships, as well as monthly import and export statistics on approximately 100 countries. The company's Resources segment provides upstream services, including technical information, analytical tools, and market forecasting and consulting for the upstream industry; and downstream information, such as market forecasting, midstream market analysis and supply chain data, refining and marketing economics, and oil product pricing information for the chemical, refined products, agriculture, and power industries. It also offers data for manufacturing processes, as well as capital expenditure, cost, price, production, trade, demand, and capacity industry analysis and forecasts. The company's Consolidated Markets &amp; Solutions segment provides discovery technologies, research tools, and software-based engineering decision engines; performance and analysis for technology, media, and telecom industries; and economic and risk data, forecast, and analytic tools. The company was founded in 1959 and is headquartered in London, the United Kingdom.</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -4898,6 +5756,11 @@
       <c r="F174" t="n">
         <v>24.353743</v>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Public Storage, a member of the S&amp;P 500 and FT Global 500, is a REIT that primarily acquires, develops, owns and operates self-storage facilities. At March 31, 2020, we had: (i) interests in 2,492 self-storage facilities located in 38 states with approximately 170 million net rentable square feet in the United States, (ii) an approximate 35% common equity interest in Shurgard Self Storage SA (Euronext Brussels:SHUR) which owned 234 self-storage facilities located in seven Western European nations with approximately 13 million net rentable square feet operated under the Shurgard brand and (iii) an approximate 42% common equity interest in PS Business Parks, Inc. (NYSE:PSB) which owned and operated approximately 28 million rentable square feet of commercial space at March 31, 2020. Our headquarters are located in Glendale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4924,6 +5787,11 @@
       <c r="F175" t="n">
         <v>10.86753</v>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>FedEx Corporation provides transportation, e-commerce, and business services worldwide. The company's FedEx Express segment offers shipping services fFdx Corpor delivery of packages and freight. Its FedEx Ground segment provides business and residential money-back guaranteed ground package delivery services; and consolidates and delivers low-weight and less time-sensitive business-to-consumer packages. The company's FedEx Freight segment offers less-than-truckload and other freight delivery services. As of May 31, 2019, it operated approximately 28,000 vehicles and 373 service centers. The company's FedEx Services segment provides sales, marketing, information technology, communications, customer service, technical support, billing and collection services, and other back-office support services. It also offers FedEx Mobile, a suite of solutions to track packages, create shipping labels, view account-specific rate quotes, and access drop-off location information; FedEx Office, a suite of printing and shipping management solutions, including digital printing, professional finishing, document creation, direct mail, signs and graphics, copying, computer rental, Wi-Fi, and corporate print solutions; and packing services, supplies, and boxes, as well as FedEx Express and FedEx Ground shipping services. The company's Corporate, Other and Eliminations segment offers international trade services in customs brokerage, and ocean and air freight forwarding services; cross-border enablement and technology solutions, and e-commerce transportation solutions; integrated supply chain management solutions; time-critical shipment services; and critical inventory and service parts logistics, 3-D printing, and technology repair. It also provides international trade advisory services, including assistance with the customs-trade partnership against terrorism program; and publishes customs duty and tax information. FedEx Corporation was founded in 1971 and is headquartered in Memphis, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4950,6 +5818,11 @@
       <c r="F176" t="n">
         <v>31.530582</v>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>The Clorox Company manufactures and markets consumer and professional products worldwide. It operates through four segments: Cleaning, Household, Lifestyle, and International. The company offers laundry additives, including bleach products under the Clorox brand, as well as Clorox 2 stain fighter and color booster; home care products primarily under the Clorox, Formula 409, Liquid-Plumr, Pine-Sol, S.O.S, and Tilex brands; naturally derived products under the Green Works brand; and professional cleaning, disinfecting, and food service products under the CloroxPro, Dispatch, Clorox Healthcare, Hidden Valley, and KC Masterpiece brands. It also provides charcoal products under the Kingsford and Match Light brands; bags, wraps, and containers under the Glad brand; cat litter products under the Fresh Step, Scoop Away, and Ever Clean brands; and digestive health products under the RenewLife brand. In addition, the company offers dressings and sauces primarily under the Hidden Valley, KC Masterpiece, Kingsford, and Soy Vay brands; water-filtration systems and filters under the Brita brand; natural personal care products under the Burt's Bees brand; and dietary supplements under the Rainbow Light, Natural Vitality, and Neocell brands. Further, it markets its products under the PinoLuz, Ayudin, Limpido, Clorinda, Poett, Mistolin, Lestoil, Bon Bril, Agua Jane, and Chux brands. The company sells its products primarily through mass retailers, grocery outlets, warehouse clubs, dollar stores, home hardware centers, third-party and owned e-commerce channels, military stores, and distributors, as well as a direct sales force and medical supply distributors. The Clorox Company was founded in 1913 and is headquartered in Oakland, California.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4976,6 +5849,11 @@
       <c r="F177" t="n">
         <v>16.662449</v>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Constellation Brands, Inc., together with its subsidiaries, produces, imports, and markets beer, wine, and spirits in the United States, Canada, Mexico, New Zealand, and Italy. It provides beer primarily under the Corona Extra, Corona Premier, Corona Familiar, Corona Light, Corona Refresca, Corona Hard Seltzer, Modelo Especial, Modelo Negra, Modelo Chelada, Pacifico, and Victoria brands. The company offers wine under the 7 Moons, Drylands, SIMI, Charles Smith, Auros, Kim Crawford, Spoken Barrel, Prisoner, Champagne Palmer &amp; Co, Meiomi, Robert Mondavi, Cooper &amp; Thief, Mount Veeder, Schrader, Crafters Union, Nobilo, Cuvée Sauvage, and Ruffino; and spirits under the Casa Noble, High West, Mi CAMPO, Nelson's Green Brier, SVEDKA, The Real McCoy brands. It provides its products to wholesale distributors, retailers, on-premise locations, and state alcohol beverage control agencies. The company was founded in 1945 and is headquartered in Victor, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5002,6 +5880,11 @@
       <c r="F178" t="n">
         <v>17.710423</v>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>KLA Corporation designs, manufactures, and markets process control and yield management solutions for the semiconductor and related nanoelectronics industries worldwide. The company offers chip and wafer manufacturing products, including defect inspection and review systems, metrology solutions, in situ process monitoring products, computational lithography software, and data analytics systems for chip manufacturers to manage yield throughout the semiconductor fabrication process. It also provides reticle manufacturing products, such as reticle inspection, metrology, and data analytics systems for mask shops; and packaging manufacturing products comprising standalone and cluster inspection and metrology systems for various applications in the field of semiconductor packaging. In addition, the company offers compound semiconductor, power device, light emitting diode, and microelectromechanical system manufacturing products for the display market; data storage media/head manufacturing products; general purpose/lab applications; and previous-generation KLA systems. Further, it provides wafer processing solutions; printed circuit boards, and display and inspection components; products for the deposition of thin film coating of materials on crystalline silicon photovoltaic wafers; and other services. The company offers its products and services for use by various bare wafer, integrated circuit, reticle, and hard disk drive manufacturers. The company was formerly known as KLA-Tencor Corporation and changed its name to KLA Corporation in July 2019. KLA Corporation was founded in 1975 and is headquartered in Milpitas, California.</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5028,6 +5911,11 @@
       <c r="F179" t="n">
         <v>16.27603</v>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Willis Towers Watson Public Limited Company operates as an advisory, broking, and solutions company worldwide. The company's Human Capital and Benefits segment offers actuarial support, plan design, and administrative services for traditional pension and retirement savings plans; plan management consulting, broking, and administration services for health and group benefit programs; and benefits outsourcing services. It also provides advice, data, software, and products to address clients' total rewards and talent issues. Its Corporate Risk and Broking segment offers risk advice, insurance brokerage, and consulting services in the areas of property and casualty, financial lines, and transport. The company's Investment, Risk and Reinsurance segment offers capital markets-based products to insurance and reinsurance companies; software and technology, risk and capital management, products and pricing, financial and regulatory reporting, financial and capital modeling, merger and acquisition, outsourcing, and business management services; investment advice and solutions to pension funds and institutional investors; wholesale insurance broking services to retail and wholesale brokers; and underwriting and capital management, capital market, and advisory and brokerage services. Its Benefits Delivery and Administration segment provides primary medical and ancillary benefit exchange, and outsourcing services to active employees and retirees in the group and individual markets. This segment delivers healthcare and reimbursement accounts, including health savings accounts, health reimbursement arrangements, flexible spending accounts, and other consumer-directed accounts. The company was formerly known as Willis Group Holdings Public Limited Company and changed its name to Willis Towers Watson Public Limited Company in January 2016. Willis Towers Watson Public Limited Company was founded in 1828 and is based in London, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5054,6 +5942,11 @@
       <c r="F180" t="n">
         <v>15.274084</v>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>T. Rowe Price Group, Inc. is a publicly owned investment manager. The firm provides its services to individuals, institutional investors, retirement plans, financial intermediaries, and institutions. It launches and manages equity and fixed income mutual funds. The firm invests in the public equity and fixed income markets across the globe. It employs fundamental and quantitative analysis with a bottom-up approach. The firm utilizes in-house and external research to make its investments. It employs socially responsible investing with a focus on environmental, social, and governance issues. It makes investment in late-stage venture capital transactions and usually invests between $3 million and $5 million. The firm was previously known as T. Rowe Group, Inc. and T. Rowe Price Associates, Inc. T. Rowe Price Group, Inc. was founded in 1937 and is based in Baltimore, Maryland, with additional offices in Colorado Springs, Colorado; Owings Mills, Maryland; San Francisco, California; Tampa, Florida; Toronto, Ontario; Hellerup, Denmark; Amsterdam, The Netherlands; Luxembourg, Grand Duchy of Luxembourg; Zurich, Switzerland; Dubai, United Arab Emirates; London, United Kingdom; Sydney, New South Wales; Hong Kong; Tokyo, Japan; Singapore; Frankfurt, Germany, Madrid, Spain, Milan, Italy, Stockholm, Sweden, Melbourne, Australia, and Amsterdam, Netherlands.</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5080,6 +5973,11 @@
       <c r="F181" t="n">
         <v>28.98305</v>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Verisk Analytics, Inc. provides data analytics solutions in the United States and internationally. It provides predictive analytics and decision support solutions to customers in rating, underwriting, claims, catastrophe and weather risk, natural resources intelligence, economic forecasting, and various other fields. The company operates through three segments: Insurance, Energy and Specialized Markets, and Financial Services. The Insurance segment focuses on the prediction of loss, selection and pricing of risk, and compliance with their reporting requirements for property and casualty customers. It also develops predictive models to forecast scenarios and produce standard and customized analytics that help its customers to manage their businesses, including detecting fraud before and after a loss event, and quantifying losses. The Energy and Specialized Markets segment provides data analytics for the natural resources value chain, including energy, chemicals, metals, mining, power, and renewables sectors; research and consulting services focusing on exploration strategies and screening, asset development and acquisition, commodity markets, and corporate analysis; and consultancy services in the areas of business environment, business improvement, business strategies, commercial advisory, and transaction support, as well as analysis and advice on assets, companies, governments, and markets. The Financial Services segment offers algorithms, business intelligence, and customized analytic services to financial institutions, payment networks and processors, alternative lenders, regulators, and merchants. The company was founded in 1971 and is headquartered in Jersey City, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5106,6 +6004,11 @@
       <c r="F182" t="n">
         <v>7.2058463</v>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Capital One Financial Corporation operates as the bank holding company for the Capital One Bank (USA), National Association; and Capital One, National Association, which provides various financial products and services in the United States, the United Kingdom, and Canada. It operates through three segments: Credit Card, Consumer Banking, and Commercial Banking. The company offers non-interest-bearing and interest-bearing deposits, such as checking accounts, money market deposit accounts, negotiable order of withdrawals, savings deposits, and time deposits. It also provides credit card loans; auto, home, and retail banking loans; and commercial and multifamily real estate, commercial and industrial, and small-ticket commercial real estate loans. In addition, the company offers credit and debit card products; online direct banking services; and treasury management and depository services. It serves consumers, small businesses, and commercial clients through the Internet and mobile banking, as well as through Cafés, ATMs, and branches located in New York, Louisiana, Texas, Maryland, Virginia, New Jersey, and the District of Columbia. Capital One Financial Corporation was founded in 1988 and is headquartered in McLean, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5132,6 +6035,11 @@
       <c r="F183" t="n">
         <v>15.642856</v>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>AutoZone, Inc. retails and distributes automotive replacement parts and accessories. The company offers various products for cars, sport utility vehicles, vans, and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its products include A/C compressors, batteries and accessories, bearings, belts and hoses, calipers, carburetors, chassis, clutches, CV axles, engines, fuel pumps, fuses, ignition and lighting products, mufflers, radiators, starters and alternators, thermostats, and water pumps. The company also offers maintenance products, such as antifreeze and windshield washer fluids; brake drums, rotors, shoes, and pads; brake and power steering fluids, and oil and fuel additives; oil and transmission fluids; oil, air, fuel, and transmission filters; oxygen sensors; paints and accessories; refrigerants and accessories; shock absorbers and struts; spark plugs and wires; and windshield wipers, as well as air fresheners, cell phone accessories, drinks and snacks, floor mats and seat covers, interior and exterior accessories, mirrors, performance products, protectants and cleaners, sealants and adhesives, steering wheel covers, stereos and radios, tools, and wash and wax products. In addition, it provides a sales program that offers commercial credit and delivery of parts and other products; and towing and tire repair services. Further, it sells automotive diagnostic and repair software under the ALLDATA brand through alldata.com and alldatadiy.com; and automotive hard parts, maintenance items, accessories, and non-automotive products through autozone.com. As of October 16, 2019, it operated 5,772 stores in the United States, the District of Columbia, Puerto Rico, and Saint Thomas; 604 stores in Mexico; and 35 stores in Brazil. AutoZone, Inc. was founded in 1979 and is based in Memphis, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5158,6 +6066,11 @@
       <c r="F184" t="n">
         <v>26.52653</v>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Monster Beverage Corporation, through its subsidiaries, develops, markets, sells, and distributes energy drink beverages and concentrates in the United States and internationally. It operates through three segments: Monster Energy Drinks, Strategic Brands, and Other. The company offers carbonated energy drinks, non-carbonated dairy based coffee and energy drinks, non-carbonated energy shakes, non-carbonated energy teas, non-carbonated energy drinks, and ready-to-drink packaged energy drinks primarily to bottlers and beverage distributors, as well as sells directly to retail grocery and specialty chains, wholesalers, club stores, drug stores, mass merchandisers, convenience chains, food service customers, and the military; and concentrates and/or beverage bases to bottling and canning operations. Monster Beverage Corporation sells its products under the Monster Energy, Monster Energy Ultra, Monster Rehab, Monster MAXX, Java Monster, Muscle Monster, Espresso Monster, Punch Monster, Juice Monster, Monster Hydro, Caffé Monster, Reign Total Body Fuel, Reign Inferno Thermogenic Fuel, Predator, Live+, NOS, Full Throttle, Burn, Mother, Nalu, Ultra Energy, Play and Power Play, Relentless, BPM, BU, Gladiator, Samurai, and Mutant brands. The company was formerly known as Hansen Natural Corporation and changed its name to Monster Beverage Corporation in January 2012. Monster Beverage Corporation was incorporated in 1990 and is headquartered in Corona, California.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5179,10 +6092,15 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25996949504</v>
+        <v>26013773824</v>
       </c>
       <c r="F185" t="n">
-        <v>19.914948</v>
+        <v>19.927834</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Eversource Energy, a public utility holding company, engages in the energy delivery business. The company operates in four segments: Electric Distribution, Electric Transmission, Natural Gas Distribution, and Water Distribution. It is involved in the transmission and distribution of electricity; and distribution of natural gas. The company operates water regulated utilities. It also provides water services to approximately 228,000 customers. It serves residential, commercial, industrial, municipal, fire protection, and other customers in Connecticut, Massachusetts, and New Hampshire, the United States. The company was formerly known as Northeast Utilities and changed its name to Eversource Energy in April 2015. Eversource Energy was founded in 1927 and is based in Springfield, Massachusetts.</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -5210,6 +6128,11 @@
       <c r="F186" t="n">
         <v>22.868347</v>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Agilent Technologies, Inc. provides application focused solutions to the life sciences, diagnostics, and applied chemical markets worldwide. It operates in three segments: Life Sciences and Applied Markets, Diagnostics and Genomics, and Agilent CrossLab. The Life Sciences and Applied Markets segment offers liquid and gas chromatography systems and components; liquid and gas chromatography mass spectrometry systems; inductively coupled plasma mass spectrometry instruments; atomic absorption instruments; microwave plasma-atomic emission spectrometry instruments; inductively coupled plasma optical emission spectrometry instruments; raman spectroscopy; cell analysis plate based assays; flow cytometer; real-time cell analyzer; cell imaging systems; microplate readers; laboratory software and information management and analytics; laboratory automation and robotic systems; dissolution testing; vacuum pumps; and measurement technologies. The Diagnostics and Genomics segment provides reagents, instruments, software, and consumables; arrays for DNA mutation detection, genotyping, gene copy number determination, identification of gene rearrangements, DNA methylation profiling, and gene expression profiling, as well as sequencing target enrichment, genetic data management, and interpretation support software; and equipment focused on production of synthesized oligonucleotides for use as active pharmaceutical ingredients. The Agilent CrossLab segment offers GC and LC columns, sample preparation products, custom chemistries, and laboratory instrument supplies; and startup, operational, training, compliance support, and software as a service, as well as asset management and consultation services. The company markets its products through direct sales, distributors, resellers, manufacturer's representatives, and electronic commerce. The company was founded in 1999 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5236,6 +6159,11 @@
       <c r="F187" t="n">
         <v>50.168365</v>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>IDEXX Laboratories, Inc., together with its subsidiaries, develops, manufactures, and distributes products and services primarily for the companion animal veterinary, livestock and poultry, dairy, and water testing markets worldwide. The company operates through Companion Animal Group; Water Quality Products; Livestock, Poultry and Dairy; and Other segments. It provides point-of-care veterinary diagnostic products, including instruments, consumables, and rapid assay test kits; veterinary reference laboratory diagnostic and consulting services; practice management and diagnostic imaging systems and services for veterinarians; and health monitoring, biological materials testing, and laboratory animal diagnostic instruments and services for biomedical research community. The company also offers diagnostic and health-monitoring products for livestock, poultry, and dairy; products that test water for various microbiological contaminants; and point-of-care electrolytes and blood gas analyzers that are used in the human point-of-care medical diagnostics market. It markets its products through marketing, customer service, sales, and technical service groups, as well as through independent distributors and other resellers. IDEXX Laboratories, Inc. was incorporated in 1983 and is headquartered in Westbrook, Maine.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5257,10 +6185,15 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25069123584</v>
+        <v>25060093952</v>
       </c>
       <c r="F188" t="n">
-        <v>22.270054</v>
+        <v>22.262033</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>YUM! Brands, Inc., together with its subsidiaries, develops, operates, and franchises quick service restaurants worldwide. It operates in three segments: the KFC Division, the Pizza Hut Division, and the Taco Bell Division. The company operates restaurants under the KFC, Pizza Hut, and Taco Bell brands, which specialize in chicken, pizza, and Mexican-style food categories. As of December 31, 2018, it had 22,621 KFC units; 18,431 Pizza Hut units; and 7,072 Taco Bell units in approximately 140 countries and territories. The company was formerly known as TRICON Global Restaurants, Inc. and changed its name to YUM! Brands, Inc. in May 2002. YUM! Brands, Inc. was incorporated in 1997 and is headquartered in Louisville, Kentucky.</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -5288,6 +6221,11 @@
       <c r="F189" t="n">
         <v>22.692097</v>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Amphenol Corporation, together with its subsidiaries, primarily designs, manufactures, and markets electrical, electronic, and fiber optic connectors in the United States, China, and internationally. It operates in two segments, Interconnect Products and Assemblies, and Cable Products and Solutions. The Interconnect Products and Assemblies segment offers connector and connector systems, including fiber optic, harsh environment, high-speed, and radio frequency interconnect products, as well as antennas; power interconnect products, busbars, and distribution systems; and other connectors. It also provides value-add products, such as backplane interconnect systems, cable assemblies and harnesses, and cable management products; and other products comprising antennas, flexible and rigid printed circuit boards, hinges, molded parts, production-related products, sensors and sensor-based products, and switches. The Cable Products and Solutions segment offers coaxial, power, and specialty cables; cable assemblies; and components, which include combiner/splitter products, connector and connector systems, and fiber optic components. The company sells its products through its sales force, independent representatives, and a network of electronics distributors to original equipment manufacturers, electronic manufacturing services companies, original design manufacturers, and service providers in the automotive, broadband communication, commercial aerospace, industrial, information technology and data communication, military, mobile device, and mobile network markets. Amphenol Corporation was founded in 1932 and is headquartered in Wallingford, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5314,6 +6252,11 @@
       <c r="F190" t="n">
         <v>14.561275</v>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Valero Energy Corporation manufactures and sells transportation fuels and petrochemical products in the United States, Canada, the United Kingdom, Ireland, and internationally. It operates through three segments: Refining, Ethanol, and Renewable Diesel. The company is involved in oil and gas refining, marketing, and bulk selling activities. It produces conventional and premium gasolines, gasoline meeting the specifications of the California Air Resources Board (CARB), diesel fuels, low-sulfur and ultra-low-sulfur diesel fuels, CARB diesel, other distillates, jet fuels, asphalts, petrochemicals, lubricants, and other refined petroleum products. As of December 31, 2019, the company owned 15 petroleum refineries with a combined throughput capacity of approximately 3.15 million barrels per day. It markets its refined products through wholesale rack and bulk markets; and through approximately 7,000 outlets under the Valero, Beacon, Diamond Shamrock, Shamrock, Ultramar, and Texaco brand names. The company also produces and sells ethanol, distiller grains, and corn oil primarily to refiners and gasoline blenders, as well as to animal feed customers. It owns and operates 14 ethanol plants with a combined ethanol production capacity of approximately 1.73 billion gallons per year. In addition, the company owns, operates, develops, and acquires crude oil and refined petroleum products pipelines, terminals, and other transportation and logistics assets. Further, it owns and operates a plant that processes animal fats, used cooking oils, and other vegetable oils into renewable diesel. The company was formerly known as Valero Refining and Marketing Company and changed its name to Valero Energy Corporation in August 1997. Valero Energy Corporation was founded in 1980 and is headquartered in San Antonio, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5340,6 +6283,11 @@
       <c r="F191" t="n">
         <v>5.218033</v>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>MetLife, Inc. engages in the insurance, annuities, employee benefits, and asset management businesses worldwide. It operates through five segments: U.S.; Asia; Latin America; Europe, the Middle East and Africa; and MetLife Holdings. The company offers life, dental, group short-and long-term disability, individual disability, accidental death and dismemberment, vision, and accident and health coverages, as well as prepaid legal plans; administrative services-only arrangements to employers; and stable value products, including general and separate account guaranteed interest contracts, and private floating rate funding agreements. It also provides pension risk transfers, institutional income annuities, tort settlements, and capital markets investment products; and other products and services, such as life insurance products and funding agreements for funding postretirement benefits, as well as company, bank, or trust-owned life insurance used to finance nonqualified benefit programs for executives. In addition, the company offers automobile, homeowners', and personal excess liability insurance products. Further, it provides fixed annuities and pension products; medical and credit insurance products; variable, universal, term, endowment, and whole life insurance products; variable, and fixed and indexed-linked annuities; and protection against long-term health care services. The company serves individuals, corporations and their employees, and other institutions and their members through independent agents, property and casualty specialists, sales forces, sales teams and relationship managers, and sponsoring organizations and affinity groups, as well as through career and independent agencies, bancassurance, direct marketing and e-commerce, brokers, and other third-party distribution channels. MetLife, Inc. was founded in 1863 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5366,6 +6314,11 @@
       <c r="F192" t="n">
         <v>13.403999</v>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Dow Inc. provides various materials science solutions for consumer care, infrastructure, and packaging markets in the United States, Canada, Europe, the Middle East, Africa, India, the Asia Pacific, and Latin America. It operates through Packaging &amp; Specialty Plastics, Industrial Intermediates &amp; Infrastructure, and Performance Materials and Coatings segments. The Packaging &amp; Specialty Plastics segment provides ethylene, and propylene and aromatic products; and polyethylene, polyolefin elastomers, ethylene vinyl acetate, and ethylene propylene diene monomer rubbers. The Industrial Intermediates &amp; Infrastructure segment offers ethylene oxides, propylene oxide, propylene glycol and polyether polyols, aromatic isocyanates and polyurethane systems, coatings, adhesives, sealants, elastomers, and composites. This segment also provides caustic soda, and ethylene dichloride and vinyl chloride monomers; and cellulose ethers, redispersible latex powders, silicones, and acrylic emulsions. The Performance Materials and Coatings segment provides architectural paints and coatings, and industrial coatings that are used in maintenance and protective industries, wood, metal packaging, traffic markings, thermal paper, and leather; performance monomers and silicones; standalone silicones; and home and personal care solutions. It also engages in property and casualty insurance, as well as reinsurance business. Dow Inc. was incorporated in 2018 and is headquartered in Midland, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5392,6 +6345,11 @@
       <c r="F193" t="n">
         <v>17.985054</v>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>IQVIA Holdings Inc. provides advanced analytics, technology solutions, and contract research services to the life sciences industry in the Americas, Europe, Africa, and the Asia-Pacific. It operates through three segments: Technology &amp; Analytics Solutions, Research &amp; Development Solutions, and Contract Sales &amp; Medical Solutions. The Technology &amp; Analytics Solutions segment offers a range of cloud-based applications and related implementation services; real world solutions; and strategic and implementation consulting services, such as advanced analytics and commercial processes outsourcing services. This segment also provides country level performance metrics related to sales of pharmaceutical products, prescribing trends, medical treatment, and promotional activity across various channels, including retail, hospital, and mail order; and measurement of sales or prescribing activity at the regional, zip code, and individual prescriber level. The Research &amp; Development Solutions segment offers project management and clinical monitoring; clinical trial support services; and strategic planning and design services, as well as clinical trial, genomic, bioanalytical, ADME, discovery, vaccine and biomarker laboratory services. The Contract Sales &amp; Medical Solutions segment provides health care provider and patient engagement services, and scientific strategy and medical affairs services. The company has a strategic alliance with ACCORD-2 to provide single research platform to speed development of new COVID-19 treatments. IQVIA Holdings Inc. serves pharmaceutical, biotechnology, device and diagnostic, and consumer health companies. The company was formerly known as Quintiles IMS Holdings, Inc. and changed its name to IQVIA Holdings Inc. in November 2017. IQVIA Holdings Inc. was founded in 1982 and is headquartered in Durham, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5418,6 +6376,11 @@
       <c r="F194" t="n">
         <v>15.834984</v>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Sysco Corporation, through its subsidiaries, markets and distributes a range of food and related products primarily to the foodservice or food-away-from-home industry in the United States, Canada, the United Kingdom, France, and internationally. It operates through three segments: U.S. Foodservice Operations, International Foodservice Operations, and SYGMA. The company distributes a line of frozen foods, such as meats, seafood, fully prepared entrees, fruits, vegetables, and desserts; a line of canned and dry foods; fresh meats and seafood; dairy products; beverage products; imported specialties; and fresh produce. It also supplies various non-food items, including paper products comprising disposable napkins, plates, and cups; tableware consisting of China and silverware; cookware, which include pots, pans, and utensils; restaurant and kitchen equipment and supplies; and cleaning supplies. The company serves restaurants, hospitals and nursing homes, schools and colleges, hotels and motels, industrial caterers, and other foodservice venues. As of June 29, 2019, it operated 325 distribution facilities. Sysco Corporation was founded in 1969 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5444,6 +6407,11 @@
       <c r="F195" t="n">
         <v>15.676148</v>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Consolidated Edison, Inc., through its subsidiaries, engages in regulated electric, gas, and steam delivery businesses in the United States. The company offers electric services to approximately 3.5 million customers in New York City and Westchester County; gas to approximately 1.1 million customers in Manhattan, the Bronx, parts of Queens, and Westchester County; and steam to approximately 1,589 customers in parts of Manhattan. It also supplies electricity to approximately 0.3 million customers in southeastern New York and northern New Jersey; and gas to approximately 0.1 million customers in southeastern New York. The company operates 543 circuit miles of transmission lines; 15 transmission substations; 64 distribution substations; 89,395 in-service line transformers; 3,745 pole miles of overhead distribution lines; and 2,200 miles of underground distribution lines, as well as 4,318 miles of mains and 376,306 service lines for natural gas distribution. In addition, it owns, operates, and develops renewable and energy infrastructure projects; and provides energy-related products and services to wholesale and retail customers, as well as invests in electric and gas transmission projects. The company primarily sells electricity to industrial, commercial, residential, and government customers. Consolidated Edison, Inc. was founded in 1884 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5470,6 +6438,11 @@
       <c r="F196" t="n">
         <v>7.328859</v>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Aflac Incorporated, through its subsidiaries, provides supplemental health and life insurance products. It operates through two segments, Aflac Japan and Aflac U.S. The Aflac Japan segment offers cancer, medical, income support, and whole and term life insurance products, as well as WAYS and child endowment plans under saving type insurance products. The Aflac U.S. segment provides cancer, accident, short-term disability, critical illness, hospital indemnity, dental, vision, and term and whole life insurance products in the United States. It sells its products through sales associates, brokers, independent corporate agencies, individual agencies, and affiliated corporate agencies. The company was founded in 1955 and is headquartered in Columbus, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5496,6 +6469,11 @@
       <c r="F197" t="n">
         <v>35.580788</v>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>ResMed Inc. develops, manufactures, distributes, and markets medical devices and cloud-based software solutions that diagnose, treat, and manage respiratory disorders comprising sleep disordered breathing, chronic obstructive pulmonary disease, neuromuscular disease, and other chronic diseases. The company operates through two segments, Sleep and Respiratory Care, and Software as a Service (SaaS). It offers various products and solutions for a range of respiratory disorders, including technologies to be applied in medical and consumer products, ventilation devices, diagnostic products, mask systems for use in the hospital and home, headgear and other accessories, dental devices, portable oxygen concentrators, and cloud-based software informatics solutions to manage patient outcomes, as well as provides customer and business processes. The company also provides humidifiers, carry bags, and breathing circuits; data communications and control products, such as AirView Diagnostics, EasyCare, ResLink, ResControl, ResControl II, TxControl, ResScan, and ResTraxx modules; U-Sleep, which enables automated patient coaching through a text, email, or interactive voice phone call; AirView that enables remote monitoring, over-the-air trouble shooting, and changing of device settings; and myAir, a patient engagement application that offers sleep data and a daily score based on their previous night's data, as well as S+, connectivity module, and propeller solutions. In addition, it provides business management software and services to out-of-hospital providers, home medical equipment, pharmacy, home infusion, orthotics, and prosthetics; and healthcare-first and matrixcare solutions. The company markets its products to sleep clinics, home healthcare dealers, patients, hospitals, physicians, and third-party payers through a network of distributors and direct sales force in approximately 120 countries. ResMed Inc. was founded in 1989 and is headquartered in San Diego, California.</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5526,6 +6504,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5552,6 +6535,11 @@
       <c r="F199" t="n">
         <v>8.650048</v>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>The Travelers Companies, Inc., through its subsidiaries, provides a range of commercial and personal property, and casualty insurance products and services to businesses, government units, associations, and individuals in the United states and internationally. The company operates through three segments: Business Insurance, Bond &amp; Specialty Insurance, and Personal Insurance. The Business Insurance segment offers workers' compensation, commercial automobile and property, general liability, commercial multi-peril, employers' liability, public and product liability, professional indemnity, marine, aviation, onshore and offshore energy, construction, terrorism, personal accident, and kidnap and ransom insurance products. This segment operates through select accounts, which serve small businesses; commercial accounts that serve mid-sized businesses; national accounts, which serve large companies; and national property and other that serve large and mid-sized customers, commercial transportation industry, and agricultural businesses, as well as markets and distributes its products through brokers, wholesale agents, program managers, and specialized retail agents. The Bond &amp; Specialty Insurance segment provides surety, fidelity, management and professional liability, and other property and casualty insurance products through independent agencies and brokers. The Personal Insurance segment offers property and casualty insurance covering personal risks, primarily automobile and homeowners insurance to individuals through independent agencies and brokers. The Travelers Companies, Inc. was founded in 1853 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5578,6 +6566,11 @@
       <c r="F200" t="n">
         <v>50.661957</v>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Chipotle Mexican Grill, Inc., together with its subsidiaries, operates Chipotle Mexican Grill restaurants. As of December 31, 2019, it operated 2,580 restaurants in the United States; 39 international Chipotle restaurants; and 3 non-Chipotle restaurants. The company was founded in 1993 and is headquartered in Newport Beach, California.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5604,6 +6597,11 @@
       <c r="F201" t="n">
         <v>14.431817</v>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>TE Connectivity Ltd., together with its subsidiaries, manufactures and sells connectivity and sensors solutions in Europe, the Middle East, Africa, the AsiaPacific, and the Americas. The company operates through three segments: Transportation Solutions, Industrial Solutions, and Communications Solutions. The Transportation Solutions segment provides terminals and connector systems and components, sensors, antennas, relays, application tooling, wires, and heat shrink tubing products for use in the automotive, commercial transportation, and sensor markets. The Industrial Solutions segment offers terminals and connector systems and components; heat shrink tubing; relays; and wires and cables for industrial equipment, aerospace, defense, oil and gas, and energy markets. The Communications Solutions segment supplies electronic components, such as terminals and connector systems and components, relays, heat shrink tubing, and antennas for the data and devices, and appliances markets. TE Connectivity Ltd. sells its products to approximately 140 countries primarily through direct selling to manufacturers, as well as through third-party distributors. The company was formerly known as Tyco Electronics Ltd. and changed its name to TE Connectivity Ltd. in March 2011. TE Connectivity Ltd. was incorporated in 2000 and is based in Schaffhausen, Switzerland.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5630,6 +6628,11 @@
       <c r="F202" t="n">
         <v>14.926764</v>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Zimmer Biomet Holdings, Inc., together with its subsidiaries, designs, manufactures, and markets musculoskeletal healthcare products and solutions in the Americas, Europe, the Middle East, Africa, and the Asia Pacific. It operates in four segments: Spine, less Asia Pacific; Office Based Technologies; Craniomaxillofacial and Thoracic; and Dental. The company provides orthopaedic reconstructive products, such as knee and hip replacement products; S.E.T. products, including surgical, sports medicine, biologics, foot and ankle, extremities, and trauma products; spine products comprising medical devices and surgical instruments; and face and skull reconstruction products, as well as products that fixate and stabilize the bones of the chest to facilitate healing or reconstruction after open heart surgery, trauma, or for deformities of the chest. It also offers dental products that include dental reconstructive implants, and dental prosthetic and regenerative products; and bone cement and office based technology products. The company's products and solutions are used to treat patients suffering from disorders of, or injuries to, bones, joints, or supporting soft tissues. It serves orthopedic surgeons, neurosurgeons, oral surgeons, dentists, hospitals, stocking distributors, healthcare dealers, and other specialists, as well as agents, healthcare purchasing organizations, or buying groups. The company was formerly known as Zimmer Holdings, Inc. and changed its name to Zimmer Biomet Holdings, Inc. in June 2015. Zimmer Biomet Holdings, Inc. was founded in 1927 and is headquartered in Warsaw, Indiana.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5656,6 +6659,11 @@
       <c r="F203" t="n">
         <v>30.427507</v>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Cadence Design Systems, Inc. provides software, hardware, services, and reusable integrated circuit (IC) design blocks worldwide. The company offers functional verification services, including emulation and prototyping hardware. Its functional verification offering consists of JasperGold, a formal verification platform; Xcelium, a parallel logic simulation platform; Palladium, an emulation platform; and Protium, a prototyping platform for chip verification. The company also provides digital IC design products; physical implementation tools, including place and route, optimization, and multiple patterning preparation; and signoff products to signoff the design as ready for manufacture by a silicon foundry. In addition, it offers custom IC design and simulation products to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory, and radio frequency designs; and system interconnect design products to develop printed circuit boards and IC packages, as well as to analyze electromagnetic, electro-thermal, and other multi-physics effects. Further, the company provides intellectual property (IP) products consisting of pre-verified and customizable functional blocks to integrate into customer's ICs; and verification IP and memory models for use in system-level verification to model correct behavior of full systems interacting with their environments. Additionally, it offers services related to methodology, education, and hosted design solutions, as well as technical support and maintenance services. Cadence Design Systems, Inc. was founded in 1988 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5682,6 +6690,11 @@
       <c r="F204" t="n">
         <v>15.104309</v>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>PACCAR Inc designs, manufactures, and distributes light, medium, and heavy-duty commercial trucks in the United States, Europe, and internationally. The company operates in three segments: Truck, Parts, and Financial Services. The Truck segment designs, manufactures, and distributes trucks that are used for the over-the-road and off-highway hauling of commercial and consumer goods. It sells its trucks through a network of independent dealers under the Kenworth, Peterbilt, and DAF nameplates. The Parts segment distributes aftermarket parts for trucks and related commercial vehicles. The Financial Services segment conducts full service leasing operations under the PacLease trade name. It also provides equipment financing and administrative support services for its franchisees; retail loan and leasing services for small, medium, and large commercial trucking companies, as well as independent owner/operators and other businesses; and truck inventory financing services to independent dealers. In addition, this segment offers loans and leases directly to customers for the acquisition of trucks and related equipment. The company also manufactures and markets industrial winches under the Braden, Carco, and Gearmatic nameplates. PACCAR Inc was founded in 1905 and is headquartered in Bellevue, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5708,6 +6721,11 @@
       <c r="F205" t="n">
         <v>8.473552</v>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Alexion Pharmaceuticals, Inc. develops and commercializes various therapeutic products. The company offers ULTOMIRIS (ALXN1210/ravulizumab-cwvz), a monoclonal antibody for the treatment of paroxysmal nocturnal hemoglobinuria (PNH), a genetic blood disorder; and Soliris (eculizumab), a monoclonal antibody for the treatment of PNH, atypical hemolytic uremic syndrome (aHUS), and generalized myasthenia gravis. It also provides Strensiq (asfotase alfa), a targeted enzyme replacement therapy for patients with hypophosphatasia; and Kanuma (sebelipase alfa) for the treatment of patients with lysosomal acid lipase deficiency. In addition, the company conducts Phase III clinical trials for ALXN 1210 (IV) for the treatment of PNH and aHUS; ALXN1210 (Subcutaneous), which is in Phase I for PNH and aHUS; and Soliris (eculizumab) for the treatment of myasthenia gravis and neuromyelitis optica spectrum disorder. Further, it develops ALXN1840 that is in Phase III clinical trials for the treatment of Wilson disease; and ALXN1830, which is in Phase II clinical trials for the treatment of warm autoimmune hemolytic anemia. The company serves distributors, pharmacies, hospitals, hospital buying groups, and other healthcare providers in the United States and internationally. Alexion Pharmaceuticals, Inc. has collaboration and license agreement with Halozyme Therapeutics, Inc. to use drug-delivery technology in the development of subcutaneous formulations for its portfolio of products; collaboration with Dicerna Pharmaceuticals, Inc. to discover and develop RNAi therapies for complement-mediated diseases, as well as with Zealand Pharma A/S; strategic agreement with Caelum Biosciences, Inc. to advance the development of CAEL-101 for light chain amyloidosis; agreement with Stealth BioTherapeutics Corp. to co-develop and commercialize therapy for mitochondrial diseases; and a partnership with Affibody AB. The company was founded in 1992 and is headquartered in Boston, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5734,6 +6752,11 @@
       <c r="F206" t="n">
         <v>15.02512</v>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Cummins Inc. designs, manufactures, distributes, and services diesel and natural gas engines, products worldwide. It operates through five segments: Engine, Distribution, Components, Power Systems, and New Power. The company manufactures and markets diesel and natural gas powered engines under the Cummins and other customer brands for the heavy and medium-duty truck, bus, recreational vehicle, light-duty automotive, construction, mining, marine, rail, oil and gas, defense, and agricultural markets; and offers new parts and services, as well as remanufactured parts and engines. It distributes parts, engines, and power generation products; and provides service solutions, such as engineering services, custom-designed assemblies, and repair services. The company offers emission solutions; and turbochargers for light-duty, mid-range, heavy-duty, and high-horsepower diesel markets, as well as provides air and fuel filters, fuel water separators, lube and hydraulic filters, coolants, fuel additives, and other filtration systems; and fuel systems for heavy-duty on-highway diesel engine applications and remanufactures fuel systems. It also provides standby and prime power generators, controls, paralleling systems, and transfer switches, as well as A/C generator/alternator products under the Stamford and AVK brands; and provides electrified power systems with components and subsystems, including battery, fuel cell, and hydrogen production technologies. The company offers electric and hybrid powertrains related components including filtration, after treatment, controls systems, air handling systems, automated transmissions, electric power generation systems, and hydrogen generation products. It sells its products to original equipment manufacturers, distributors, dealers, and other customers. The company was formerly known as Cummins Engine Company and changed its name to Cummins Inc. in 2001. Cummins Inc. was founded in 1919 and is headquartered in Columbus, Indiana.</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5760,6 +6783,11 @@
       <c r="F207" t="n">
         <v>13.50145</v>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Public Service Enterprise Group Incorporated, through its subsidiaries, operates as an energy company primarily in the Northeastern and Mid-Atlantic United States. It operates through two segments, PSE&amp;G and PSEG Power. The PSE&amp;G segment transmits electricity; distributes electricity and gas to residential, commercial, and industrial customers, as well as invests in solar generation projects, and energy efficiency and related programs; and offers appliance services and repairs. As of December 31, 2019, it had electric transmission and distribution system of 25,000 circuit miles and 858,000 poles; and 18,000 miles of gas mains, 12 gas distribution headquarters, 2 sub-headquarters, and 1 meter shop. This segment also owns and operates 52 switching stations with an aggregate installed capacity of 37,353 megavolt-amperes (MVA), as well as 244 substations with an aggregate installed capacity of 8,428 MVA; and 4 electric distribution headquarters and 5 sub-headquarters, as well as 58 natural gas metering and regulating stations. The Power segment operates nuclear, coal, gas, oil-fired, solar, and renewable generation facilities. Public Service Enterprise Group Incorporated was incorporated in 1985 and is based in Newark, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5786,6 +6814,11 @@
       <c r="F208" t="n">
         <v>17.443398</v>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>The Williams Companies, Inc., together with its subsidiaries, operates as an energy infrastructure company primarily in the United States. It operates through Atlantic-Gulf, Northeast G&amp;P, and West segments. The Atlantic-Gulf segment comprises Transco, an interstate natural gas pipeline; and natural gas gathering and processing, and crude oil production handling and transportation assets. The Northeast G&amp;P segment engages in the midstream gathering, processing, and fractionation activities. The West segment comprises Northwest Pipeline, an interstate natural gas pipeline; and gas gathering, processing, and treating operations. The company owns and operates 30,000 miles of pipelines, 28 processing facilities, 7 fractionation facilities, and approximately 23 million barrels of NGL storage capacity. The Williams Companies, Inc. was founded in 1908 and is headquartered in Tulsa, Oklahoma.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5812,6 +6845,11 @@
       <c r="F209" t="n">
         <v>13.573561</v>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Motorola Solutions, Inc. provides mission-critical communication solutions in the United States, the United Kingdom, Canada, and internationally. The company operates in two segments, Products and Systems Integration, and Services and Software. The Products and Systems Integration segment offers a portfolio of infrastructure, devices, accessories, and video solutions, as well as the implementation, optimization, and integration of networks, devices, software, and applications for government, public safety and first-responder agencies, municipalities, and commercial and industrial customers. Its products include two-way portable and vehicle-mounted radios, accessories, software features, and upgrades; video cameras; radio network core and central processing software, base stations, consoles, and repeaters; and video analytics, network video management hardware and software, and access control solutions. The Services segment provides repair, technical support, and hardware maintenance services. This segment also offers monitoring, software updates, and cybersecurity services; and public safety and enterprise command center software suite, unified communications applications, and video software solutions. It serves for government, public safety, and commercial communication networks. The company was formerly known as Motorola, Inc. and changed its name to Motorola Solutions, Inc. in January 2011. Motorola Solutions, Inc. was founded in 1928 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5838,6 +6876,11 @@
       <c r="F210" t="n">
         <v>805.00006</v>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Schlumberger Limited supplies technology for reservoir characterization, drilling, production, and processing to the oil and gas industry worldwide. The company's Reservoir Characterization segment offers reservoir interpretation and data processing services; open and cased-hole, and slickline services; exploration and production pressure and flow-rate measurement services; tubing-conveyed perforating services; integrated production systems; software, consulting, information management, and IT infrastructure services; reservoir characterization, field development planning, and production enhancement consulting services; and petro technical data services and training solutions. Its Drilling segment designs, manufactures, and markets roller cone and fixed cutter drill bits; supplies drilling fluid systems, fluid systems and specialty equipment, production technology solutions, and engineered managed pressure and underbalanced drilling solutions; and offers environmental services and products. This segment also provides drilling and measurement, land drilling rigs, and related support services; and supplies well planning and drilling, engineering, supervision, logistics, procurement, and contracting services, as well as drilling rig management services. The company's Production segment offers well services; coiled tubing equipment; hydraulic fracturing, multistage completions, perforating, coiled tubing equipment, and services; well completion services and equipment; artificial lift production equipment and optimization services; and production management services. Its Cameron segment offers integrated subsea production systems; drilling equipment and services; onshore and offshore platform wellhead systems and processing solutions; and valve and process systems. The company was formerly known as Socie´te´ de Prospection E´lectrique. Schlumberger Limited was founded in 1926 and is based in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5864,6 +6907,11 @@
       <c r="F211" t="n">
         <v>35.70764</v>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>VeriSign, Inc., together with its subsidiaries, provides domain name registry services and Internet infrastructure that enables Internet navigation for various recognized domain names worldwide. It enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two of the 13 Internet root servers; and offering registration services and authoritative resolution for the .com and .net domains, which support global e-commerce. VeriSign, Inc. was incorporated in 1995 and is headquartered in Reston, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5890,6 +6938,11 @@
       <c r="F212" t="n">
         <v>28.028986</v>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Fastenal Company, together with its subsidiaries, engages in the wholesale distribution of industrial and construction supplies in the United States, Canada, Mexico, North America, and internationally. It offers fasteners, and related industrial and construction supplies under the Fastenal name. The company's fastener products include threaded fasteners, bolts, nuts, screws, studs, and related washers, which are used in manufactured products and construction projects, as well as in the maintenance and repair of machines. It also offers miscellaneous supplies and hardware, including pins, machinery keys, concrete anchors, metal framing systems, wire ropes, strut products, rivets, and related accessories. The company serves the manufacturing market comprising original equipment manufacturers; maintenance, repair, and operations; and non-residential construction market, which includes general, electrical, plumbing, sheet metal, and road contractors. It also serves farmers, truckers, railroads, mining companies, schools, and retail trades; and oil exploration, production, and refinement companies, as well as federal, state, and local governmental entities. The company distributes its products through a network 2,114 branches and 15 distribution centers. Fastenal Company was founded in 1967 and is headquartered in Winona, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5916,6 +6969,11 @@
       <c r="F213" t="n">
         <v>40.8</v>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Twitter, Inc. operates as a platform for public self-expression and conversation in real time United States and internationally. The company offers various products and services, including Twitter, a platform that allows users to consume, create, distribute, and discover content; and Periscope, a mobile application that enables user to broadcast and watch video live with others. It also provides promoted products and services, such as promoted tweets, promoted accounts, and promoted trends, which enable its advertisers to promote their brands, products, and services. In addition, the company offers a set of tools and public application programming interfaces for developers to contribute their content to its platform, syndicate and distribute Twitter content across their properties, and enhance their Websites and applications with Twitter content. Further, it provides subscription access to its public data feed for data partners. Twitter, Inc. was founded in 2006 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5942,6 +7000,11 @@
       <c r="F214" t="n">
         <v>5.423158</v>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>American International Group, Inc. provides insurance products for commercial, institutional, and individual customers in North America and internationally. The company's General Insurance segment offers general liability, environmental, commercial automobile liability, workers' compensation, excess casualty, and crisis management insurance products, as well as various risk-sharing and other customized structured programs; commercial, industrial, and energy-related property insurance; and aerospace, political risk, trade credit, portfolio solutions, surety, crop, and marine insurance. It also provides professional liability insurance products for a range of businesses and risks, including directors and officer's liability, mergers and acquisitions, fidelity, employment practices, fiduciary liability, cyber risk, kidnap and ransom, and errors and omissions insurance. In addition, this segment offers personal auto and property insurance, voluntary and sponsor-paid personal accident, and supplemental health products; extended warranty insurance products; and travel insurance products. Its Life and Retirement segment offers variable annuities, fixed index and fixed annuities, and retail mutual funds; group mutual funds, fixed annuities, and variable annuities, as well as individual annuity and investment products, and financial planning and advisory services; and term life and universal life insurance. This segment also provides stable value wrap products, and structured settlement and pension risk transfer annuities; and corporate- and bank-owned life insurance and guaranteed investment contracts. This segment sells its products through independent marketing organizations, independent insurance agents, financial advisors, direct marketing, banks, wirehouses, and broker-dealers. The company's Legacy Portfolio segment offers legacy insurance products. American International Group, Inc. was founded in 1919 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5968,6 +7031,11 @@
       <c r="F215" t="n">
         <v>24.83875</v>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Rockwell Automation, Inc. provides industrial automation and digital transformation solutions. It operates in two segments, Architecture &amp; Software, and Control Products &amp; Solutions. The Architecture &amp; Software segment offers a portfolio of automation and information platforms, including hardware and software. Its products include programmable automation controllers; design, visualization, and simulation software; and human machine interface products, networking products, industrial computers, sensing devices, machine safety devices, motion control products, and independent cart technology products. This segment also offers manufacturing execution systems and analytics software to enhance operational productivity and meet regulatory requirements. The Control Products &amp; Solutions segment offers low and medium voltage electro-mechanical and electronic motor starters, AC/DC variable frequency drives, motor control and circuit protection devices, operator and signaling devices, termination and protection devices, relays and timers, and electrical control accessories. This segment also provides pre-configured line and load power solutions, packaged drives, motor control centers, and intelligent packaged power and engineered to order automation equipment solutions; and professional lifecycle services, such as safety, security, and digital transformation consulting, as well as automation and information project delivery capabilities, plant network, cloud, cybersecurity, asset management and predictive analytics, and remote, on-site, and managed support services. It primarily serves a range of industries, which include the automotive, semiconductor, and warehousing and logistics; food and beverage, and life sciences; and oil and gas, metals, and chemicals through independent distributors and direct sales force worldwide. Rockwell Automation, Inc. was founded in 1903 and is headquartered in Milwaukee, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5994,6 +7062,11 @@
       <c r="F216" t="n">
         <v>35.66478</v>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>ANSYS, Inc. develops and markets engineering simulation software and services worldwide. The company offers ANSYS Workbench, a framework upon which its engineering simulation technologies are built; multiphysics software to simulate the interactions between structures, heat transfer, fluids, and electronics in a unified engineering simulation environment; high-performance computing product suite, which delivers cross-physics parallel processing capabilities for simulation software; and structural analysis product suite that provides simulation tools for product design and optimization. It also provides fluids product suite that enables modeling of fluid flow and other related physical phenomena; and electromagnetics product suite that offers field simulation software for designing electronic. In addition, the company offers power analysis and optimization software suite that manages the power budget, power delivery integrity, and power-induced noise in an electronic design; SCADE product suite, a solution for embedded software simulation, code production, and automated certification; and system simulation capability for the design of automated products. Further, it provides Discovery product family for use in the simulation of product design; Ansys Granta products to give access to material intelligence; and academic product suite with a portfolio of academic products based on associate, research, and teaching. The company serves engineers, designers, researchers, and students in the aerospace and defense, automotive, electronics, semiconductors, energy, materials and chemical processing, turbomachinery, consumer products, healthcare, and sports industries and academia. ANSYS, Inc. was founded in 1970 and is headquartered in Canonsburg, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6020,6 +7093,11 @@
       <c r="F217" t="n">
         <v>15.251908</v>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>FirstEnergy Corp., through its subsidiaries, generates, transmits, and distributes electricity in the United States. The company operates through Regulated Distribution and Regulated Transmission segments. It owns and operates coal-fired, nuclear, hydroelectric, natural gas, wind, and solar power generating facilities. The company also provides energy-related products and services to retail and wholesale customers. It operates 24,486 circuit miles of overhead and underground transmission lines; and electric distribution systems, including 269,691 miles of overhead pole line and underground conduit carrying primary, secondary, and street lighting circuits, as well as owns substations with a total installed transformer capacity of approximately 156,115,196 kilovolt-amperes. The company serves approximately six million customers in Ohio, Pennsylvania, West Virginia, Maryland, New Jersey, and New York. FirstEnergy Corp. was founded in 1996 and is headquartered in Akron, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6046,6 +7124,11 @@
       <c r="F218" t="n">
         <v>30.250996</v>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>As of December 31, 2019, the Company owned or held a direct or indirect ownership interest in 297 apartment communities containing 86,846 apartment homes in 11 states and the District of Columbia, of which 22 communities were under development and two communities were under redevelopment. The Company is an equity REIT in the business of developing, redeveloping, acquiring and managing apartment communities in leading metropolitan areas primarily in New England, the New York/New Jersey Metro area, the Mid-Atlantic, the Pacific Northwest, and the Northern and Southern California regions of the United States.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6072,6 +7155,11 @@
       <c r="F219" t="n">
         <v>12.878378</v>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Johnson Controls International plc operates as a diversified technology and multi industrial company worldwide. The company operates through Building Solutions North America, Building Solutions EMEA/LA, Building Solutions EMEA/LA, and Global Products segments. The company designs, sells, installs, and services heating, ventilating, and air conditioning systems, controls systems, integrated electronic security systems, and integrated fire detection and suppression systems for commercial, industrial, retail, small business, institutional, and governmental customers; and energy efficiency solutions and technical services, including inspection, scheduled maintenance, and repair and replacement of mechanical and control systems to non-residential building and industrial applications. It also designs and produces heating and air conditioning for residential and commercial applications; and markets products and refrigeration systems to replacement and new construction market; and designs, manufactures, and sells fire protection and security products, including intrusion security, anti-theft devices, and access control and video management systems for commercial, industrial, retail, residential, small business, institutional, and governmental customers. The company was formerly known as Johnson Controls, Inc. and changed its name to Johnson Controls International plc in September 2016. Johnson Controls International plc was founded in 1885 and is headquartered in Cork, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6098,6 +7186,11 @@
       <c r="F220" t="n">
         <v>27.486998</v>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>American Water Works Company, Inc., through its subsidiaries, provides water and wastewater services in the United States. It offers water and wastewater services to approximately 1,700 communities in 16 states serving approximately 3.4 million active customers. The company serves residential customers; commercial customers, such as food and beverage providers, commercial property developers and proprietors, and energy suppliers; fire service and private fire customers; industrial customers, such as large-scale manufacturers, mining, and production operations; public authorities comprising government buildings and other public sector facilities, such as schools and universities; and other utilities and community water and wastewater systems. It also provides various warranty protection programs to residential customers; and water and wastewater services on various military installations. In addition, the company undertakes contracts with municipal customers, primarily to operate and manage water and wastewater facilities, as well as offers other related services. It operates approximately 80 surface water treatment plants; 520 groundwater treatment plants; 140 wastewater treatment plants; 52,500 miles of transmission, distribution, and collection mains and pipes; 1,000 groundwater wells; 1,500 water and wastewater pumping stations; 1,300 treated water storage facilities; and 76 dams. The company serves approximately 15 million people with drinking water, wastewater, and other water-related services in 46 states. The company was founded in 1886 and is headquartered in Camden, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6124,6 +7217,11 @@
       <c r="F221" t="n">
         <v>8.371281</v>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>McKesson Corporation provides pharmaceuticals and medical supplies in the United States and internationally. It operates through three segments: U.S. Pharmaceutical and Specialty Solutions, European Pharmaceutical Solutions, and Medical-Surgical Solutions. The company distributes branded, generic, specialty, biosimilar, and over-the-counter pharmaceutical drugs, as well as other healthcare-related products; and offers practice management, technology, clinical support, and business solutions to community-based oncology and other specialty practices, as well as solutions for life sciences companies. It also provides financial, operational, and clinical solutions to pharmacies; and consulting, outsourcing, and other services. In addition, the company provides distribution and services to wholesale, institutional, and retail customers and serves patients and consumers in 13 European countries through its own pharmacies and participating pharmacies; and medical-surgical supply distribution, logistics, and other services to healthcare providers. Further, it provides automation solutions to its retail and hospital customers; health information exchange solutions that streamline clinical and administrative communication; and innovative technologies that support retail pharmacies and manufacturers. The company has a strategic collaboration with Aetion, Inc. to advance cancer research with real-world data. McKesson Corporation was founded in 1833 and is headquartered in Irving, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6150,6 +7248,11 @@
       <c r="F222" t="n">
         <v>5.735178</v>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>HP Inc., together with its subsidiaries, provides personal computing and other access devices, imaging and printing products, and related technologies, solutions, and services in the United States and internationally. The company operates through three segments: Personal Systems, Printing, and Corporate Investments. The Personal Systems segment offers commercial and consumer desktop and notebook personal computers, workstations, thin clients, commercial mobility devices, retail point-of-sale systems, displays and other related accessories, software, support, and services. The Printing segment provides consumer and commercial printer hardware, supplies, solutions, and services, as well as scanning devices. The Corporate Investments segment includes HP Labs and business incubation projects. It serves individual consumers, small- and medium-sized businesses, and large enterprises, including customers in the government, health, and education sectors. The company was formerly known as Hewlett-Packard Company and changed its name to HP Inc. in October 2015. HP Inc. was founded in 1939 and is headquartered in Palo Alto, California.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6176,6 +7279,11 @@
       <c r="F223" t="n">
         <v>24.99704</v>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Xilinx, Inc. designs and develops programmable devices and associated technologies worldwide. The company offers integrated circuits (ICs) in the form of programmable logic devices (PLDs), such as programmable system on chips, and three dimensional ICs; adaptive compute acceleration platform; software design tools to program the PLDs; software development environments and embedded platforms; targeted reference designs; printed circuit boards; and intellectual property (IP) core licenses covering Ethernet, memory controllers, Interlaken, and peripheral component interconnect express interfaces, as well as domain-specific IP in the areas of embedded, digital signal processing and connectivity, and market-specific IP cores. It also offers development boards; development kits, including hardware, design tools, IP, and reference designs that are designed to streamline and accelerate the development of domain-specific and market-specific applications; and configuration products comprising one-time programmable and in-system programmable storage devices to configure field programmable gate arrays. In addition, it provides design, customer training, field engineering, and technical support services. The company offers its products to electronic equipment manufacturers in sub-segments, such as data center, wireless, wireline, aerospace and defense, test and measurement, industrial, scientific and medical, automotive, audio, video and broadcast, and consumer. It sells its products through a network of independent distributors; and through direct sales to original equipment manufacturers and electronic manufacturing service providers, as well as independent sales representatives. Xilinx, Inc. was founded in 1984 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6202,6 +7310,11 @@
       <c r="F224" t="n">
         <v>4.4669456</v>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Prudential Financial, Inc., through its subsidiaries, provides insurance, investment management, and other financial products and services. It operates through eight segments: PGIM, Retirement, Group Insurance, Individual Annuities, Individual Life, Assurance IQ, International Businesses, and Closed Block. The company offers asset management public and private fixed income, public equity and real estate, commercial mortgage origination and servicing, and mutual funds and other retail services to institutional, private, and sub-advisory clients, as well as to insurance company separate accounts, government sponsored entities, and the general account. It provides a range of retirement investment, and income products and services to retirement plan sponsors in the public, private, and not-for-profit sectors; and group life, long-term and short-term group disability, and group corporate-, bank-, and trust-owned life insurance in the United States, primarily to institutional clients for use in connection with employee plans and affinity groups. The company develops and distributes individual variable and fixed annuity products, principally to the mass affluent and affluent markets; and individual variable, term, and universal life insurance products to the mass middle, mass affluent, and affluent markets in the United States. It also offers individual life insurance, retirement, and related products to the mass affluent and affluent markets in Japan, Korea, and other foreign countries, as well as middle income and mass affluent markets. In addition, the company provides third-party life, health, Medicare, and property and casualty products to retail shoppers through its digital and independent agent channels. It offers its products and services to individual and institutional customers through its proprietary and third-party distribution networks. The company was founded in 1875 and is headquartered in Newark, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6228,6 +7341,11 @@
       <c r="F225" t="n">
         <v>12.423326</v>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Edison International, through its subsidiaries, engages in the generation, transmission, and distribution of electricity in the United States. The company generates electricity through hydroelectric, diesel/liquid petroleum gas, natural gas, nuclear, and photovoltaic sources. It supplies electricity primarily to residential, commercial, industrial, agricultural, and other customers, as well as public authorities through transmission and distribution networks. The company's transmission facilities consist of lines ranging from 33 kV to 500 kV and substations; and distribution system comprises approximately 53,000 line miles of overhead lines, 38,000 line miles of underground lines, and 800 substations located in California. It serves approximately 5 million customers. The company was founded in 1886 and is based in Rosemead, California.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6254,6 +7372,11 @@
       <c r="F226" t="n">
         <v>32.324127</v>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>McCormick &amp; Company, Incorporated manufactures, markets, and distributes spices, seasoning mixes, condiments, and other flavorful products to the food industry. The company operates in two segments, Consumer and Flavor Solutions. The Consumer segment offers spices, herbs, and seasonings, as well as desserts. This segment markets its products under the McCormick, French, Frank's RedHot, Lawry's, Gourmet Garden, Club House, and OLD BAY brands in the Americas; Ducros, Schwartz, Kamis, and Drogheria &amp; Alimentari, and Vahiné brand names in Europe, the Middle East, and Africa; McCormick and DaQiao brands in China; and McCormick, Aeroplane, and Gourmet Garden brand names in Australia, as well as markets regional and ethnic brands, such as Zatarain's, Stubb's, Thai Kitchen, and Simply Asia. It also supplies its products under the private labels. This segment serves retailers comprising grocery, mass merchandise, warehouse clubs, discount and drug stores, and e-commerce retailers directly and indirectly through distributors or wholesalers. The Flavor Solutions segment offers seasoning blends, spices and herbs, condiments, coating systems, and compound flavors to multinational food manufacturers and foodservice customers. It serves foodservice customers directly and indirectly through distributors. The company was founded in 1889 and is headquartered in Hunt Valley, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6280,6 +7403,11 @@
       <c r="F227" t="n">
         <v>15.631164</v>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Marriott International, Inc. operates, franchises, and licenses hotel, residential, and timeshare properties worldwide. The company operates through North American Full-Service, North American Limited-Service, and Asia Pacific segments. It operates its properties under the JW Marriott, The Ritz-Carlton, Ritz-Carlton Reserve, W Hotels, The Luxury Collection, St. Regis, EDITION, Bulgari, Marriott Hotels, Sheraton, Delta Hotels, Marriott Executive Apartments, Marriott Vacation Club, Westin, Renaissance, Le Méridien, Autograph Collection, Gaylord Hotels, Tribute Portfolio, Design Hotels, Courtyard, Residence Inn, Fairfield by Marriott, SpringHill Suites, Four Points, TownePlace Suites, Aloft, AC Hotels by Marriott, Protea Hotels, Element, and Moxy brand names. As of February 3, 2020, it operated approximately 7,300 properties under 30 hotel brands in 134 countries and territories. Marriott International, Inc. was founded in 1927 and is headquartered in Bethesda, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6306,6 +7434,11 @@
       <c r="F228" t="n">
         <v>38.092716</v>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Equity Residential is committed to creating communities where people thrive. The Company, a member of the S&amp;P 500, is focused on the acquisition, development and management of rental apartment properties located in urban and high-density suburban communities where today's renters want to live, work and play. Equity Residential owns or has investments in 306 properties consisting of 79,065 apartment units, located in Boston, New York, Washington, D.C., Seattle, San Francisco, Southern California and Denver.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6332,6 +7465,11 @@
       <c r="F229" t="n">
         <v>19.756023</v>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Cerner Corporation, together with its subsidiaries, provides health care information technology solutions and tech-enabled services in the United States and internationally. The company offers Cerner Millennium architecture, a person-centric computing framework, which includes clinical, financial, and management information systems that allow providers to access an individual's electronic health record (EHR) at the point of care, and organizes and delivers information for physicians, nurses, laboratory technicians, pharmacists, front- and back-office professionals, and consumers. It also provides HealtheIntent platform, a cloud-based platform to aggregate, transform, and reconcile data across the continuum of care; and CareAware, an EHR agnostic platform that facilitates connectivity of health care devices to EHRs. In addition, the company offers a portfolio of clinical and financial health care information technology solutions, as well as departmental, connectivity, population health, and care coordination solutions. Further, it provides tech-enabled services, such as implementation and training, remote hosting, operational management services, revenue cycle services, support and maintenance, health care data analysis, clinical process optimization, transaction processing, employer health centers, employee wellness programs, and third-party administrator services; and complementary hardware and devices for third parties. The company serves integrated delivery networks, physician groups and networks, managed care organizations, hospitals, medical centers, reference laboratories, home health agencies, blood banks, imaging centers, pharmacies, pharmaceutical manufacturers, employers, governments, and public health organizations. Cerner Corporation was founded in 1979 and is headquartered in North Kansas City, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6358,6 +7496,11 @@
       <c r="F230" t="n">
         <v>12.2579365</v>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Marathon Petroleum Corporation, together with its subsidiaries, engages in refining, marketing, retailing, and transporting petroleum products primarily in the United States. It operates through three segments: Refining &amp; Marketing, Retail, and Midstream. The Refining &amp; Marketing segment refines crude oil and other feed stocks at its 16 refineries in the West Coast, Gulf Coast, and Mid-Continent regions of the United States; and purchases refined products and ethanol for resale. Its refined products include transportation fuels, such as reformulated gasolines and blend-grade gasolines; heavy fuel oil; and asphalt. This segment also manufactures aromatics, propane, propylene, and sulfur. It sells refined products wholesale marketing customers domestically and internationally, buyers on the spot market, and independent entrepreneurs who operate primarily Marathon branded outlets. The Retail segment sells transportation fuels and convenience products in the retail market through company-owned and operated convenience stores, primarily under the Speedway brand; and long-term fuel supply contracts with direct dealers who operate locations mainly under the ARCO brand. The Midstream segment transports, stores, distributes, and markets crude oil and refined products through refining logistics assets, pipelines, terminals, towboats and barges; gathers, processes, and transports natural gas; and gathers, transports, fractionates, stores, and markets natural gas liquids. The company also exports its refined products. As of December 31, 2019, it owned, leased, and had ownership interests in approximately 17,200 miles of crude oil and refined product pipelines, as well as owned and operated 3,900 convenience stores; and had 6,900 retail outlets operated by independent entrepreneurs in 35 states of the United States, the District of Columbia, and Mexico. The company was founded in 1887 and is headquartered in Findlay, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6384,6 +7527,11 @@
       <c r="F231" t="n">
         <v>15.830258</v>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Microchip Technology Incorporated develops, manufactures, and sells semiconductor products for various embedded control applications in the Americas, Europe, and Asia. The company offers general purpose and specialized 8-bit, 16-bit, and 32-bit microcontrollers; 32-bit microprocessors; and microcontrollers for automotive, industrial, computing, communication, lighting, power supplies, motor control, human machine interface, security, and wired and wireless connectivity applications. It also provides development tools that enable system designers to program microcontroller products for specific applications; field-programmable gate array (FPGA) products; and analog, power, interface, mixed signal, and timing products comprising power management, linear, mixed-signal, high-voltage, thermal management, discrete diodes and metal oxide semiconductor field effect transistors (MOSFETS), radio frequency (RF), drivers, safety, security, timing, USB, Ethernet, wireless, and other interface products. In addition, the company offers memory products consisting of serial electrically erasable programmable read-only memory, serial flash memories, parallel flash memories, serial static random access memories, and serial electrically erasable random access memories for the production of very small footprint devices; and licenses its SuperFlash embedded flash and Smartbits one time programmable NVM technologies to foundries, integrated device manufacturers, and design partners for use in the manufacture of microcontroller products, gate array, RF, analog, and neuromorphic compute products that require embedded non-volatile memory, as well as provides engineering services. Further, it provides wafer foundry and assembly and test subcontracting manufacturing services; and aerospace and timing systems products, application specific integrated circuits, and complex programmable logic devices. Microchip Technology Incorporated was founded in 1989 and is headquartered in Chandler, Arizona.</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6410,6 +7558,11 @@
       <c r="F232" t="n">
         <v>19.030676</v>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Ball Corporation supplies aluminum packaging products to the beverage, personal care, automotive, paint, healthcare, and household products industries. It operates in four segments: Beverage Packaging, North and Central America; Beverage Packaging, South America; Beverage Packaging, Europe; and Aerospace. The company manufactures and sells aluminum beverage containers to fillers of carbonated soft drinks, beer, energy drinks, and other beverages. It also develops spacecraft, sensors and instruments, radio frequency systems, and other technologies and products for the civil, commercial, and national security aerospace markets, as well as offers defense hardware, antenna and video tactical solutions, civil and operational space hardware, and systems engineering services. In addition, the company designs, manufactures, and tests satellites, remote sensors, and ground station control hardware and software; and provides launch vehicle integration and satellite operational services. Further, it provides target identification, warning, and attitude control systems and components; cryogenic systems and associated sensor cooling devices; star trackers; and fast-steering mirrors to the government agencies and prime contractors. Additionally, the company manufactures and sells aerosol containers, extruded aluminum aerosol containers, and aluminum slugs. The company was founded in 1880 and is headquartered in Broomfield, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6436,6 +7589,11 @@
       <c r="F233" t="n">
         <v>14.186469</v>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>PPG Industries, Inc. manufactures and distributes paints, coatings, and specialty materials worldwide. The company's Performance Coatings segment offers coatings, solvents, adhesives, sundries, and software for automotive and commercial transport/fleet repair and refurbishing, light industrial coatings, and specialty coatings for signs; and coatings, sealants, transparencies, transparent armor, adhesives, and packaging and chemical management services for commercial, military, regional jet, and general aviation aircraft. It also provides coatings and finishes for the protection of metals and structures, such as metal fabricators, heavy duty maintenance contractors, and manufacturers of ships, bridges, and rail cars; and paints, wood stains, and purchased sundries for painting and maintenance contractors, and consumers for decoration and maintenance of residential and commercial building structures. The company's Industrial Coatings segment provides coatings, adhesives and sealants, and metal pretreatments, as well as services and coatings applications for automotive original equipment manufacturers; appliances, agricultural and construction equipment, consumer electronics, automotive parts and accessories, building products, transportation vehicles and other finished products; and on-site coatings services. It also provides coatings for the protection, performance, and decoration of metal cans, closures, plastic tubes, industrial packaging, and promotional and specialty packaging. In addition, this segment offers amorphous precipitated silica for tire, battery separator, and other end-uses; TESLIN substrates for labels, e-passports, drivers' licenses, breathable membranes, and other loyalty and identification cards; and organic light emitting diode materials, displays and lighting lens materials, and optical lenses and color-change products, as well as photochromic dyes. The company was founded in 1883 and is headquartered in Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6462,6 +7620,11 @@
       <c r="F234" t="n">
         <v>21.92014</v>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Paychex, Inc. provides integrated human capital management solutions for payroll, benefits, human resource (HR), retirement, and insurance services for small- to medium-sized businesses in the United States and Europe. The company offers payroll processing services; payroll tax administration services; employee payment services; and regulatory compliance services, such as new-hire reporting and garnishment processing. It also provides HR outsourcing services, including payroll, employer compliance, HR and employee benefits administration, risk management outsourcing, and the on-site availability of a professionally trained HR representative; and retirement services administration, including plan implementation, ongoing compliance with government regulations, employee and employer reporting, participant and employer online access, electronic funds transfer, and other administrative services. In addition, the company offers cloud-based HR administration software products for employee benefits management and administration, time and attendance, recruiting, and onboarding solutions; various accounting and financial services to small to medium-sized businesses comprising payroll funding and outsourcing services, which include payroll processing, invoicing, and tax preparation; and various services, such as payment processing services, financial fitness programs, and a small-business loan resource center. Further, it provides insurance services for property and casualty coverage, such as workers' compensation, business-owner policies, and commercial auto, as well as health and benefits coverage, including health, dental, vision, and life; and state unemployment insurance services, which allows clients with prompt processing for all claims, appeals, determinations, change statements, and requests for separation documents. The company markets its products and services through direct sales force. Paychex, Inc. was founded in 1979 and is headquartered in Rochester, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6488,6 +7651,11 @@
       <c r="F235" t="n">
         <v>20.931309</v>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>The Hershey Company, together with its subsidiaries, manufactures and sells confectionery products. The company operates through two segments, North America; and International and Other. It offers chocolate and non-chocolate confectionery products; gum and mint refreshment products comprising mints, chewing gums, and bubble gums; pantry items, such as baking ingredients, toppings, beverages, and sundae syrups; and snack items, including spreads, meat snacks, bars and snack bites, mixes, popcorn and protein bars, and cookies. The company provides its products primarily under the Hershey's, Reese's, Kisses, Jolly Rancher, Almond Joy, Brookside, barkTHINS, Cadbury, Good &amp; Plenty, Heath, Kit Kat, Lancaster, Payday, Rolo, Twizzlers, Whoppers, York, Scharffen Berger, Dagoba, Ice Breakers, Breathsavers, Bubble Yum, SkinnyPop, Pirate's Booty, Oatmega, Paqui, ONE, and Krave brands, as well as under the Pelon Pelo Rico, IO-IO, Nutrine, Maha Lacto, Jumpin, and Sofit brands. It markets and sells its products to wholesale distributors, chain grocery stores, mass merchandisers, chain drug stores, vending companies, wholesale clubs, convenience stores, dollar stores, concessionaires, and department stores. The Hershey Company was founded in 1894 and is headquartered in Hershey, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6512,6 +7680,11 @@
         <v>20787791872</v>
       </c>
       <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Otis Worldwide Corporation manufactures, installs, and services elevators and escalators worldwide. The company operates through two segments, New Equipment and Service. The New Equipment segment designs, manufactures, sells, and installs a range of passenger and freight elevators, as well as escalators and moving walkways for residential and commercial buildings, and infrastructure projects. The Service segment performs maintenance and repair services, as well as modernization services to upgrade elevators and escalators. The company was founded in 1853 and is headquartered in Farmington, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6538,6 +7711,11 @@
       <c r="F237" t="n">
         <v>44.970684</v>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Fortinet, Inc. provides broad, integrated, and automated cybersecurity solutions worldwide. It offers FortiGate hardware and software licenses that provide various security and networking functions, including firewall, intrusion prevention, anti-malware, virtual private network, application control, Web filtering, anti-spam, and wide area network (WAN) acceleration. The company also provides FortiSwitch product family that offers secure switching solutions for connecting customers end devices; FortiAP product family, which provides secure wireless networking solutions; FortiExtender appliance provides a WAN connection to its FortiGate products; FortiAnalyzer product family, which offers centralized network logging, analyzing, and reporting solutions; and FortiManager product family that provides central and scalable management solution for its FortiGate products. It offers FortiWeb product family provides web application firewall solutions; FortiMail product family that secure email gateway solutions; FortiSandbox technology that delivers proactive detection and mitigation services; and FortiSIEM family of software solutions, which offers a cloud-ready security information and event management solutions, as well as FortiToken and FortiAuthenticator product families for multi-factor authentication to safeguard systems, assets, and data; and FortiNAC product family to implement zero trust network access strategies. The company provides security subscription, technical support, professional, and training services. It sells its security solutions to channel partners and directly to various customers in telecommunications, technology, government, financial services, education, retail, manufacturing, and healthcare industries. Fortinet, Inc. provides its products and services in the Americas, Europe, the Middle East, Africa, and the Asia Pacific. The company was founded in 2000 and is headquartered in Sunnyvale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6564,6 +7742,11 @@
       <c r="F238" t="n">
         <v>9.529617</v>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>State Street Corporation, through its subsidiaries, provides a range of financial products and services to institutional investors worldwide. It offers investment servicing products and services, including custody; product and participant level accounting; daily pricing and administration; master trust and master custody; depotbank services; record-keeping; cash management; foreign exchange, brokerage, and other trading services; securities finance; deposit and short-term investment facilities; loans and lease financing; investment manager and alternative investment manager operations outsourcing; performance, risk, and compliance analytics; and financial data management to support institutional investors. The company also provides investment management strategies and products, such as core and enhanced indexing, multi-asset strategies, active quantitative and fundamental active capabilities, and alternative investment strategies. In addition, it offers services and solutions, including environmental, social, and governance investing; defined benefit and defined contribution; and outsourced chief investment officer. The company provides its products and services to mutual funds, collective investment funds and other investment pools, corporate and public retirement plans, insurance companies, foundations, endowments, and investment managers. State Street Corporation was founded in 1792 and is headquartered in Boston, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6590,6 +7773,11 @@
       <c r="F239" t="n">
         <v>66.79297</v>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>MarketAxess Holdings Inc., together with its subsidiaries, operates an electronic trading platform that enables fixed-income market participants to trade corporate bonds and other types of fixed-income instruments worldwide. It offers institutional investor and broker-dealer firms the access to global liquidity in U.S. investment-grade corporate bonds, emerging markets and high-yield bonds, Eurobonds, U.S. agency bonds, municipal bonds, leveraged loans, and other fixed-income securities. The company, through its Open Trading protocols, executes bond trades between and among institutional investor and broker-dealer clients in an all-to-all anonymous trading environment for corporate bonds. It also offers trading-related products and services, including Composite+ pricing and other market data products to assist clients with trading decisions; auto-execution and other execution services for clients requiring specialized workflow solutions; connectivity solutions that facilitate straight-through processing; and technology services to optimize trading environments. In addition, the company offers a range of pre-and post-trade services, such as trade matching, trade publication, regulatory transaction reporting, and market and reference data across a range of fixed-income and other products. MarketAxess Holdings Inc. was founded in 2000 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6616,6 +7804,11 @@
       <c r="F240" t="n">
         <v>9.988303999999999</v>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Archer-Daniels-Midland Company procures, transports, stores, processes, and merchandises agricultural commodities, products, and ingredients in the United States and internationally. The company operates through three segments: Ag Services and Oilseeds, Carbohydrate Solutions, and Nutrition. It procures, stores, cleans, and transports agricultural raw materials, such as oilseeds, corn, wheat, milo, oats, rice, and barley. The company also engages in the agricultural commodity and feed product import, export, and distribution; and structured trade finance activities. In addition, it offers vegetable oils and protein meals; ingredients for the food, feed, energy, and industrial customers; crude vegetable oils, salad oils, margarine, shortening, and other food products; and partially refined oils to produce biodiesel and glycols for use in chemicals, paints, and other industrial products. Further, the company provides peanuts, tree nuts, peanut-derived ingredients, and cotton cellulose pulp; sweeteners, corn and wheat starches, syrup, glucose, wheat flour, dextrose, and bioproducts; alcohol and other food and animal feed ingredients; ethyl alcohol and ethanol; corn gluten feed and meal, as well as distillers' grains; and citric acids. Additionally, the company provides natural flavor ingredients, flavor systems, natural colors, proteins, emulsifiers, soluble fiber, polyols, hydrocolloids, and natural health and nutrition products, including probiotics, prebiotics, enzymes, and botanical extracts; and other specialty food and feed ingredients; edible beans; formula feeds, and animal health and nutrition products; and contract and private label pet treats and foods. It also engages in futures commission merchant and insurance services. The company was founded in 1902 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6642,6 +7835,11 @@
       <c r="F241" t="n">
         <v>10.218623</v>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>PPL Corporation, a utility holding company, delivers electricity and natural gas in the United States and the United Kingdom. The company operates through three segments: U.K. Regulated, Kentucky Regulated, and Pennsylvania Regulated. It serves approximately 418,000 electric and 329,000 natural gas customers in Louisville and adjacent areas in Kentucky; 530,000 electric customers in central, southeastern, and western Kentucky; and 28,000 electric customers in 5 counties in southwestern Virginia. The company also provides electric delivery services to approximately 1.4 million customers in Pennsylvania; operates electricity distribution networks in the United Kingdom; generates electricity from coal, gas, hydro, and solar sources in Kentucky; and sells wholesale electricity to 2 municipalities in Kentucky. PPL Corporation was founded in 1920 and is headquartered in Allentown, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6668,6 +7866,11 @@
       <c r="F242" t="n">
         <v>17.089367</v>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Parker-Hannifin Corporation manufactures and sells motion and control technologies and systems for various mobile, industrial, and aerospace markets worldwide. It operates in two segments, Diversified Industrial and Aerospace Systems. The Diversified Industrial segment offers static and dynamic sealing devices; filters, systems, and diagnostics solutions to monitor and remove contaminants from fuel, air, oil, water, and other liquids and gases; connectors, which control, transmit, and contain fluid; control solutions for extreme corrosion resistance, temperatures, pressures, and precise flow; and hydraulic, pneumatic, and electromechanical components and systems for builders and users of mobile and industrial machinery and equipment. This segment sells its products to original equipment manufacturers (OEMs) and distributors who serve the replacement markets in manufacturing, packaging, processing, transportation, mobile construction, refrigeration and air conditioning, agricultural, and military machinery and equipment industries. The Aerospace Systems segment offers products for use in commercial and military airframe and engine programs, such as control actuation systems and components, engine systems and components, fluid conveyance systems and components, fuel systems and components, fuel tank inerting systems, hydraulic systems and components, lubrication components, pneumatic control components, power conditioning and management systems, thermal management products, and wheels and brakes, as well as fluid metering, delivery, and atomization devices. This segment markets its products directly to OEMs and end users. The company markets its products through direct-sales employees, independent distributors, and sales representatives. Parker-Hannifin Corporation was founded in 1917 and is headquartered in Cleveland, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6694,6 +7897,11 @@
       <c r="F243" t="n">
         <v>16.064299</v>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Entergy Corporation, together with its subsidiaries, engages in the production and distribution of electricity in the United States. The company generates electricity through gas/oil, nuclear, coal, hydro, and solar power sources. It operates in two segments, Utility and Entergy Wholesale Commodities. The company's Utility segment generates, transmits, distributes, and sells electric power in portions of Arkansas, Mississippi, Texas, and Louisiana, including the City of New Orleans; and distributes natural gas. Its Entergy Wholesale Commodities segment engages in the ownership, operation, and decommissioning of nuclear power plants located in the northern United States; sale of electric power to wholesale customers; provision of services to other nuclear power plant owners; and owning interests in non-nuclear power plants that sell electric power to wholesale customers. This segment sells energy to retail power providers, utilities, electric power co-operatives, power trading organizations, and other power generation companies. The company's power plants have approximately 30,000 megawatts (MW) of electric generating capacity, including approximately 9,000 MW of nuclear power. The company delivers electricity to 2.9 million utility customers in Arkansas, Louisiana, Mississippi, and Texas. Entergy Corporation was founded in 1949 and is based in New Orleans, Louisiana.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6720,6 +7928,11 @@
       <c r="F244" t="n">
         <v>16.017353</v>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>FLEETCOR Technologies, Inc. operates as a business payments company that simplifies the way businesses manage and pay expenses. The company's portfolio of brands help companies automate, secure, digitize, and control payments on behalf of employees and suppliers. It offers payment solutions in five primary categories, including fuel, lodging, tolls, corporate payments, and gift. The company provides fuel payment solutions to businesses and government entities that operate vehicle fleets, as well as to oil and leasing companies, and fuel marketers. Its fuel payment products are in the form of plastic cards, electronic RFID tags, mobile apps, and paper vouchers to purchase fuel, oil, vehicle maintenance supplies and services, and building supplies. The company offers lodging payment solutions to businesses that have employees who travel overnight for work purposes; to airlines to accommodate traveling crews and distressed passengers whose flights have been canceled; and electronic toll and parking payments products to businesses and consumers in the form of RFID tags affixed to vehicles' windshields, as well as prepaid paper vouchers. Its corporate payments solutions enable customers to manage and control electronic payments across enterprise, optimize corporate spending, and offer innovative services. The company's gift card product management and processing services comprise card design, production and packaging, delivery and fulfillment, card and account management, transaction processing, promotion development and management, website design and hosting, program analytics, and card distribution channel management. It also provides other payment products for vehicle maintenance, employee benefit payment, and long haul transportation-related services. The company serves businesses, partners, merchants, and payment network in North America, Latin America, Europe, and the Asia Pacific. The company was founded in 1986 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6746,6 +7959,11 @@
       <c r="F245" t="n">
         <v>13.88102</v>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>DTE Energy Company engages in the utility operations. The company's Electric segment generates, purchases, distributes, and sells electricity to approximately 2.2 million residential, commercial, and industrial customers in southeastern Michigan. It generates electricity through fossil-fuel, hydroelectric pumped storage, and nuclear plants, as well as wind and other renewable assets. This segment owns and operates approximately 700 distribution substations and 445,200 line transformers. The company's Gas segment purchases, stores, transports, distributes, and sells natural gas to approximately 1.3 million residential, commercial, and industrial customers throughout Michigan; and sells storage and transportation capacity. This segment has approximately 20,000 miles of distribution mains; 1,305,000 service pipelines; and 1,285,000 active meters, as well as owns approximately 2,000 miles of transmission pipelines. Its Gas Storage and Pipelines segment owns natural gas storage fields, lateral and gathering pipeline systems, and compression and surface facilities, as well as has ownership interests in interstate pipelines serving the Gulf Coast, Midwest, Ontario, and northeast markets. The company's Power and Industrial Projects segment offers metallurgical coke; pulverized coal and petroleum coke to the steel, pulp and paper, and other industries; and power, steam and chilled water production, and wastewater treatment services, as well as supplies compressed air to industrial customers. It also owns and operates 5 renewable generating plants with a capacity of 217 MWs; 23 gas recovery sites; and 10 reduced emissions fuel facilities. Its Energy Trading segment engages in power, natural gas, and environmental marketing and trading; structured transactions; and the optimization of contracted natural gas pipeline transportation and storage positions. The company was founded in 1903 and is headquartered in Detroit, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6772,6 +7990,11 @@
       <c r="F246" t="n">
         <v>10.1875</v>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Ford Motor Company designs, manufactures, markets, and services a range of Ford cars, trucks, sport utility vehicles, electrified vehicles, and Lincoln luxury vehicles worldwide. It operates through three segments: Automotive, Mobility, and Ford Credit. The Automotive segment sells Ford and Lincoln vehicles, service parts, and accessories through distributors and dealers, as well as through dealerships to commercial fleet customers, daily rental car companies, and governments. The Mobility segment designs and builds mobility services; and provides self-driving systems development and vehicle integration, autonomous vehicle research and engineering, and autonomous vehicle transportation-as-a-service network development services. The Ford Credit segment primarily engages in vehicle-related financing and leasing activities to and through automotive dealers. It provides retail installment sale contracts for new and used vehicles; and direct financing leases for new vehicles to retail and commercial customers, such as leasing companies, government entities, daily rental companies, and fleet customers. This segment also offers wholesale loans to dealers to finance the purchase of vehicle inventory; and loans to dealers to finance working capital and enhance dealership facilities, purchase dealership real estate, and other dealer vehicle programs. The company was founded in 1903 and is based in Dearborn, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6796,6 +8019,11 @@
         <v>18734770176</v>
       </c>
       <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Trane Technologies plc provides climate control solutions for buildings, homes, and transportation. It offers offers air conditioners, exchangers, and handlers; airside and terminal devices; auxiliary power units; chillers; coils and condensers; gensets; furnaces; heat pumps; home automation products; humidifiers; hybrid and non-diesel transport refrigeration, and ice energy storage solutions; indoor air quality; industrial refrigeration products; large and light commercial unitary products;motor replacements; refrigerant reclamation products; thermostats/controls; transport heater products; variable refrigerant flow products; and water source heat pumps. It also provides building management, control, ductless, geothermal, package heating and cooling, temporary heating and cooling, and unitary systems; bus, rail, and multi-pipe heating, ventilation, and air conditioning systems; and container, cryogenic, diesel-powered, industrial, rail, self-powered truck, trailer, and vehicle-powered truck refrigeration systems, as well as aftermarket and OEM parts and supplies. In addition, it offers energy and facility management, installation and performance contracting, repair and maintenance, and rental services. Trane Technologies plc markets and sells its products under the American Standard, Nexia, Thermo King, and Trane brands through sales offices, distributors, and dealers in the United States; and through sales and service companies with a supporting chain of distributors worldwide. The company was formerly known as Ingersoll-Rand Plc and changed its name to Trane Technologies plc in March 2020. Trane Technologies plc was founded in 1885 and is headquartered in Swords, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6822,6 +8050,11 @@
       <c r="F248" t="n">
         <v>20.228487</v>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Hilton Worldwide Holdings Inc., a hospitality company, owns, leases, manages, develops, and franchises hotels and resorts. It operates through two segments, Management and Franchise, and Ownership. The company engages in the hotel management and licensing of its brands. It operates hotels under the Waldorf Astoria Hotels &amp; Resorts, LXR Hotels &amp; Resorts, Conrad Hotels &amp; Resorts, Canopy by Hilton, Signia by Hilton, Hilton Hotels &amp; Resorts, Curio Collection by Hilton, DoubleTree by Hilton, Tapestry Collection by Hilton, Embassy Suites by Hilton, Motto by Hilton, Hilton Garden Inn, Hampton by Hilton, Tru by Hilton, Homewood Suites by Hilton, Home2 Suites by Hilton, Hilton Grand Vacations, and Tempo by Hilton brands. The company operates in North America, South America, and Central America, including various Caribbean nations; Europe, the Middle East, and Africa; and the Asia Pacific. As of February 21, 2020, the company had approximately 6,100 properties with approximately 971,000 rooms in 119 countries and territories. Hilton Worldwide Holdings Inc. was founded in 1919 and is headquartered in McLean, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6848,6 +8081,11 @@
       <c r="F249" t="n">
         <v>18.243992</v>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Keysight Technologies, Inc. provides electronic design and test solutions to commercial communications, networking, aerospace, defense and government, automotive, energy, semiconductor, electronic, and education industries in the Americas, Europe, and the Asia Pacific regions. Its Communications Solutions Group segment provides electronic design automation (EDA) software; and radio frequency and microwave test instruments; oscilloscopes, logic and serial protocol analyzers, logic-signal sources, arbitrary waveform generators, and bit error rate testers; optical modulation analyzers, optical component analyzers, optical power meters, and optical laser source solutions; and repair, calibration, and consulting services, as well as resells refurbished used Keysight equipment. The company's Electronic Industrial Solutions Group segment offers design tools; design verification solutions; digital multi-meters, function generators, frequency counters, data acquisition systems, audio analyzers, LCR meters, thermal imagers, precision source measure units, ultra-high precision device current analyzers, and test executive software platforms, as well as various power supplies comprising AC/DC modular supplies and electronically programmable loads. This segment also provides printed-circuit-board-assembly testers, integrated circuit parametric testers, and sub-nano-meter positioning sub-assemblies; test and measurement products and software; and repair, calibration, and consulting services, as well as resells refurbished used Keysight equipment. Its Ixia Solutions Group segment offers software applications and services, including warranty and maintenance offerings, and hardware platforms. The company sells its products through direct sales force, distributors, resellers, and manufacturer's representatives. It has partnership with Qualcomm Technologies, Inc. The company was incorporated in 2013 and is headquartered in Santa Rosa, California.</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6874,6 +8112,11 @@
       <c r="F250" t="n">
         <v>15.567529</v>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Skyworks Solutions, Inc., together with its subsidiaries, designs, develops, manufactures, and markets proprietary semiconductor products, including intellectual property worldwide. Its product portfolio includes amplifiers, antenna tuners, attenuators, circulators/isolators, DC/DC converters, demodulators, detectors, diodes, directional couplers, diversity receive modules, filters, front-end modules, hybrids, LED drivers, low noise amplifiers, mixers, modulators, optocouplers/optoisolators, phase locked loops, phase shifters, power dividers/combiners, receivers, switches, synthesizers, technical ceramics, voltage controlled oscillators/synthesizers, and voltage regulators, as well as wireless radio integrated circuits. The company provides its products for use in the aerospace, automotive, broadband, cellular infrastructure, connected home, industrial, medical, military, smartphone, tablet, and wearable markets. It sells its products through direct sales force, electronic component distributors, and independent sales representatives. The company was founded in 1962 and is headquartered in Irvine, California.</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6900,6 +8143,11 @@
       <c r="F251" t="n">
         <v>25.190311</v>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Church &amp; Dwight Co., Inc. develops, manufactures, and markets household, personal care, and specialty products in the United States and internationally. It operates in three segments: Consumer Domestic, Consumer International, and Specialty Products Division. The company offers cat litters, carpet deodorization, laundry detergents, and baking soda, as well as other baking soda based products under the ARM &amp; HAMMER brand; condoms, lubricants, and vibrators under the TROJAN brand; stain removers, cleaning solutions, laundry detergents, and bleach alternatives under the OXICLEAN brand; battery-operated and manual toothbrushes under the SPINBRUSH brand; home pregnancy and ovulation test kits under the FIRST RESPONSE brand; depilatories under the NAIR brand; oral analgesics under the ORAJEL brand; laundry detergents under the XTRA brand; gummy dietary supplements under the L'IL CRITTERS and VITAFUSION brands; dry shampoos under the BATISTE brand; water flossers and replacement showerheads under the WATERPIK brand; and hair removal products under the FLAWLESS brand. It provides specialty products, including animal productivity products, such as MEGALAC rumen bypass fat, a supplement, which enables cows to maintain energy levels during the period of high milk production; BIO-CHLOR and FERMENTEN, which are designed to help reduce health issues associated with calving, as well as provides needed protein; and CELMANAX refined functional carbohydrate, a yeast based prebiotic. In addition, the company offers sodium bicarbonate; and cleaning and deodorizing products. It sells its consumer products through supermarkets, mass merchandisers, wholesale clubs, drugstores, convenience stores, home stores, dollar and other discount stores, pet and other specialty stores, and Websites and other e-commerce channels; and specialty products to industrial customers and livestock producers through distributors. The company was founded in 1846 and is headquartered in Ewing, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6926,6 +8174,11 @@
       <c r="F252" t="n">
         <v>12.20339</v>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>The Kraft Heinz Company, together with its subsidiaries, manufactures and markets food and beverage products in the United States, Canada, the United Kingdom, and internationally. Its products include condiments and sauces, cheese and dairy, meals, meats and seafood, frozen and chilled foods, packaged drinking pouches, appetizers, refreshment beverages, coffee, nuts and salted snacks, infant and nutrition products, and other grocery products, as well as desserts, dressings, toppings, and baking. The company offers its products under the Kraft, Oscar Mayer, Heinz, Philadelphia, Lunchables, Velveeta, Planters, Maxwell House, Capri Sun, Ore-Ida, Kool-Aid, Jell-O, Classico, McCafe, Tassimo, TGI Fridays, Taco Bell Home Originals, Plasmon, Pudliszki, Honig, HP, Benedicta, Karvan Cevitam, ABC, Master, Quero, Golden Circle, and Wattie's names. It sells its products through its own sales organizations, as well as through independent brokers, agents, and distributors to chain, wholesale, cooperative and independent grocery accounts, convenience stores, drug stores, value stores, bakeries, pharmacies, mass merchants, club stores, foodservice distributors and institutions, including hotels, restaurants, hospitals, health care facilities, and government agencies; and online through e-commerce platforms and retailers. The company was formerly known as H.J. Heinz Holding Corporation and changed its name to The Kraft Heinz Company in July 2015. The Kraft Heinz Company was founded in 1869 and is headquartered in Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6952,6 +8205,11 @@
       <c r="F253" t="n">
         <v>18.839714</v>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>AMETEK, Inc. manufactures and sells electronic instruments and electromechanical devices worldwide. It operates through two segments, Electronic Instruments (EIG) and Electromechanical (EMG). The company's EIG segment offers advanced instruments for the process, aerospace, power, and industrial markets; process and analytical instruments for the oil and gas, petrochemical, pharmaceutical, semiconductor, automation, and food and beverage industries; and instruments to the laboratory equipment, ultra-precision manufacturing, medical, and test and measurement markets. This segment also provides power quality monitoring and metering, uninterruptible power supplies, programmable power equipment, electromagnetic compatibility test equipment, sensors for gas turbines, dashboard instruments for heavy trucks and other vehicles, and instrumentation and controls for the food and beverage industries; and aircraft and engine sensors, monitoring systems, power supplies, fuel and fluid measurement systems, and data acquisition units for the aerospace industry. Its EMG segment offers engineered electrical connectors and electronics packaging for protecting sensitive electronic devices; precision motion control products for data storage, medical devices, business equipment, automation and other applications; high-purity powdered metals, strip and foil, specialty clad metals, and metal matrix composites; motor-blower systems and heat exchangers for use in thermal management, military, commercial aircraft, and military ground vehicles; and motors for use in commercial appliances, fitness equipment, food and beverage machines, hydraulic pumps, and industrial blowers. This segment also operates a network of aviation maintenance, repair, and overhaul facilities. In addition, the company offers clinical and education communication solutions for hospitals, health systems, and educational facilities. AMETEK, Inc. was incorporated in 1930 and is headquartered in Berwyn, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6978,6 +8236,11 @@
       <c r="F254" t="n">
         <v>13.90976</v>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Dollar Tree, Inc. operates discount variety retail stores. It operates through two segments, Dollar Tree and Family Dollar. The Dollar Tree segment offers merchandise at the fixed price of $1.00. It provides consumable merchandise, including candy and food, and health and beauty care, as well as everyday consumables, such as household paper and chemicals, and frozen and refrigerated food; variety merchandise comprising toys, durable housewares, gifts, stationery, party goods, greeting cards, softlines, and other items; and seasonal goods that include Valentine's Day, Easter, Halloween, and Christmas merchandise. This segment operates 7,505 stores under the Dollar Tree and Dollar Tree Canada brands, as well as 13 distribution centers in the United States and 2 in Canada. The Family Dollar segment operates general merchandise discount retail stores that offer consumable merchandise, which comprise food and beverages, tobacco, health and beauty aids, household chemicals, paper products, hardware and automotive supplies, diapers, batteries, and pet food and supplies; and home products, including housewares, home décor, and giftware, as well as domestics, such as comforters, sheets, and towels. Its stores also provides apparel and accessories merchandise comprising clothing, fashion accessories, and shoes; and seasonal and electronics merchandise that include Valentine's Day, Easter, Halloween, and Christmas merchandise, as well as personal electronics, which comprise pre-paid cellular phones and services, stationery and school supplies, and toys. This segment operates stores under the Family Dollar brand; and 11 distribution centers. In addition, the company operates store support center in Chesapeake, Virginia. Dollar Tree, Inc. was founded in 1953 and is headquartered in Chesapeake, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -7004,6 +8267,11 @@
       <c r="F255" t="n">
         <v>45.626625</v>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Alexandria Real Estate Equities, Inc. (NYSE:ARE), an S&amp;P 500 urban office real estate investment trust ("REIT"), is the first, longest-tenured, and pioneering owner, operator, and developer uniquely focused on collaborative life science, technology, and agtech campuses in AAA innovation cluster locations, with a total market capitalization of $24.3 billion as of March 31, 2020, and an asset base in North America of 41.5 million square feet ("SF"). The asset base in North America includes 28.8 million RSF of operating properties and 2.1 million RSF of Class A properties undergoing construction, 6.5 million RSF of near-term and intermediate-term development and redevelopment projects, and 4.1 million SF of future development projects. Founded in 1994, Alexandria pioneered this niche and has since established a significant market presence in key locations, including Greater Boston, San Francisco, New York City, San Diego, Seattle, Maryland, and Research Triangle. Alexandria has a longstanding and proven track record of developing Class A properties clustered in urban life science, technology, and agtech campuses that provide our innovative tenants with highly dynamic and collaborative environments that enhance their ability to successfully recruit and retain world-class talent and inspire productivity, efficiency, creativity, and success. Alexandria also provides strategic capital to transformative life science, technology, and agtech companies through our venture capital arm. We believe our unique business model and diligent underwriting ensure a high-quality and diverse tenant base that results in higher occupancy levels, longer lease terms, higher rental income, higher returns, and greater long-term asset value.</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -7030,6 +8298,11 @@
       <c r="F256" t="n">
         <v>13.101124</v>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Corteva, Inc. provides agriculture products worldwide. The company develops and supplies germplasm and traits in corn, soybean, and sunflower seed markets. It also supplies products to the agricultural input industry that protect against weeds, insects and other pests, and diseases, as well as to enhance crop health. The company is based in Wilmington, Delaware. Corteva, Inc. is a subsidiary of DowDuPont Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -7051,10 +8324,15 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21883275264</v>
+        <v>21867489280</v>
       </c>
       <c r="F257" t="n">
-        <v>29.178947</v>
+        <v>29.157896</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>V.F. Corporation engages in the design, production, procurement, marketing, and distribution of branded lifestyle apparel, footwear, and related products for men, women, and children in the Americas, Europe, and the Asia-Pacific. It operates through four segments: Outdoor, Active, Work, and Jeans. The company offers outdoor, merino wool and other natural fibers-based, surf-inspired, occupational, lifestyle, sporting, and casual apparel; equipment; accessories; outdoor lifestyle, performance-based, youth culture/action sports-inspired, and protective work footwear; handbags, luggage, backpacks, totes, and travel accessories; work and work-inspired lifestyle apparel and footwear; and denim, as well as uniform programs for business and governmental organizations. It provides its products under the North Face, Timberland, Smartwool, Icebreaker, Altra, Vans Napapijri, Kipling, Eastpak, JanSport, Reef, Eagle Creek, Dickies, Red Kap, Bulwark, Timberland PRO, VF Solutions, Wrangler RIGGS, Walls, Terra, Workrite, Kodiak, Horace Small, Wrangler, Lee, Lee Riders, and Rock &amp; Republic brands. The company sells its products primarily to specialty stores, department stores, national chains, and mass merchants, as well as sells through direct-to-consumer operations, including company operated stores, concession retail stores, and brand e-commerce sites. V.F. Corporation was founded in 1899 and is based in Greenwood Village, Colorado.</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -7082,6 +8360,11 @@
       <c r="F258" t="n">
         <v>27.380434</v>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Realty Income, The Monthly Dividend Company, is an S&amp;P 500 company dedicated to providing stockholders with dependable monthly income. The company is structured as a REIT, and its monthly dividends are supported by the cash flow from over 6,500 real estate properties owned under long-term lease agreements with commercial tenants. To date, the company has declared 598 consecutive common stock monthly dividends throughout its 51-year operating history and increased the dividend 106 times since Realty Income's public listing in 1994 (NYSE: O). The company is a member of the S&amp;P 500 Dividend Aristocrats index.</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -7108,6 +8391,11 @@
       <c r="F259" t="n">
         <v>26.859257</v>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Equifax Inc. provides information solutions and human resources business process outsourcing services for businesses, governments, and consumers. The company operates through four segments: U.S. Information Solutions (USIS), Workforce Solutions, International, and Global Consumer Solutions. The USIS segment offers consumer and commercial information services, such as credit information and credit scoring, credit modeling and portfolio analytics, locate, fraud detection and prevention, identity verification, and other consulting; mortgage services; financial marketing; and identity management services. The Workforce Solutions segment provides employment, income, and social security number verification services, as well as payroll-based transaction and employment tax management services. The International segment provides information service products, which include consumer and commercial services, such as credit and financial information, and credit scoring and modeling; and credit and other marketing products and services, as well as offers information, technology, and other services to support debt collections and recovery management. The Global Consumer Solutions segment offers credit information, credit monitoring, and identity theft protection products directly to consumers through Internet. The company serves customers in financial service, mortgage, employers, consumer, commercial, telecommunication, retail, automotive, utility, brokerage, healthcare, and insurance industries, as well as state and federal governments. It operates in the United States, Canada, Australia, New Zealand, India, the United Kingdom, Spain, Portugal, Argentina, Chile, Costa Rica, Ecuador, El Salvador, Honduras, Mexico, Paraguay, Peru, Uruguay, Brazil, the Republic of Ireland, Russia, Cambodia, Malaysia, Singapore, and the United Arab Emirates. Equifax Inc. was founded in 1899 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -7134,6 +8422,11 @@
       <c r="F260" t="n">
         <v>8.856287999999999</v>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Tyson Foods, Inc., together with its subsidiaries, operates as a food company worldwide. It operates through four segments: Beef, Pork, Chicken, and Prepared Foods. The company processes live fed cattle and live market hogs; fabricates dressed beef and pork carcasses into primal and sub-primal meat cuts, as well as case ready beef and pork, and fully-cooked meats; and raises and processes chickens into fresh, frozen, and value-added chicken products. It also supplies poultry breeding stock; sells allied products, such as hides and meats; and manufactures and markets frozen and refrigerated food products, including ready-to-eat sandwiches, flame-grilled hamburgers, Philly steaks, pepperoni, bacon, breakfast sausage, turkey, lunchmeat, hot dogs, flour and corn tortilla products, appetizers, snacks, prepared meals, ethnic foods, side dishes, meat dishes, breadsticks, and processed meats. The company offers its products primarily under the Tyson, Jimmy Dean, Hillshire Farm, Ball Park, Wright, Aidells, ibp, State Fair, Gallo Salame, and Golden Island brands. It sells its products through its sales staff to grocery retailers, grocery wholesalers, meat distributors, warehouse club stores, military commissaries, industrial food processing companies, chain restaurants or their distributors, live markets, international export companies, and domestic distributors who serve restaurants and foodservice operations, such as plant and school cafeterias, convenience stores, hospitals, and other vendors, as well as through independent brokers and trading companies. The company was founded in 1935 and is headquartered in Springdale, Arkansas.</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -7160,6 +8453,11 @@
       <c r="F261" t="n">
         <v>12.571662</v>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Best Buy Co., Inc. retails technology products in the United States, Canada, and Mexico. The company operates in two segments, Domestic and International. Its stores provide computing and mobile phones, such as computing and peripherals, e-readers, networking products, tablets, and wearables, as well as mobile phones comprising related mobile network carrier commissions; consumer electronics, including digital imaging, health and fitness, home theater, portable audio, and smart home products; and entertainment products consisting of drones, peripherals, movies, music, and toys, as well as gaming hardware and software, and virtual reality and other software products. The company's stores also offer appliances, such as dishwashers, laundry appliances, ovens, refrigerators, blenders, coffee makers, and vacuums; and other products, such as beverages, snacks, and sundry items, as well as baby products, luggage, and sporting goods. In addition, it provides services comprising consultation, design, delivery, installation, memberships, protection plans, repair, set-up, and technical support services, as well as connected health services for aging consumers. The company offers its products through stores and Websites under the BestBuy, Best Buy Express, Best Buy Mobile, Geek Squad, Best Buy Health, CST, GreatCall, Lively, Magnolia, Pacific Kitchen, Home, greatcall.com, bestbuy.ca and bestbuy.com.mx brands, as well as through mobile applications and call centers. As of February 1, 2020, it had approximately 1,175 large-format and 56 small-format stores. The company was formerly known as Sound of Music, Inc. Best Buy Co., Inc. was founded in 1966 and is headquartered in Richfield, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -7186,6 +8484,11 @@
       <c r="F262" t="n">
         <v>23.589552</v>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Incyte Corporation, a biopharmaceutical company, focuses on the discovery, development, and commercialization of various therapeutics in the United States. The company offers JAKAFI, a drug for the treatment of myelofibrosis and polycythemia vera cancers; and Iclusig, a kinase inhibitor to treat chronic myeloid leukemia and philadelphia-chromosome positive acute lymphoblastic leukemia. Its clinical stage products include ruxolitinib, a drug in Phase III clinical trial for steroid-refractory chronic graft-versus-host-diseases (GVHD); and Phase II trial for the treatment of essential thrombocythemia and refractory myelofibrosis. In addition, the company engages in the development of itacitinib, which is in Phase III clinical trial to treat naïve chronic GVHD; and pemigatinib that is in Phase II clinical trial for treating bladder cancer, cholangiocarcinoma, 8p11 myeloproliferative syndrome, and Tumor agnostic. Further, it is involved in developing Parsaclisib, which is in Phase II clinical trial for follicular lymphoma, marginal zone lymphoma, and mantel cell lymphoma. Additionally, the company develops INCMGA0012 that is in Phase II clinical trials for MSI-high endometrial cancer, merkel cell carcinoma, and anal cancer, as well as in Phase II clinical trials non-small cell lung cancer. It has collaboration agreements with Novartis International Pharmaceutical Ltd.; Eli Lilly and Company; Agenus Inc.; Merus N.V.; Calithera Biosciences, Inc; MacroGenics, Inc.; Merus N.V.; MorphoSys AG; Syros Pharmaceuticals, Inc.; Innovent Biologics, Inc.; and Zai Lab Limited. The company was founded in 1991 and is headquartered in Wilmington, Delaware.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7212,6 +8515,11 @@
       <c r="F263" t="n">
         <v>23.749592</v>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Citrix Systems, Inc. provides workspace, networking, and professional services worldwide. The company offers workspace services, including Citrix Virtual Apps and Desktops; Citrix Content Collaboration, a cloud-based file sharing and storage solution, which provides enterprise-class data services on various corporate and personal mobile devices for businesses; Citrix Endpoint Management for mobility and device management capabilities; and Workspace Intelligence that customizes and streamlines user workflows, as well as microapp creation with low-code tooling, automates tasks and functions. It also provides networking products comprising Citrix ADC, an application delivery controller and load balancing solution for web, traditional and cloud-native applications; and Citrix SD-WAN, a WAN Edge solution that delivers flexible, automated, secure connectivity and performance for the workspace, as well as Citrix Analytics for security, performance, and operations. In addition, the company offers customer services, hardware maintenance, consulting, and product training and certification services. The company serves health care, financial services, technology, manufacturing, consumer, and government agencies. It markets and licenses its products through resellers, distributors, systems integrators, independent software vendors, original equipment manufacturers, and service providers. The company was formerly known as Citrus Systems, Inc. and changed its name to Citrix Systems, Inc. in March 2009. Citrix Systems, Inc. was founded in 1989 and is headquartered in Fort Lauderdale, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7238,6 +8546,11 @@
       <c r="F264" t="n">
         <v>26.31794</v>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Mettler-Toledo International Inc. manufactures and supplies precision instruments and services worldwide. It operates in five segments: U.S. Operations, Swiss Operations, Western European Operations, Chinese Operations, and Other. The company offers weighing instruments for laboratory, industrial, packaging, logistics, and food retailing applications; various related analytical instruments and automated chemistry solutions used in drug and chemical compound discovery and development; metal detection and other end-of-line product inspection systems used in production and packaging for food processing and packaging, pharmaceutical, packaged consumer goods, and other industries; and solutions that are used in various process analytics applications. Its laboratory instruments include laboratory balances, liquid pipetting solutions, automated laboratory reactors, titrators, pH meters, process analytics sensors and analyzer technologies, physical value analyzers, thermal analysis systems, and other analytical instruments; and LabX, a PC-based laboratory software platform. The company's industrial instruments comprise industrial weighing instruments and related terminals, automatic dimensional measurement and data capture solutions, vehicle scale systems, industrial software, and product inspection systems. Its retail weighing solutions consist of networked scales and software, and stand-alone scales for handling fresh goods, such as meats, vegetables, fruits, and cheeses. The company serves the life science industry, and independent research organizations; food and beverage producers; food retailers; chemical, specialty chemical, and cosmetics companies; food retailers; transportation and logistics, metals, and electronics industries; and the academic community. The company markets its products through its direct sales force and indirect distribution channels. Mettler-Toledo International Inc. was incorporated in 1991 and is based in Columbus, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7264,6 +8577,11 @@
       <c r="F265" t="n">
         <v>24.612307</v>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Republic Services, Inc., together with its subsidiaries, provides non-hazardous solid waste collection, transfer, disposal, recycling, and environmental services in the United States. The company serves small-container, large-container, and municipal and residential customers. The company's collection services include curbside collection of waste for transport to transfer stations, landfills, or recycling processing centers; supply of waste containers; and renting of compactors. It is also involved in the processing and sale of old corrugated containers, old newsprint, aluminum, glass, and other materials; temporary waste and recycling collection services; and provision of landfill services. As of December 31, 2019, the company operated through 340 collection operations, 212 transfer stations, 189 active landfills, 79 recycling processing centers, and 15 salt water disposal wells, as well as 7 treatment, recovery, and disposal facilities in 41 states and Puerto Rico. It also operated 75 landfill gas-to-energy and renewable energy projects and had 130 closed landfills. The company was founded in 1996 and is headquartered in Phoenix, Arizona.</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7290,6 +8608,11 @@
       <c r="F266" t="n">
         <v>18.228117</v>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Ameren Corporation, together with its subsidiaries, operates as a public utility holding company in the United States. It operates through four segments: Ameren Missouri, Ameren Illinois Electric Distribution, Ameren Illinois Natural Gas, and Ameren Transmission. The company engages in the rate-regulated electric generation, transmission, and distribution activities; and rate-regulated natural gas distribution and transmission businesses. It primarily generates electricity through coal, nuclear, and natural gas, as well as renewable sources, such as hydroelectric, methane gas, and solar. The company serves residential, commercial, and industrial customers. As of March 25, 2020, it served approximately 1.2 million electric customers and approximately 132,000 natural gas customers in central and eastern Missouri. The company was founded in 1881 and is headquartered in St. Louis, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7316,6 +8639,11 @@
       <c r="F267" t="n">
         <v>30.94858</v>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Cintas Corporation provides corporate identity uniforms and related business services primarily in North America, Latin America, Europe, and Asia. It operates through Uniform Rental and Facility Services and First Aid and Safety Services segments. The company rents and services uniforms and other garments, including flame resistant clothing, mats, mops and shop towels, and other ancillary items; and provides restroom cleaning services and supplies, and carpet and tile cleaning services, as well as sells uniforms. It also offers first aid and safety services, and fire protection products and services. The company offers its products and services through its distribution network and local delivery routes, or local representatives to small service and manufacturing companies, as well as major corporations. Cintas Corporation was founded in 1968 and is based in Cincinnati, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7342,6 +8670,11 @@
       <c r="F268" t="n">
         <v>14.903085</v>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Conagra Brands, Inc., together with its subsidiaries, operates as a food company in North America. The company operates through Grocery &amp; Snacks, Refrigerated &amp; Frozen, International, Foodservice, and Pinnacle Foods segments. The Grocery &amp; Snacks segment primarily offers shelf stable food products in various retail channels in the United States. The Refrigerated &amp; Frozen segment provides temperature controlled food products in various retail channels in the United States. The International reporting segment offers food products in various temperature states in retail and foodservice channels outside of the United States. The Foodservice segment offers food products, including meals, entrees, sauces, and various custom-manufactured culinary products packaged for sale to restaurants and other foodservice establishments in the United States. The Pinnacle Foods segment provides branded and private-label food products in various retail and foodservice channels in the United States and Canada. The company sells its products under the Birds Eye, Marie Callender's, Banquet, Healthy Choice, Slim Jim, Reddi-wip, Vlasic, Angie's BOOMCHICKAPOP, Duke's, Earth Balance, Gardein, Frontera, Banquet, Chef Boyardee, Alexia, Blake's, and BIGS brands. The company was formerly known as ConAgra Foods, Inc. and changed its name to Conagra Brands, Inc. in November 2016. Conagra Brands, Inc. was founded in 1919 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7368,6 +8701,11 @@
       <c r="F269" t="n">
         <v>30.082396</v>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Copart, Inc. provides online auctions and vehicle remarketing services. It offers a range of services for processing and selling vehicles over the Internet through its Virtual Bidding Third Generation Internet auction-style sales technology to vehicle sellers, insurance companies, banks and finance companies, charities, and fleet operators and dealers, as well as for individual owners. The company's services include online seller access, salvage estimation, estimating, end-of-life vehicle processing, virtual insured exchange, transportation, vehicle inspection stations, on-demand reporting, title processing and procurement, loan payoff, flexible vehicle processing programs, buy it now, member network, sales process, and dealer services. Its services also comprise services to sell vehicles through CashForCars.com; and U-Pull-It service that allows buyer to remove valuable parts, and sell the remaining parts and car body. The company sells its products principally to licensed vehicle dismantlers, rebuilders, repair licensees, used vehicle dealers, and exporters, as well as to the general public. As of March 5, 2020, it operated through approximately 200 locations in 11 countries. Copart, Inc. was founded in 1982 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7394,6 +8732,11 @@
       <c r="F270" t="n">
         <v>18.28517</v>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>First Republic Bank, together with its subsidiaries, provides private banking, private business banking, real estate lending, and wealth management services to clients in metropolitan areas in the United States. It operates through two segments, Commercial Banking and Wealth Management. The company accepts deposit products, such as checking, money market checking, savings, passbook deposits, and individual retirement accounts, as well as certificates of deposit. It also offers a range of lending products that comprise residential mortgage loans, home equity lines of credit, multifamily loans, commercial real estate loans, personal loans, business loans, construction loans, and smaller loans and lines of credit to businesses and individuals. The company's loans are secured by single family residences, multifamily buildings, and commercial real estate properties. In addition, it provides wealth management services, which include various investment strategies and products, online investment management services, trust and custody services, online brokerage, financial and estate planning, and access to alternative investments, as well as investing, insurance, and foreign exchange services; and treasury services. Additionally, the company offers online and mobile banking services; student loan refinancing services; and ATM and debit cards. As of December 31, 2019, the company offered its services through 89 offices, including 78 licensed deposit-taking offices in San Francisco, Palo Alto, Los Angeles, Santa Barbara, Newport Beach, and San Diego, California; Portland, Oregon; Boston, Massachusetts; Palm Beach, Florida; Greenwich, Connecticut; New York, New York; Jackson; and Wyoming, as well as 11 offices that provided lending, wealth management, and trust services. First Republic Bank was founded in 1985 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7420,6 +8763,11 @@
       <c r="F271" t="n">
         <v>15.619047</v>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Fortive Corporation designs, develops, manufactures, markets, and services professional and engineered products, software, and services worldwide. Its Professional Instrumentation segment provides test tools, and thermal imaging and calibration equipment for electrical, industrial, electronic, and calibration applications; online condition-based monitoring equipment; portable gas detection equipment, consumables, and software as a service offerings; subscription-based technical, analytical, and compliance services; and software, data analytics, and services for critical infrastructure in utility, industrial, energy, construction, facilities management, public safety, mining, and healthcare applications, as well as environmental, health, and safety applications. This segment also provides product realization services and products that help developers and engineers across the end-to-end product creation cycle from concepts to finished products; materials components; devices that sense, monitor, and control operational or manufacturing variables; and critical sterilization and disinfection solutions. It markets its products and services under the ACCRUENT, FLUKE, FLUKE BIOMEDICAL, FLUKE NETWORKS, GORDIAN, INDUSTRIAL SCIENTIFIC, INTELEX, LANDAUER, PRUFTECHNIK, QUALITROL, INVETECH, KEITHLEY, PACIFIC SCIENTIFIC, SONIX, and TEKTRONIX brands. The company's Industrial Technologies segment offers solutions and services for use in fuel dispensing, remote fuel management, point-of-sale and payment systems, environmental compliance, vehicle tracking, and fleet and traffic management under the ANGI, GASBOY, GILBARCO, GILBARCO AUTOTANK, ORPAK, VEEDER-ROOT, and TELETRAC NAVMAN brands. This segment also offers professional tools, toolboxes, and automotive diagnostic equipment under the MATCO brand; and wheel service equipment under the COATS brand. Fortive Corporation was incorporated in 2015 and is headquartered in Everett, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7446,6 +8794,11 @@
       <c r="F272" t="n">
         <v>16.278772</v>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Kellogg Company, together with its subsidiaries, manufactures and markets ready-to-eat cereal and convenience foods. The company operates through four segments: North America, Europe, Latin America, and Asia Middle East Africa. Its principal products include crackers, crisps, savory snacks, toaster pastries, cereal bars, granola bars and bites, ready-to-eat cereals, frozen waffles, veggie foods, and noodles. The company offers its products under the Kellogg's, Cheez-It, Pringles, Austin, Parati, RXBAR, Kashi, Bear Naked, Eggo, Morningstar Farms, Choco Krispies, Crunchy Nut, Nutri-Grain, Special K, Squares, Zucaritas, Sucrilhos, Pop-Tarts, K-Time, Split Stix, Be Natural, LCMs, Coco Pops, Rice Krispies Squares, Kashi Go, Vector, and Gardenburger brand names. It sells its products to retailers through direct sales forces, as well as brokers and distributors. Kellogg Company was founded in 1906 and is headquartered in Battle Creek, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7472,6 +8825,11 @@
       <c r="F273" t="n">
         <v>22.663923</v>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>TransDigm Group Incorporated designs, produces, and supplies aircraft components in the United States and internationally. The company operates through three segments: Power &amp; Control, Airframe, and Non-aviation. The Power &amp; Control segment offers mechanical/electro-mechanical actuators and controls, ignition systems and engine technology, specialized pumps and valves, power conditioning devices, specialized AC/DC electric motors and generators, databus and power controls, sensor products, switches and relay panels, hoists, winches and lifting devices, and cargo loading and handling systems. This segment serves engine and power system and subsystem suppliers, airlines, third party maintenance suppliers, military buying agencies, and repair depots. The Airframe segment provides engineered latching and locking devices, rods and locking devices, engineered connectors and elastomers, cockpit security components and systems, aircraft audio systems, specialized lavatory components, seat belts and safety restraints, engineered interior surfaces and related components, thermal protection products, lighting and control technology, military personnel parachutes, and cargo delivery systems. This segment serves airframe manufacturers, cabin system and subsystem suppliers, airlines, third party maintenance suppliers, military buying agencies, and repair depots. The Non-aviation segment offers seat belts and safety restraints for ground transportation applications, mechanical/electro-mechanical actuators and controls for space applications, and refueling systems for heavy equipment, as well as hydraulic/electromechanical actuators and fuel valves for land based gas turbines. This segment serves off-road vehicle and subsystem suppliers, child restraint system suppliers, and satellite and space system suppliers; and manufacturers of heavy equipment. TransDigm Group Incorporated was founded in 1993 and is headquartered in Cleveland, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7498,6 +8856,11 @@
       <c r="F274" t="n">
         <v>20.642004</v>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Arthur J. Gallagher &amp; Co., together with its subsidiaries, provides insurance brokerage, consulting, and third party claims settlement and administration services in the United States, Australia, Bermuda, Canada, the Caribbean, New Zealand, and the United Kingdom. Its Brokerage segment consists of retail and wholesale insurance brokerage operations. It offers brokerage and consulting services to businesses and organizations, including commercial, not-for-profit, and public entities, as well as individuals in the areas of insurance placement, risk of loss management, and management of employer sponsored benefit programs. This segment also assist retail brokers and other non-affiliated brokers in the placement of specialized and hard-to-place insurance; acts as a brokerage wholesaler, and managing general agent or managing general underwriter distributing specialized insurance coverage's for underwriting enterprises; and performs activities, including marketing, underwriting, issuing policies, collecting premiums, appointing and supervising other agents, paying claims, and negotiating reinsurance. The company's Risk Management segment provides contract claim settlement and administration services for enterprises and public entities; and claims management, loss control consulting, and insurance property appraisal services. The company offers its services through a network of correspondent insurance brokers and consultants. It serves commercial, industrial, public entity, religious, and not-for-profit entities. Arthur J. Gallagher &amp; Co. was founded in 1927 and is headquartered in Rolling Meadows, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7524,6 +8887,11 @@
       <c r="F275" t="n">
         <v>6.845949</v>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Simon is a global leader in the ownership of premier shopping, dining, entertainment and mixed-use destinations and an S&amp;P 100 company (Simon Property Group, NYSE:SPG). Our properties across North America, Europe and Asia provide community gathering places for millions of people every day and generate billions in annual sales.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7550,6 +8918,11 @@
       <c r="F276" t="n">
         <v>24.566496</v>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Teleflex Incorporated designs, develops, manufactures, and supplies single-use medical devices for common diagnostic and therapeutic procedures in critical care and surgical applications worldwide. It provides vascular access products that comprise Arrow branded catheters and related devices, including catheter positioning systems for use in the administration of intravenous therapies, the measurement of blood pressure, and the withdrawal of blood samples through a single puncture site. The company also offers interventional products consist of various coronary catheters, structural heart therapies, and peripheral intervention and cardiac assist products that are used by interventional cardiologists and radiologists, and vascular surgeons; and Arrow branded catheters, Guideline and Trapliner catheters, the Manta Vascular Closure, and Arrow Oncontrol devices. It provides anesthesia products, such as airway and pain management products to support hospital, emergency medicine, and military channels; and surgical products, including metal and polymer ligation clips, and fascial closure surgical systems that are used in laparoscopic surgical procedures, percutaneous surgical systems, and other surgical instruments. The company also offers interventional urology product comprises the UroLift System, an invasive technology for treating lower urinary tract symptoms due to benign prostatic hyperplasia; and respiratory products, including oxygen and aerosol therapies, spirometry, and ventilation management products for use in various care settings. It provides urology products, such as catheters, urine collectors, and catheterization accessories and products for operative endourology; and bladder management for patients in the hospital and individuals in the home care markets. The company serves hospitals and healthcare providers, medical device manufacturers, and home care markets. The company was founded in 1943 and is headquartered in Wayne, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7576,6 +8949,11 @@
       <c r="F277" t="n">
         <v>14.095983</v>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Aptiv PLC designs, manufacturers, and sells vehicle components worldwide. The company provides electrical, electronic, and safety technology solutions to the automotive and commercial vehicle markets. It operates through two segment, Signal and Power Solutions, and Advanced Safety and User Experience. The Signal and Power Solutions segment designs, manufactures, and assembles vehicle's electrical architecture, including engineered component products, connectors, wiring assemblies and harnesses, cable management products, electrical centers, and hybrid high voltage and safety distribution systems. The Advanced Safety and User Experience segment provides critical components, systems integration, and software development for vehicle safety, security, comfort, and convenience, such as sensing and perception systems, electronic control units, multi-domain controllers, vehicle connectivity systems, application software, and autonomous driving technologies. The company was formerly known as Delphi Automotive PLC and changed its name to Aptiv PLC in December 2017. Aptiv PLC is headquartered in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7602,6 +8980,11 @@
       <c r="F278" t="n">
         <v>13.378268</v>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Laboratory Corporation of America Holdings operates as an independent clinical laboratory company worldwide. It operates in two segments, LabCorp Diagnostics (LCD) and Covance Drug Development. It offers various clinical laboratory tests, such as blood chemistry analyses, urinalyses, blood cell counts, thyroid tests, Pap tests, hemoglobin A1C and vitamin D products, prostate-specific antigens, tests for sexually-transmitted diseases, hepatitis C tests, microbiology cultures and procedures, and alcohol and other substance-abuse tests. The company also provides testing services in the areas of women's health, allergy, diagnostic genetics, cardiovascular and infectious disease, endocrinology, oncology, coagulation, pharmacogenetics, toxicology, and medical drug monitoring; and esoteric testing, cancer diagnostics, and other procedures. In addition, it provides a suite of applications to enable patients, healthcare providers, health systems, accountable care organizations, and insurers with access to LCD's data and services, as well as billing for laboratory services. Further, it offers end-to-end drug development, medical device, and diagnostic development solutions from research to clinical development and commercial market access. The company primarily serves managed care organizations, biopharmaceutical companies, physicians and other healthcare providers, hospitals and health systems, governmental agencies, employers, patients and consumers, contract research organizations, academic institutions, and independent clinical laboratories. Laboratory Corporation of America Holdings has collaborations with the Boston University, Columbia University, Duke University, Johns Hopkins University, The Mount Sinai Hospital, the University of Tennessee, Yale University, and QIAGEN N.V; and Ciox Health for the creation of COVID-19 patient data registry in the United States. The company was founded in 1971 and is headquartered in Burlington, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7628,6 +9011,11 @@
       <c r="F279" t="n">
         <v>19.144367</v>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>CMS Energy Corporation operates as an energy company primarily in Michigan. The company operates in four segments: Electric Utility, Gas Utility, Enterprises, and EnerBank. The Electric Utility segment is involved in the generation, purchase, transmission, distribution, and sale of electricity. This segment generates electricity through coal, wind, gas, renewable energy, oil, and nuclear sources. Its transmission and distribution system comprises 213 miles of transmission overhead lines; 205 miles of high-voltage distribution overhead lines; 4 miles of high-voltage distribution underground lines; 4,430 miles of high-voltage distribution overhead lines; 19 miles of high-voltage distribution underground lines; 66,917 miles of electric distribution overhead lines; 9,314 miles of underground distribution lines; substations; and a battery facility. The Gas Utility segment engages in the purchase, transmission, storage, distribution, and sale of natural gas, which includes 2,426 miles of transmission lines; 15 gas storage fields; 27,729 miles of distribution mains; and 8 compressor stations. The Enterprises segment is involved in the independent power production and marketing, including the development and operation of renewable generation. It owns interests in independent power plants totaling 1,335 megawatts. The EnterBank segment operates an industrial bank providing unsecured consumer installment loans for financing home improvements. It serves 1.8 million electric and 1.8 million gas customers, including residential, commercial, and diversified industrial customers. CMS Energy Corporation was founded in 1987 and is headquartered in Jackson, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7654,6 +9042,11 @@
       <c r="F280" t="n">
         <v>14.752825</v>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Stanley Black &amp; Decker, Inc. engages in tools and storage, industrial, and security businesses worldwide. Its Tools &amp; Storage segment offers power tools and equipment, including professional products, such as professional grade corded and cordless electric power tools and equipment, and pneumatic tools and fasteners; and consumer products comprising corded and cordless electric power tools primarily under the BLACK+DECKER brand, as well as lawn and garden products and related accessories, and home products. This segment sells its products through retailers, distributors, and a direct sales force to professional end users, distributors, retail consumers, and industrial customers in various industries. The company's Industrial segment provides engineered fastening products and systems to customers in the automotive, manufacturing, electronics, construction, aerospace industries, and others; sells and rents custom pipe handling, joint welding, and coating equipment for use in the construction of large and small diameter pipelines, as well as provides pipeline inspection services; and sells hydraulic tools, attachments, and accessories. This segment also serves oil and natural gas pipeline industry and other industrial customers. Its Security segment designs, supplies, and installs commercial electronic security systems and provides electronic security services; offers healthcare solutions, which include asset tracking, infant protection, pediatric protection, patient protection, wander management, fall management, and emergency call products; and sells automatic doors to commercial customers. This segment serves consumers, retailers, educational, financial, and healthcare institutions, as well as commercial, governmental, and industrial customers. The company was formerly known as The Stanley Works and changed its name to Stanley Black &amp; Decker, Inc. in March 2010. Stanley Black &amp; Decker, Inc. was founded in 1843 and is headquartered in New Britain, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7680,6 +9073,11 @@
       <c r="F281" t="n">
         <v>18.173832</v>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Akamai Technologies, Inc. provides cloud services for delivering, optimizing, and securing content and business applications over the Internet in the United States and internationally. It provides cloud security solutions, including Web Application Protector to safeguard Web assets from Web application and distributed denial of service; Kona Site Defender, a cloud security solution; Bot Manager to identify bots and categorize bots based on business or IT impact; Fast DNS, which translates human-readable domain names into numerical IP addresses; Prolexic Routed to protect Web- and IP-based applications; and Client Reputation that assigns risk scores to malicious IP address and enables customers to take action on individual clients. The company also offers enterprise security solutions, including Enterprise Application Access that enables remote access to applications; and Enterprise Threat Protector to enable enterprise security teams to identify, block, and mitigate targeted attacks. In addition, the company provides Web and mobile performance solutions, such as Ion, a suite of intelligent performance optimization tools and controls; Dynamic Site Accelerator to accelerate and secure interactive Websites; Image Manager that automatically optimizes online images; CloudTest to conduct load testing and other analysis of Websites in a pre-production environment; and mPulse that provides real-time Website performance data to provide insight about end-user experiences on a Website. Further, it provides carrier solutions, including Aura Managed CDN, intelligent recursive DNS platforms, and security and personalization services; and media delivery solutions, such as adaptive delivery, download delivery, media services live, and media analytics, as well as NetStorage, a cloud storage solution. The company sells its solutions through direct sales and service organization; and channel partners. The company was founded in 1998 and is headquartered in Cambridge, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7706,6 +9104,11 @@
       <c r="F282" t="n">
         <v>34.186443</v>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Welltower Inc. (NYSE:WELL), an S&amp;P 500 company headquartered in Toledo, Ohio, is driving the transformation of health care infrastructure. The Company invests with leading seniors housing operators, post-acute providers and health systems to fund the real estate infrastructure needed to scale innovative care delivery models and improve people's wellness and overall health care experience. Welltower, a real estate investment trust ("REIT"), owns interests in properties concentrated in major, high-growth markets in the United States, Canada and the United Kingdom, consisting of seniors housing and post-acute communities and outpatient medical properties.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7732,6 +9135,11 @@
       <c r="F283" t="n">
         <v>10.235033</v>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>D.R. Horton, Inc. operates as a homebuilding company in East, Midwest, Southeast, South Central, Southwest, and West regions in the United States. It engages in the acquisition and development of land; and construction and sale of homes in 20 states and 51 markets in the United States under the names of D.R. Horton, America's Builder, Express Homes, Emerald Homes, and Freedom Homes. The company constructs and sells single-family detached homes; and attached homes, such as town homes, duplexes, and triplexes. It is also involved in the origination and sale of mortgages; and provision of title insurance policies, and examination and closing services, as well as engages in the residential lot development business. The company primarily serves homebuyers. D.R. Horton, Inc. was founded in 1978 and is based in Arlington, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7758,6 +9166,11 @@
       <c r="F284" t="n">
         <v>11.940121</v>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Corning Incorporated engages in display technologies, optical communications, environmental technologies, specialty materials, and life sciences businesses worldwide. The company's Display Technologies segment manufactures glass substrates for organic light-emitting diodes and liquid crystal displays used in televisions, notebook computers, and flat panel desktop monitors. Its Optical Communications segment manufactures optical fibers and cables; and hardware and equipment products, including cable assemblies, fiber optic hardware and connectors, optical components and couplers, closures, network interface devices, and other accessories for various carrier network applications. This segment also offers operator-grade distributed antenna systems; optical network evolution wireless platform; subscriber demarcation, connection and protection devices, various digital subscriber line passive solutions, and outside plant enclosures; and coaxial RF interconnects for the cable television industry and microwave applications. The company's Environmental Technologies segment manufactures ceramic substrates and filter products for emissions control in mobile, gasoline, and diesel applications. Its Specialty Materials segment manufactures products that provide material formulations for glass, glass ceramics, and fluoride crystals. The company's Life Sciences segment offers laboratory products comprising consumables, such as plastic vessels, specialty surfaces, cell culture media, and serum, as well as general labware and equipment under the Corning, Falcon, Pyrex, and Axygen brands. It also offers pharmaceutical glass tubing and packages. Corning Incorporated has a strategic collaboration with Intel Corporation to accelerate the availability of 5G in buildings. The company was formerly known as Corning Glass Works and changed its name to Corning Incorporated in April 1989. Corning Incorporated was founded in 1851 and is headquartered in Corning, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7784,6 +9197,11 @@
       <c r="F285" t="n">
         <v>39.200348</v>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Essex Property Trust, Inc., an S&amp;P 500 company, is a fully integrated real estate investment trust (REIT) that acquires, develops, redevelops, and manages multifamily residential properties in selected West Coast markets. Essex currently has ownership interests in 250 apartment communities comprising approximately 60,000 apartment homes with an additional 7 properties in various stages of active development.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7810,6 +9228,11 @@
       <c r="F286" t="n">
         <v>19.86087</v>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Las Vegas Sands Corp., together with its subsidiaries, develops, owns, and operates integrated resorts in Asia and the United States. It owns and operates The Venetian Macao Resort Hotel, the Sands Cotai Central, The Parisian Macao, The Plaza Macao and Four Seasons Hotel Macao, Cotai Strip, and the Sands Macao in Macao, the People's Republic of China; and Marina Bay Sands in Singapore. The company also owns and operates The Venetian Resort Hotel Casino on the Las Vegas Strip; and the Sands Expo and Convention Center in Las Vegas, Nevada. Its integrated resorts feature accommodations, gaming, entertainment and retail malls, convention and exhibition facilities, celebrity chef restaurants, and other amenities. Las Vegas Sands Corp. was founded in 1988 and is based in Las Vegas, Nevada.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7836,6 +9259,11 @@
       <c r="F287" t="n">
         <v>31.67734</v>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Domino's Pizza, Inc., through its subsidiaries, operates as a pizza delivery company in the United States and internationally. It operates through three segments: U.S. Stores, International Franchise, and Supply Chain. The company offers pizzas under the Domino's brand name through company-owned and franchised stores. As of December 29, 2019, it operated approximately 17,000 stores in 90 markets. The company was founded in 1960 and is headquartered in Ann Arbor, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7862,6 +9290,11 @@
       <c r="F288" t="n">
         <v>13.043322</v>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Northern Trust Corporation, a financial holding company, provides wealth management, asset servicing, asset management, and banking solutions for corporations, institutions, families, and individuals worldwide. It operates in two segments, Corporate &amp; Institutional Services (C&amp;IS) and Wealth Management. The C&amp;IS segment offers asset servicing and related services, including custody, fund administration, investment operations outsourcing, investment management, investment risk and analytical services, employee benefit services, securities lending, foreign exchange, treasury management, brokerage services, transition management services, banking, and cash management services. This segment serves corporate and public retirement funds, foundations, endowments, fund managers, insurance companies, sovereign wealth funds, and other institutional investors. The Wealth Management segment offers trust, investment management, custody, and philanthropic; financial consulting; guardianship and estate administration; family business consulting; family financial education; brokerage services; and private and business banking services. This segment serves high-net-worth individuals and families, business owners, executives, professionals, retirees, and established privately-held businesses. The company also provides asset management services, such as active and passive equity; active and passive fixed income; cash management; alternative asset classes comprising private equity and hedge funds of funds; and multi-manager advisory services and products through separately managed accounts, bank common and collective funds, registered investment companies, exchange traded funds, non-U.S. collective investment funds, and unregistered private investment funds. In addition, it offers overlay and other risk management services. The company was founded in 1889 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7888,6 +9321,11 @@
       <c r="F289" t="n">
         <v>7.385542</v>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Ameriprise Financial, Inc., through its subsidiaries, provides various financial products and services to individual and institutional clients in the United States and internationally. It operates through five segments: Advice &amp; Wealth Management, Asset Management, Annuities, Protection, and Corporate &amp; Other. The Advice &amp; Wealth Management segment provides financial planning and advice, as well as full-service brokerage services primarily to retail clients through its advisors. The Asset Management segment offers investment management, advice, and investment products to retail, high net worth, and institutional clients through unaffiliated third party financial institutions and institutional sales force. Its products also include U.S. mutual funds and their non-U.S. equivalents, exchange-traded funds, variable product funds underlying insurance, and annuity separate accounts; and institutional asset management products, such as traditional asset classes, separately managed accounts, individually managed accounts, collateralized loan obligations, hedge funds, collective funds, and property funds. The Annuities segment provides variable and fixed annuity products to individual clients through affiliated and unaffiliated advisors, and financial institutions. The Protection segment offers variable and fixed annuity products to address the protection and risk management needs of retail clients, including life and disability income insurance. The Corporate &amp; Other segment consist of long term care business, net investment income or loss on corporate level assets. The company was formerly known as American Express Financial Corporation and changed its name to Ameriprise Financial, Inc. in September 2005. Ameriprise Financial, Inc. was founded in 1894 and is headquartered in Minneapolis, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7914,6 +9352,11 @@
       <c r="F290" t="n">
         <v>13.367647</v>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Amcor plc develops, manufactures, and sells various packaging products for food, beverage, pharmaceutical, medical, home and personal care, and other consumer goods end markets worldwide. It operates through two segments, Flexible Packaging and Rigid Packaging. The company provides flexible packaging products, rigid containers, specialty cartons, and closures. The company is headquartered in Zürich, Switzerland.</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7940,6 +9383,11 @@
       <c r="F291" t="n">
         <v>30.30645</v>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Take-Two Interactive Software, Inc. develops, publishes, and markets interactive entertainment solutions for consumers worldwide. The company offers its products under the Rockstar Games and 2K labels, as well as under Private Division and Social Point labels. It develops and publishes action/adventure products under the Grand Theft Auto, Max Payne, Midnight Club, and Red Dead Redemption names through developing sequels; and offers downloadable episodes, content and virtual currency, and releasing titles for smartphones and tablets. The company also develops brands in other genres, including the LA Noire, Bully, and Manhunt franchises. In addition, the company publishes various entertainment properties across various platforms and a range of genres, such as shooter, action, role-playing, strategy, sports, and family/casual entertainment under the BioShock, Mafia, Sid Meier's Civilization, XCOM series, and Borderlands. Further, it publishes sports simulation titles comprising NBA 2K series, a basketball video game; the WWE 2K professional wrestling series; and the Golf Club. Additionally, the company offers free-to-play mobile games, such as Dragon City and Monster Legends. Its products are designed for console gaming systems, including Sony's PlayStation 4; Microsoft's Xbox One; the Nintendo Switch; and personal computers comprising smartphones and tablets. The company provides its products through physical retail, digital download, online platforms, and cloud streaming services. Take-Two Interactive Software, Inc. was founded in 1993 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7966,6 +9414,11 @@
       <c r="F292" t="n">
         <v>21.136137</v>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>The Cooper Companies, Inc. operates as a medical device company worldwide. It operates through CooperVision and CooperSurgical business units. The company develops, manufactures, and markets a range of contact lenses, including spherical lenses, and toric and multifocal lenses that correct near- and farsightedness, as well as addresses various complex visual defects, such as astigmatism and presbyopia. It also provides range of products and services focusing on women, babies, and families, including medical devices, fertility, genomics, and diagnostics and contraception for hospitals and surgical centers, obstetricians' and gynecologists' (OB/GYNs) medical offices, and fertility clinics. In addition, the company develops mechanical surgical solutions for skin closure; and offers PARAGARD, a contraceptive option, as well as provides assisted reproductive technology products, genetic screening and testing, and products within the general OB/GYN offerings. It markets its products under Biofinity, clariti 1day, MyDay, Avaira Vitality, and Proclear 1 Day brand name through a network of field sales representatives, independent agents, and distributors. The Cooper Companies, Inc. was founded in 1980 and is based in San Ramon, California.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7992,6 +9445,11 @@
       <c r="F293" t="n">
         <v>24.59447</v>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Maxim Integrated Products, Inc. designs, develops, manufactures, and markets a range of linear and mixed-signal integrated circuits in the United States, China, the rest of Asia, Europe, and internationally. The company also provides a range of high-frequency process technologies and capabilities for use in custom designs. It serves automotive, communications and data center, computing, consumer, and industrial markets. The company markets its products through a direct-sales and applications organization, as well as through its own and other unaffiliated distribution channels. Maxim Integrated Products, Inc. was founded in 1983 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -8018,6 +9476,11 @@
       <c r="F294" t="n">
         <v>29.781792</v>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Align Technology, Inc., a medical device company, designs, manufactures, and markets Invisalign clear aligners and iTero intraoral scanners and services for orthodontists and general practitioner dentists, and restorative and aesthetic dentistry. It operates in two segments, Clear Aligner; and Scanners and Services. The Clear Aligner segment consists of comprehensive products, including Invisalign Comprehensive treatment that addresses the orthodontic needs of teenage patients, such as mandibular advancement, compliance indicators, and compensation for tooth eruption; and Invisalign First Phase I and Invisalign First Comprehensive Phase 2 package for younger patients generally between the ages of seven and ten years, which is a mixture of primary/baby and permanent teeth. This segment's non-comprehensive products comprise Invisalign Moderate, Lite and Express packages, and Invisalign Go; and non-case products include retention products, Invisalign training fees, and sales of ancillary products, such as cleaning material, and adjusting tools used by dental professionals during the course of treatment. The Scanners and Services segment offers iTero Scanner, a single hardware platform with software options for restorative or orthodontic procedures; restorative software for general practitioner dentists, prosthodontists, periodontists, and oral surgeons; software for orthodontists for digital records storage, orthodontic diagnosis, and for the fabrication of printed models and retainers; computer-aided design/computer-aided manufacturing services and ancillary products, such as disposable sleeves for the wand; and iTero applications and tools. The company sells its products in the United States, the Netherlands, China, and internationally. Align Technology, Inc. was founded in 1997 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -8048,6 +9511,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -8074,6 +9542,11 @@
       <c r="F296" t="n">
         <v>15.51545</v>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Quest Diagnostics Incorporated provides diagnostic testing, information, and services in the United States and internationally. The company develops and delivers diagnostic information services, such as routine testing, non-routine and advanced clinical testing, anatomic pathology testing, and other diagnostic information services. It offers diagnostic information services primarily under the Quest Diagnostics brand, as well as under the AmeriPath, Dermpath Diagnostics, Athena Diagnostics, ExamOne, and Quanum brands to patients, clinicians, hospitals, integrated delivery networks, health plans, employers, and accountable care organizations through a network of laboratories, patient service centers, phlebotomists in physician offices, call centers and mobile paramedics, nurses, and other health and wellness professionals. The company also offers risk assessment services for the life insurance industry; and healthcare organizations and clinicians robust information technology solutions. Quest Diagnostics Incorporated has a strategic collaboration with hc1; and strategic relationship with Clinical Genomics Pty Ltd. The company was founded in 1967 and is headquartered in Secaucus, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -8100,6 +9573,11 @@
       <c r="F297" t="n">
         <v>44.958736</v>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Jack Henry &amp; Associates, Inc. provides technology solutions and payment processing services primarily for financial services organizations in the United States. The company offers information and transaction processing solutions for banks ranging from community to multi-billion dollar asset institutions under the Jack Henry Banking brand; core data processing solutions for various credit unions under the Symitar brand; and specialized financial performance, imaging and payments processing, information security and risk management, retail delivery, and online and mobile solutions to financial institutions and corporate entities under the ProfitStars brand. It also provides a suite of integrated applications required to process deposit, loan, and general ledger transactions, as well as to maintain centralized customer/member information; and complementary products and services that enable core bank and credit union clients to respond to evolving customer/member demands. The company's Jack Henry Banking business brand offers SilverLake, a robust IBM Power System primarily designed for commercial-focused banks; CIF 20/20, a system for the community bank market; and Core Director, a Windows-based client/server system. Its Symitar business brand provides Episys, a robust IBM Power System primarily designed for credit unions; and CruiseNet, a Windows-based client/server system designed primarily for credit unions. In addition, the company offers electronic payment solutions; purchases and resells hardware systems, including servers, workstations, scanners, and other devices; and provides implementation, training, and support services. Jack Henry &amp; Associates, Inc. was founded in 1976 and is headquartered in Monett, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -8126,6 +9604,11 @@
       <c r="F298" t="n">
         <v>15.338461</v>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>CDW Corporation provides integrated information technology (IT) solutions to business, government, education, and healthcare customers in the United States, the United Kingdom, and Canada. It operates through three segments: Corporate, Small Business, and Public. The company offers discrete hardware and software products, as well as integrated IT solutions, including mobility, security, data center optimization, cloud computing, virtualization, and collaboration. Its hardware products comprise notebooks/mobile devices, network communications, desktop computers, video monitors, enterprise and data storage products, printers, and servers; and software products include application suites, security, virtualization, operating systems, and network management. The company also provides warranties, managed services, and consulting design and implementation services. CDW Corporation was founded in 1984 and is based in Lincolnshire, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -8152,6 +9635,11 @@
       <c r="F299" t="n">
         <v>8.522522</v>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Cardinal Health, Inc. operates as an integrated healthcare services and products company in the United States and internationally. It provides customized solutions for hospitals, healthcare systems, pharmacies, ambulatory surgery centers, clinical laboratories, and physician offices. The company operates through two segments, Pharmaceutical and Medical. The Pharmaceutical segment distributes branded and generic pharmaceutical, specialty pharmaceutical, and over-the-counter healthcare and consumer products. It also provides services to pharmaceutical manufacturers and healthcare providers for specialty pharmaceutical products; operates nuclear pharmacies and radiopharmaceutical manufacturing facilities; and offers pharmacy management services to hospitals, as well as medication therapy management and patient outcomes services to hospitals, other healthcare providers, and payers. In addition, this segment repackages generic pharmaceuticals and over-the-counter healthcare products. The Medical segment manufactures, sources, and distributes Cardinal Health branded medical, surgical, and laboratory products. It also provides incontinence, wound care, enteral feeding, urology, operating room supply, electrode and needle, syringe, and sharps disposal products. In addition, this segment distributes a range of national brand products, including medical, surgical, and laboratory products; and provides supply chain services and solutions to hospitals, ambulatory surgery centers, clinical laboratories, and other healthcare providers. Cardinal Health, Inc. was founded in 1979 and is headquartered in Dublin, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -8178,6 +9666,11 @@
       <c r="F300" t="n">
         <v>18.926428</v>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>International Flavors &amp; Fragrances Inc., together with its subsidiaries, manufactures flavors and fragrances for use in various consumer products. It operates through two segments, Taste and Scent. The Taste segment offers flavor compounds primarily to the food and beverage industries for use in consumer products, such as prepared foods, beverages, dairy, food, and sweet products. This segment also creates and manufactures a naturals-focused suite of flavor compounds, functional foods, and specialty fine ingredients to small, local, and regional customers. The Scent segment provides fragrance compounds, which include fine fragrances comprising perfumes and colognes, as well as consumer fragrances for personal care, household products, and beauty care; fragrance ingredients comprising synthetic and natural ingredients that could be combined with other materials to create fragrance and consumer compounds; and cosmetic active ingredients consisting of active and functional ingredients, botanicals, and delivery systems to support its customers' cosmetic and personal care product lines. This segment serves perfume and toiletries manufacturers in the cosmetics industry; and manufacturers of soaps, detergents, fabric care, household cleaners, and air fresheners in the household products industry. The company has operations in Europe, Africa, the Middle East, Greater Asia, North America, and Latin America. International Flavors &amp; Fragrances Inc. was founded in 1833 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -8204,6 +9697,11 @@
       <c r="F301" t="n">
         <v>18.426523</v>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Hologic, Inc., a medical technology company, develops, manufactures, and supplies diagnostics products, medical imaging systems, surgical products, and light-based aesthetic and medical treatment systems for women in the United States, Europe, the Asia-Pacific, and internationally. The company offers Aptima molecular diagnostic assays to detect the infectious microorganisms; Aptima quantitative viral load tests for HIV, Hepatitis C, and Hepatitis B; ThinPrep System for use in cytology applications; and Rapid Fetal Fibronectin Test that assists physicians in assessing the risk of pre-term birth; and various diagnostic tests for a range of acute respiratory ailments. It also provides breast imaging and analytics, such as 2D and 3D mammography systems and reading workstations, minimally invasive breast biopsy guidance systems and devices, breast biopsy site markers and localization, specimen radiology, ultrasound and connectivity solutions; and breast conserving surgery products. In addition, the company offers aesthetic treatment systems, including SculpSure, PicoSure, and MonaLisa Touch, as well as provides TempSure, a radio frequency energy-sourced platform, which offers non-surgical and surgical aesthetic treatments and procedures. Further, it offers NovaSure Endometrial Ablation System for the treatment of abnormal uterine bleeding; MyoSure Hysteroscopic Tissue Removal System for the removal of fibroids, polyps, and other pathology within the uterus; and Fluent Fluid Management System that provides liquid distention during diagnostic and operative hysteroscopic procedures. Additionally, the company offers Horizon DXA, a dual energy x-ray system; and the Fluoroscan Insight FD mini C-arm to perform minimally invasive orthopedic surgical procedures. It sells its products through direct sales and service forces, and a network of independent distributors and sales representatives. The company was incorporated in 1985 and is headquartered in Marlborough, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -8230,6 +9728,11 @@
       <c r="F302" t="n">
         <v>9.129213</v>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Lennar Corporation, together with its subsidiaries, operates as a homebuilder primarily under the Lennar brand in the United States. It operates through Homebuilding East, Homebuilding Central, Homebuilding Texas, Homebuilding West, Lennar Financial Services, Lennar Multifamily, and Rialto segments. The company's homebuilding operations include the construction and sale of single-family attached and detached homes, as well as the purchase, development, and sale of residential land. It primarily sells single-family attached and detached homes in communities targeted to first-time homebuyers, move-up homebuyers, active adult homebuyers, and luxury homebuyers. The company also offers mortgage financing, title insurance, and closing services for home buyers and others. In addition, it is involved in raising, investing, and managing third party capital; and originating and selling into securitizations commercial mortgage loans, as well as investing in real estate related mortgage loans, properties, and related securities. Further, the company develops, constructs, and manages multifamily rental properties. Lennar Corporation was founded in 1954 and is based in Miami, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8256,6 +9759,11 @@
       <c r="F303" t="n">
         <v>28.221727</v>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Tiffany &amp; Co., through its subsidiaries, designs, manufactures, and retails jewelry and other items. The company offers jewelry collections, engagement rings, and wedding bands. It also sells watches, home and accessories products, and fragrances; and wholesales diamonds and earnings. The company sells its products through retail, Internet and catalog, business-to-business, and wholesale distribution channels. As of January 31, 2020, it operated 124 stores in the Americas, 91 stores in the Asia-Pacific, 58 stores in Japan, 48 stores in Europe, and 5 stores in the United Arab Emirates. Tiffany &amp; Co. was founded in 1837 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8282,6 +9790,11 @@
       <c r="F304" t="n">
         <v>6.737042</v>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>LyondellBasell Industries N.V. operates as a chemical company worldwide. The company operates in six segments: Olefins and PolyolefinsAmericas; Olefins and PolyolefinsEurope, Asia, International; Intermediates and Derivatives; Advanced Polymer Solutions; Refining; and Technology. It produces and markets olefins and co-products; polyethylene products, which consist of high density polyethylene, low density polyethylene, and linear low density polyethylene; and polypropylene (PP) products, such as PP homopolymers and copolymers. The company also produces and sells propylene oxide and its derivatives; oxyfuels and related products; and intermediate chemicals, such as styrene monomers, methanol products, glacial acetic acids, vinyl acetate monomers, ethylene glycol, and ethylene oxides and derivatives. In addition, it produces and markets compounds and solutions, such as polypropylene compounds, engineered plastics, masterbatches, engineered composites, colors, and powders; and advanced polymers. Further, the company refines crude oil and other crude oils of varied types and sources into gasoline, diesel, and jet fuel; develops and licenses chemical and polyolefin process technologies; and manufactures and sells polyolefin catalysts, as well as purchases and sells ethylene. LyondellBasell Industries N.V. was founded in 1955 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8308,6 +9821,11 @@
       <c r="F305" t="n">
         <v>25.858696</v>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Hormel Foods Corporation produces and markets various meat and food products to retail, foodservice, deli, and commercial customers in the United States and internationally. The company operates through four segments: Grocery Products, Refrigerated Foods, Jennie-O Turkey Store, and International &amp; Other. It offers various perishable meat products, including fresh meats, frozen items, refrigerated meal solutions, sausages, hams, guacamoles, and bacons; and shelf-stable products, such as canned luncheon meats, peanut butters, chilies, shelf-stable microwaveable meals, hashes, stews, meat spreads, flour and corn tortillas, salsas, tortilla chips, and other products. The company also provides turkey products; nutritional food products and supplements; dessert and drink mixes; and industrial gelatin products. It sells its products under the SKIPPY, SPAM, Hormel, Natural Choice, Applegate, Justin's, Wholly, Hormel, Black Label, Columbus, etc. brand names through sales personnel, as well as through independent brokers and distributors. The company was formerly known as Geo. A. Hormel &amp; Company and changed its name to Hormel Foods Corporation in January 1995. Hormel Foods Corporation was founded in 1891 and is headquartered in Austin, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8334,6 +9852,11 @@
       <c r="F306" t="n">
         <v>16.638958</v>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Kansas City Southern, a transportation holding company, provides domestic and international rail transportation services in North America. The company serves a ten-state region in the midwest and southeast regions of the United States and has the shortest north/south rail route between Kansas City, Missouri, and ports along the Gulf of Mexico in Alabama, Louisiana, Mississippi, and Texas. It operates a commercial corridor of the Mexican railroad system and has its direct rail passageway between Mexico City and Laredo, Texas. The company provides rail access to the United States and Mexico border crossing at Nuevo Laredo, Tamaulipas; and controls and operates the southern half of the rail bridge at Laredo, Texas, as well as the northern half of this bridge. Kansas City Southern also provides rail access to the port of Lazaro Cardenas on the Pacific Ocean; and owns a 157-mile rail line extending from Laredo, Texas to the port city of Corpus Christi, Texas. Its rail network comprises approximately 6,700 route miles extending from the Midwest and Southeast portions of the United States south into Mexico. The company serves the chemical and petroleum, industrial and consumer products, agriculture and minerals, energy, intermodal, and automotive markets. Kansas City Southern was founded in 1887 and is headquartered in Kansas City, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8360,6 +9883,11 @@
       <c r="F307" t="n">
         <v>13.388497</v>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>The J. M. Smucker Company manufactures and markets branded food and beverage products worldwide. It operates in four segments: U.S. Retail Coffee, U.S. Retail Consumer Foods, U.S. Retail Pet Foods, and International and Away From Home. The company offers mainstream roast, ground, single serve, and premium coffee; peanut butter and specialty spreads; fruit spreads, shortening and oils, and frozen sandwiches; pet food and pet snacks; and foodservice hot beverage, foodservice portion control, and flour products, as well as dog and cat food, frozen handheld products, juices and beverages, and baking ingredient. It provides its products under the Folgers, Café Bustelo, Dunkin' Donuts, 1850, Jif, Smucker's, Crisco, Smucker's Uncrustables, Meow Mix, Kibbles n Bits, 9Lives, Nature's Recipe, Milk-Bone, Pup-Peroni, Rachael Ray Nutrish, Natural Balance, Robin Hood, and Five Roses brands. The company sells its products through direct sales and brokers to food retailers and wholesalers, club stores, pet specialty stores, discount and dollar stores, drug stores, military commissaries, mass merchandisers, natural foods stores and distributors, and online retailers; and through retail channels, and foodservice distributors and operators. The J. M. Smucker Company was founded in 1897 and is headquartered in Orrville, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8390,6 +9918,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8416,6 +9949,11 @@
       <c r="F309" t="n">
         <v>39.33493</v>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Pioneer Natural Resources Company operates as an independent oil and gas exploration and production company in the United States. The company explores for, develops, and produces oil, natural gas liquids (NGLs), and gas. It has operations primarily in the Permian Basin in West Texas. As of December 31, 2019, the company had proved undeveloped reserves and proved developed non-producing reserves of 39 million barrels of oil, 16 million barrels of NGLs, and 83 billion cubic feet of gas; and owned interests in 11 gas processing plants. Pioneer Natural Resources Company was founded in 1997 and is headquartered in Irving, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8442,6 +9980,11 @@
       <c r="F310" t="n">
         <v>20.772152</v>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Broadridge Financial Solutions, Inc. provides investor communications and technology-driven solutions for the financial services industry worldwide. The company's Investor Communication Solutions segment processes and distributes proxy materials to investors in equity securities and mutual funds, as well as facilitates related vote processing services; and offers ProxyEdge, an electronic proxy delivery and voting solution. It also distributes regulatory reports and corporate action/reorganization event information, as well as tax reporting solutions; and provides end-to-end platform for content management, composition, and multi-channel distribution of regulatory, marketing, and transactional information, as well as mutual fund trade processing services. In addition, this segment offers registered proxy, registrar, stock transfer, and record-keeping services; customer communication solutions; cloud-based marketing and customer communication tools; and customer and account data aggregation and reporting services, as well as creates sales and educational content, including seminars and a library of financial planning topics. Further, it provides mutual fund and retirement, and mutual fund trade processing services; and customizable advisor Websites, search engine marketing, and electronic and print newsletters. The company's Global Technology and Operations segment offers desktop productivity tools, data aggregation, performance reporting, portfolio management, order capture and execution, trade confirmation, margin, cash management, clearance and settlement, asset servicing, reference data management, reconciliations, securities financing and collateral optimization, compliance and regulatory reporting, and accounting. It also provides capital market, wealth management, asset management, and international securities processing solutions, as well as managed services. The company was founded in 1962 and is headquartered in Lake Success, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8468,6 +10011,11 @@
       <c r="F311" t="n">
         <v>17.65732</v>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Evergy, Inc., through its subsidiaries, engages in the generation, transmission, distribution, and sale of electricity in Kansas and Missouri. It generates electricity through coal, nuclear, natural gas and oil, uranium, wind, hydroelectric, landfill gas, and solar energy sources, as well as other renewable sources. The company has approximately 10,100 circuit miles of transmission lines; 39,700 circuit miles of overhead distribution lines; and 12,700 circuit miles of underground distribution lines. It serves approximately 1,604,300 customers, including residences, commercial firms, industrials, municipalities, and other electric utilities. The company was incorporated in 2017 and is headquartered in Kansas City, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8494,6 +10042,11 @@
       <c r="F312" t="n">
         <v>15.115142</v>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Leidos Holdings, Inc. provides services and solutions in the defense, intelligence, civil, and health markets in the United States and internationally. It operates through three segments: Defense Solutions, Civil, and Health. The Defense Solutions segment offers national security solutions and systems for air, land, sea, space, and cyberspace for the U.S. Intelligence Community, Department of Defense, military services, the U.S. Department of Homeland Security, and government agencies of U.S. allies abroad, as well as other federal, civilian, and commercial customers in the national security industry. Its solutions include technology, intelligence systems, command and control platforms, data analytics, logistics, and cybersecurity solutions, as well as intelligence analysis and operations support services to critical missions. The Civil segment provides systems integration services to Air Navigation Service providers, including the Federal Aviation Administration, Transportation Security Administration, and airport operators; and vehicle and cargo inspection system, which enables the scanning of vehicles and cargo that produces an image using a low radiation dose. It also offers information technology (IT) solutions in cloud computing, mobility, application modernization, DevOps, data center, network modernization, asset management, help desk operations, and digital workplace enablement; federal environment and infrastructure; and logistics services. The Health segment offers solutions to federal and commercial customers responsible for health and well-being of people worldwide, including complex systems integration, managed health services, enterprise IT transformation, and life sciences services. Leidos Holdings, Inc. was founded in 1969 and is headquartered in Reston, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8520,6 +10073,11 @@
       <c r="F313" t="n">
         <v>19.93097</v>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Tractor Supply Company operates rural lifestyle retail stores in the United States. The company offers a selection of merchandise, including equine, livestock, pet, and small animal products necessary for their health, care, growth, and containment; hardware, truck, towing, and tool products; seasonal products, such as heating products, lawn and garden items, power equipment, gifts, and toys; work/recreational clothing and footwear; and maintenance products for agricultural and rural use. It provides its products under the 4health, Producer's Pride, Bit &amp; Bridle, Red Shed, Blue Mountain, Redstone, C.E. Schmidt, Retriever, Countyline, Ridgecut, Dumor, Royal Wing, Groundwork, Traveller, Huskee, Treeline, JobSmart, TSC Tractor Supply Co, Paws &amp; Claws, and Untamed brand names. As of December 28, 2019, it operated 2,024 retail stores in 49 states. The company operates its retail stores under the Tractor Supply Company, Del's Feed &amp; Farm Supply, and Petsense names. It also operates Websites under the TractorSupply.com and Petsense.com names. The company sells its products to recreational farmers, ranchers, and others, as well as tradesmen and small businesses. Tractor Supply Company was founded in 1938 and is based in Brentwood, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8546,6 +10104,11 @@
       <c r="F314" t="n">
         <v>10.272615</v>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>AmerisourceBergen Corporation sources and distributes pharmaceutical products in the United States and internationally. Its Pharmaceutical Distribution segment distributes brand-name and generic pharmaceuticals, over-the-counter healthcare products, home healthcare supplies and equipment, outsourced compounded sterile preparations, and related services to various healthcare providers, including acute care hospitals and health systems, independent and chain retail pharmacies, mail order pharmacies, medical clinics, long-term care and other alternate site pharmacies, and other customers. It also provides pharmacy management, staffing, and other consulting services; supply management software to retail and institutional healthcare providers; and packaging solutions to various institutional and retail healthcare providers. In addition, this segment distributes plasma and other blood products, injectable pharmaceuticals, vaccines, and other specialty products; provides other services primarily to physicians who specialize in various disease states, primarily oncology, as well as to other healthcare providers, including hospitals and dialysis clinics; and offers data analytics, outcomes research, and additional services for biotechnology and pharmaceutical manufacturers. The company's Other segment provides integrated manufacturer services, such as clinical trial support, product post-approval, and commercialization support; offers specialty transportation and logistics services for the biopharmaceutical industry; and sells pharmaceuticals, vaccines, parasiticides, diagnostics, micro feed ingredients, and various other products to customers in both the companion animal and production animal markets, as well as provides demand-creating sales force services to manufacturers. AmerisourceBergen Corporation was founded in 1985 and is headquartered in Chesterbrook, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8572,6 +10135,11 @@
       <c r="F315" t="n">
         <v>10.155738</v>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Southwest Airlines Co. operates a passenger airline that provides scheduled air transportation services in the United States and near-international markets. As of December 31, 2019, the company operated a total of 747 Boeing 737 aircraft; and served 101 destinations in 40 states, the District of Columbia, and the Commonwealth of Puerto Rico, as well as 10 near-international countries, including Mexico, Jamaica, the Bahamas, Aruba, the Dominican Republic, Costa Rica, Belize, Cuba, the Cayman Islands, and Turks and Caicos. It also offers inflight entertainment and connectivity service on Wi-Fi enabled aircraft; and sells points and related services to business partners participating in the Rapid Rewards loyalty program, such as car rental agencies, hotels, and restaurants. In addition, the company provides a suite of digital platforms to support customers' needs across the travel journey, including Southwest.com, mobile.southwest.com, an iOS app, an iPadOS app, and an android app; and SWABIZ, an online booking tool. Further, it offers ancillary services, such as Southwest's EarlyBird Check-In, upgraded boarding, and transportation of pets and unaccompanied minors. Southwest Airlines Co. was founded in 1967 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8598,6 +10166,11 @@
       <c r="F316" t="n">
         <v>27.15625</v>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Weyerhaeuser Company, one of the world's largest private owners of timberlands, began operations in 1900. We own or control approximately 11 million acres of timberlands in the U.S. and manage additional timberlands under long-term licenses in Canada. We manage these timberlands on a sustainable basis in compliance with internationally recognized forestry standards. We are also one of the largest manufacturers of wood products in North America. Our company is a real estate investment trust. In 2019, we generated $6.6 billion in net sales and employed approximately 9,400 people who serve customers worldwide. We are listed on the Dow Jones Sustainability North America Index.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8624,6 +10197,11 @@
       <c r="F317" t="n">
         <v>20.272224</v>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Expeditors International of Washington, Inc. provides logistics services in the Americas, North Asia, South Asia, Europe, the Middle East, Africa, and India. The company offers airfreight services, such as air freight consolidation and forwarding; ocean freight and ocean services, including ocean freight consolidation, direct ocean forwarding, and order management; customs brokerage, intra-continental ground transportation and delivery, and warehousing and distribution services; and customs clearance, purchase order management, vendor consolidation, time-definite transportation services, temperature-controlled transit, cargo insurance, and other logistics solutions. It acts as a freight consolidator or as an agent for the airline, which carries the shipment. The company also provides ancillary services that include preparation of shipping and customs documentation, packing, crating, insurance services, negotiation of letters of credit, and the preparation of documentation to comply with local export laws. Its customers include retailing and wholesaling, electronics, and industrial and manufacturing companies. Expeditors International of Washington, Inc. was founded in 1979 and is headquartered in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8650,6 +10228,11 @@
       <c r="F318" t="n">
         <v>9.596874</v>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>ONEOK, Inc., together with its subsidiaries, engages in gathering, processing, storage, and transportation of natural gas in the United States. It operates through Natural Gas Gathering and Processing, Natural Gas Liquids, and Natural Gas Pipelines segments. The company owns natural gas gathering pipelines and processing plants in the Mid-Continent and Rocky Mountain regions. It also gathers, treats, fractionates, and transports natural gas liquids (NGL), as well as stores, markets, and distributes NGL products. The company owns NGL gathering and distribution pipelines in Oklahoma, Kansas, Texas, New Mexico, Montana, North Dakota, Wyoming, and Colorado; terminal and storage facilities in Missouri, Nebraska, Iowa, and Illinois; and NGL distribution and refined petroleum products pipelines in Kansas, Missouri, Nebraska, Iowa, Illinois, and Indiana, as well as owns and operates truck- and rail-loading, and -unloading facilities that interconnect with its NGL fractionation and pipeline assets. In addition, it operates regulated interstate and intrastate natural gas transmission pipelines and natural gas storage facilities. Further, the company owns and operates a parking garage in downtown Tulsa, Oklahoma; and leases excess office space to others. It serves integrated and independent exploration and production companies; NGL and natural gas gathering and processing companies; crude oil and natural gas production companies; propane distributors; ethanol producers; and petrochemical, refining, and NGL marketing companies, as well as natural gas distribution companies, electric-generation facilities, industrial companies, municipalities, producers, processors, and marketing companies. The company was founded in 1906 and is headquartered in Tulsa, Oklahoma.</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8676,6 +10259,11 @@
       <c r="F319" t="n">
         <v>19.308641</v>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Nasdaq, Inc. operates as a technology company that serves capital markets and other industries worldwide. The company's Market Services segment includes equity derivative trading and clearing, cash equity trading, fixed income and commodities trading and clearing, and trade management service businesses. This segment operates various exchanges and other marketplace facilities across various asset classes, which consist of commodities, cash equity, debt, structured products, and exchange traded products; and provides broker, clearing, settlement, and central depository services. Its Corporate Services segment includes listing services and corporate solution businesses that deliver critical capital market and governance solutions to public and private companies. The company's Information Services segment provides market data, index, and investment data and analytics to institutional and retail investors. Its Market Technology segment offers technology solutions for trading, clearing, settlement, surveillance, depository, and information dissemination to markets. It also provides Nasdaq Trade Surveillance solution, a managed service designed for brokers and other market participants; and Nasdaq Risk, a suite of products that offer a real-time, multi-tiered risk solution that integrates pre-, at-and on-trade risk management and margining. In addition, the company offers corporate responsibility and environmental, social, and governance data management and reporting services. The company was formerly known as The NASDAQ OMX Group, Inc. and changed its name to Nasdaq, Inc. in September 2015. Nasdaq, Inc. was founded in 1971 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8702,6 +10290,11 @@
       <c r="F320" t="n">
         <v>27.484518</v>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>STERIS plc provides infection prevention and other procedural products and services worldwide. It operates in four segments: Healthcare Products, Healthcare Specialty Services, Life Sciences, and Applied Sterilization Technologies. The Healthcare Products segment offers cleaning chemistries and sterility assurance products; accessories for gastrointestinal (GI) procedures, washers, sterilizers, and other pieces of capital equipment for the operation of a sterile processing department; and equipment used directly in the operating room, including surgical tables, lights, equipment management services, and connectivity solutions. It also provides capital equipment installation, maintenance, upgradation, repair, and troubleshooting services. This segment offers its products and services to acute care hospitals, ambulatory surgery centers, and GI clinics. The Healthcare Specialty Services segment provides solutions and managed services, such as instrument and endoscope repair and maintenance solutions; custom process improvement consulting services; and outsourced instrument sterile processing services to acute care hospitals and other healthcare settings. The Life Sciences segment offers formulated cleaning chemistries, barrier products, sterility assurance products, steam and vaporized hydrogen peroxide sterilizers, and washer disinfectors. The Applied Sterilization Technologies segment provides contract sterilization services through a network of approximately 50 contract sterilization and laboratory facilities. The company was founded in 1985 and is based in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8728,6 +10321,11 @@
       <c r="F321" t="n">
         <v>18.917969</v>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Vulcan Materials Company produces and supplies construction materials primarily in the United States. The company operates through four segments: Aggregates, Asphalt, Concrete, and Calcium. The Aggregates segment provides crushed stones, sand and gravel, sand, and other aggregates; and related products and services that are applied in construction and maintenance of highways, streets, and other public works, as well as in the construction of housing and commercial, industrial, and other nonresidential facilities. The Asphalt Mix segment offers asphalt mix in Alabama, Arizona, California, New Mexico, Tennessee, and Texas. The Concrete segment provides ready-mixed concrete in California, Maryland, New Mexico, Texas, Virginia, Washington D.C., and the Bahamas. The Calcium segment mines, produces, and sells calcium products for the animal feed, plastics, and water treatment industries. The company was formerly known as Virginia Holdco, Inc. and changed its name to Vulcan Materials Company. Vulcan Materials Company was founded in 1909 and is headquartered in Birmingham, Alabama.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8754,6 +10352,11 @@
       <c r="F322" t="n">
         <v>44.902126</v>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>MAA, an S&amp;P 500 company, is a real estate investment trust, or REIT, focused on delivering full-cycle and superior investment performance for shareholders through the ownership, management, acquisition, development and redevelopment of quality apartment communities in the Southeast, Southwest, and Mid-Atlantic regions of the United States. As of December 31, 2019, MAA had ownership interest in 102,104 apartment units, including communities currently in development, across 16 states and the District of Columbia.</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8780,6 +10383,11 @@
       <c r="F323" t="n">
         <v>8.913978999999999</v>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Freeport-McMoRan Inc. engages in the mining of mineral properties in North America, South America, and Indonesia. The company primarily explores for copper, gold, molybdenum, silver, and other metals, as well as oil and gas. Its assets include the Grasberg minerals district in Indonesia; Morenci, Bagdad, Safford, Sierrita, and Miami in Arizona; Tyrone and Chino in New Mexico; and Henderson and Climax in Colorado, North America, as well as Cerro Verde in Peru and El Abra in Chile. It also operates a portfolio of oil and gas assets comprising oil and natural gas production onshore in South Louisiana; and oil production offshore California. As of December 31, 2018, the company's estimated consolidated recoverable proven and probable mineral reserves totaled 119.6 billion pounds of copper, 30.8 million ounces of gold, and 3.78 billion pounds of molybdenum, as well as estimated proved developed oil and natural gas reserves totaled 7.2 million barrels of oil equivalents. The company was formerly known as Freeport-McMoRan Copper &amp; Gold Inc. and changed its name to Freeport-McMoRan Inc. in July 2014. Freeport-McMoRan Inc. was founded in 1987 and is headquartered in Phoenix, Arizona.</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8806,6 +10414,11 @@
       <c r="F324" t="n">
         <v>15.155241</v>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>CarMax, Inc., through its subsidiaries, operates as a retailer of used vehicles in the United States. The company operates in two segments, CarMax Sales Operations and CarMax Auto Finance. It offers customers a range of makes and models of used vehicles, including domestic, imported, and luxury vehicles; vehicles that do not meet its retail standards to licensed dealers through on-site wholesale auctions; and extended protection plans to customers at the time of sale. The company also provides reconditioning and vehicle repair services; and financing alternatives for retail customers across a range of credit spectrum through its CarMax Auto Finance and arrangements with various financial institutions. As of February 29, 2020, it operated approximately 216 stores and 2 new car franchises. CarMax, Inc. was founded in 1993 and is based in Richmond, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8832,6 +10445,11 @@
       <c r="F325" t="n">
         <v>14.22072</v>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>International Paper Company operates as a paper and packaging company primarily in United States, the Middle East, Europe, Africa, Pacific Rim, Asia, and the Americas. It operates through three segments: Industrial Packaging, Global Cellulose Fibers, and Printing Papers. The Industrial Packaging segment manufactures containerboards, including linerboard, medium, whitetop, recycled linerboard, recycled medium, and saturating Kraft. The Global Cellulose Fibers segment provides fluff, market, and specialty pulps that are used in absorbent hygiene products, such as baby diapers, feminine care, adult incontinence and other non-woven products; tissue and paper products; and non-absorbent end applications, including textiles, filtration, construction material, paints and coatings, reinforced plastics and more. The Printing Papers segment produces printing and writing papers, such as uncoated papers for end-use applications comprising brochures, pamphlets, greeting cards, books, annual reports, and direct mail, as well as envelopes, tablets, business forms, and file folders. It sells its uncoated papers under the Hammermill, Springhill, Williamsburg, Postmark, Accent, Great White, Chamex, Ballet, Rey, Pol, and Svetocopy brands. The company sells its products directly to end users and converters, as well as through agents, resellers, and paper distributors. International Paper Company was founded in 1898 and is headquartered in Memphis, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8858,6 +10476,11 @@
       <c r="F326" t="n">
         <v>15.29338</v>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Dover Corporation provides equipment and components, consumable supplies, aftermarket parts, software and digital solutions, and support services worldwide. The Engineered Products segment provides aftermarket vehicle services, solid waste handling, industrial automation, aerospace and defense, industrial winch and hoist, bearings, drives, electric monitoring, and fluid dispensing systems. This segment also offers manual and power clamps, rotary and linear mechanical indexers, conveyors, pick and place units, glove ports, and manipulators, as well as end-of-arm robotic grippers and slides and end effectors. The Fueling Solutions segment transports fuels and other hazardous fluids, as well as operates retail fueling and vehicle wash establishments. The Imaging and Identification segment provides precision marking and coding; product traceability; and digital textile printing equipment, as well as related consumables. The Pumps and Process Solutions segment manufactures specialty pumps, fluid handling components, plastics and polymer processing equipment, and highly engineered components for rotating and reciprocating machines. This segment also manufactures pumps that are used to transfer liquid and bulk products in various markets, including plastics and polymers processing, chemicals production, food/sanitary, biopharma, medical, transportation, petroleum refining, power generation and general industrial applications. The Refrigeration &amp; Food Equipment segment manufactures refrigeration systems, refrigeration display cases, commercial glass refrigerators and freezer doors, and brazed heat exchangers for industrial heating and cooling, and residential climate control applications; and commercial food service equipment and can-shaping machinery. The company sells its products directly and through a network of distributors. Dover Corporation was incorporated in 1947 and is headquartered in Downers Grove, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8884,6 +10507,11 @@
       <c r="F327" t="n">
         <v>15.931753</v>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Zebra Technologies Corporation, together with its subsidiaries, provides enterprise asset intelligence solutions in the automatic identification and data capture solutions industry worldwide. The company operates in two segments, Asset Intelligence &amp; Tracking and Enterprise Visibility &amp; Mobility. It designs, manufactures, and sells a range of products that capture and move data, including mobile computers, barcode scanners and imagers, radio frequency identification device readers, specialty printers for barcode labeling and personal identification, and real-time location systems; related accessories and supplies, such as self-adhesive labels, receipts, ribbons, plastic cards, and wristbands; and software utilities and applications. The company also designs, integrates, markets, and sells rugged tablets. In addition, it offers a range of services, including maintenance, technical support, and repair, as well as managed and professional services, including cloud-based subscriptions. The company serves retail and e-commerce, transportation and logistics, manufacturing, healthcare, hospitality, warehouse and distribution, energy and utilities, government, and education enterprises. It sells its products, solutions, and services through distributors, value added resellers, independent software vendors, direct marketers, and original equipment manufacturers. Zebra Technologies Corporation was founded in 1969 and is headquartered in Lincolnshire, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8910,6 +10538,11 @@
       <c r="F328" t="n">
         <v>38.116276</v>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Brown-Forman Corporation manufactures, bottles, imports, exports, markets, and sells various alcoholic beverages worldwide. It provides spirits, wines, whiskey spirits, whiskey-based flavored liqueurs, ready-to-drink and ready-to-pour products, ready-to-drink cocktails, vodkas, tequilas, champagnes, brandy, bourbons, and liqueurs. The company offers its products primarily under the Jack Daniel's, Woodford Reserve, Canadian Mist, GlenDronach, BenRiach, Glenglassaugh, Old Forester, Early Times, Slane Irish Whiskey, Coopers' Craft, Early Times, el Jimador, Herradura, New Mix, Pepe Lopez, Antiguo, Finlandia, Korbel Champagne, and Sonoma-Cutrer brands. It is also involved in the sale of used barrels, bulk whiskey, and wine; and provision of contract bottling services. The company serves retail customers and consumers through distributors or state governments; and retailers, wholesalers, and provincial governments directly. Brown-Forman Corporation was founded in 1870 and is headquartered in Louisville, Kentucky.</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8936,6 +10569,11 @@
       <c r="F329" t="n">
         <v>-5.5261045</v>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Occidental Petroleum Corporation, together with its subsidiaries, engages in the acquisition, exploration, and development of oil and gas properties in the United States, the Middle East, and Latin America. The company operates through three segments: Oil and Gas, Chemical, and Marketing and Midstream. The Oil and Gas segment explores for, develops, and produces oil and condensate, natural gas liquids (NGLs), and natural gas. The Chemical segment manufactures and markets basic chemicals, including chlorine, caustic soda, chlorinated organics, potassium chemicals, ethylene dichloride, chlorinated isocyanurates, sodium silicates, and calcium chloride; vinyls comprising vinyl chloride monomer, polyvinyl chloride, and ethylene. The Midstream and Marketing segment gathers, processes, transports, stores, purchases, and markets oil, condensate, NGLs, natural gas, carbon dioxide, and power. This segment also trades around its assets consisting of transportation and storage capacity; and invests in entities. Occidental Petroleum Corporation was founded in 1920 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8962,6 +10600,11 @@
       <c r="F330" t="n">
         <v>55.931416</v>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Paycom Software, Inc. provides cloud-based human capital management (HCM) software service for small to mid-sized companies in the United States. It provides functionality and data analytics that businesses need to manage the employment life cycle from recruitment to retirement. The company's HCM solution offers a suite of applications in the areas of talent acquisition, including applicant tracking, candidate tracker, background checks, on-boarding, e-verify, and tax credit services; and time and labor management, such as time and attendance, scheduling/schedule exchange, time-off requests, labor allocation, labor management reports/push reporting, and geofencing/geotracking. Its HCM solution also provides payroll applications comprising payroll and tax management, Paycom pay, expense management, mileage tracker/fixed and variable rates, garnishment management, and GL concierge applications; and talent management applications that include employee self-service, compensation budgeting, performance management, and Paycom learning and course content, as well as my analytics, which offer employment predictor reporting. In addition, the company's HCM solution offers HR management applications comprising manager on-the-go that gives supervisors and managers the ability to perform a variety of tasks, such as approving time-off requests and expense reimbursements; direct data exchange; ask here, a tool for direct line of communication to ask work-related questions; document and checklist; government and compliance; benefits administration/benefits to carrier; COBRA administration; personnel action forms; surveys; and affordable care act applications. Paycom Software, Inc. was founded in 1998 and is headquartered in Oklahoma City, Oklahoma.</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8988,6 +10631,11 @@
       <c r="F331" t="n">
         <v>16.657848</v>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>W.W. Grainger, Inc. distributes maintenance, repair, and operating (MRO) products and services in the United States, Canada, and internationally. The company provides material handling equipment, safety and security supplies, lighting and electrical products, power and hand tools, pumps and plumbing supplies, cleaning and maintenance supplies, and metalworking tools, as well as gloves, ladders, motors, and janitorial supplies. It also offers inventory management and technical support services. The company provides its products through branches, sales and service representatives, contact centers, distribution centers, and catalogs, as well as through e-commerce platform. It serves small and mid-sized businesses, large corporations, government entities, and other institutions. W.W. Grainger, Inc. was founded in 1927 and is headquartered in Lake Forest, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -9014,6 +10662,11 @@
       <c r="F332" t="n">
         <v>8.814886</v>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>M&amp;T Bank Corporation operates as the holding company for Manufacturers and Traders Trust Company; and Wilmington Trust, National Association that provide banking services. The company's Business Banking segment offers deposits, business loans and leases, and credit cards; and cash management, payroll, and letters of credit services to small businesses and professionals. Its Commercial Banking segment provides credit and banking services for middle-market and large commercial customers. The company's Commercial Real Estate segment offers multifamily residential and commercial real estate credit, and deposit services. Its Discretionary Portfolio segment provides deposits; securities, residential real estate loans, and other assets; and short and long term borrowed funds, as well as foreign exchange services. The company's Residential Mortgage Banking segment offers residential real estate loans for consumers and sells those loans in the secondary market; and purchases servicing rights to loans originated by other entities. Its Retail Banking segment offers demand, savings, and time accounts; consumer installment loans, automobile and recreational finance loans, home equity loans and lines of credit, and credit cards; mutual funds and annuities; and other services. The company also provides trust and wealth management; fiduciary and custodial; investment management; and insurance agency services. It offers its services through banking offices, business banking centers, telephone and Internet banking, mobile banking, and automated teller machines. As of December 31, 2019, the company operates 731 domestic banking offices in New York State, Maryland, New Jersey, Pennsylvania, Delaware, Connecticut, Virginia, West Virginia, and the District of Columbia; a full-service commercial banking office in Ontario, and Canada; and an office in George Town, Cayman Islands. M&amp;T Bank Corporation was founded in 1856 and is headquartered in Buffalo, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -9040,6 +10693,11 @@
       <c r="F333" t="n">
         <v>5.6257668</v>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise Company provides solutions that allow customers to capture, analyze, and act upon data from edge to cloud. The company offers industry standard servers for multi-workload computing; mission-critical servers; storage solutions; and solutions for secondary workloads and traditional tape, storage networking, and disk products, such as HPE MSA and HPE XP. It also provides mobility and Internet of Things solutions under the Aruba brand, which include wired and wireless local area network products, such as Wi-Fi access points, switches, routers, and sensors; software products, such as cloud-based management, network management, network access control, analytics and assurance, and location services; and professional and support services, as well as as-a-service and consumption models for the intelligent edge portfolio of products. In addition, the company offers various flexible investment solutions, which comprise leasing, financing, IT consumption, and utility programs and asset management services for customers to facilitate unique technology deployment models and the acquisition of complete IT solutions, including hardware, software, and services from Hewlett Packard Enterprise and others. Further, it invests in communications and media solutions, Hewlett Packard labs, and various business incubation projects. The company serves commercial and large enterprise groups, including business and public sector enterprises; and through various partners comprising resellers, distribution partners, original equipment manufacturers, independent software vendors, systems integrators, and advisory firms. Hewlett Packard Enterprise Company was founded in 1939 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -9066,6 +10724,11 @@
       <c r="F334" t="n">
         <v>9.768392</v>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>CBRE Group, Inc. operates as a commercial real estate services and investment company worldwide. It operates through Advisory Services, Global Workplace Solutions, and Real Estate Investments segments. The Advisory Services segment provides strategic advice and execution to owners, investors, and occupiers of real estate in connection with leasing; property sales and mortgage services under the CBRE Capital Markets brand; property and project management services, including construction management, marketing, building engineering, accounting, and financial services for owners of and investors in office, industrial, and retail properties; and valuation services that include market value appraisals, litigation support, discounted cash flow analyses, and feasibility studies, as well as consulting services, such as property condition reports, hotel advisory, and environmental consulting. The Global Workplace Solutions segment offers facilities management, project management, and transaction management services. The Real Estate Investments segment provides investment management services under the CBRE Global Investors brand to pension funds, insurance companies, sovereign wealth funds, foundations, endowments, and other institutional investors; development services under the Trammell Crow Company brand primarily to users of and investors in commercial real estate; and flexible-space solutions under the CBRE Hana brand, which includes office suites, conference rooms and event space, and communal co-working space for institutional property owners. It also develops residential-led and mixed-use sites in London under the Telford Homes brand. The company was founded in 1906 and is headquartered in Los Angeles, California.</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -9092,6 +10755,11 @@
       <c r="F335" t="n">
         <v>21.151234</v>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Arista Networks, Inc. develops, markets, and sells cloud networking solutions in the Americas, Europe, the Middle East, Africa, and the Asia-Pacific. The company's cloud networking solutions consist of extensible operating systems, a set of network applications, as well as gigabit Ethernet switching and routing platforms, including universal leaf, spline, and universal spine products. It also provides post contract customer support services, such as technical support, hardware repair and parts replacement beyond standard warranty, bug fix, patch, and upgrade services. The company serves a range of industries comprising Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies, and others. It markets and sells its products through distributors, value-added resellers, system integrators, and original equipment manufacturer partners, as well as through its direct sales force. The company was formerly known as Arastra, Inc. and changed its name to Arista Networks, Inc. in October 2008. Arista Networks, Inc. was founded in 2004 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -9116,6 +10784,11 @@
         <v>12566037504</v>
       </c>
       <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>NortonLifeLock Inc. provides cyber security products, services, and solutions worldwide. The company offers Norton security solutions as a subscription service providing protection for devices against malware, viruses, adware, and ransomware on various platforms; and LifeLock identity theft protection solution that provides identity monitoring, alerts, and restoration to its customers. It also provides Norton Secure VPN and other consumer security solutions, as well as Norton Wi-Fi Privacy VPN. The company serves enterprises, including business, government, and public-sector customers; small, medium, and large businesses; and individuals, households, and small businesses. It markets and sells its products and related services through direct sales force, direct marketing and co-marketing programs, e-commerce and telesales platforms, distributors, Internet-based resellers, system builders, Internet service providers, employee benefits providers, wireless carriers, retailers, original equipment manufacturers, and retail and online stores. The company was formerly known as Symantec Corporation and changed its name to NortonLifeLock Inc. in November 2019. NortonLifeLock Inc. was founded in 1982 and is based in Tempe, Arizona.</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -9137,10 +10810,15 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11923897344</v>
+        <v>11920317440</v>
       </c>
       <c r="F337" t="n">
-        <v>6.155268</v>
+        <v>6.15342</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>The Hartford Financial Services Group, Inc. provides insurance and financial services to individual and business customers in the United States and internationally. Its Commercial Lines segment offers workers' compensation, property, automobile, liability, umbrella, bond, marine, livestock, and reinsurance products; and customized insurance products and risk management services, including professional liability, bond, surety, and specialty casualty coverages through regional offices, branches, sales and policyholder service centers, independent retail agents and brokers, wholesale agents, and reinsurance brokers. The company's Personal Lines segment provides automobile, homeowners, and personal umbrella coverages through direct-to-consumer channel and independent agents. Its Property &amp; Casualty Other Operations segment offers coverage for asbestos and environmental exposures. The company's Group Benefits segment provides group life, and accident and disability coverages, as well as other group coverages to members of employer and affinity groups, and associations through direct insurance policies; reinsurance to other insurance companies; employer paid and voluntary product coverages; disability underwriting, administration, and claims processing to self-funded employer plans; and a single-company leave management solution. This segment distributes its group insurance products and services through brokers, consultants, third-party administrators, trade associations, and private exchanges. Its Hartford Funds segment offers investment products for retail and retirement accounts; exchange-traded products through broker-dealer organizations, independent financial advisers, defined contribution plans, financial consultants, bank trust groups, and registered investment advisers; and investment-management and administrative services, such as product design, implementation, and oversight. The company was founded in 1810 and is headquartered in Hartford, Connecticut.</t>
+        </is>
       </c>
     </row>
     <row r="338">
@@ -9168,6 +10846,11 @@
       <c r="F338" t="n">
         <v>19.789244</v>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Waters Corporation, a specialty measurement company, provides analytical workflow solutions in Asia, the Americas, and Europe. It operates through two segments, Waters and TA. The company designs, manufactures, sells, and services high and ultra-performance liquid chromatography, as well as mass spectrometry (MS) technology systems and support products, including chromatography columns, other consumable products, and post-warranty service plans. It also designs, manufactures, sells, and services thermal analysis, rheometry, and calorimetry instruments; and develops and supplies software-based products that interface with its instruments, as well as other manufacturers' instruments. Its MS technology instruments are used in drug discovery and development comprising clinical trial testing, the analysis of proteins in disease processes, nutritional safety analysis, and environmental testing. The company's offers thermal analysis, rheometry, and calorimetry instruments for use in predicting the suitability and stability of fine chemicals, pharmaceuticals, water, polymers, metals, and viscous liquids for various industrial, consumer good, and healthcare products, as well as for life science research. Its products are used by pharmaceutical, biochemical, industrial, nutritional safety, environmental, academic, and governmental customers working in research and development, quality assurance, and other laboratory applications. Waters Corporation was founded in 1958 and is headquartered in Milford, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -9194,6 +10877,11 @@
       <c r="F339" t="n">
         <v>18.90239</v>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Atmos Energy Corporation, together with its subsidiaries, engages in the regulated natural gas distribution, and pipeline and storage businesses in the United States. It operates through Distribution, and Pipeline and Storage segments. The Distribution segment is involved in the regulated natural gas distribution and related sales operations in eight states. This segment distributes natural gas to approximately three million residential, commercial, public authority, and industrial customers. As of September 30, 2019, it owned 70,875 miles of underground distribution and transmission mains. The Pipeline and Storage segment engages in the pipeline and storage operations. This segment transports natural gas for third parties and manages five underground storage reservoirs in Texas; and provides ancillary services to the pipeline industry, including parking arrangements, lending, and inventory sales. It owns 5,669 miles of gas transmission lines. The company was founded in 1906 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -9220,6 +10908,11 @@
       <c r="F340" t="n">
         <v>12.188446</v>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>FMC Corporation, an agricultural sciences company, provides crop protection, plant health, and professional pest and turf management products. The company develop, markets, and sells crop protection chemicals, which include insecticides, herbicides, and fungicides that are used in agriculture to enhance crop yield and quality by controlling a range of insects, weeds, and disease, as well as in non-agricultural markets for pest control. It also offers biologicals products, such as bionematicides under the Quartzo and Presence names. The company sells herbicides under the Authority, Boral, Centium, Command, and Gamit brands; and insecticides under the Talstar and Hero brands. It sells its products through independent distributors and co-ops, and national and regional distributors, as well as sells directly to growers. The company operates in North America, Latin America, Europe, the Middle East, Africa, and Asia. FMC Corporation was founded in 1883 and is headquartered in Philadelphia, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -9246,6 +10939,11 @@
       <c r="F341" t="n">
         <v>6.4133544</v>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Western Digital Corporation develops, manufactures, and sells data storage devices and solutions worldwide. It offers client devices, including hard disk drives (HDDs) and solid state drives (SSDs) for computing devices, such as desktop and notebook personal computers (PCs), security surveillance systems, gaming consoles, and set top boxes; flash-based embedded storage products for mobile phones, tablets, notebook PCs, and other portable and wearable devices, as well as automotive, Internet of Things, industrial, and connected home applications; flash-based memory wafers; and embedded storage solutions and flash products, such as multi-chip package solutions. The company also provides data center devices and solutions comprising enterprise helium hard drives; enterprise SSDs consisting of flash-based SSDs and software solutions for use in enterprise servers, online transactions, data analysis, and other enterprise applications; data center solutions, including HDDs and drive configurations for use in data storage systems and tiered storage models; system solutions that offer petabyte scalable capacity; and data storage platforms and systems. In addition, it offers client solutions, such as external HDD storage products in mobile and desktop form; client SSDs; removable cards that are used in consumer devices comprising mobile phones, tablets, imaging systems, still and action video cameras, and security surveillance systems; universal serial bus flash drives for use in the computing and consumer markets; and wireless drive products used in-field back up of created content, as well as wireless streaming of high-definition movies, photos, music, and documents to tablets, smartphones, and PCs. The company sells its products under the HGST, SanDisk, and WD brands to original equipment manufacturers, distributors, resellers, cloud infrastructure players, and retailers. Western Digital Corporation was founded in 1970 and is headquartered in San Jose, California.</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -9272,6 +10970,11 @@
       <c r="F342" t="n">
         <v>6.187697</v>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Discover Financial Services, through its subsidiaries, operates as a direct banking and payment services company in the United States. The Direct Banking segment offers Discover-branded credit cards to individuals; and other consumer products and services, including private student loans, personal loans, home equity loans, and other consumer lending, as well as deposit products, such as certificates of deposit, money market accounts, savings accounts, checking accounts, and individual retirement arrangement certificates of deposit. The Payment Services segment operates the PULSE network, an automated teller machine, debit, and electronic funds transfer network; Diners Club International, a payments network that issues Diners Club branded charge cards and provides card acceptance services; and Discover Network that processes transactions for Discover-branded credit and debit cards, as well as provides payment transaction processing and settlement services. The company was incorporated in 1986 and is based in Riverwoods, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9298,6 +11001,11 @@
       <c r="F343" t="n">
         <v>12.665541</v>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Nucor Corporation manufactures and sells steel and steel products. It operates in three segments: Steel Mills, Steel Products, and Raw Materials. The Steel Mills segment produces hot-rolled, cold-rolled, and galvanized sheet steel products; plate steel products; wide-flange beams, beam blanks, and H-piling and sheet piling products; bar steel products, such as blooms, billets, concrete reinforcing and merchant bars, and special bar quality products. It also engages in the steel trading and rebar distribution businesses. This segment sells its products to steel service centers, fabricators, and manufacturers in the United States, Canada, and Mexico. The Steel Products segment offers hollow structural section steel tubing products, electrical conduits, steel joists and joist girders, steel decks, fabricated concrete reinforcing steel products, cold finished steel products, steel fasteners, metal building systems, steel grating and expanded metal products, and wire and wire mesh products primarily for use in nonresidential construction applications. This segment also engages in the piling distribution business. The Raw Materials segment produces direct reduced iron (DRI); brokers ferrous and nonferrous metals, pig iron, DRI, and hot briquetted iron; supplies ferro-alloys; and processes ferrous and nonferrous scrap metal, as well as engages in the natural gas drilling operations. This segment sells its ferrous scrap to electric arc furnace steel mills and foundries for manufacturing process; and nonferrous scrap metal to aluminum can producers, secondary aluminum smelters, steel mills and other processors, and consumers of various nonferrous metals. The company offers its products through its in-house sales forces; and internal distribution and trading companies. The company was incorporated in 1958 and is based in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9324,6 +11032,11 @@
       <c r="F344" t="n">
         <v>16.825203</v>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Masco Corporation designs, manufactures, and distributes home improvement and building products in North America, Europe, and internationally. The company operates through two segments, Plumbing Products and Decorative Architectural Products. The Plumbing Products segment offers faucets, showerheads, handheld showers, valves, bath hardware and accessories, bathing units, shower bases and enclosures, toilets, acrylic tubs, shower trays, spas, exercise pools, and fitness systems; brass, copper, and composite plumbing system components; thermoplastic extrusions, extruded plastic profiles, specialized fabrications, and PEX tubing products; and other non-decorative plumbing products. This segment provides its products under the DELTA, BRIZO, PEERLESS, HANSGROHE, AXOR, GINGER, NEWPORT BRASS, BRASSTECH, WALTEC, BRISTAN, HERITAGE, MIROLIN, HÜPPE, HOT SPRING, CALDERA, FREEFLOW SPAS, FANTASY SPAS, ENDLESS POOLS, BRASSCRAFT, PLUMB SHOP, COBRA, COBRA PRO, and MASTER PLUMBER brands. The Decorative Architectural Products segment offers paints, primers, specialty coatings, stains, and waterproofing products; cabinet and door hardware, functional hardware, wall plates, hook and rail products, and picture hanging accessories; decorative bath hardware, and shower accessories and doors; and decorative indoor and outdoor lighting fixtures, ceiling fans, landscape lighting, and LED lighting systems. This segment provides its products under the BEHR, KILZ, LIBERTY, BRAINERD, FRANKLIN BRASS, KICHLER, and ÉLAN brands. It sells its products to the plumbing, heating, and hardware wholesalers; home centers and online retailers; hardware stores; electrical and landscape distributors; lighting showrooms; building supply outlets; and other mass merchandisers. Masco Corporation was founded in 1929 and is headquartered in Livonia, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9350,6 +11063,11 @@
       <c r="F345" t="n">
         <v>17.324568</v>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Ulta Beauty, Inc. operates as a beauty retailer in the United States. The company's stores offer cosmetics, fragrances, skincare and haircare products, bath and body products, and salon styling tools; salon services, including hair, skin, makeup, and brow services; and others, including nail products and accessories. It also provides private label products, such as the Ulta Beauty Collection branded cosmetics, skincare, and bath products, as well as Ulta Beauty branded products. As of February 1, 2020, the company operated 1,254 retail stores across 50 states. It also distributes its products through its Website, ulta.com. The company was formerly known as Ulta Salon, Cosmetics &amp; Fragrance, Inc. and changed its name to Ulta Beauty, Inc. in January 2017. Ulta Beauty, Inc. was founded in 1990 and is based in Bolingbrook, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9376,6 +11094,11 @@
       <c r="F346" t="n">
         <v>17.244328</v>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Qorvo, Inc. provides radio frequency (RF) solutions and technologies for smartphones and other mobile devices, defense and aerospace, Wi-Fi customer premises equipment, cellular base stations, and Internet of Things applications (IoT) worldwide. The company operates in two segments, Mobile Products, and Infrastructure and Defense Products. Its products and technologies help people in connecting with each other, accessing broadband data and critical networks, transacting mobile commerce, and interacting through social media. The company offers filters, duplexers, switches, multimode/multi-band power amplifiers and transmit modules, RF power management integrated circuits, antenna switch modules, antenna tuners, antennaplexers, and modules incorporating power amplifiers (PAs) and duplexers, as well as modules incorporating switches, PAs, and duplexers for use in mobile devices. It also provides integrated solutions that include switch-LNA modules, variable gain amplifiers, and integrated PA Doherty modules for massive multiple-input/multiple-output systems; technologies for high-power phased array radar, electronic warfare, and communications systems, as well as compound semiconductor foundry services; Wi-Fi customer premises equipment, including routers, gateways, set-top boxes, and enterprise infrastructure; silicon complementary metal oxide semiconductor system-on-a-chip hardware, firmware, and application software that enable equipment manufacturers to develop smart home products; and automotive RF connectivity products. In addition, it offers optical modulator drivers and trans-impedance amplifiers for use in broadband cable, point-to-point radio, and very small aperture terminal applications. The company sells its products directly to original equipment manufacturers and original design manufacturers, as well as through a network of sales representative firms and distributors. Qorvo, Inc. was founded in 1991 and is headquartered in Greensboro, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9402,6 +11125,11 @@
       <c r="F347" t="n">
         <v>17.608202</v>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Garmin Ltd. designs, develops, manufactures, markets, and distributes a range of navigation, communication, and information devices worldwide. It operates through five segments: Auto, Aviation, Marine, Outdoor, and Fitness. The Auto segment offers personal navigation devices; infotainment systems; and cameras, as well as mobile applications. The Aviation segment provides flight display, navigation, communication, flight control, hazard avoidance, weather radar, radar altimeter, and in-cockpit and cloud connectivity products; datalink weather receivers and services; engine information, traffic collision avoidance, and terrain awareness and warning systems; wearables, portables, and apps; and training, simulation, flight planning/filing, premium trip, and aviation data services. This segment also offers controller-pilot data link, a suite of automatic dependent surveillance broadcast solutions. The Marine segment provides chartplotters and multi-function displays, cartography products, fish finders, sounders, autopilot systems, radars, compliant instrument displays, VHF communication radios, handhelds and wearable devices, sailing products, entertainment, and digital switching equipment. The Outdoor segment offers outdoor handhelds, smartwatches, golf devices, and dog tracking and training devices; Garmin Connect and Garmin Connect Mobile, which are Web and mobile platforms; and Connect IQ application development platform. The Fitness segment provides running/multi-sport watches, cycling computers, cycling power meters, cycling safety and awareness products, and activity tracking devices. The company sells its global positioning system receivers and accessories to retail outlets; and aviation products to aviation dealers and aircraft manufacturers through a network of independent dealers and distributors. Garmin Ltd. was founded in 1990 and is based in Schaffhausen, Switzerland.</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9428,6 +11156,11 @@
       <c r="F348" t="n">
         <v>5.5530086</v>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Delta Air Lines, Inc. provides scheduled air transportation for passengers and cargo in the United States and internationally. The company operates through two segments, Airline and Refinery. Its domestic network centered on core hubs in Atlanta, Minneapolis-St. Paul, Detroit, and Salt Lake City, as well as coastal hub positions in Boston, Los Angeles, New York-LaGuardia, New York-JFK, and Seattle; and international network centered on hubs and market presence in Amsterdam, London-Heathrow, Mexico City, Paris-Charles de Gaulle, and Seoul-Incheon. The company sells its tickets through various distribution channels, including delta.com and the Fly Delta app, telephone reservations, online travel agencies, traditional brick and mortar, and other agencies. It also provides aircraft maintenance, repair, and overhaul services; and vacation packages to third-party consumers, as well as aircraft charters, and management and programs. The company operates through a fleet of approximately 1,000 aircraft. Delta Air Lines, Inc. was founded in 1924 and is based in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9454,6 +11187,11 @@
       <c r="F349" t="n">
         <v>55.436363</v>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Duke Realty Corporation owns and operates approximately 156 million rentable square feet of industrial assets in 20 major logistics markets. Duke Realty Corporation is publicly traded on the NYSE under the symbol DRE and is a member of the S&amp;P 500 Index.</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9480,6 +11218,11 @@
       <c r="F350" t="n">
         <v>7.4566207</v>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Fifth Third Bancorp operates as a diversified financial services company in the United States. The company's Commercial Banking segment offers credit intermediation, cash management, and financial services; lending and depository products; and cash management, foreign exchange and international trade finance, derivatives and capital markets services, asset-based lending, real estate finance, public finance, commercial leasing, and syndicated finance for business, government, and professional customers. Its Branch Banking segment provides a range of deposit and loan products to individuals and small businesses. This segment offers checking and savings accounts, home equity loans and lines of credit, credit cards, and loans for automobiles and personal financing needs, as well as cash management services for small businesses. The company's Consumer Lending segment engages in direct lending activities that include origination, retention, and servicing of residential mortgage and home equity loans or lines of credit; and indirect lending activities, including loans to consumers through correspondent lenders and automobile dealers. Fifth Third Bancorp's Wealth &amp; Asset Management segment provides various investment alternatives for individuals, companies, and not-for-profit organizations. It offers retail brokerage services to individual clients; and broker dealer services to the institutional marketplace. This segment also provides asset management services; wealth planning, investment management, banking, insurance, and trust and estate services; and advisory services for institutional clients comprising middle market businesses, non-profits, states, and municipalities. As of April 14, 2020, the company operated 1,149 full-service banking centers and 2,481 ATMs in Ohio, Kentucky, Indiana, Michigan, Illinois, Florida, Tennessee, West Virginia, Georgia, and North Carolina. Fifth Third Bancorp was founded in 1858 and is headquartered in Cincinnati, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9506,6 +11249,11 @@
       <c r="F351" t="n">
         <v>17.806202</v>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Alliant Energy Corporation operates as a utility holding company that provides regulated electricity and natural gas services in the Midwest region of the United States. It operates through three segments: Electric, Gas, and Other. The company, through its subsidiary, Interstate Power and Light Company (IPL), primarily generates and distributes electricity, and distributes and transports natural gas to retail customers in Iowa; sells electricity to wholesale customers in Minnesota, Illinois, and Iowa; and generates and distributes steam in Cedar Rapids, Iowa. Alliant Energy Corporation, through its other subsidiary, Wisconsin Power and Light Company (WPL), generates and distributes electricity, and distributes and transports natural gas to retail customers in Wisconsin; and sells electricity to wholesale customers in Wisconsin. As of December 31, 2018, IPL supplied electricity to 490,000 retail customers and natural gas to 225,000 retail customers; and WPL supplied electricity to 475,000 retail customers and natural gas to 190,000 retail customers. It offers electric utility services to retail customers in the farming, agriculture, industrial manufacturing, chemical, and packaging industries. In addition, the company holds investments in various businesses, which provide freight services through a short-line railway between Cedar Rapids and Iowa City, Iowa; a barge terminal and hauling services on the Mississippi River; and other transfer and storage services. Further, it owns a 347 megawatt (MW) natural gas-fired electric generating unit near Sheboygan Falls, Wisconsin; and a 225 MW wind farm located in Franklin County, Iowa. Alliant Energy Corporation was founded in 1917 and is headquartered in Madison, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9532,6 +11280,11 @@
       <c r="F352" t="n">
         <v>9.462599000000001</v>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Seagate Technology plc provides data storage technology and solutions in Singapore, the United States, the Netherlands, and internationally. The company manufactures and distributes hard disk drives; solid state drives (SSDs), including serial attached small computer system interface and non-volatile memory express SSDs; solid state hybrid drives; and storage subsystems. Its products are used in enterprise servers and storage systems; edge non-compute applications, such as various end user devices comprising portable external storage systems, surveillance systems, network-attached storages, digital video recorders, and gaming consoles; and edge compute applications primarily for desktop and mobile computing, as well as data centers. It also provides enterprise data solutions portfolio comprising storage subsystems for enterprises, cloud service providers, and scale-out storage servers and original equipment manufacturers (OEMs). In addition, the company offers external storage solutions under the Seagate Backup Plus and Expansion product lines, as well as under the LaCie and Maxtor brands in capacities up to 168TB. It sells its products primarily to OEMs, distributors, and retailers. The company was founded in 1979 and is headquartered in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9558,6 +11311,11 @@
       <c r="F353" t="n">
         <v>-12.88253</v>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Hess Corporation, an exploration and production company, explores, develops, produces, purchases, transports, and sells crude oil, natural gas liquids (NGLs), and natural gas. It operates through two segments, Exploration and Production, and Midstream. The company conducts production operations primarily in the United States, Denmark, the Malaysia/Thailand Joint Development Area, and Malaysia; and exploration activities primarily offshore Guyana, Suriname, Canada, and in the Gulf of Mexico. As of December 31, 2019, it had total proved reserves of 1,197 million barrels of oil equivalent. The company is also involved in the gathering, compressing, and processing of natural gas; fractionating NGLs; terminaling, loading, and transporting crude oil and NGLs through rail car; storing and terminaling propane, as well as providing water handling services primarily in the Bakken Shale plays in the Williston Basin area of North Dakota. The company was founded in 1920 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9584,6 +11342,11 @@
       <c r="F354" t="n">
         <v>28.332699</v>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>IDEX Corporation, together with its subsidiaries, operates as an applied solutions company worldwide. The company operates through three segments: Fluid &amp; Metering Technologies (FMT), Health &amp; Science Technologies (HST), and Fire &amp; Safety/Diversified Products (FSDP). The FMT segment designs, produces, and distributes positive displacement pumps, flow meters, injectors, and other fluid-handling pump modules and systems, as well as offers flow monitoring and other services for the food, chemical, general industrial, water and wastewater, agricultural, and energy industries. The HST segment designs, produces, and distributes precision fluidics, rotary lobe pumps, centrifugal and positive displacement pumps, roll compaction, and drying systems for use in beverage, food processing, pharmaceutical, and cosmetics; pneumatic components and sealing solutions, such as pumping solutions for analytical instrumentation, clinical diagnostics, and drug discovery; sealing components; custom mechanical and shaft seals; engineered hygienic mixers and valves; biocompatible medical devices and implantables; and air compressors. This segment also provides optical components and coatings for scientific research, defense, biotechnology, aerospace, telecommunications, and electronics manufacturing applications; laboratory and commercial equipment for the production of micro and nano scale materials; precision photonic solutions; and precision gear and peristaltic pump technologies. The FSDP segment designs, produces, and distributes firefighting pumps, valves, rescue tools, lifting bags, and other components and systems for the fire and rescue industry; engineered stainless steel banding and clamping devices for various industrial and commercial applications; and precision equipment for dispensing, metering, and mixing colorants and paints used in retail and commercial businesses. The company was incorporated in 1987 and is headquartered in Lake Forest, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9610,6 +11373,11 @@
       <c r="F355" t="n">
         <v>26.394983</v>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Extra Space Storage Inc., headquartered in Salt Lake City, Utah, is a self-administered and self-managed REIT and a member of the S&amp;P 500. As of December 31, 2019, the Company owned and/or operated 1,817 self-storage stores in 40 states, Washington, D.C. and Puerto Rico. The Company's stores comprise approximately 1.3 million units and approximately 140.0 million square feet of rentable space. The Company offers customers a wide selection of conveniently located and secure storage units across the country, including boat storage, RV storage and business storage. The Company is the second largest owner and/or operator of self-storage stores in the United States and is the largest self-storage management company in the United States.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9636,6 +11404,11 @@
       <c r="F356" t="n">
         <v>20.440329</v>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Cboe Global Markets, Inc., through its subsidiaries, operates as an options exchange in the United States. It operates in five segments: Options, U.S. Equities, Futures, European Equities, and Global FX. The Options segment trades in listed market indexes. The U.S. Equities segment trades in listed cash equities; and offers exchange-traded products (ETP) transaction and ETP listing services. The Futures segment trades in futures, bitcoins, and other products. The European Equities segment trades in pan-European listed equities transaction services, ETPs, exchange-traded commodities, and international depository receipts that occur on the recognized investment exchange. It also provides listed cash equities and ETPs routed transaction services, as well as listing services. The Global FX segment provides institutional foreign exchange (FX) and non-deliverable forward FX transactions services. Cboe Global Markets, Inc. has strategic relationships with S&amp;P Dow Jones Indices, LLC; FTSE International Limited; Frank Russell Company; MSCI Inc.; DJI Opco, LLC.; and Cboe Vest Financial Group, Inc. The company was formerly known as CBOE Holdings, Inc. and changed its name to Cboe Global Markets, Inc. in October 2017. Cboe Global Markets, Inc. was founded in 1973 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9662,6 +11435,11 @@
       <c r="F357" t="n">
         <v>457.08334</v>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Concho Resources Inc., an independent oil and natural gas company, engages in the acquisition, development, and exploration of oil and natural gas properties in the United States. The company's principal operating areas are located in the Permian Basin of West Texas and southeast New Mexico. As of December 31, 2019, its estimated proved reserves totaled 1.0 billion barrels of oil equivalent. The company was founded in 2006 and is headquartered in Midland, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9688,6 +11466,11 @@
       <c r="F358" t="n">
         <v>23.313068</v>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Boston Properties (NYSE: BXP) is the largest publicly-held developer and owner of Class A office properties in the United States, concentrated in five markets - Boston, Los Angeles, New York, San Francisco and Washington, DC. The Company is a fully integrated real estate company, organized as a real estate investment trust (REIT), that develops, manages, operates, acquires and owns a diverse portfolio of primarily Class A office space. The Company's portfolio totals 52.0 million square feet and 196 properties, including 11 properties under construction.</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9714,6 +11497,11 @@
       <c r="F359" t="n">
         <v>8.8920355</v>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Omnicom Group Inc., together with its subsidiaries, provides advertising, marketing, and corporate communications services. It provides a range of services in the areas of advertising, customer relationship management, public relations, and healthcare. The company's services include advertising, branding, content marketing, corporate social responsibility consulting, crisis communications, custom publishing, data analytics, database management, digital/direct marketing, digital transformation, entertainment marketing, experiential marketing, field marketing, financial/corporate business-to-business advertising, graphic arts/digital imaging, healthcare marketing and communications, and in-store design services. Its services also comprise interactive marketing, investor relations, marketing research, media planning and buying, merchandising and point of sale, mobile marketing, multi-cultural marketing, non-profit marketing, organizational communications, package design, product placement, promotional marketing, public affairs, public relations, retail marketing, sales support, search engine marketing, shopper marketing, social media marketing, and sports and event marketing services. It operates in the United States, Canada, Puerto Rico, South America, Mexico, Europe, the Middle East, Africa, Australia, Greater China, India, Japan, Korea, New Zealand, Singapore, and other Asian countries. The company is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9740,6 +11528,11 @@
       <c r="F360" t="n">
         <v>21.63947</v>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Varian Medical Systems, Inc. designs, manufactures, sells, and services medical devices and software products for treating cancer and other medical conditions worldwide. It operates in Oncology Systems and Proton Solutions segments. The Oncology Systems segment offers hardware and software products for treating cancer with radiotherapy, fixed field intensity-modulated radiation therapy, image-guided radiation therapy, volumetric modulated arc therapy, stereotactic radiosurgery, stereotactic body radiotherapy, and brachytherapy, as well as quality assurance equipment. Its products include linear accelerators, brachytherapy after loaders, treatment accessories, and quality assurance software; and information management, treatment planning, image processing, clinical knowledge exchange, patient care management, decision-making support, and practice management software. This segment serves university research and community hospitals, private and governmental institutions, healthcare agencies, physicians' offices, medical oncology practices, radiotherapy centers, and cancer care clinics. The Proton Solutions segment designs, develops, manufactures, sells, and services products and systems for delivering proton therapy for the treatment of cancer. The company has a strategic agreement with Siemens AG; and partnership agreement with Siemens AG, as well as with The National University Cancer Institute. Varian Medical Systems was formerly known as Varian Associates, Inc. and changed its name to Varian Medical Systems, Inc. in April 1999. The company was founded in 1948 and is headquartered in Palo Alto, California.</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9764,6 +11557,11 @@
         <v>11965742080</v>
       </c>
       <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Healthpeak Properties, Inc. is a fully integrated real estate investment trust (REIT) and S&amp;P 500 company. Healthpeak owns and develops high-quality real estate in the three private-pay healthcare asset classes of Life Science, Senior Housing and Medical Office, designed to provide stability through the inevitable industry cycles. At Healthpeak, we pair our deep understanding of the healthcare real estate market with a strong vision for long-term growth.</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9790,6 +11588,11 @@
       <c r="F362" t="n">
         <v>19.71572</v>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Xylem Inc. engages in the design, manufacture, and servicing of engineered products and solutions for the water and wastewater applications in the United States, Europe, the Asia Pacific, and internationally. It operates in three segments: Water Infrastructure, Applied Water, and Measurement &amp; Control Solutions. The Water Infrastructure segment offers various products, including water and wastewater pumps; controls and systems; filtration, disinfection, and biological treatment equipment; and mobile dewatering equipment under the Flygt, Godwin, Wedeco, Sanitaire, and Leopold names for the transportation and treatment of water. The Applied Water segment provides pumps, valves, heat exchangers, controls, and dispensing equipment systems under the Goulds Water Technology, Bell &amp; Gossett, A-C Fire Pump, Standard Xchange, Lowara, Jabsco, and Flojet brand names for residential and commercial building services, and industrial water applications. The Measurement &amp; Control Solutions segment provides smart metering, networked communications, and measurement and control technologies, as well as critical infrastructure technologies that allow customers to use their distribution networks for the delivery, monitoring, and control of critical resources, such as water, electricity, and natural gas. It also offers software and services, including cloud-based analytics, remote monitoring, data management, leak detection, and pressure monitoring solutions and testing equipment, as well as sells smart lighting solutions. This segment sells its products under the EmNet, Pure, Sensus, Smith Blair, Visenti, WTW, and YSI brand names. The company markets and sells its products through a network of direct sales force, resellers, distributors, and value-added solution providers. Xylem Inc. is headquartered in Rye Brook, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9816,6 +11619,11 @@
       <c r="F363" t="n">
         <v>158.63637</v>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>UDR, Inc. (NYSE: UDR), an S&amp;P 500 company, is a leading multifamily real estate investment trust with a demonstrated performance history of delivering superior and dependable returns by successfully managing, buying, selling, developing and redeveloping attractive real estate properties in targeted U.S. markets. As of December 31, 2019, UDR owned or had an ownership position in 51,294 apartment homes including 878 homes under development. For over 47 years, UDR has delivered long-term value to shareholders, the best standard of service to residents and the highest quality experience for associates.</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9842,6 +11650,11 @@
       <c r="F364" t="n">
         <v>12.724014</v>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Genuine Parts Company distributes automotive replacement parts, industrial parts and materials, and business products in the United States, Canada, Mexico, Australasia, France, the United Kingdom, Germany, Poland, the Netherlands, and Belgium. The company distributes automotive replacement parts for imported vehicles, hybrid and electric vehicles, trucks, SUVs, buses, motorcycles, recreational vehicles, farm vehicles, small engines, farm equipment, marine equipment, and heavy duty equipment; and accessory items for automotive aftermarket, such as repair shops, service stations, fleet operators, automobile and truck dealers, leasing companies, bus and truck lines, mass merchandisers, farms, industrial concerns, and individuals. It also distributes industrial replacement parts and related supplies, such as bearings, mechanical and electrical power transmission products, industrial automation and robotics, hoses, hydraulic and pneumatic components, industrial and safety supplies, and material handling products for original equipment manufacturer, as well as maintenance, repair, and operation customers in equipment and machinery, food and beverage, forest product, primary metal, pulp and paper, mining, automotive, oil and gas, petrochemical, pharmaceutical, power generation, alternative energy, governments, transportation, ports, and other industries. In addition, the company provides various services and repairs comprising gearbox and fluid power assembly repair, process pump assembly and repair, hydraulic drive shaft repair, electrical panel assembly and repair, hose and gasket manufacture and assembly, and other value-added services. Further, it distributes office furniture, technology products, general office and school supplies, cleaning, janitorial and breakroom supplies, safety and security items, healthcare products, and disposable food service products to resellers. The company was founded in 1928 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9868,6 +11681,11 @@
       <c r="F365" t="n">
         <v>17.037298</v>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Martin Marietta Materials, Inc., a natural resource-based building materials company, supplies aggregates and heavy building materials to the construction industry in the United States and internationally. It offers crushed stone, sand, and gravel products; ready mixed concrete and asphalt; paving products and services; Portland and specialty cement used in the infrastructure projects, and nonresidential and residential construction markets, as well as in the railroad, agricultural, utility, and environmental industries. The company also manufactures and markets magnesia-based chemical products for the industrial, agricultural, and environmental applications; and dolomitic lime primarily for customers in the steel and mining industries, as well as provides road paving construction services. Its chemical products are used in flame retardants, wastewater treatment, pulp and paper production, and other environmental applications. The company was founded in 1993 and is headquartered in Raleigh, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9894,6 +11712,11 @@
       <c r="F366" t="n">
         <v>20.25771</v>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>PerkinElmer, Inc. provides products, services, and solutions to the diagnostics, life sciences, and applied services markets worldwide. The company operates in two segments, Discovery &amp; Analytical Solutions and Diagnostics. The Discovery &amp; Analytical Solutions segment offers a suite of solutions, including reagents, informatics, and detection and imaging technologies that enable scientists to enhance research breakthroughs in the life sciences research market, as well as laboratory services. It also provides analytical technologies, solutions, and services for the environmental, food, and industrial markets that enable its customers to understand the characterization and health of various aspects, including air, water, and soil. In addition, this segment offers solutions to farmers and food producers; and analytical instrumentation for the industrial market, which includes the chemical, semiconductor and electronics, energy, lubricant, petrochemical, and polymer industries. The Diagnostics segment provides instruments, reagents, and software products for the early detection of genetic disorders, such as pregnancy and early childhood, as well as infectious disease testing in the diagnostics market. Its products are used for testing and screening genetic abnormalities, disorders, and diseases, including down syndrome, hypothyroidism, muscular dystrophym, infertility, and various metabolic conditions. This segment also develops technologies that enable and support genomic workflows using protein coupled receptor and next-generation DNA sequencing for applications in oncology and drug discovery. The company serves pharmaceutical and biotechnology companies, laboratories, academic and research institutions, public health authorities, private healthcare organizations, doctors, and government agencies. PerkinElmer, Inc. was founded in 1937 and is headquartered in Waltham, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9920,6 +11743,11 @@
       <c r="F367" t="n">
         <v>30.25</v>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Ventas, Inc., an S&amp;P 500 company, is a leading real estate investment trust. Its diverse portfolio of approximately 1,200 assets in the United States, Canada and the United Kingdom consists of senior housing communities, medical office buildings, university-based research and innovation centers, inpatient rehabilitation and long-term acute care facilities, and health systems. Through its Lillibridge subsidiary, Ventas provides management, leasing, marketing, facility development and advisory services to highly rated hospitals and health systems throughout the United States. References to Ventas or the Company mean Ventas, Inc. and its consolidated subsidiaries unless otherwise expressly noted.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9946,6 +11774,11 @@
       <c r="F368" t="n">
         <v>19.508108</v>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>C.H. Robinson Worldwide, Inc., a third party logistics company, provides freight transportation services and logistics solutions to companies in various industries worldwide. The company operates through North American Surface Transportation and Global Forwarding segments. It offers transportation and logistics services, such as truckload; less than truckload transportation, which include the shipment of single or multiple pallets of freight; intermodal transportation that include the shipment service of freight in trailers or containers by a combination of truck and rail; and non-vessel ocean common carrier or freight forwarding services, as well as organizes air shipments and offers door-to-door services. The company also provides custom broker services; and other logistics services, including fee-based managed, warehousing, small parcel, and other services. It has contractual relationships with approximately 78,000 transportation companies, including motor carriers, railroads, and air and ocean carriers. In addition, the company is involved in buying, selling, and marketing fresh produce, including fresh fruits, vegetables, and other perishable items under the Robinson Fresh name. Further, it provides transportation management services or managed TMS; and other surface transportation services across Europe. The company offers its fresh produce to grocery retailers, restaurants, produce wholesalers, and foodservice distributors through a network of independent produce growers and suppliers. C.H. Robinson Worldwide, Inc. was founded in 1905 and is headquartered in Eden Prairie, Minnesota.</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9967,9 +11800,14 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>9315375104</v>
+        <v>9303665664</v>
       </c>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Jacobs Engineering Group Inc. provides consulting, technical, scientific, and project delivery services for the government and private sectors in the United States, Canada, Europe, Asia, India, Australia, New Zealand, South America, Mexico, the Middle East, and Africa. The company operates through Critical Mission Solutions, and People &amp; Places Solutions segments. The Critical Mission Solutions segment provides cybersecurity, data analytics, software application development, enterprise and mission IT, systems integration, and other technical consulting solutions to government agencies, as well as various aerospace, automotive, and telecom customers. The People &amp; Places Solutions segment offers data analytics, artificial intelligence and automation, and software development solutions, as well as digitally-driven consulting, planning, architecture, and program management solutions. The company also offers engineering, design, and architectural services; construction services for wind-tunnel and water design-build projects; construction management services; and operations and maintenance services. Jacobs Engineering Group Inc. was founded in 1947 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9996,6 +11834,11 @@
       <c r="F370" t="n">
         <v>27.318518</v>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Gartner, Inc. operates as a research and advisory company. It operates through three segments: Research, Conferences, and Consulting. The Research segment offers objective insights and advice on the priorities of various leaders in a range of functional areas of the enterprise through reports, briefings, proprietary tools, access to research expert, peer networking services, and membership programs that enable clients to drive organizational performance; and research and analysis in various business functions, such as human resources, sales, legal, and finance. This segment delivers its research, primarily through a subscription service. The Conferences segment offers business professionals in an organization the opportunity to learn, share, and network various events. The Consulting segment offers market research, custom analysis, and on-the-ground support services. This segment also offers actionable solutions for IT-related priorities, including IT cost optimization, technology modernization, and IT sourcing optimization. The company has operations in the United States, Canada, Europe, the Middle East, Africa, and internationally. Gartner, Inc. was founded in 1979 and is headquartered in Stamford, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -10022,6 +11865,11 @@
       <c r="F371" t="n">
         <v>17.37549</v>
       </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>NVR, Inc. operates as a homebuilder in the United States. The company operates in two segments, Homebuilding and Mortgage Banking. It primarily constructs and sells single-family detached homes, townhomes, and condominium buildings under the Ryan Homes, NVHomes, and Heartland Homes names. The company markets its Ryan Homes products to first-time and first-time move-up buyers; and NVHomes and Heartland Homes products to move-up and luxury buyers. It also provides various mortgage related services to its homebuilding customers; brokers title insurance; and performs title searches in connection with mortgage loan closings. The company was founded in 1980 and is headquartered in Reston, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -10048,6 +11896,11 @@
       <c r="F372" t="n">
         <v>7.188406</v>
       </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>KeyCorp operates as the holding company for KeyBank National Association that provides various retail and commercial banking services in the United States. It operates in two segments, Consumer Bank and Commercial Bank. The company offers various deposits, investment products and services; and personal finance and financial wellness, student loan refinancing, mortgage and home equity, lending, credit card, treasury, business advisory, wealth management, asset management, cash management, portfolio management, and trust and related services to individuals and small and medium-sized businesses. It also provides a suite of banking and capital market products, such as syndicated finance, debt and equity capital market products, commercial payments, equipment finance, commercial mortgage banking, derivatives, foreign exchange, financial advisory, and public finance, as well as commercial mortgage loans comprising consumer, energy, healthcare, industrial, public sector, real estate, and technology loans for middle market clients. In addition, the company offers community development financing, securities underwriting, brokerage, and investment banking services, as well as purchases retail auto sales contracts through a network of auto dealership. As of December 31, 2019, it operated through 1,098 retail banking branches and 1,420 ATMs in 15 states, as well as additional offices, online and mobile banking capabilities, and a telephone banking call center. The company was founded in 1849 and is headquartered in Cleveland, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -10074,6 +11927,11 @@
       <c r="F373" t="n">
         <v>10.280098</v>
       </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>NetApp, Inc. provides software, systems, and services to manage and share data on-premises, and private and public clouds worldwide. The company offers cloud data services, including NetApp Cloud Volumes Service for AWS, NetApp Cloud Volumes ONTAP, NetApp Cloud Sync, NetApp Cloud Secure, NetApp Cloud Tiering, NetApp SaaS Backup, NetApp Kubernetes Service, and NetApp Cloud Insights. It also provides cloud infrastructure solutions, such as FlexPod, a portfolio of pre-validated designs and integration; NetApp HCI for public cloud consumption experience; and NetApp StorageGRID, a software-defined object-based storage solution. In addition, the company offers storage systems and software, including all-flash arrays that support data management; hybrid arrays to deploy the speed of flash storage; NetApp ONTAP storage operating system; NetApp ONTAP Select, which offers robust enterprise storage services; NetApp MAX Data; NetApp FlexArray storage virtualization software; NetApp OnCommand API Services; NetApp Active IQ software; NetApp data availability services; NetApp SnapCenter backup management software; NetApp SnapMirror data replication software; NetApp MetroCluster business continuity softwar; NetApp SnapLock data compliance software; NetApp SANtricity storage operating system; and NetApp Element operating system. Further, it provides software maintenance, hardware maintenance, and other services, including professional services, global support solutions, and customer education and training. It serves the energy, financial services, government, high technology, Internet, life sciences, healthcare services, manufacturing, media, entertainment, animation, video postproduction, and telecommunications through a direct sales force and an ecosystem of partners. NetApp, Inc. was founded in 1992 and is headquartered in Sunnyvale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -10100,6 +11958,11 @@
       <c r="F374" t="n">
         <v>11.612473</v>
       </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Wabtec Corporation provides technology-based equipment, systems, and services for the freight rail and passenger transit vehicle industries worldwide. It operates through two segments, Freight and Transit. The Freight segment manufactures and services components for new and existing freight cars and locomotives; builds new commuter locomotives; rebuilds freight locomotives; supplies railway electronics, positive train control equipment, signal design, and engineering services; and provides related heat exchange and cooling systems. It serves publicly traded railroads; leasing companies; manufacturers of original equipment, including locomotives and freight cars; and utilities. The Transit segment manufactures and services components for new and existing passenger transit vehicles, such as regional trains, high speed trains, subway cars, light-rail vehicles, and buses; refurbishes subway cars; and provides heating, ventilation, and air conditioning equipment, as well as doors for buses and subways. It serves public transit authorities and municipalities, leasing companies, and manufacturers of subway cars and buses. The company also provides electronically controlled pneumatic braking products; railway electronics; freight car trucks and couplers; draft gears, couplers, and slack adjusters; air compressors and dryers; heat exchangers and cooling products; and track and switch products. In addition, it offers railway braking equipment and related components; friction products; and new commuter and switcher locomotives, and transit car and locomotive overhaul and refurbishment. Further, the company provides doors for buses and subway cars; platform screen doors; pantographs; window assemblies; couplers; accessibility lifts and ramps for buses and subway cars; and traction motors. Wabtec Corporation was founded in 1869 and is headquartered in Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -10124,6 +11987,11 @@
         <v>10704064512</v>
       </c>
       <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>ViacomCBS Inc., a media and entertainment, creates content and experiences for audiences worldwide. The company operates in four segments: Entertainment, Cable Networks, Publishing, and Local Media. The Entertainment segment distributes a schedule of news and public affairs broadcasts, and sports and entertainment programming; produces, acquires, and/or distributes programming, including series, specials, news, and public affairs; operates online content networks for information and entertainment; produces theatrical films; and digital streaming services. This segment also operates CBS Sports Network, a 24-hour cable program service that provides college sports and related content. The Cable Networks segment offers subscription program services, such as original series, theatrical feature films, documentaries, boxing and other sports-related programming, and special events, as well as a direct-to-consumer digital streaming subscription. This segment also operates Smithsonian Networks, which operates a channel featuring cultural, historical, scientific, and educational programs. The Publishing segment publishes and distributes adult and children's consumer books in printed, digital, and audio formats; develops special imprints and publishes titles based on the products of the company, as well as that of third parties; and distributes products for other publishers. This segment also delivers content; and promotes its products on its Websites, social media, and general Internet sites, as well as those related to individual titles. The Local Media segment owns 29 broadcast television stations; and operates local Websites, including content from its television stations. The company was formerly known as CBS Corporation and changed its name to ViacomCBS Inc. in December 2019. ViacomCBS Inc. was founded in 1986 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -10150,6 +12018,11 @@
       <c r="F376" t="n">
         <v>5.69</v>
       </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Synchrony Financial operates as a consumer financial services company in the United States. It delivers a range of specialized financing programs and consumer banking products to digital, retail, home, auto, travel, health, and pet industries. The company also offers private label credit cards, dual cards, general purpose co-branded credit cards, and small and medium-sized business credit products; and promotional financing for consumer purchases, such as private label credit cards and installment loans. In addition, it provides promotional financing to consumers for health, veterinary and personal care procedures, and services and products, such as dental, vision, audiology, and cosmetic; debt cancellation products; and deposit products, including certificates of deposit, individual retirement accounts, money market accounts, and savings accounts to retail and commercial customers, as well as accepts deposits through third-party securities brokerage firms. The company offers its credit products through programs established with a group of national and regional retailers, local merchants, manufacturers, buying groups, industry associations, and healthcare service providers; and deposit products through various channels, such as digital and print. Synchrony Financial was incorporated in 2003 and is headquartered in Stamford, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -10176,6 +12049,11 @@
       <c r="F377" t="n">
         <v>17.572369</v>
       </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Ingersoll Rand Inc. provides mission-critical flow control and compression equipment, and associated aftermarket parts, consumables, and services in the United States, Europe, the Middle East, Africa, and the Asia Pacific. It operates through three segments: Industrials, Energy, and Medical. The Industrials segment designs, manufactures, markets, and services a range of air compression, vacuum, and blower products, as well as offers associated aftermarket parts, consumables, and services. Its products are used in process-critical applications, such as the operation of industrial air tools, vacuum packaging of food products, aeration of waste water, and others. This segment sells its products through an integrated network of direct sales representatives and independent distributors under the Gardner Denver, CompAir, Elmo Rietschle, Robuschi, and other brand names. The Energy segment designs, manufactures, markets, and services a range of displacement and liquid ring vacuum pumps, compressors and integrated systems, and engineered fluid loading and transfer equipment, as well as offers associated aftermarket parts, consumables, and services under the Gardner Denver, Nash, Emco Wheaton, and other brands. This segment serves customers in upstream, midstream, and downstream energy markets, as well as petrochemical processing, transportation, and general industrial sectors. The Medical segment designs, manufactures, and markets a range of specialized gas, liquid, and precision syringe pumps and compressors under the Thomas and other brands for use in oxygen therapy, blood dialysis, patient monitoring, laboratory sterilization and wound treatment, and other applications. The company was formerly known as Gardner Denver Holdings, Inc. and changed its name to Ingersoll Rand Inc. in March 2020. Ingersoll Rand Inc. was founded in 1859 and is based in Davidson, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -10202,6 +12080,11 @@
       <c r="F378" t="n">
         <v>8.440132</v>
       </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Celanese Corporation, a technology and specialty materials company, manufactures and sells high performance engineered polymers in the United States and internationally. The company operates through Engineered Materials, Acetate Tow, and Acetyl Chain segments. The Engineered Materials segment develops, produces, and supplies specialty polymers for automotive and medical applications, as well as for use in industrial products and consumer electronics. It also offers acesulfame potassium, a sweetener for use in various beverages, confections, and dairy products; and food protection ingredients, such as potassium sorbate and sorbic acid for use in foods, beverages, and personal care products. The Acetate Tow segment provides acetate tows and flakes for use in filter products applications. The Acetyl Chain segment produces and supplies acetyl products, including acetic acid, vinyl acetate monomers, acetic anhydride, and acetate esters that are used as starting materials for colorants, paints, adhesives, coatings, and pharmaceuticals; and organic solvents and intermediates for pharmaceutical, agricultural, and chemical products. It also offers vinyl acetate-based emulsions for use in paints and coatings, adhesives, construction, glass fiber, textiles, and paper applications; and ethylene vinyl acetate resins and compounds, as well as low-density polyethylene for use in flexible packaging films, lamination film products, hot melt adhesives, automotive parts, and carpeting applications. Celanese Corporation was founded in 1918 and is headquartered in Irving, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -10228,6 +12111,11 @@
       <c r="F379" t="n">
         <v>19.053957</v>
       </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Campbell Soup Company, together with its subsidiaries, manufactures and markets food and beverage products. It operates through Meals &amp; Beverages and Snacks segments. The Meals &amp; Beverages segment engages in the retail and foodservice businesses in the United States and Canada. This segment provides condensed and ready-to-serve soups; Swanson broth and stocks; Pacific Foods broth, soups, non-dairy beverages, and other simple meals; Prego pasta sauces; Pace Mexican sauces; Campbell's gravies, pasta, beans, and dinner sauces; Swanson canned poultry; Plum baby food and snacks; V8 juices and beverages; and Campbell's tomato juice. The segment also offers simple meals and shelf-stable beverages in Latin America. The Snacks segment retails Pepperidge Farm cookies, crackers, fresh bakery, and frozen products in the United States; Milano cookies and Goldfish crackers; and Snyder's of Hanover pretzels, Lance sandwich crackers, Cape Cod and Kettle Brand potato chips, Late July snacks, Snack Factory Pretzel Crisps, Pop Secret popcorn, Emerald nuts, and other snacking products in the United States and Canada. The segment also engages in the chips business in Europe. The company sells its products through retail food chains, mass discounters, mass merchandisers, club stores, convenience stores, drug stores, and dollar stores, as well as e-commerce and other retail, commercial, and non-commercial establishments; and independent contractor distributors. Campbell Soup Company was founded in 1869 and is headquartered in Camden, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -10252,6 +12140,11 @@
         <v>14454439936</v>
       </c>
       <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Baker Hughes Company provides a portfolio of technologies and services worldwide. The company operates through four segments: Oilfield Services (OFS), Oilfield Equipment (OFE), Turbomachinery &amp; Process Solutions (TPS), and Digital Solutions (DS). The OFS segment offers drilling, wireline, evaluation, completion, production, and intervention services; and drilling and completions fluids, completions tools and systems, wellbore intervention tools and services, artificial lift systems, pressure pumping systems, and oilfield and industrial chemicals for oil and natural gas, and oilfield service companies. The OFE segment designs and manufactures products and services, including pressure control equipment and services, subsea production systems and services, drilling equipment, and flexible pipeline systems; and onshore and offshore drilling and production systems, and equipment for floating production platforms, as well as provides services related to onshore and offshore drilling activities. The TPS segment provides equipment and related services for mechanical-drive, compression, and power-generation applications across the oil and gas industry. Its product portfolio includes drivers, compressors, and turnkey solutions; and pumps, valves, and compressed natural gas and small-scale liquefied natural gas solutions. This segment serves upstream, midstream, onshore and offshore, and industrial, as well as engineering, procurement, and construction companies. The DS segment provides sensor-based measurement, non-destructive testing and inspection, turbine, generator and plant controls, and condition monitoring, as well as pipeline integrity solutions for a range of industries, including oil and gas, power generation, aerospace, metals, and transportation. It serves through direct and indirect channels. The company was formerly known as Baker Hughes, a GE company and changed its name to Baker Hughes Company in October 2019. Baker Hughes Company is based in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -10278,6 +12171,11 @@
       <c r="F381" t="n">
         <v>6.3819437</v>
       </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>CenturyLink, Inc., a facilities-based communications company, provides various integrated services under CenturyLink' name to business and residential customers in the United States and internationally. The company operates through five segments: International and Global Accounts Management, Enterprise, Small and Medium Business, Wholesale, and Consumer. It offers IP and data services, including VPN data network, Ethernet, internet protocol (IP), and content delivery services. CenturyLink, Inc. also offers transport and infrastructure services comprising high bandwidth optical networks; unlit optical fiber networks, and related professional and management services; private line services, a direct circuit or channel specifically dedicated for connecting two or more organizational sites; colocation and data center services; and consulting services, which include network management, installation and maintenance of data equipment, and building of proprietary fiber-optic broadband networks for government and business customers. In addition, the company provides voice and collaboration services, including primary rate interface service, local inbound service, switched one-plus, toll free, long distance, and international services; and voice over internet protocol services, as well as satellite television services under DIRECTV name. Further, it offers IT and managed service that include network, hosting, public and private cloud, and other IT services, as well as intuitive management tools. Additionally, the company is involved in leasing and subleasing of space. As of December 31, 2019, it served approximately 4.7 million broadband subscribers. CenturyLink, Inc. was founded in 1968 and is headquartered in Monroe, Louisiana.</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -10304,6 +12202,11 @@
       <c r="F382" t="n">
         <v>21.121897</v>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Allegion plc manufactures and sells mechanical and electronic security products and solutions worldwide. The company offers door closers and controls; doors and door systems; electronic security products; electronic, biometric and mobile access control systems; exit devices; locks, locksets, portable locks, and key systems; time, attendance, and workforce productivity systems; and other accessories. The company sells its products and solutions to end-users in commercial, institutional, and residential facilities, including education, healthcare, government, hospitality, commercial office, and single and multi-family residential markets under the CISA, Interflex, LCN, Schlage, SimonsVoss, and Von Duprin brands. It sells its products and solutions through distribution and retail channels, such as specialty distribution, e-commerce, and wholesalers, as well as through various retail channels comprising do-it-yourself home improvement centers, on-line and e-commerce platforms, and small specialty showroom outlets. Allegion plc was incorporated in 2013 and is headquartered in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10330,6 +12233,11 @@
       <c r="F383" t="n">
         <v>7.593496</v>
       </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Regions Financial Corporation, a financial holding company, provides banking and bank-related services to individual and corporate customers. It operates through three segments: Corporate Bank, Consumer Bank, and Wealth Management. The Corporate Bank segment offers commercial banking services, such as commercial and industrial, commercial real estate, and investor real estate lending; equipment lease financing; deposit products; and securities underwriting and placement, loan syndication and placement, foreign exchange, derivatives, merger and acquisition, and other advisory services. It serves corporate, middle market, and commercial real estate developers and investors. The Consumer Bank segment provides consumer banking products and services related to residential first mortgages, home equity lines and loans, branch small business and indirect loans, consumer credit cards, and other consumer loans, as well as deposits. The Wealth Management segment offers credit related products, and retirement and savings solutions; and trust and investment management, asset management, and estate planning services to individuals, businesses, governmental institutions, and non-profit entities. The company also provides investment and insurance products; low income housing tax credit corporate fund syndication services; and other specialty financing services. As of March 18, 2020, it operated 1,400 banking offices and 2,000 automated teller machines across the South, Midwest and Texas. Regions Financial Corporation was founded in 1970 and is headquartered in Birmingham, Alabama.</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10356,6 +12264,11 @@
       <c r="F384" t="n">
         <v>15.441088</v>
       </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Avery Dennison Corporation produces and sells pressure-sensitive materials worldwide. The company's Label and Graphic Materials segment offers pressure-sensitive label and packaging materials; and graphics and reflective products under the Fasson, JAC, Avery Dennison, and Mactac brands, as well as durable cast and reflective films. It provides its products to the home and personal care, beer and beverage, durables, pharmaceutical, wine and spirits, and food market segments; architectural, commercial sign, digital printing, and other related market segments; construction, automotive, and fleet transportation market segments, as well as traffic and safety applications; and sign shops, commercial printers, and designers. The company's Retail Branding and Information Solutions segment designs, manufactures, and sells brand embellishments, graphic tickets, tags and labels, and sustainable packaging solutions, as well as offers creative services; item-level radio-frequency identification solutions; visibility and loss prevention solutions; price ticketing and marking solutions; care, content, and country of origin compliance solutions; and brand protection and security solutions. It serves retailers, brand owners, apparel manufacturers, distributors, and industrial customers. The company's Industrial and Healthcare Materials segment offers tapes; pressure-sensitive adhesive based materials and converted products; medical fasteners; and performance polymers under the Fasson, Avery Dennison, and Yongle brands. It serves automotive, electronics, building and construction, general industrial, personal care, and medical markets. The company was formerly known as Avery International Corporation and changed its name to Avery Dennison Corporation in 1990. Avery Dennison Corporation was founded in 1935 and is headquartered in Glendale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10382,6 +12295,11 @@
       <c r="F385" t="n">
         <v>10.6929455</v>
       </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Fox Corporation operates as a news, sports, and entertainment company in the United States. The company operates through Cable Network Programming; Television; and Other, Corporate and Eliminations segments. The Cable Network Programming segment produces and licenses news, business news, and sports content for distribution primarily through cable television systems, direct broadcast satellite operators, telecommunications companies, and online multi-channel video programming distributors. It operates FOX News, a national cable news channel; FOX Business, a business news national cable channel; FS1 and FS2 multi-sport national networks; FOX Sports Racing, a video programming service that comprise motor sports programming; and FOX Soccer Plus video programming network for live soccer and rugby competitions; FOX Deportes, a Spanish-language sports programming service; and Big Ten Network, a national video programming service. The Television segment acquires, produces, markets, and distributes broadcast network programming. It operates The FOX Network, a national television broadcast network that broadcasts sports programming and entertainment. This segment owns and operates 28 broadcast television stations. The Other, Corporate and Eliminations segment owns the FOX Studios lot that provides production services, including 15 sound stages, 4 scoring and mixing stages, 2 broadcast studios, theaters and screening rooms, editing bays, and other production facilities in Los Angeles, California. The company was incorporated in 2018 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10408,6 +12326,11 @@
       <c r="F386" t="n">
         <v>15.458167</v>
       </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>E*TRADE Financial Corporation, a financial services company, provides brokerage, and related products and services for traders, investors, registered investment advisors (RIAs), and stock plan administrators and participants. It offers investor-focused banking products, including sweep deposit accounts; automated trade order placement and execution services; clearing and settlement services; and insurance on qualifying amounts of customer deposits, and other banking and cash management services. The company also provides custody solutions to RIAs; software and services for managing equity compensation plans, student loans, and financial wellness solutions to corporate clients; retail futures transaction services; and investment advisory services. It provides its services through digital platforms; and a network of industry-licensed customer service representatives and financial consultants through phone, email, and online at two national financial centers, as well as in-person at 30 regional financial centers in the United States. E*TRADE Financial Corporation has a strategic alliance with Empower Retirement to deliver an integrated stock plan and retirement benefits experience. The company was founded in 1982 and is headquartered in Arlington, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10434,6 +12357,11 @@
       <c r="F387" t="n">
         <v>11.494643</v>
       </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Expedia Group, Inc. operates as an online travel company worldwide. It operates through four segments: Core Online Travel Agencies, Trivago, Vrbo, and Egencia. Its brand portfolio include Brand Expedia, a full-service online travel brand with localized websites; Hotels.com for marketing and distributing lodging accommodations; Vrbo, an online marketplace for the alternative accommodations; Expedia Partner Solutions, a business-to-business brand that provides travel offerings for various airlines and hotels, online and offline travel agencies, loyalty and corporate travel companies, and various consumer brands; and Egencia, which provides corporate travel management services. The company's brand portfolio also comprise Orbitz, Travelocity, and CheapTickets travel Websites; ebookers, a full-service travel brand; Hotwire, an online travel Website; Expedia Group Media Solutions that provides media partnerships and digital marketing solutions; trivago, an online hotel metasearch platform; and Expedia Local Expert, a provider of online and in-market concierge services, activities, experiences, and ground transportation. In addition, its brand portfolio consists of CarRentals.com, an online car rental booking service; Classic Vacations, a luxury travel specialist; Expedia CruiseShipCenters, a provider of advice for travelers booking cruises and vacations; and SilverRail, a provider of a rail retail and distribution platform connecting rail carriers and suppliers to online and offline travel distributors. Further, the company provides online travel services through its Wotif.com, lastminute.com.au, travel.com.au, Wotif.co.nz, and lastminute.co.nz brands; loyalty programs; and advertising and media services. It serves leisure and corporate travelers. The company was formerly known as Expedia, Inc. and changed its name to Expedia Group, Inc. in March 2018. Expedia Group, Inc. was founded in 1996 and is headquartered in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10460,6 +12388,11 @@
       <c r="F388" t="n">
         <v>18.194931</v>
       </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Packaging Corporation of America manufactures and sells containerboard and corrugated packaging products in the United States. The company operates through Packaging and Paper segments. The Packaging segment offers various containerboard and corrugated packaging products, such as conventional shipping containers used to protect and transport manufactured goods; multi-color boxes and displays that help to merchandise the packaged product in retail locations; and honeycomb protective packaging products, as well as packaging for meat, fresh fruit and vegetables, processed food, beverages, and other industrial and consumer products. This segment sells its corrugated products through a direct sales and marketing organization, independent brokers, and distribution partners. The Paper segment manufactures and sells commodity and specialty papers, as well as communication-based papers, such as cut-size office papers, and printing and converting papers. This segment sells white papers through its sales and marketing organization. Packaging Corporation of America was founded in 1867 and is headquartered in Lake Forest, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10486,6 +12419,11 @@
       <c r="F389" t="n">
         <v>7.14539</v>
       </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Citizens Financial Group, Inc. operates as the bank holding company for Citizens Bank, National Association that provides retail and commercial banking products and services in the United States. The company operates in two segments, Consumer Banking and Commercial Banking. The Consumer Banking segment offers traditional banking products and services, including checking and savings accounts, home and education loans, credit cards, business loans, mortgage and home equity lending, and unsecured product finance and personal loans, as well as wealth management and investment services to retail customers and small businesses. This segment also provides indirect auto finance for new and used vehicles through auto dealerships. The Commercial Banking segment offers various financial products and solutions, such as loans and leasing, trade finance, deposit and treasury management, cash management, and foreign exchange and interest rate risk management solutions; and loan syndications, corporate finance, merger and acquisition, and debt and equity capital markets capabilities. It serves government banking, not-for-profit, healthcare, technology, professionals, oil and gas, asset finance, franchise finance, asset-based lending, commercial real estate, private equity, and sponsor finance industries. Citizens Financial Group, Inc. operates approximately 2,700 ATMs and 1,100 branches in 11 states in the New England, Mid-Atlantic, and Midwest regions, as well as through online, telephone, and mobile banking services; and maintains approximately 135 retail and commercial non-branch offices. The company was formerly known as RBS Citizens Financial Group, Inc. and changed its name to Citizens Financial Group, Inc. in April 2014. Citizens Financial Group, Inc. was founded in 1828 and is headquartered in Providence, Rhode Island.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10512,6 +12450,11 @@
       <c r="F390" t="n">
         <v>12.613139</v>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>CenterPoint Energy, Inc. operates as a public utility holding company in the United States. The company's Houston Electric T&amp;D segment electric transmission and distribution services to electric utility. It owns 236 substation sites with a total installed rated transformer capacity of 68,053 megavolt amperes. Its Indiana Electric Integrated segment provides energy delivery services to electric customers and electric generation assets to electric customers and wholesale markets. The company's Natural Gas Distribution segment sells regulated intrastate natural gas; provides natural gas transportation and storage services for residential, commercial, industrial, and transportation customers; and offers unregulated services comprising home appliance maintenance and repair services. This segment owns approximately 98,000 linear miles of natural gas distribution mains. Its Energy Services segment provides physical natural gas supplies primarily to commercial and industrial customers, and electric and natural gas utilities; natural gas management services; and physical delivery services, as well as procures and optimizes transportation and storage assets. It owns and operates 210 miles of intrastate pipeline in Louisiana and Texas; and leases transportation capacity on various interstate and intrastate pipelines, and storage. The company's Infrastructure Services segment offers underground pipeline construction and repair services. Its Midstream Investment segment offers natural gas and crude oil gathering, and natural gas processing services to its producer customers; and interstate and intrastate natural gas pipeline transportation and storage services to its producer, power plant, local distribution company, and industrial end-user customers. As of March 2, 2020, it served approximately 7 million electric and natural gas metered customers. CenterPoint Energy, Inc. was founded in 1866 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10538,6 +12481,11 @@
       <c r="F391" t="n">
         <v>5.9504423</v>
       </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Principal Financial Group, Inc. provides retirement, asset management, and insurance products and services to businesses, individuals, and institutional clients worldwide. The company operates through Retirement and Income Solutions, Principal Global Investors, Principal International, and U.S. Insurance Solutions segments. The Retirement and Income Solutions segment provides a portfolio of asset accumulation products and services for retirement savings and income. It offers products and services for defined contribution plans, including 401(k) and 403(b) plans, defined benefit pension plans, nonqualified executive benefit plans, employee stock ownership plans, and pension risk transfer services; individual retirement accounts and payroll deduction plans; investment only products; and mutual funds, individual annuities, and bank products. The Principal Global Investors segment provides equity, fixed income, real estate, and other alternative investments, as well as asset allocation, stable value management, and other structured investment strategies. The Principal International segment offers pension accumulation and income annuity products, mutual funds, asset management, and life insurance accumulation products, as well as voluntary savings plans in Brazil, Chile, Mexico, China, Hong Kong Special Administrative Region, India, and Southeast Asia. The U.S. Insurance Solutions segment provides specialty benefits, such as group dental and vision insurance, group life insurance, and group and individual disability insurance, as well as administers group dental, disability, and vision benefits; and individual life insurance products comprising universal, variable universal, indexed universal, and term life insurance products in the United States. It also offers insurance solutions for small and medium-sized businesses and their owners, as well as executives. Principal Financial Group, Inc. was founded in 1879 and is based in Des Moines, Iowa.</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10564,6 +12512,11 @@
       <c r="F392" t="n">
         <v>-30.151514</v>
       </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Halliburton Company provides a range of services and products to oil and natural gas companies worldwide. The company's Completion and Production segment offers production enhancement services, including stimulation and sand control services; and cementing services, such as well bonding and casing, as well as provides casing equipment. It also provides completion tools that offer downhole solutions and services, including well completion products and services, intelligent well completions, liner hanger and sand control systems, and service tools; production solutions comprising coiled tubing, hydraulic workover units, and downhole tools; and pipeline and process services, such as pre-commissioning, commissioning, maintenance, and decommissioning. In addition, this segment offers oilfield completion, production, and downstream water and process treatment chemicals and services; and electrical submersible pumps, as well as artificial lift services. The company's Drilling and Evaluation segment provides drilling fluid systems, performance additives, completion fluids, solids control, specialized testing equipment, and waste management services; and drilling systems and services. It also offers wireline and perforating services, including open-hole logging, and cased-hole and slickline; and drill bits and services comprising roller cone rock bits, fixed cutter bits, hole enlargement, and related downhole tools and services, as well as coring equipment and services. In addition, this segment provides integrated exploration, drilling, and production software, as well as related professional and data management services; testing and subsea services, such as acquisition and analysis of reservoir information and optimization solutions; and project management and integrated asset management services. Halliburton Company was founded in 1919 and is based in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10590,6 +12543,11 @@
       <c r="F393" t="n">
         <v>13.97786</v>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>DENTSPLY SIRONA Inc. designs, develops, manufactures, and markets various dental products and technologies, and other consumable dental products and equipment primarily for the professional dental market worldwide. The company operates in two segments, Technologies &amp; Equipment; and Consumables. Its dental supplies include endodontic instruments and materials, dental anesthetics, prophylaxis pastes, dental sealants, impression materials, restorative materials, tooth whiteners, and topical fluoride products; and small equipment products comprise dental hand pieces, intraoral curing light systems, dental diagnostic systems, and ultrasonic scalers and polishers. The company also offers dental laboratory products, such as dental prosthetics that include artificial teeth, precious metal dental alloys, dental ceramics, and crown and bridge materials; and laboratory-based CAD/CAM milling systems, amalgamators, mixing machines, and porcelain furnaces. In addition, it provides dental technology products, including dental implants and related scanning equipment, treatment software, and orthodontic appliances for dental practitioners and specialist; and dental equipment, such as treatment centers, imaging equipment, and computer aided design and machining systems for dental practitioners. Further, the company offers healthcare consumable products, such as urology catheters, medical drills, and other non-medical products. It markets and sells dental products through distributors, dealers, and importers to dentists; dental hygienists, assistants, laboratories, and schools; and urology products directly to patients, as well as through distributors to urologists, urology nurses, general practitioners, and direct-to-patients. The company was formerly known as DENTSPLY International Inc. and changed its name to DENTSPLY SIRONA Inc. in February 2016. DENTSPLY SIRONA Inc. was founded in 1899 and is headquartered in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10616,6 +12574,11 @@
       <c r="F394" t="n">
         <v>18.141544</v>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>J.B. Hunt Transport Services, Inc., together with its subsidiaries, provides surface transportation and delivery services in the continental United States, Canada, and Mexico. It operates in four segments: Intermodal (JBI), Dedicated Contract Services (DCS), Integrated Capacity Solutions (ICS), and Truckload (JBT). The JBI segment offers intermodal freight solutions, including origin and destination pickup, and delivery services. It operates 96,743 pieces of company-owned trailing equipment; owns and maintains its own chassis fleet of 82,731 units; and manages a fleet of 4,989 company-owned tractors, 570 independent contractor trucks, and 6,376 company drivers. The DCS segment designs, develops, and executes supply-chain solutions that support various transportation networks. As of December 31, 2019, it operated 10,542 company-owned trucks, 505 customer-owned trucks, and 40 independent contractor trucks, as well as 20,860 owned pieces of trailing equipment and 7,258 customer-owned trailers. The ICS segment offers traditional freight brokerage and transportation logistics solutions; and flatbed, refrigerated, expedited, and less-than-truckload solutions, as well as various dry-van and intermodal solutions. It also provides an online multimodal marketplace; and single-source logistics management for customers that desire to outsource their transportation functions. This segment operates 37 remote sales offices or branches. The JBT segment offers full-load and dry-van freight services by utilizing tractors operating over roads and highways. As of December 31, 2019, it operated 845 company-owned tractors. The company also transports or arranges for the transportation of freight, including general merchandise, specialty consumer items, appliances, forest and paper products, food and beverages, building materials, soaps and cosmetics, automotive parts, agricultural products, electronics, and chemicals. J.B. Hunt Transport Services, Inc. was incorporated in 1961 and is headquartered in Lowell, Arkansas.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10642,6 +12605,11 @@
       <c r="F395" t="n">
         <v>37.60612</v>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Abiomed, Inc. engages in the research, development, and sale of medical devices to assist or replace the pumping function of the failing heart. It also provides continuum of care to heart failure patients. The company offers Impella 2.5 catheter, a percutaneous micro heart pump with integrated motor and sensors for use in interventional cardiology; and Impella CP, a device used by interventional cardiologists to support patients in the cath lab and cardiac surgeons in the heart surgery suite. It also provides Impella 5.0 and Impella LD, which are percutaneous micro heart pumps with integrated motors and sensors for use primarily in the heart surgery suite; and Impella RP, a percutaneous catheter-based axial flow pump. In addition, the company engages in the development of Impella 5.5 and Impella BTR that are percutaneous micro heart pumps with integrated motors and sensors; and Impella ECP pump that is designed for blood flow of greater than three liters per minute. It sells its products through direct sales and clinical support personnel in the United States, Canada, Europe, and Asia. The company was founded in 1981 and is headquartered in Danvers, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10668,6 +12636,11 @@
       <c r="F396" t="n">
         <v>15.838029</v>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>NiSource Inc., an energy holding company, operates as a regulated natural gas and electric utility company in the United States. The company operates in two segments, Gas Distribution Operations and Electric Operations. It provides natural gas service and transportation for residential, commercial, and industrial customers; generates, transmits, and distributes electricity; and wholesale and transmission transaction services. The company owns and operates 2 coal-fired electric generating stations with a capacity of 2,080 megawatts (MW); combined cycle gas turbine with a capacity of 571 MW; 3 gas-fired generating units with a capacity of 186 MW; and 2 hydroelectric generating plants with a capacity of 16 MW. It serves approximately 3.5 million natural gas customers in Ohio, Pennsylvania, Virginia, Kentucky, Maryland, Indiana, and Massachusetts; and 472,000 electricity customers in the northern part of Indiana. The company was formerly known as NIPSCO Industries, Inc. and changed its name to NiSource Inc. in April 1999. NiSource Inc. was founded in 1912 and is headquartered in Merrillville, Indiana.</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10694,6 +12667,11 @@
       <c r="F397" t="n">
         <v>11.193799</v>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>SVB Financial Group, a diversified financial services company, provides various banking and financial products and services. The company operates through four segments: Global Commercial Bank, SVB Private Bank, SVB Capital, and SVB Leerink. The Global Commercial Bank segment offers deposit products, such as business and analysis checking, money market, multi-currency, in-country bank, and sweep accounts, as well as merchant, remote capture, lockbox, electronic deposit capture, and fraud control services; credit products and services comprising term loans, equipment loans, asset-based loans, revolving lines of credit, accounts-receivable-based lines of credit, capital call lines of credit, and credit cards; and payment and cash management products and services, including wire transfer and automated clearing house payment, bill pay, debit and credit cards, account analysis, and disbursement, as well as online and mobile banking services. This segment also provides foreign exchange services; export, import, and standby letter of credit; investment services and solutions; investment advisory services; vineyard development loans; and debt fund investment services. The SVB Private Bank segment offers private banking services, such as mortgages, home equity and capital call lines of credit, restricted stock purchase loans, and other secured and unsecured lending products, as well as cash and wealth management services. The SVB Capital segment provides venture capital investment services that manage funds on behalf of third party limited partner investors. The SVB Leerink segment engages in equity and convertible capital markets, mergers and acquisitions, equity research and sales, trading, and investment banking services. It operates through 30 offices in the United States; and offices in Canada, the United Kingdom, Israel, Germany, Denmark, India, Hong Kong, and China. SVB Financial Group was founded in 1983 and is headquartered in Santa Clara, California.</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10720,6 +12698,11 @@
       <c r="F398" t="n">
         <v>14.183841</v>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Advance Auto Parts, Inc. provides automotive replacement parts, accessories, batteries, and maintenance items for domestic and imported cars, vans, sport utility vehicles, and light and heavy duty trucks. The company offers battery accessories; belts and hoses; brakes and brake pads; chassis and climate control parts; clutches and drive shafts; engines and engine parts; exhaust systems and parts; hub assemblies; ignition components and wires; radiators and cooling parts; starters and alternators; and steering and alignment parts. It also offers air conditioning chemicals and accessories; air fresheners; antifreeze and washer fluids; electrical wires and fuses; electronics; floor mats, seat covers, and interior accessories; hand and specialty tools; lighting products; performance parts; sealants, adhesives and compounds; tire repair accessories; vent shades, mirrors and exterior accessories; washes, waxes and cleaning supplies; and wiper blades. In addition, the company offers air filters; fuel and oil additives; fuel filters; grease and lubricants; motor oils; oil filters, part cleaners and treatments; and transmission fluids for engine maintenance. Further, it offers battery and wiper installation; engine light scanning checking; electrical system testing; video clinic; oil and battery recycling; and loaner tool program services. Additionally, the company sells its products through its Website. It serves professional installers and do-it-yourself customers. Advance Auto Parts, Inc. operates its stores under the Advance Auto Parts, Autopart International, Carquest, and Worldpac brand names. As of December 28, 2019, it operated 4,877 stores and 160 branches in the United States, Puerto Rico, the U.S. Virgin Islands, and Canada; and served 1,253 independently owned Carquest branded stores in Mexico, the Bahamas, Turks and Caicos, and the British Virgin Islands. The company was founded in 1929 and is based in Raleigh, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10746,6 +12729,11 @@
       <c r="F399" t="n">
         <v>7.831309</v>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>United Rentals, Inc., through its subsidiaries, operates as an equipment rental company. It operates in two segments, General Rentals; and Trench, Power and Fluid Solutions. The General Rentals segment rents general construction and industrial equipment, including backhoes, skid-steer loaders, forklifts, earthmoving equipment, and material handling equipment; aerial work platforms, such as boom lifts and scissor lifts; and general tools and light equipment comprising pressure washers, water pumps, and power tools. It serves construction and industrial companies, manufacturers, utilities, municipalities, homeowners, and government entities. The Trench, Power and Fluid Solutions segment rents specialty construction products that include trench safety equipment, which comprise trench shields, aluminum hydraulic shoring systems, slide rails, crossing plates, construction lasers, and line testing equipment for underground work; and power, as well as heating, ventilating, and air conditioning equipment, including portable diesel generators, electrical distribution equipment, and temperature control equipment. It is also involved in the rental of fluid solutions equipment primarily used for fluid containment, transfer, and treatment. This segment serves construction companies involved in infrastructure projects, and municipalities and industrial companies. The company also sells aerial lifts, reach forklifts, telehandlers, compressors, and generators; construction consumables, tools, small equipment, and safety supplies; and parts for equipment that is owned by its customers, as well as provides repair and maintenance services. It sells its used equipment through its sales force, brokers, and Website, as well as at auctions and directly to manufacturers. As of January 29, 2020, the company operated a network of 1,164 rental locations in North America and 11 in Europe. United Rentals, Inc. was founded in 1997 and is headquartered in Stamford, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10772,6 +12760,11 @@
       <c r="F400" t="n">
         <v>14.136083</v>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>F5 Networks, Inc. provides multi-cloud application services for the availability, security, performance, and availability of network applications, servers, and storage systems. The company's primary application delivery technology is Traffic Management Operating System that enable company's products to intercept, inspect, and act on the contents of traffic. It offers Local Traffic Manager; DNS solution for application security services; BIG-IP management and orchestration software; BIG-IP Virtual Edition and BIG-IP Cloud Edition software; Advanced Firewall Manager, a firewall software; and Application Security Manager and Access Policy Manager software products. The company also provides cloud-based managed services. In addition, it offers a range of professional services, including consulting, training, installation, maintenance, and other technical support services. The company sells its products to large enterprise businesses, public sector institutions, governments, and service providers through distributors, value-added resellers, managed service providers, and systems integrators in the Americas, Europe, the Middle East, Africa, Japan, and the Asia Pacific region. F5 Networks, Inc. has partnerships with public cloud providers, such as Amazon Web Services, Microsoft Azure, Google Cloud Platform, and Alibaba Cloud. The company was founded in 1996 and is headquartered in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10798,6 +12791,11 @@
       <c r="F401" t="n">
         <v>8.387187000000001</v>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Eastman Chemical Company operates as an advanced materials and specialty additives company worldwide. The company's Additives &amp; Functional Products segment offers specialty coalescent, specialty and commodity solvents, paint additives, and specialty polymers; hydrocarbon and rosin resins; insoluble sulfur and antidegradant rubber additives; performance resins; amine derivative-based building blocks; heat transfer and aviation fluids; organic acid-based solutions; and metam-based soil fumigants, thiram and ziram based fungicides, and plant growth regulators. It serves the transportation, consumables, building and construction, animal nutrition, crop protection, energy, personal and home care, and other markets. Its Advanced Materials segment provides copolyesters, cellulose esters, polyvinyl butyral (PVB) sheets, specialty PVB intermediates, and window and protective films, and aftermarket applied film products for value-added end uses in the transportation, consumables, building and construction, durable goods, and health and wellness markets. The company's Chemical Intermediates segment offers Olefin and acetyl derivatives, ethylene, and commodity solvents; primary non-phthalate and phthalate plasticizers, and niche non- phthalate plasticizers; and methylamines and salts higher amines and solvents to the industrial chemicals and processing, building and construction, health and wellness, and agrochemicals. Its Fibers segment provides cellulose acetate tow, triacetin, cellulose acetate flake, and acetic anhydride for use in filtration media primarily cigarette filters; natural and solution dyed acetate yarns for use in consumables, and health and wellness markets; and wetlaid nonwoven media, specialty and engineered papers, and cellulose acetate fibers for transportation, industrial, agriculture and mining, aerospace, personal hygiene, and consumables markets. The company was founded in 1920 and is headquartered in Kingsport, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10824,6 +12822,11 @@
       <c r="F402" t="n">
         <v>14.038985</v>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Pinnacle West Capital Corporation, through its subsidiary, Arizona Public Service Company, provides retail and wholesale electric services primarily in the state of Arizona. The company generates, transmits, and distributes electricity using coal, nuclear, gas, oil, and solar generating facilities. Its transmission facilities consist of approximately 6,192 pole miles of overhead lines and approximately 49 miles of underground lines; and distribution facilities comprise approximately 11,191 miles of overhead lines and approximately 22,092 miles of underground primary cable. The company serves approximately 1.3 million customers. It owns or leases approximately 6,316 megawatts of regulated generation capacity. The company was incorporated in 1985 and is headquartered in Phoenix, Arizona.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10850,6 +12853,11 @@
       <c r="F403" t="n">
         <v>7.255556</v>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>NRG Energy, Inc., together with its subsidiaries, operates as an energy company in the United States. It operates through Generation and Retail segments. The company is involved in the producing, selling, and delivering electricity and related products and services to 3.7 million residential, industrial, and commercial consumers. It generates electricity using natural gas, coal, oil, solar, nuclear, and battery storage. The company also provides system power, distributed generation, renewable products, backup generation, storage and distributed solar, demand response, energy efficiency, advisory, and on-site energy solutions; and carbon management and specialty services. In addition, it trades in electric power, natural gas, and related commodity and financial products, including forwards, futures, options, and swaps. Further, the company procures fuels; provides transportation services; and directly sells energy, services, and products and services to retail customers under the NRG, Reliant, Green Mountain Energy, Stream, XOOM Energy, and other names. As of December 31, 2019, it owns fossil fuel, nuclear, and renewable plants with generation capacity of 23,000 megawatts. NRG Energy, Inc. was founded in 1989 and is headquartered in Princeton, New Jersey.</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10876,6 +12884,11 @@
       <c r="F404" t="n">
         <v>25.540232</v>
       </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Darden Restaurants, Inc., through its subsidiaries, owns and operates full-service restaurants in the United States and Canada. As of November 24, 2019, it owned and operated approximately 1,799 restaurants, which included 867 under the Olive Garden, 518 under the LongHorn Steakhouse, 166 under the Cheddar's Scratch Kitchen, 79 under the Yard House, 59 under The Capital Grille, 45 under the Seasons 52, 42 under the Bahama Breeze, and 23 under the Eddie V's Prime Seafood brands. Darden Restaurants, Inc. was founded in 1968 and is based in Orlando, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10902,6 +12915,11 @@
       <c r="F405" t="n">
         <v>14.078431</v>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Hasbro, Inc., together with its subsidiaries, operates as a play and entertainment company. The company's U.S. and Canada segment markets and sells action figures, arts and crafts, and creative play products; electronic toys and related electronic interactive products; fashion and other dolls, infant products, play sets, preschool toys, plush products, and sports action blasters and accessories; and vehicles and toy-related specialty products, as well as traditional board games, and trading card and role-playing games primarily in the United States and Canada. Its International segment markets and sells toy and game products primarily in the Europe, the Asia Pacific, and Latin and South American regions. The company's Entertainment and Licensing segment engages in consumer products licensing, digital gaming, and television and movie entertainment operations. It also acquires, finances, develops, produces, distributes, and sells entertainment content. The company offers its products under the MAGIC: THE GATHERING, MY LITTLE PONY, NERF, TRANSFORMERS, PLAY-DOH, MONOPOLY, BABY ALIVE, POWER RANGERS, FURREAL FRIENDS, PEPPA PIG, and PJ MASKS brands, as well as through premier partner brands. The company sells its products to wholesalers, distributors, chain stores, discount stores, drug stores, mail order houses, catalog stores, department stores, and other traditional retailers, as well as Internet-based e-retailers. Hasbro, Inc. was founded in 1923 and is headquartered in Pawtucket, Rhode Island.</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10928,6 +12946,11 @@
       <c r="F406" t="n">
         <v>21.046331</v>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Lamb Weston Holdings, Inc. produces, distributes, and markets value-added frozen potato products worldwide. It operates through four segments: Global, Foodservice, Retail, and Other. The company offers frozen potatoes, sweet potatoes, and appetizers under the Lamb Weston brand name, as well as various customer labels. It serves retail and foodservice customers; grocery, mass, club, and specialty retailers; and businesses, independent restaurants, regional chain restaurants, and convenience stores, as well as educational institutions. The company was founded in 1950 and is headquartered in Eagle, Idaho.</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10954,6 +12977,11 @@
       <c r="F407" t="n">
         <v>3.3231442</v>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Mylan N.V., together with its subsidiaries, develops, licenses, manufactures, markets, and distributes generic, branded-generic, brand-name, and over-the-counter (OTC) pharmaceutical products in North America, Europe, and internationally. It offers active pharmaceutical ingredients and finished dosage forms; and antiretroviral medicines to treat HIV/AIDS. The company also provides prescription products, such as EpiPen Auto-Injector; Perforomist Inhalation Solution; Dymista; Creon; and Influvac, as well as YUPELRI, an inhalation solution for the maintenance treatment of patients with chronic obstructive pulmonary diseases. In addition, it markets OTC products, including Cold-EEZE, MidNite, Vivarin, Brufen, CB12, and EndWarts. The company offers its products to therapeutic areas, such as cardiovascular, CNS and anesthesia, dermatology, diabetes and metabolism, gastroenterology, immunology, infectious disease, oncology, respiratory and allergy, and women's health. Its customers include retail pharmacies, wholesalers and distributors, payers, and insurers and governments, as well as institutions, such as hospitals. Mylan N.V. has collaboration and license agreements with Pfizer Inc.; Momenta Pharmaceuticals, Inc.; Theravance Biopharma, Inc.; Biocon Ltd.; and Fujifilm Kyowa Kirin Biologics Co. Ltd. The company was founded in 1961 and is based in Hatfield, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10980,6 +13008,11 @@
       <c r="F408" t="n">
         <v>9.523315</v>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>The Western Union Company provides money movement and payment services worldwide. The company operates in two segments, Consumer-to-Consumer and Business Solutions. The Consumer-to-Consumer segment facilitates money transfers between two consumers, primarily through a network of third-party agents. This segment offers international cross-border transfers and intra-country transfers, as well as money transfer transactions through Websites and mobile devices. The Business Solutions segment provides payment and foreign exchange solutions, primarily cross-border and cross-currency transactions for small and medium size enterprises, other organizations, and individuals; and foreign currency forward and option contracts. The company also offers cash-based and electronic-based bill payment services that facilitates payments from consumers to businesses and other organizations, as well as offers money order and other services. It serves primarily through a network of agents. The Western Union Company was incorporated in 2006 and is headquartered in Denver, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -11006,6 +13039,11 @@
       <c r="F409" t="n">
         <v>8.202127000000001</v>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Huntington Bancshares Incorporated operates as a holding company for The Huntington National Bank that provides commercial, small business, consumer, and mortgage banking services. The company operates through four business segments: Consumer and Business Banking, Commercial Banking, Vehicle Finance, and Regional Banking and The Huntington Private Client Group (RBHPCG). The Consumer and Business Banking segment offers financial products and services, such as checking accounts, savings accounts, money market accounts, certificates of deposit, consumer loans, mortgage loans, credit cards, and small business loans, as well as investment products. It also provides insurance, interest rate risk protection, foreign exchange, and treasury management services, as well as online, mobile, and telephone banking services. The Commercial Banking segment offers banking solutions and asset finance services; corporate risk management services; institutional sales, trading, and underwriting services; institutional corporate banking services; treasury management services; and other financing solutions, as well as lends real estate developers, REITs, and other customers. The Vehicle Finance segment provides financing to consumers for the purchase of automobiles, light-duty trucks, recreational vehicles, and marine craft at franchised and other select dealerships, as well as to franchised dealerships for the acquisition of new and used inventory. The RBHPCG segment provides deposits, lending, banking, wealth management, investment and portfolio management, fiduciary administration, trust, retirement plan, and institutional and mutual fund custody services. As of December 31, 2018, the company operated through 944 branches located in Ohio, Michigan, Pennsylvania, Indiana, Illinois, Wisconsin, West Virginia, and Kentucky; and 10 private client group offices. Huntington Bancshares Incorporated was founded in 1866 and is headquartered in Columbus, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -11032,6 +13070,11 @@
       <c r="F410" t="n">
         <v>12.516778</v>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Cabot Oil &amp; Gas Corporation, an independent oil and gas company, explores for, exploits, develops, produces, and markets oil and gas properties in the United States. It primarily focuses on the Marcellus Shale with approximately 173,000 net acres in the dry gas window of the play located in Susquehanna County, Pennsylvania. The company sells its natural gas to industrial customers, local distribution companies, gas marketers, and power generation facilities through gathering systems and pipelines. As of December 31, 2019, it had proved reserves of approximately 12,903 billion cubic feet of gas; and 22 thousand barrels of oil or other liquid hydrocarbons. Cabot Oil &amp; Gas Corporation was incorporated in 1989 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -11058,6 +13101,11 @@
       <c r="F411" t="n">
         <v>7.6258063</v>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>The AES Corporation operates as a diversified power generation and utility company. It owns and/or operates power plants to generate and sell power to customers, such as utilities, industrial users, and other intermediaries. The company also owns and/or operates utilities to generate or purchase, distribute, transmit, and sell electricity to end-user customers in the residential, commercial, industrial, and governmental sectors; and generates and sells electricity on the wholesale market. It uses a range of fuels and technologies to generate electricity, including natural gas, coal, pet coke, diesel, and oil, as well as renewables, such as hydro, solar, wind, energy storage, biomass, and landfill gas. The company owns and/or operates a generation portfolio of approximately 30,471 megawatts. It has operations in the United States, Puerto Rico, El Salvador, Chile, Colombia, Argentina, Brazil, Mexico, Central America, the Caribbean, Europe, and Asia. The company was formerly known as Applied Energy Services, Inc. and changed its name to The AES Corporation in April 2000. The AES Corporation was founded in 1981 and is headquartered in Arlington, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -11084,6 +13132,11 @@
       <c r="F412" t="n">
         <v>12.733334</v>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Juniper Networks, Inc. designs, develops, and sells network products and services worldwide. The company offers routing products, such as ACX series universal access routers to deploy high-bandwidth services; MX series Ethernet routers that function as a universal edge platform; PTX series packet transport routers; cloud customer premises equipment; and NorthStar controllers. It also provides switching products, including EX series Ethernet switches to address the access, aggregation, and core layer switching requirements of micro branch, branch office, and campus environments; QFX series of core, spine, and top-of-rack data center switches; and mist access points, which provide wireless access and performance. In addition, the company offers security products comprising SRX series services gateways for the data center; Branch SRX family provides an integrated firewall and next-generation firewall; virtual firewall that delivers various features of physical firewalls; and advanced malware protection, a cloud-based service and Juniper ATP. Further, it offers Junos OS, a network operating system; Contrail networking and cloud platform, which provides an open-source and standards-based platform for SDN and NFV; Contrail Insights, an optimization and management software platform for public, private, and hybrid clouds; and Marvis Actions and AI-driven Virtual Network Assistant, which identifies the root cause of issues across the information technology, domains and automatically resolves issues. Additionally, the company provides technical support, maintenance, and professional services, as well as education and training programs. It sells its products through direct sales, distributors, value-added resellers, and original equipment manufacturer partners to end-users in the cloud, service provider, and enterprise markets. The company was founded in 1996 and is headquartered in Sunnyvale, California.</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -11110,6 +13163,11 @@
       <c r="F413" t="n">
         <v>14.246575</v>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Henry Schein, Inc., a solutions company for health care professionals, provides health care products and services to office-based dental practitioners and laboratories, physician practices, government, institutional health care clinics, and other alternate care clinics worldwide. It operates in two segments, Health Care Distribution, and Technology and Value-Added Services. The Health Care Distribution segment offers dental products, including infection-control products, handpieces, preventatives, impression materials, composites, anesthetics, teeth, dental implants, gypsum, acrylics, articulators, abrasives, dental chairs, delivery units and lights, X-ray supplies and equipment, and high-tech and digital restoration equipment, as well as equipment repair services. This segment also provides medical products comprising branded and generic pharmaceuticals, vaccines, surgical products, diagnostic tests, infection-control products, X-ray products, equipment, and vitamins. The Technology and Value-Added Services segment offers software, technology, and other value-added services that include practice management software systems for dental and medical practitioners. This segment also provides value-added practice solutions, which comprise financial services on a non-recourse basis, e-services, practice technology, network, and hardware services, as well as continuing education services for practitioners. Henry Schein, Inc. was founded in 1932 and is headquartered in Melville, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -11136,6 +13194,11 @@
       <c r="F414" t="n">
         <v>8.737344999999999</v>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Universal Health Services, Inc., through its subsidiaries, owns and operates acute care hospitals, outpatient facilities, and behavioral health care facilities. The company operates through Acute Care Hospital Services, Behavioral Health Care Services, and Other segments. Its hospital offer general and specialty surgery, internal medicine, obstetrics, emergency room care, radiology, oncology, diagnostic care, coronary care, pediatric services, pharmacy services, and/or behavioral health services. As of February 26, 2020, it owned and/or operated 354 inpatient facilities, and 42 outpatient and other facilities located in 37 states, Washington, D.C., the United Kingdom, and Puerto Rico. Universal Health Services, Inc. founded in 1978 and is headquartered in King Of Prussia, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -11162,6 +13225,11 @@
       <c r="F415" t="n">
         <v>16.766596</v>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Wynn Resorts, Limited designs, develops, and operates integrated resorts. The company's Wynn Palace segment operates 424,000 square feet of casino space with 323 table games, 1,011 slot machines, private gaming salons, and sky casinos; a luxury hotel towers with 1,706 guest rooms, suites, and villas, including a health club, spa, salon, and pool; 14 food and beverage outlets; 106,000 square feet of retail space; 37,000 square feet of meeting and convention space; and performance lake and floral art displays. Its Wynn Macau segment operates 252,000 square feet of casino space with 322 table games, 838 slot machines, private gaming salons, sky casinos, and a poker room; two luxury hotel with 1,010 guest rooms and suites that include two health clubs, two spas, a salon, and a pool; 12 food and beverage outlets; 59,000 square feet of retail space; 31,000 square feet of meeting and convention space; and Chinese zodiac-inspired ceiling attractions. The company's Las Vegas Operations segment operates 192,000 square feet of casino space with 232 table games, 1,756 slot machines, private gaming salons, a sky casino, a poker room, and a race and sports book; two luxury hotel towers with a total of 4,748 guest rooms, suites, and villas, including swimming pools, private cabanas, two full service spas and salons, and a wedding chapel; 33 food and beverage outlets; 507,000 square feet of meeting and convention space; 160,000 square feet of retail space; and two theaters, three nightclubs and a beach club. Its Encore Boston Harbor segment operates 210,000 square feet of casino space with 161 table games, 2,833 slot machines, gaming areas, and a poker room; a hotel tower, including 671 guest rooms and suites; 16 food and beverage outlets and a nightclub; 8,000 square feet of retail space; 71,000 square feet of meeting and convention space; and a waterfront park, floral displays, and water shuttle service. The company was founded in 2002 and is based in Las Vegas, Nevada.</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -11188,6 +13256,11 @@
       <c r="F416" t="n">
         <v>10.031034</v>
       </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Loews Corporation provides commercial property and casualty insurance in the United States and internationally. It operates through five segments: CNA Financial Corporation; Diamond Offshore Drilling, Inc.; Boardwalk Pipeline Partners, LP; Loews Hotels Holding Corporation; and Corporate segments. The company offers specialty insurance products, such as management and professional liability coverages and products; and surety and fidelity bonds. It also provides commercial property insurance products that include property, marine, and boiler and machinery coverages; casualty insurance products comprising workers' compensation, general and product liability, commercial auto, and umbrella coverages; loss-sensitive insurance programs; and warranty, risk management, information, and claims administration services. The company markets its insurance products and services through independent agents, brokers, and managing general underwriters. In addition, it offers contract drilling services through a fleet of 15 offshore drilling rigs consisting of 4 drillships and 11 semisubmersible rigs. Further, the company is involved in the transportation and storage of natural gas and natural gas liquids (NGLs) through natural gas pipelines covering approximately 13,610 miles of interconnected pipelines; 455 miles of NGL pipelines in Louisiana and Texas; and 14 underground storage fields with an aggregate gas capacity of approximately 205 billion cubic feet of natural gas. Additionally, the company operates a chain of 26 hotels; and develops, manufactures, and markets a range of extrusion blow-molded and injection molded plastic containers for customers in the pharmaceutical, dairy, household chemicals, food/nutraceuticals, industrial/specialty chemicals, and water and beverage/juice segments, as well as manufactures commodity and differentiated plastic resins from recycled plastic materials. Loews Corporation was incorporated in 1969 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -11214,6 +13287,11 @@
       <c r="F417" t="n">
         <v>13.680217</v>
       </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Cincinnati Financial Corporation, together with its subsidiary, provides property casualty insurance products in the United States. The company operates in five segments: Commercial Lines Insurance, Personal Lines Insurance, Excess and Surplus Lines Insurance, Life Insurance, and Investments. The Commercial Lines Insurance segment offers coverage for commercial casualty, commercial property, commercial auto, and workers' compensation. It also provides director and officer liability insurance, contract and commercial surety bonds, and fidelity bonds; and machinery and equipment coverage. The Personal Lines Insurance segment offers personal auto insurance; homeowners insurance; and dwelling fire, inland marine, personal umbrella liability, and watercraft coverages to individuals. The Excess and Surplus Lines Insurance segment offers commercial casualty insurance that covers businesses for third-party liability from accidents occurring on their premises or arising out of their operations, such as injuries sustained from products; and commercial property insurance, which insures buildings, inventory, equipment, and business income from loss or damage due to various causes, such as fire, wind, hail, water, theft, and vandalism. The Life Insurance segment provides term life insurance products; universal life insurance products; worksite products, such as term life; and whole life insurance products, as well as markets deferred annuities and immediate annuities. The Investments segment invests in fixed-maturity investments, including taxable and tax-exempt bonds, and redeemable preferred stocks; and equity investments comprising common and nonredeemable preferred stocks. The company also offers commercial leasing and financing services; and insurance brokerage services. Cincinnati Financial Corporation was founded in 1950 and is headquartered in Fairfield, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -11240,6 +13318,11 @@
       <c r="F418" t="n">
         <v>11.194946</v>
       </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Raymond James Financial, Inc., through its subsidiaries, engages in the underwriting, distribution, trading, and brokerage of equity and debt securities, and the sale of mutual funds and other investment products in the United States, Canada, and Europe. It operates in five segments: Private Client Group (PCG), Capital Markets, Asset Management, Raymond James (RJ) Bank, and Other. The PCG segment offers securities transaction services, including the sale of equities, mutual funds, fixed income products, and insurance and annuity products to retail clients; investment advisory, investment, and margin loan services; custodial, trading, research, and other support services; diversification strategies and alternative investment products; and borrowing and lending of securities to and from other broker-dealers, financial institutions, and other counterparties. The Capital Markets segment engages in the fixed income and equity institutional sales and trading activities; equity research and investment banking activities; and syndication and related management of investments that qualify for tax credits. It also provides debt and equity underwriting, merger and acquisition, advisory, and public finance services. The Asset Management segment offers portfolio management and related administrative services for retail and institutional clients; and administrative support services, such as record-keeping. The RJ Bank segment provides corporate loans, SBL, tax-exempt loans, residential loans, and other loans. The Other segment engages in the private equity activities, including various direct and third-party private equity investments; and private equity funds. The company was founded in 1962 and is headquartered in St. Petersburg, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -11266,6 +13349,11 @@
       <c r="F419" t="n">
         <v>11.893455</v>
       </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>DaVita Inc. provides kidney dialysis services for patients suffering from chronic kidney failure or end stage renal disease (ESRD). The company operates kidney dialysis centers and provides related lab services in outpatient dialysis centers. It also provides outpatient, hospital inpatient, and home-based hemodialysis services; owns clinical laboratories that provide routine laboratory tests for dialysis and other physician-prescribed laboratory tests for ESRD patients; and management and administrative services to outpatient dialysis centers. In addition, the company provides disease management services; vascular access services; clinical research programs; physician services; and comprehensive care services. As of December 31, 2019, it provided dialysis and administrative services in the United States through a network of 2,753 outpatient dialysis centers serving approximately 206,900 patients; and operated 259 outpatient dialysis centers located in 10 countries outside of the United States serving approximately 28,700 patients. Further, the company provides acute inpatient dialysis services in approximately 900 hospitals and related laboratory services in the United States. The company was formerly known as DaVita HealthCare Partners Inc. and changed its name to DaVita Inc. in September 2016. DaVita Inc. was founded in 1994 and is headquartered in Denver, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -11292,6 +13380,11 @@
       <c r="F420" t="n">
         <v>12.232942</v>
       </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Perrigo Company plc manufactures and supplies over-the-counter health and wellness solutions in the United States, Europe, and internationally. The company operates through Consumer Self-Care Americas, Consumer Self-Care International, and Prescription Pharmaceuticals segments. It provides upper respiratory, pain and sleep-aids, digestive health, nutrition, vitamins, minerals and supplements, healthy lifestyle, skincare and personal hygiene, and oral self-care products under the Prevacid 24HR, Good Sense, Zephrex D, ScarAway, Plackers, Steripod, and Rembrandt brand names. The company also develops, manufactures, and markets a portfolio of generic prescription drugs, such as creams, ointments, lotions, gels, shampoos, foams, suppositories, sprays, liquids, suspensions, solutions, powders, controlled substances, injectable, hormones, oral solid dosage forms, and oral liquid formulations. In addition, it offers contract manufacturing services. The company offers its products through retail drug, supermarket, and mass merchandise chains; hospitals; pharmacies; wholesalers; drug and grocery stores; and para pharmacies, as well as through a network of pharmacy sales force. Perrigo Company plc was founded in 1887 and is headquartered in Dublin, Ireland.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -11318,6 +13411,11 @@
       <c r="F421" t="n">
         <v>11.836426</v>
       </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Huntington Ingalls Industries, Inc. operates as a military shipbuilding company in the United States. It operates through three segments: Ingalls Shipbuilding, Newport News Shipbuilding, and Technical Solutions. The company is involved in the design and construction of non-nuclear ships comprising amphibious assault ships that include deck amphibious ships and transport dock ships; surface combatants; and national security cutters for the U.S. Navy and U.S. Coast Guard. It also provides nuclear-powered ships, such as aircraft carriers and submarines, as well as refueling and overhaul, and inactivation services. In addition, the company offers naval nuclear support services, including fleet services comprising design, construction, maintenance, and disposal activities for in service U.S. Navy nuclear ships; and maintenance services on nuclear reactor prototypes. Further, it provides fleet support services comprising ship technical and waterfront; naval architecture and marine engineering; integrated logistics support; technical documentation development; warehousing, asset management, and material readiness; operational and maintenance training development and delivery; software design and development; IT infrastructure support, and data delivery and management; and cyber security and information assurance services, as well as undersea vehicle and specialized craft development and prototyping services. Additionally, the company offers IT and mission-based solutions; nuclear and environmental services; engineering, procurement, and construction management services to the oil and gas industry; and nuclear management and operations, and environmental management services to the Department of Energy, Department of Defense, local governments, and the private sector. The company was incorporated in 2010 and is headquartered in Newport News, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -11344,6 +13442,11 @@
       <c r="F422" t="n">
         <v>10.234783</v>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>LKQ Corporation, together with its subsidiaries, distributes replacement parts, components, and systems used in the repair and maintenance of vehicles. It operates in three segments: North America, Europe, and Specialty. The company distributes bumper covers, automotive body panels, and lights, as well as automotive glass products, such as windshields; salvage products, including mechanical and collision parts comprising engines; transmissions; door assemblies; sheet metal products, such as trunk lids, fenders, and hoods; lights and bumper assemblies; scrap metal and other materials to metals recyclers; and brake pads, discs and sensors, clutches, steering and suspension products, filters, and oil and automotive fluids, as well as electrical products, including spark plugs and batteries. It also operates self-service retail operations under the LKQ Pick Your Part name; and designs, manufactures, and markets vehicle equipment and accessories. In addition, the company distributes recreational vehicle appliances and air conditioners, towing hitches, truck bed covers, vehicle protection products, cargo management products, wheels, tires, and suspension products. It serves collision and mechanical repair shops, and new and used car dealerships, as well as retail customers. The company operates in the United States, Canada, the United Kingdom, Germany, Belgium, the Netherlands, Luxembourg, Italy, the Czech Republic, Poland, Slovakia, Austria, Taiwan, and various other European countries. LKQ Corporation was founded in 1998 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11370,6 +13473,11 @@
       <c r="F423" t="n">
         <v>8.957792</v>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>PulteGroup, Inc., through its subsidiaries, primarily engages in the homebuilding business in the United States. The company acquires and develops land primarily for residential purposes; and constructs housing on such land. It offers various home designs, including single-family detached, townhouses, condominiums, and duplexes under the Centex, Pulte Homes, Del Webb, DiVosta Homes, and John Wieland Homes and Neighborhoods brand names. As of December 31, 2018, the company controlled 89,530 owned lots and 60,047 lots under land option agreements. It also arranges financing through the origination of mortgage loans primarily for homebuyers; sells the servicing rights for the originated loans; and provides title insurance policies, and examination and closing services to homebuyers. The company was formerly known as Pulte Homes, Inc. and changed its name to PulteGroup, Inc. in March 2010. PulteGroup, Inc. was founded in 1950 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11396,6 +13504,11 @@
       <c r="F424" t="n">
         <v>14.505618</v>
       </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Fortune Brands Home &amp; Security, Inc., together with its subsidiaries, provides home and security products for residential home repair, remodeling, new construction, and security applications. It operates in three segments: Cabinets, Plumbing, and Doors &amp; Security. The Cabinets segment manufactures custom, semi-custom, and stock cabinetry, as well as vanities for the kitchen, bath, and other parts of the home directly to kitchen and bath dealers, home centers, wholesalers, and builders in North America under the Diamond, Aristokraft, Mid-Continent, Kitchen Craft, Homecrest, Omega, StarMark, Ultracraft, Kemper, Schrock, Decora, and Mantra brand names. The Plumbing segment manufactures, assembles, and sells faucets, accessories, kitchen sinks, and waste disposals in the United States, China, Canada, Mexico, Southeast Asia, Europe, and South America directly through its own sales force, as well as through independent manufacturers' representatives primarily to wholesalers, home centers, mass merchandisers, and industrial distributors. The Doors &amp; Security segment offers fiberglass and steel entry door systems under the Therma-Tru brand name; composite decking and railing under the Fiberon brand name; and urethane millwork under the Fypon brand name. This segment also manufactures, sources, and distributes locks, safety and security devices, and electronic security products under the Master Lock and American Lock brand names; and fire resistant safes, security containers, and commercial cabinets under the SentrySafe brand name. It serves home centers, hardware and other retailers, millwork building products and wholesale distributors, specialty dealers, and remodeling and renovation markets, as well as locksmiths, industrial and institutional users, and original equipment manufacturers. This segment sells its products in the United States, Canada, Europe, Central America, Japan, and Australia. The company was founded in 1988 and is headquartered in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11422,6 +13535,11 @@
       <c r="F425" t="n">
         <v>15.339807</v>
       </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>W. R. Berkley Corporation, an insurance holding company, operates as a commercial lines writer in the United States and internationally. It operates through two segments, Insurance and Reinsurance &amp; Monoline Excess. The Insurance segment underwrites commercial insurance business, including premises operations, commercial automobile, property, products liability, and professional liability lines. It also provides workers' compensation, property casualty, general liability, professional liability, and excess and umbrella coverage insurance products; accident and health insurance and reinsurance products; insurance for commercial risks; specialty environmental products for contractors, consultants, and property owners; and liquor liability and inland marine coverage for small to medium-sized insureds. In addition, this segment offers directors and officers, and surety risk products, as well as products for life sciences and travel industries; coverage for excess liability, construction wrap-ups, and completed operations; cyber risk solutions; casualty, group life, and crime and fidelity related insurance products; personal lines insurance solutions, including home, condo/co-op, and collectibles; automobile, law enforcement, public officials and educator's legal, and employment practices liability, as well as incidental medical insurance products; and at-risk and alternative risk insurance program management services. The Reinsurance &amp; Monoline Excess segment provides other insurance companies and self-insureds with assistance in managing their net risk through reinsurance on a portfolio basis through treaty reinsurance or on an individual basis through facultative reinsurance. W. R. Berkley Corporation was founded in 1967 and is headquartered in Greenwich, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11448,6 +13566,11 @@
       <c r="F426" t="n">
         <v>37.185184</v>
       </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Host Hotels &amp; Resorts, Inc. is an S&amp;P 500 company and is the largest lodging real estate investment trust and one of the largest owners of luxury and upper-upscale hotels. The Company currently owns 75 properties in the United States and five properties internationally totaling approximately 46,500 rooms. The Company also holds non-controlling interests in six domestic and one international joint ventures. Guided by a disciplined approach to capital allocation and aggressive asset management, the Company partners with premium brands such as Marriott®, Ritz-Carlton®, Westin®, Sheraton®, W®, St. Regis®, The Luxury Collection®, Hyatt®, Fairmont®, Hilton®, Swissôtel®, ibis® and Novotel®, as well as independent brands.</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11474,6 +13597,11 @@
       <c r="F427" t="n">
         <v>9.997244999999999</v>
       </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Molson Coors Beverage Company manufactures, markets, and sells beer and other malt beverage products in the United States, Canada, Europe, and internationally. The company sells various products under the Blue Moon, Coors Banquet, Coors Light, Miller Genuine Draft, Miller Lite, Hamm's, Icehouse, Keystone, Mickey's, Miller64, Miller High Life, Milwaukee's Best, Olde English, Steel Reserve, Hop Valley, Leinenkugel's, Peroni Nastro Azurro, Pilsner Urquell, Revolver, Saint Archer, Sol, Terrapin, Crispin, Smith &amp; Forge, Arnold Palmer Spiked, Cape Line, Henry's Hard, Redd's, and Steel Reserve Alloy Series brands. It also offers various brands, such as Belgian Moon, Coors Original, Aquarelle, Carling, Carling Black Label, Coors Edge, Coors Slice, Exel, Mad Jack, Molson Canadian, Molson Dry, Molson Export, Molson Ultra, Old Style Pilsner, Rickard's, Brasseurs de Montréal, Creemore Springs, Granville Island, Le Trou du Diable, Heineken, Heineken 0.0, Strongbow cider, Dos Equis, and Moretti. In addition, the company provides its products under the Staropramen, Bergenbier, Borsodi, Jelen, Kamenitza, Niksicko, Ozujsko, Aspall Cider, Bavaria, Beck's, Branik, Cobra, Corona Extra, Lowenbrau, Pardubicky Pivovar, Rekorderlig cider, Sharp's Doom Bar, and Stella Artois brand names. Further, it offers its products under the Thunderbolt, Carling Strong, Miller Ace, Miller Chill, Miller Ultra, Singha, and Zima brands. The company was formerly known as Molson Coors Brewing Company and changed its name to Molson Coors Beverage Company in January 2020. Molson Coors Beverage Company was founded in 1873 and is headquartered in Denver, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11500,6 +13628,11 @@
       <c r="F428" t="n">
         <v>8.852824999999999</v>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Globe Life Inc., through its subsidiaries, provides various life and supplemental health insurance products, and annuities to lower middle to middle income households in the United States. The company operates through four segments: Life Insurance, Supplemental Health Insurance, Annuities, and Investments. It offers term life, whole life, children's life, senior life, and family life insurance products; accidental benefits insurance; mortgage protection insurance; and medicare supplement plans. The company was formerly known as Torchmark Corporation and changed its name to Globe Life Inc. in August 2019. Globe Life Inc. was incorporated in 1979 and is based in McKinney, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11526,6 +13659,11 @@
       <c r="F429" t="n">
         <v>11.492579</v>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Snap-on Incorporated manufactures and markets tools, equipment, diagnostics, and repair information and systems solutions for professional users worldwide. It operates through Commercial &amp; Industrial Group, Snap-on Tools Group, Repair Systems &amp; Information Group, and Financial Services segments. The company offers hand tools, including wrenches, sockets, ratchet wrenches, pliers, screwdrivers, punches and chisels, saws and cutting tools, pruning tools, torque measuring instruments, and other products; power tools, such as cordless, pneumatic, hydraulic, and corded tools, such as impact wrenches, ratchets, screwdrivers, drills, sanders, grinders, etc.; and tool storage products comprising tool chests, roll cabinets, and other products. It also provides handheld and PC-based diagnostic products, service and repair information products, diagnostic software solutions, electronic parts catalogs, business management systems and services, point-of-sale systems, integrated systems for vehicle service shops, original equipment manufacturer purchasing facilitation services, and warranty management systems and analytics. In addition, the company offers solutions for the service of vehicles and industrial equipment that include wheel alignment equipment, wheel balancers, tire changers, vehicle lifts, test lane systems, collision repair equipment, vehicle air conditioning service equipment, brake service equipment, fluid exchange equipment, transmission troubleshooting equipment, safety testing equipment, battery chargers, and hoists. Further, it provides financing programs to facilitate the sales of its products and support its franchise business. The company serves the aviation and aerospace, agriculture, construction, government and military, mining, natural resources, power generation, and technical education industries, as well as vehicle dealerships and repair centers. Snap-on Incorporated was founded in 1920 and is headquartered in Kenosha, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11552,6 +13690,11 @@
       <c r="F430" t="n">
         <v>-27.04</v>
       </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>MGM Resorts International, through its subsidiaries, owns and operates integrated casino, hotel, and entertainment resorts in the United States and Macau. The company operates through three segments: Las Vegas Strip Resorts, Regional Operations, and MGM China. Its casino resorts offer gaming, hotel, convention, dining, entertainment, retail, and other resort amenities. The company's casino operations include slots, table games, and race and sports book wagering. As of March 22, 2020, its portfolio consisted of 29 hotel and destination gaming offerings. The company also owns and operates Las Vegas Strip Resorts, Primm Valley Golf Club, and Fallen Oak golf course. Its customers include premium gaming customers; leisure and wholesale travel customers; business travelers; and group customers, including conventions, trade associations, and small meetings. The company was formerly known as MGM MIRAGE and changed its name to MGM Resorts International in June 2010. MGM Resorts International was founded in 1986 and is based in Las Vegas, Nevada.</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11578,6 +13721,11 @@
       <c r="F431" t="n">
         <v>6.8700085</v>
       </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Everest Re Group, Ltd., through its subsidiaries, provides reinsurance and insurance products in the United States, Bermuda, and internationally. The company operates through four segments: U.S. Reinsurance, International, Bermuda, and Insurance. The U.S. Reinsurance segment writes property and casualty reinsurance; and specialty lines of business, including marine, aviation, surety, and accident and health insurance through reinsurance brokers, as well as directly with ceding companies in the United States. The International segment writes property and casualty reinsurance in Canada, Singapore, Brazil, Miami, and New Jersey. The Bermuda segment provides reinsurance and insurance to property and casualty markets through brokers and directly with ceding companies in Bermuda, and reinsurance to the United Kingdom and European markets. The Insurance segment writes property and casualty insurance products directly, as well as through general agents, wholesaler, retail brokers, and surplus lines brokers in the United States, Canada, Bermuda, and Ireland. The company also provides property and casualty reinsurance and insurance coverages, such as errors and omissions liability, directors' and officers' liability, medical malpractice, and worker's compensation products. Everest Re Group, Ltd. was founded in 1973 and is headquartered in Hamilton, Bermuda.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11604,6 +13752,11 @@
       <c r="F432" t="n">
         <v>17.151514</v>
       </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Iron Mountain Incorporated (NYSE: IRM), founded in 1951, is the global leader for storage and information management services. Trusted by more than 225,000 organizations around the world, and with a real estate network of more than 90 million square feet across nearly 1,450 facilities in approximately 50 countries, Iron Mountain stores and protects billions of valued assets, including critical business information, highly sensitive data, and cultural and historical artifacts. Providing solutions that include secure records storage, information management, digital transformation, secure destruction, as well as data centers, cloud services and art storage and logistics, Iron Mountain helps customers lower cost and risk, comply with regulations, recover from disaster, and enable a more digital way of working.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11630,6 +13783,11 @@
       <c r="F433" t="n">
         <v>7.3492174</v>
       </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Whirlpool Corporation manufactures and markets home appliances and related products. It operates through four segments: North America; Europe, Middle East and Africa; Latin America; and Asia. The company's principal products include refrigerators, freezers, ice makers, and refrigerator water filters; laundry appliances and related laundry accessories; cooking and other small domestic appliances; and dishwasher appliances and related accessories, as well as mixers. The company markets and distributes its products primarily under the Whirlpool, Maytag, KitchenAid, JennAir, Amana, Roper, Admiral, Affresh, Gladiator, Speed Queen, Hotpoint, Bauknecht, Indesit, Ignis, Laden, Privileg, KIC, Consul, Brastemp, Acros, Ariston, Diqua, and Royalstar brands. It sells its products to retailers, distributors, dealers, builders, and other manufacturers, as well as directly to consumers. The company was founded in 1911 and is headquartered in Benton Harbor, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11656,6 +13814,11 @@
       <c r="F434" t="n">
         <v>11.616732</v>
       </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Albemarle Corporation develops, manufactures, and markets engineered specialty chemicals worldwide. The company operates in three segments: Lithium, Bromine Specialties, and Catalysts. The Lithium segment offers lithium compounds, including lithium carbonate, lithium hydroxide, lithium chloride, and value-added lithium specialties, as well as reagents, such as butyllithium and lithium aluminum hydride for applications in lithium batteries for consumer electronics and electric vehicles, high performance greases, thermoplastic elastomers for car tires, rubber soles, plastic bottles, catalysts for chemical reactions, organic synthesis processes, life science, pharmaceutical, and other markets. It also offers cesium products for the chemical and pharmaceutical industries; zirconium, barium, and titanium products for various pyrotechnical applications; technical services, such as the handling and use of reactive lithium products; and recycling services for lithium-containing by-products. The Bromine Specialties segment offers bromine and bromine-based solutions for fire safety, chemical synthesis, mercury control, water purification, beef and poultry processing, and other industrial applications, as well as oil and gas well drilling, and completion fluids applications; and tertiary amines, biocides, disinfectants, and sanitizers. The Catalysts segment offers hydroprocessing catalysts together with isomerization and akylation catalysts; fluidized catalytic cracking catalysts and additives; and performance catalyst solutions comprising organometallics and curatives. The company serves energy storage, petroleum refining, consumer electronics, construction, automotive, lubricants, pharmaceuticals, crop protection, and custom chemistry services markets. Albemarle Corporation was founded in 1994 and is headquartered in Charlotte, North Carolina.</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11682,6 +13845,11 @@
       <c r="F435" t="n">
         <v>8.821678</v>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>WestRock Company manufactures and sells paper and packaging solutions for the consumer and corrugated markets in North America, South America, Europe, Asia, and Australia. The company's Corrugated Packaging segment produces containerboards, corrugated sheets, corrugated packaging, and preprinted linerboards for consumer and industrial products manufacturers, and corrugated box manufacturers. It also provides structural and graphic design, engineering services and custom, and automated packaging machines; and operates recycling facilities that collect, sort, grade, and bale recovered paper. The company's Consumer Packaging segment manufactures and sells folding and beverage cartons that are used to package food, paper, beverages, dairy products, tobacco, confectionery, health and beauty, other household consumer, and commercial and industrial products; and express mail packages for the overnight courier industry. It also offers inserts and labels, as well as rigid packaging and other printed packaging products; and secondary packages and paperboard packaging for over-the-counter and prescription drugs. In addition, this segment manufactures and sells solid fiber and corrugated partitions, and die-cut paperboard components; temporary and permanent displays; and lithographic laminated packaging products, as well as provides contract packing services. Its Land and Development segment sells real estate primarily in the Charleston, South Carolina region. WestRock Company is based in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11708,6 +13876,11 @@
       <c r="F436" t="n">
         <v>17.758139</v>
       </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Diamondback Energy, Inc., an independent oil and natural gas company, focuses on the acquisition, development, exploration, and exploitation of unconventional and onshore oil and natural gas reserves in the Permian Basin in West Texas. It primarily focuses on the development of the Spraberry and Wolfcamp formations of the Midland basin; and the Wolfcamp and Bone Spring formations of the Delaware basin, which are part of the Permian Basin in West Texas and New Mexico. As of December 31, 2019, the company's total acreage position was approximately 455,378 gross acres in the Permian Basin; and estimated proved oil and natural gas reserves were 1,127,575 thousand barrels of crude oil equivalent. It also held working interests in 2,656 gross producing wells, as well as royalty interests in 4,161 additional wells. In addition, the company owns mineral interests approximately 814,224 gross acres and 24,304 net royalty acres in the Permian Basin and Eagle Ford Shale; and owns, operates, develops, and acquires midstream infrastructure assets, such as 867 miles of crude oil gathering pipelines, natural gas gathering pipelines, and an integrated water system in the Midland and Delaware Basins of the Permian Basin. Diamondback Energy, Inc. was founded in 2007 and is headquartered in Midland, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11734,6 +13907,11 @@
       <c r="F437" t="n">
         <v>3.347065</v>
       </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Lincoln National Corporation, through its subsidiaries, operates multiple insurance and retirement businesses in the United States. It operates through four segments: Annuities, Retirement Plan Services, Life Insurance, and Group Protection. The Annuities segment offers variable, fixed, and indexed variable annuities. The Retirement Plan Services segment provides employers with retirement plan products and services primarily in the defined contribution retirement plan marketplace. This segment offers individual and group variable annuities, group fixed annuities, and mutual fund-based programs; and a range of plan services, including plan recordkeeping, compliance testing, participant education, and trust and custodial services. The Life Insurance segment provides life insurance products, including term insurance, such as single and survivorship versions of universal life insurance; variable universal life insurance; indexed universal life insurance products; and critical illness and long-term care riders. The Group Protection segment offers group non-medical insurance products comprising short and long-term disability, statutory disability and paid family medical leave administration and absence management services, term life, dental, vision and accident, and critical illness benefits and services to the employer marketplace through various forms of employee-paid and employer-paid plans. The company distributes its products through consultants, brokers, planners, agents, financial advisors, third-party administrators, and other intermediaries. Lincoln National Corporation was founded in 1905 and is headquartered in Radnor, Pennsylvania.</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11760,6 +13938,11 @@
       <c r="F438" t="n">
         <v>19.025642</v>
       </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>FLIR Systems, Inc. designs, develops, markets, and distributes thermal imaging systems, visible-light imaging systems, locater systems, measurement and diagnostic systems, and threat-detection solutions worldwide. The company operates in three segments: Industrial Business Unit, Government and Defense Business Unit, and Commercial Business Unit. The Industrial Business Unit segment offers thermal and visible-spectrum imaging camera cores and components for parties that create thermal, industrial, and other types of imaging systems; and products, such as thermal imaging cameras, gas detection cameras, firefighting cameras, process automation cameras, and environmental test and measurement devices. The Government and Defense Business Unit segment offers airborne, land, maritime, man-portable multi-spectrum imaging systems, radars, lasers, imaging components, integrated multi-sensor system platforms, CBRNE detectors, and nano-class UAS solutions, as well as services related to these systems. The Commercial Business Unit segment provides thermal and visible-spectrum security cameras, digital and networked video recorders, and related software and accessories; networked marine electronic systems that include multi-function helm displays, navigational instruments, autopilots, radars, sonar systems, thermal and visible imaging systems; communications equipment for boats, traffic cameras, sensors and associated traffic management software; and handheld thermal imagers. FLIR Systems, Inc. was founded in 1978 and is headquartered in Wilsonville, Oregon.</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11786,6 +13969,11 @@
       <c r="F439" t="n">
         <v>12.890053</v>
       </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>DISH Network Corporation, together with its subsidiaries, provides pay-TV services in the United States. The company operates in two segments, Pay-TV and Wireless. It offers video services under the DISH TV brand; and programming packages that include programming through national broadcast networks, local broadcast networks, and national and regional cable networks, as well as regional and specialty sports channels, premium movie channels, and Latino and international programming packages. The company also provides access to movies and TV shows through TV or Internet-connected tablets, smartphones, and computers; and dishanywhere.com and mobile applications for smartphones and tablets to view authorized content, search program listings, and remotely control certain features. In addition, it offers Sling TV services, including Sling International, Sling Latino, Sling Orange, and Sling Blue services that require an Internet connection and are available on streaming-capable devices, such as TVs, tablets, computers, game consoles, and smart phones primarily to consumers who do not subscribe to traditional satellite and cable pay-TV services. As of December 31, 2019, it had 11.986 million Pay-TV subscribers. The company offers receiver systems and programming through direct sales channels, small satellite retailers, direct marketing groups, local and regional consumer electronics stores, retailers, and telecommunications companies. DISH Network Corporation was founded in 1980 and is headquartered in Englewood, Colorado.</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11812,6 +14000,11 @@
       <c r="F440" t="n">
         <v>25.006847</v>
       </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Regency Centers is the preeminent national owner, operator, and developer of shopping centers located in affluent and densely populated trade areas. Our portfolio includes thriving properties merchandised with highly productive grocers, restaurants, service providers, and best-in-class retailers that connect to our neighborhoods, communities, and customers. Operating as a fully integrated real estate company, Regency Centers is a qualified real estate investment trust (REIT) that is self-administered, self-managed, and an S&amp;P 500 Index member.</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11838,6 +14031,11 @@
       <c r="F441" t="n">
         <v>17.663317</v>
       </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Royal Caribbean Cruises Ltd. operates as a cruise company. The company operates cruises under the Royal Caribbean International, Celebrity Cruises, Azamara Club Cruises, and Silversea Cruises brands. The Royal Caribbean International brand provides itineraries to destinations worldwide, including Alaska, Asia, Australia, Bahamas, Bermuda, Canada, the Caribbean, Europe, the Panama Canal, and New Zealand with cruise lengths that range from 2 to 19 nights. The Celebrity Cruises brand offers itineraries to destinations, such as Alaska, Asia, Australia, Bermuda, Canada, the Caribbean, Europe, the Galapagos Islands, Hawaii, India, New Zealand, the Panama Canal, and South America with cruise lengths ranging from 2 to 19 nights. The Azamara Club Cruises brand offers cruise itineraries to destinations, including Asia, Australia/New Zealand, Northern and Western Europe, the Mediterranean, Cuba, and South America with cruise lengths ranging from 3 to 26 nights. The Silversea Cruises brand provides itineraries to destinations, including the Galapagos Islands, Antarctica, and the Arctic with cruise lengths ranging from 6 to 25 nights. As of December 31, 2019, the company operated 61 ships and had 17 ships on order. Royal Caribbean Cruises Ltd. was founded in 1968 and is headquartered in Miami, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11864,6 +14062,11 @@
       <c r="F442" t="n">
         <v>9.365853</v>
       </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>The Interpublic Group of Companies, Inc. provides advertising and marketing services worldwide. The company operates through two segments, Integrated Agency Networks and Constituency Management Group. It offers consumer advertising, digital marketing, communications planning and media buying, public relations, and specialized communications disciplines. The company also provides various diversified services, including public relations, meeting and event production, sports and entertainment marketing, corporate and brand identity, and strategic marketing consulting. It offers its services under various brands comprising McCann Worldgroup, Foote, Cone &amp; Belding, IPG Mediabrands, Carmichael Lynch, Deutsch, Hill Holliday, and The Martin Agency, as well as Foote, Cone &amp; Belding, and MullenLowe Group. The company was formerly known as McCann-Erickson Incorporated and changed its name to The Interpublic Group of Companies, Inc. in January 1961. The Interpublic Group of Companies, Inc. was founded in 1902 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11890,6 +14093,11 @@
       <c r="F443" t="n">
         <v>5.0964184</v>
       </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Discovery, Inc. operates as a media company in the United States and internationally. The company operates in two segments, U.S. Networks and International Networks. The company owns and operates various television networks under the Discovery Channel, TLC, Animal Planet, Investigation Discovery, Science Channel, MotorTrend, Food Network, HGTV, Travel Channel, TVN, DIY Network, Cooking Channel, Discovery Family Channel, American Heroes Channel, Destination America, Discovery Life, Discovery en Espanol, Discovery Familia, Great American Country, ID, the Oprah Winfrey Network, Eurosport, Discovery Kids, DMAX, and Discovery Home &amp; Health brands, as well as other regional television networks. Its content spans genres, including survival, exploration, sports, lifestyle, general entertainment, home, food and travel, heroes, adventure, crime and investigation, health, and kids. The company also operates production studios that develop and produce content; and digital products and Websites. It provides content through various distribution platforms comprising pay-television, free-to-air and broadcast television, authenticated GO applications, digital distribution arrangements, and content licensing agreements, as well as various platforms that include brand-aligned Websites, online streaming, mobile devices, video on demand, and broadband channels. As of February 27, 2020, the company delivered approximately 8,000 hours of original programming each year in approximately 50 languages worldwide. Discovery, Inc. was founded in 1985 and is headquartered in Silver Spring, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11916,6 +14124,11 @@
       <c r="F444" t="n">
         <v>50.96202</v>
       </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Rollins, Inc., through its subsidiaries, provides pest and termite control services to residential and commercial customers. It offers protection against termite damage, rodents, and insects to homes and businesses, including hotels, food service establishments, food manufacturers, retailers, and transportation companies. The company also provides pest management and sanitation services and products to the food and commodity industries; consulting services on border protection related to Australia's biosecurity program; and bird control and specialist services, as well as offers specialized services to mining, and oil and gas sectors. In addition, it offers mosquito control, wildlife, lawn care, insulation, and HVAC services. The company serves clients directly, as well as through franchisee operations in the United States, Canada, Australia, Europe, Asia, Mexico, Central and South America, the Caribbean, the Middle East, and Africa. Rollins, Inc. was founded in 1948 and is headquartered in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -11942,6 +14155,11 @@
       <c r="F445" t="n">
         <v>17.744493</v>
       </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>A. O. Smith Corporation manufactures and markets residential and commercial gas and electric water heaters, boilers, tanks, and water treatment products in North America, China, Europe, and India. It operates through two segments, North America and Rest of World. The company offers water heaters for residences, restaurants, hotels and motels, office buildings, laundries, car washes, and small businesses; residential and commercial boilers for space heating applications in hospitals, schools, hotels, and other commercial buildings; and water treatment products, including on-the-go filtration bottles, point-of-use carbon and reverse osmosis products, point-of-entry water softeners, and whole-home water filtration products for residences, restaurants, hotels, and offices. It also provides food and beverage filtration products; expansion tanks, commercial solar water heating systems, swimming pool and spa heaters, and related products and parts; and heat pumps, combi-boilers, solar tank units, and air purification products. The company offers its products primarily under the A. O. Smith, State, Lochinvar, and water softener brands. It distributes its products through independent wholesale plumbing distributors, as well as through retail channels consisting of hardware and home center chains, and manufacturer representative firms; and offers Aquasana branded products directly to consumers through e-commerce, as well as other online retailers. The company was founded in 1874 and is headquartered in Milwaukee, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -11968,6 +14186,11 @@
       <c r="F446" t="n">
         <v>14.400863</v>
       </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Pentair plc provides various smart water solutions worldwide. It operates through three segments: Aquatic Systems, Filtration Solutions, and Flow Technologies. The Aquatic Systems segment manufactures and sells residential and commercial pool equipment and accessories, including pumps, filters, heaters, lights, automatic controls, automatic cleaners, maintenance equipment, and pool accessories for residential and commercial pool maintenance, pool repair, renovation, service and construction, and aquaculture solution applications. This segment offers its products under the Kreepy Krauly, Pentair, and Sta-Rite brand names. The Filtration Solutions segment designs, manufactures, and markets components and systems, such as point-of-entry and point-of-use filtration, valves, and automated controls for residential and commercial applications, as well as advanced filtration, oil and gas separation, membrane technology, and energy recovery for food and beverage, and industrial applications. This segment offers its products under the Codeline, Everpure, Haffmans, Pelican, RainSoft, Südmo, and X-Flow brand names. The Flow Technologies segment manufactures and sells light duty diaphragm pumps, high-flow turbine pumps, and solid handling pumps. Its pumps are used in residential and municipal wells, water treatment, wastewater solids handling, pressure boosting, fluid delivery, circulation and transfer, fire suppression, flood control, agricultural irrigation, and crop spray applications. This segment offers its products under the Aurora, Berkeley, Fairbanks-Nijhuis, Hydromatic, Hypro, Jung Pumpen, Pentair, Myers, Sta-Rite, and Shurflo brand names. It serves businesses engaged in wholesale and retail distribution in the residential and commercial, food and beverage, and industrial verticals, as well as end-users, consumers, and original equipment manufacturers. Pentair plc was founded in 1966 and is headquartered in London, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -11994,6 +14217,11 @@
       <c r="F447" t="n">
         <v>7.968481</v>
       </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>BorgWarner Inc. provides solutions for combustion, hybrid, and electric vehicles worldwide. The company's Engine segment offers turbocharger and turbocharger actuators; eBoosters; and timing systems products, including timing chains, variable cam timing, crankshaft and camshaft sprockets, tensioners, guides and snubbers, front-wheel drive transmission chains, four-wheel drive chains, and hybrid power transmission chains. It also provides emissions systems, such as electric air pumps and exhaust gas recirculation (EGR) modules, EGR coolers and valves, glow plugs, and instant starting systems; thermal systems products comprising viscous fan drives, polymer fans, coolant pumps, cabin heaters, battery heaters, and battery charging; and gasoline ignition technologies. The company's Drivetrain segment offers friction and mechanical products that include dual and friction clutch modules, friction and separator plates, transmission bands, torque converter and one-way clutches, and torsional vibration dampers. It also provides electro-hydraulic solenoids, transmission solenoid modules, and dual clutch control modules; rear-wheel drive/all-wheel drive (AWD) transfer case systems, front wheel drive-AWD coupling systems, and cross-axle coupling systems; starters, alternators, and hybrid electric motors; and motor controllers, battery chargers, and uninterrupted power source systems. The company sells its products to original equipment manufacturers of light vehicles, which comprise passenger cars, sport-utility vehicles, vans, and light trucks; commercial vehicles, including medium-duty and heavy-duty trucks, and buses; and off-highway vehicles, such as agricultural and construction machinery, and marine applications, as well as to tier one vehicle systems suppliers and the aftermarket for light, commercial, and off-highway vehicles. The company was formerly known as Borg-Warner Automotive, Inc. BorgWarner Inc. was founded in 1987 and is headquartered in Auburn Hills, Michigan.</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -12020,6 +14248,11 @@
       <c r="F448" t="n">
         <v>8.448767</v>
       </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Assurant, Inc., through its subsidiaries, provides risk management solutions for housing and lifestyle markets in North America, Latin America, Europe, and the Asia Pacific. The company operates through three segments: Global Housing, Global Lifestyle, and Global Preneed. Its Global Housing segment provides lender-placed homeowners, manufactured housing, and flood insurance; and renters insurance and related products, as well as voluntary manufactured housing insurance, homeowners insurance, and other products. The Global Lifestyle segment offers mobile device protection products and related services, and extended service contracts for consumer electronics and appliances, as well as assistance services; vehicle protection and related services; and credit and other insurance services. Its Global Preneed segment provides pre-funded funeral insurance and annuity products. The company was formerly known as Fortis, Inc. and changed its name to Assurant, Inc. in February 2004. Assurant, Inc. was founded in 1892 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -12046,6 +14279,11 @@
       <c r="F449" t="n">
         <v>9.290698000000001</v>
       </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Textron Inc. operates in the aircraft, defense, industrial, and finance businesses worldwide. The company's Textron Aviation segment manufactures, sells, and services business jets, turboprop and piston engine aircraft, and military trainer and defense aircraft; and commercial parts, as well as offers maintenance, inspection, and repair services. Its Bell segment supplies military and commercial helicopters, tiltrotor aircraft, and related spare parts and services. The company's Textron Systems segment offers unmanned aircraft systems, unmanned surface systems, mission command hardware and solutions, and customer support and logistics services; simulation, training, and other defense and aviation mission support products and services; airborne and ground-based sensors and surveillance systems, and protection systems; precision guided weapons systems; marine craft, armored vehicles, and specialty vehicles used for fire and rescue applications; test equipment, electronic warfare test, and training and intelligence software solutions; and piston aircraft engines, as well as designs, develops, manufactures, installs, and maintains full flight simulators. Its Industrial segment offers blow-molded plastic fuel systems, including conventional plastic fuel tanks and pressurized fuel tanks for hybrid applications, clear-vision systems, and plastic tanks for catalytic reduction systems primarily to automobile OEMs; and golf cars, off-road utility vehicles, recreational side-by-side and all-terrain vehicles, snowmobiles, light transportation vehicles, aviation ground support equipment, professional turf-maintenance equipment, and turf-care vehicles to golf courses and resorts, government agencies and municipalities, consumers, outdoor enthusiasts, and commercial and industrial users. The company's Finance segment provides financing to purchase new and pre-owned aircraft and helicopters. Textron Inc. was founded in 1923 and is headquartered in Providence, Rhode Island.</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -12072,6 +14310,11 @@
       <c r="F450" t="n">
         <v>11.95631</v>
       </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>CF Industries Holdings, Inc. manufactures and distributes nitrogen fertilizers and other nitrogen products worldwide. Its principal nitrogen fertilizer products include anhydrous ammonia, granular urea, urea ammonium nitrate solution, and ammonium nitrate. The company also offers diesel exhaust fluid, urea liquor, nitric acid, and aqua ammonia products, as well as compound fertilizer products with nitrogen, phosphorus, and potassium. It primarily serves cooperatives, independent fertilizer distributors, traders, wholesalers, farmers, and industrial users. The company was founded in 1946 and is headquartered in Deerfield, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -12098,6 +14341,11 @@
       <c r="F451" t="n">
         <v>-356.2727</v>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Live Nation Entertainment, Inc. operates as a live entertainment company. It operates through Concerts, Sponsorship &amp; Advertising, and Ticketing segments. The Concerts segment promotes live music events in its owned or operated venues, and in rented third-party venues; operates and manages music venues; and produces music festivals and creates associated content. This segment also provides management and other services to artists. The Sponsorship &amp; Advertising segment sells sponsorships and placement of advertising, including signage, online advertising, and promotional programs, as well as live streaming and music-related content; and ads across its distribution network of venues, events, and Websites. This segment also manages the development of strategic sponsorship programs, as well as develops, books, and produces custom events for specific brands. The Ticketing segment manages the ticketing operations, including the provision of ticketing software and services to clients, as well as ticket resale services; and offers online access for customers relating to ticket and event information through its primary Websites, livenation.com and ticketmaster.com. This segment sells tickets for its events, as well as for third-party clients in various live event categories, such as arenas, stadiums, amphitheaters, music clubs, concert promoters, professional sports franchises and leagues, college sports teams, performing arts venues, museums, and theaters. It sells tickets through Websites, mobile apps, ticket outlets, and telephone call centers. As of December 31, 2018, it owned, operated, or leased 120 entertainment venues and 144 other facilities in North America; and 37 entertainment venues and 118 other facilities internationally. The company was formerly known as Live Nation, Inc. and changed its name to Live Nation Entertainment, Inc. in January 2010. Live Nation Entertainment, Inc. was incorporated in 2005 and is headquartered in Beverly Hills, California.</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -12124,6 +14372,11 @@
       <c r="F452" t="n">
         <v>31.334766</v>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>IPG Photonics Corporation develops and manufactures a range of high-performance fiber lasers, fiber amplifiers, and diode lasers used in various applications primarily in materials processing worldwide. The company's laser products include high power lasers; fiber pigtailed packaged diodes and fiber coupled direct diode laser systems; high-energy pulsed lasers, multi-wavelength and tunable lasers, and single-polarization and single-frequency lasers; and high power optical fiber delivery cables, fiber couplers, beam switches, chillers, scanners, and other accessories. It also provides erbium-doped fiber and Raman amplifiers, and integrated communications systems, which are deployed in broadband networks; and ytterbium and thulium specialty fiber amplifiers and broadband light sources. In addition, the company offers integrated laser systems; 2D compact flat sheet cutter systems and multi-axis systems; welding seam stepper and picker, a fiber laser welding tool; and specialized fiber laser systems for material processing applications; and optical transceiver and transponder modules for interconnecting electronic equipment, including Ethernet switches, IP routers and SONET/SDH optical transport modules within telecommunications, cable multi-system operator, and data center networking applications. Its lasers and amplifiers are also used in materials processing, advanced communications, and medical applications. The company markets its products to original equipment manufacturers, system integrators, and end users through direct sales force, as well as through agreements with independent sales representatives and distributors. IPG Photonics Corporation was founded in 1990 and is headquartered in Oxford, Massachusetts.</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -12150,6 +14403,11 @@
       <c r="F453" t="n">
         <v>14.674342</v>
       </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Robert Half International Inc. provides staffing and risk consulting services in North America, South America, Europe, Asia, and Australia. The company operates through three segments: Temporary and Consultant Staffing, Permanent Placement Staffing, and Risk Consulting and Internal Audit Services. It places temporary services for accounting, finance, and bookkeeping; temporary and full-time office and administrative personnel consisting of executive and administrative assistants, receptionists, and customer service representatives; full-time accounting, financial, tax, and accounting operations personnel; and information technology contract consultants and full-time employees in the areas of platform systems integration to end-user technical and desktop support, including specialists in application development, networking, systems integration and deployment, database design and administration, and security and business continuity. The company also offers temporary and full-time employees in attorney, paralegal, legal administrative, and legal secretarial positions; and senior level project professionals in the accounting and finance fields for financial systems conversions, expansion into new markets, business process reengineering, business systems performance improvement, and post-merger financial consolidation. In addition, it is involved in serving professionals in the areas of interactive media, design, marketing, advertising, and public relations; and placing freelance and project consultants in various positions, such as creative directors, graphics designers, Web content developers, Web designers, media buyers, brand managers, and public relations specialists. Further, the company provides business and technology risk consulting, and internal audit services. It serves clients and employment candidates. Robert Half International Inc. was founded in 1948 and is headquartered in Menlo Park, California.</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -12176,6 +14434,11 @@
       <c r="F454" t="n">
         <v>43.22222</v>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Vornado's portfolio is concentrated in the nation's key market  New York City  along with the premier asset in both Chicago and San Francisco. Vornado is also the real estate industry leader in sustainability policy. The company owns and manages over 23 million square feet of LEED certified buildings and received the Energy Star Partner of the Year Award, Sustained Excellence 2019. In 2012, Vornado commemorated 50 years on the NYSE.</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -12202,6 +14465,11 @@
       <c r="F455" t="n">
         <v>119.82143</v>
       </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Aimco is a real estate investment trust focused on the ownership and management of quality apartment communities located in select markets in the United States. Aimco is one of the country's largest owners and operators of apartments, with ownership interests in 124 apartment communities in 17 states and the District of Columbia. Aimco common shares are traded on the New York Stock Exchange under the ticker symbol AIV and are included in the S&amp;P 500.</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -12228,6 +14496,11 @@
       <c r="F456" t="n">
         <v>10.072626</v>
       </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Franklin Resources, Inc. is a publicly owned asset management holding company. Through its subsidiaries, the firm provides its services to individuals, institutions, pension plans, trusts, and partnerships. It launches equity, fixed income, balanced, and multi-asset mutual funds through its subsidiaries. The firm invests in the public equity, fixed income, and alternative markets. Franklin Resources, Inc. was founded in 1947 and is based in San Mateo, California with an additional office in Hyderabad, India.</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -12254,6 +14527,11 @@
       <c r="F457" t="n">
         <v>8.290540999999999</v>
       </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Carnival Corporation &amp; Plc operates as a leisure travel company. The company's ships visit approximately 700 ports under the Carnival Cruise Line, Princess Cruises, Holland America Line, Seabourn, P&amp;O Cruises (Australia), Costa Cruises, AIDA Cruises, P&amp;O Cruises (UK), and Cunard brand names. It also provides vacations to various cruise destinations, as well as owns and operates hotels, lodges, glass-domed railcars, and motor coaches. The company sells its cruises primarily through travel agents and tour operators. It operates in the United States, Canada, Continental Europe, the United Kingdom, Australia, New Zealand, Asia, and internationally. As of January 28, 2020, the company operated 105 ships with 254,000 lower berths. Carnival Corporation &amp; Plc was incorporated in 1972 and is headquartered in Miami, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -12280,6 +14558,11 @@
       <c r="F458" t="n">
         <v>22.228569</v>
       </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Federal Realty is a recognized leader in the ownership, operation and redevelopment of high-quality retail based properties located primarily in major coastal markets from Washington, D.C. to Boston as well as San Francisco and Los Angeles. Founded in 1962, Federal Realty's mission is to deliver long term, sustainable growth through investing in densely populated, affluent communities where retail demand exceeds supply. Its expertise includes creating urban, mixed-use neighborhoods like Santana Row in San Jose, California, Pike &amp; Rose in North Bethesda, Maryland and Assembly Row in Somerville, Massachusetts. These unique and vibrant environments that combine shopping, dining, living and working provide a destination experience valued by their respective communities. Federal Realty's 104 properties include approximately 3,000 tenants, in 24 million square feet, and over 2,700 residential units. Federal Realty has increased its quarterly dividends to its shareholders for 52 consecutive years, the longest record in the REIT industry. Federal Realty is an S&amp;P 500 index member and its shares are traded on the NYSE under the symbol FRT.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -12306,6 +14589,11 @@
       <c r="F459" t="n">
         <v>9.741072000000001</v>
       </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>People's United Financial, Inc. operates as the bank holding company for People's United Bank, National Association that provides commercial banking, retail banking, and wealth management services to individual, corporate, and municipal customers. The company operates in two segments, Commercial Banking and Retail Banking. The Commercial Banking segment offers commercial real estate lending, commercial and industrial lending, and commercial deposit gathering services. This segment also provides equipment financing; cash management, correspondent banking, and municipal banking services; and institutional trust, corporate trust, private banking, and commercial insurance services. The Retail Banking segment offers consumer lending, including residential mortgage and home equity lending; and consumer deposit gathering services. This segment also provides brokerage, financial advisory, investment management, life insurance, and non-institutional trust services. In addition, the company offers online banking, investment trading, and telephone banking services. It operates through a network of 450 branches in Connecticut, southeastern New York, Massachusetts, Vermont, Maine, and New Hampshire, as well as 602 ATMs. The company was founded in 1842 and is headquartered in Bridgeport, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -12332,6 +14620,11 @@
       <c r="F460" t="n">
         <v>8.069444000000001</v>
       </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Newell Brands Inc. designs, manufactures, sources, and distributes consumer and commercial products worldwide. The company operates through four segments: Appliances and Cookware, Food and Commercial, Home and Outdoor Living, and Learning and Development. The Appliances and Cookware segment offers household products, including kitchen appliances, gourmet cookware, bakeware, and cutlery under the Calphalon, Crock-Pot, Mr. Coffee, Oster, and Sunbeam brands. The Food and Commercial segment offers food storage and home storage products, and fresh preserving products, vacuum sealing products, commercial cleaning and maintenance solutions, hygiene systems, and material handling solutions under the Ball, FoodSaver, Rubbermaid, Sistema, Rubbermaid Commercial Products, Mapa, Quickie, and Spontex brands. The Home and Outdoor Living segment offers products for outdoor and outdoor-related activities, home fragrance, and connected home and security products under the Chesapeake Bay Candle, Coleman, Contigo, ExOfficio, First Alert, Marmot, WoodWick, and Yankee Candle brands. The Learning and Development segment offers writing instruments, including markers and highlighters, pens, and pencils; art products; activity-based adhesive and cutting products; labeling solutions; and baby gear and infant care products under the Aprica, Baby Jogger, Dymo, Elmer's, EXPO, Graco, Mr. Sketch, NUK, Paper Mate, Parker, Prismacolor, Sharpie, Tigex Waterman, and X-Acto brands. It markets its products to clubs, department stores, drug/grocery stores, mass merchants, specialty retailers, distributors and e-commerce companies, home centers, sporting goods retailers, warehouse clubs, office superstores and supply stores, contract stationers, and travel retail, as well as sells directly to consumers via on-line. Newell Brands Inc. was formerly known as Newell Rubbermaid Inc. and changed its name to Newell Brands Inc. in April 2016. The company was founded in 1903 and is based in Atlanta, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -12358,6 +14651,11 @@
       <c r="F461" t="n">
         <v>4.185567</v>
       </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>United Airlines Holdings, Inc., through its subsidiaries, provides air transportation services in North America, Asia, Europe, Africa, the Pacific, the Middle East, and Latin America. It transports people and cargo through its mainline and regional fleets. As of February 28, 2020, the company operated approximately 791 mainline aircraft. It also sells fuel; and offers catering, ground handling, and maintenance services for third parties. The company was formerly known as United Continental Holdings, Inc. and changed its name to United Airlines Holdings, Inc. in June 2019. United Airlines Holdings, Inc. was founded in 1934 and is headquartered in Chicago, Illinois.</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -12375,17 +14673,18 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>4512759808</v>
+      </c>
+      <c r="F462" t="n">
+        <v>9.029508999999999</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Zions Bancorporation, National Association provides various banking and related services primarily in Arizona, California, Colorado, Idaho, Nevada, New Mexico, Oregon, Texas, Utah, Washington, and Wyoming. The company offers community banking services, such as small and medium-sized business and corporate banking; commercial and residential development, construction, and term lending; retail banking; treasury cash management and related products and services; residential mortgage servicing and lending services; trust and wealth management services; capital markets services, including municipal finance advisory and underwriting; and investment services. It also offers personal banking services to individuals, including home mortgages, bankcards, other installment loans, home equity lines of credit, checking accounts, savings accounts, certificates of deposit of various types and maturities, trust services, safe deposit facilities, and internet and mobile banking services. In addition, the company provides self-directed brokerage services; small business administration lending and secondary market agricultural real estate mortgage loans; corporate trust services for municipalities; and bond transfer, stock transfer, and escrow services. As of December 31, 2019, it operated 434 branches. The company was formerly known as ZB, National Association and changed its name to Zions Bancorporation, National Association in September 2018. Zions Bancorporation, National Association was founded in 1873 and is headquartered in Salt Lake City, Utah.</t>
         </is>
       </c>
     </row>
@@ -12414,6 +14713,11 @@
       <c r="F463" t="n">
         <v>-16.422535</v>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Devon Energy Corporation, an independent energy company, primarily engages in the exploration, development, and production of oil, natural gas, and natural gas liquids in the United States. It operates approximately 3,955 gross wells. The company was founded in 1971 and is headquartered in Oklahoma City, Oklahoma.</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12440,6 +14744,11 @@
       <c r="F464" t="n">
         <v>-6.064516</v>
       </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Marathon Oil Corporation operates as an independent exploration and production company in the United States and Equatorial Guinea. The company engages in the exploration, production, and marketing of crude oil and condensate, natural gas liquids, and natural gas; and the production and marketing of products manufactured from natural gas, such as liquefied natural gas and methanol, as well as owns and operates 32 central gathering and treating facilities and the Sugarloaf gathering system, a 42-mile natural gas pipeline through Karnes and Atascosa Counties. As of December 31, 2019, it had estimated proved developed reserves totaling 721 million barrels of oil equivalent (mmboe); and estimated proved undeveloped reserves totaling 484 mmboe. The company was formerly known as USX Corporation and changed its name to Marathon Oil Corporation in July 2001. Marathon Oil Corporation was founded in 1887 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12466,6 +14775,11 @@
       <c r="F465" t="n">
         <v>9.118848</v>
       </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Mohawk Industries, Inc. designs, manufactures, sources, distributes, and markets flooring products for remodeling and new constructions of residential and commercial spaces in the United States, Europe, Russia, and internationally. It operates through three segments: Global Ceramic, Flooring North America (Flooring NA), and Flooring Rest of the World (Flooring ROW). The Global Ceramic segment provides a range of ceramic tile, porcelain tile, and natural stone products; and sources, markets, and distributes other tile related products. This segment markets and distributes its products under the American Olean, Daltile, Eliane, EmilGroup, KAI, Kerama Marazzi, Marazzi, and Ragno brands. The Flooring NA segment offers floor covering product lines in a range of colors, textures, and patterns, including carpets, carpet tiles, rugs and mats, carpet pads, hardwood, laminate, medium-density fiberboards, luxury vinyl tiles (LVT), and sheet vinyl products. This segment markets and distributes its flooring products under the Aladdin Commercial, Durkan, IVC, Karastan, Mohawk, Mohawk Group, Mohawk Home, Pergo, Portico, and Quick-Step brands. The Flooring ROW segment provides hardwood flooring and vinyl flooring, as well as laminates, roofing elements, sheet vinyl, LVT, insulation boards, medium-density fiberboards, chipboards, and other woods products under the Balterio, Feltex, Godfrey Hirst, Hycraft, IVC, Leoline, Moduleo, Pergo, Quick-Step, and Unilin and Xtratherm brands; and licenses its intellectual property to flooring manufacturers. The company sells its products through independent distributors, home centers, company-operated service centers and stores, floor covering retailers, ceramic specialists, commercial contractors, commercial end users, mass merchandisers, department stores, e-commerce retailers, shop at home, buying groups, retailers, and wholesalers, as well as private labeling programs. Mohawk Industries, Inc. was founded in 1988 and is headquartered in Calhoun, Georgia.</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12483,17 +14797,18 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>4571822592</v>
+      </c>
+      <c r="F466" t="n">
+        <v>10.058219</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Sealed Air Corporation provides food safety and security, and product protection solutions and equipment in North America, South America, Europe, the Middle East, Africa, and the Asia Pacific. It operates in two segments, Food Care and Product Care. The Food Care segment offers integrated packaging materials, equipment, and automation solutions to provide food safety and shelf life extension, and reduce resource use for perishable food processors in the smoked and processed meats, poultry, and dairy markets under the Cryovac, Cryovac Grip &amp; Tear, Cryovac Darfresh, Cryovac Mirabella, Simple Steps, and Optidure brands. This segment sells its solutions directly to customers through its sales, marketing, and customer service personnel. The Product Care segment provides foam, corrugated, molded pulp, and wood packaging solutions to protect goods in shipping for the e-commerce, electronics, transportation, and industrial markets under the Bubble Wrap, Sealed Air, Instapak, and Korrvu brands, as well as offers automated bagging systems under the Autobag brand. This segment sells its solutions through supply distributors, as well as directly to fabricators, original equipment manufacturers, contract manufacturers, third-party logistics partners, e-commerce/fulfillment operations, and retail centers. Sealed Air Corporation was founded in 1960 and is headquartered in Charlotte, North Carolina.</t>
         </is>
       </c>
     </row>
@@ -12522,6 +14837,11 @@
       <c r="F467" t="n">
         <v>-58.35</v>
       </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>National Oilwell Varco, Inc. designs, constructs, manufactures, and sells systems, components, and products for oil and gas drilling and production worldwide. It operates through three segments: Wellbore Technologies, Completion &amp; Production Solutions, and Rig Technologies. The company offers various equipment and technologies used to perform drilling operations. It also provides solids control and waste management equipment and services; drilling fluids; portable power generation products; drill and wired pipes; drilling optimization and automation services; tubular inspection, repair, and coating services; instrumentation, and measuring and monitoring services; downhole and fishing tools; steerable technologies; and drill bits. The company offers equipment and technologies for hydraulic fracture stimulation, including pressure pumping trucks, blenders, sanders, hydration units, injection units, flowline, and manifolds; well intervention, such as coiled tubing units, coiled tubing, and wireline units, as well as blowout preventers and tools; onshore production comprising fluid processing systems, composite pipes, surface transfer and progressive cavity pumps, and artificial lift systems; offshore production that include fluid processing systems, floating production systems, and subsea production technologies; and connectors for conductor pipes. It also provides substructures, derricks, and masts; cranes; jacking systems; pipe lifting, racking, rotating, and assembly systems; mud pumps; blowout preventers; drives and generators; rig instrumentation and control systems; equipment components for offshore wind construction vessels; mooring, anchor, and deck handling machinery; and pipelay and construction systems. The company offers spare parts, repair, and rentals, as well as remote equipment monitoring, technical support, field service, and customer training services. National Oilwell Varco, Inc. was founded in 1862 and is based in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12548,6 +14868,11 @@
       <c r="F468" t="n">
         <v>7.8253164</v>
       </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Quanta Services, Inc. provides specialty contracting services in the United States, Canada, Australia, Latin America, and internationally. Its Electric Power Infrastructure Services segment designs, installs, upgrades, repairs, and maintains electric power transmission and distribution infrastructure, and substation facilities, as well as provides other engineering and technical services; designs, installs, maintains, and repairs commercial and industrial wiring; and operates a postsecondary educational institution. It also offers emergency restoration services, including the repair of infrastructure damaged by inclement weather; installation, maintenance, and upgrade of electric power infrastructure; and installation of smart grid technologies on electric power networks. In addition, this segment provides services related to development of solar, wind, and various natural gas generation facilities, as well as related switchyards and transmission infrastructure; and construction of electric power generation facilities. The company's Pipeline and Industrial Infrastructure Services segment designs, installs, repairs, and maintains pipeline transmission and distribution systems, gathering systems, production systems, storage systems, and compressor and pump stations, as well as offers related trenching, directional boring, and mechanized welding services; and designs, installs, and maintains fueling systems, and water and sewer infrastructure. This segment also provides pipeline protection, integrity testing, and rehabilitation and replacement, as well as pipeline support systems, and related structures and facilities fabrication services; and high-pressure and critical-path turnaround, electrical, piping, fabrication, and storage tank services. It serves electric power, energy, and communications companies, as well as commercial, industrial, and governmental entities. The company was founded in 1997 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12574,6 +14899,11 @@
       <c r="F469" t="n">
         <v>7.64881</v>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Nielsen Holdings plc, together with its subsidiaries, operates as a measurement and data analytics company. It operates in two segments, Buy and Watch. The Buy segment provides retail transactional measurement data, consumer behavior information, and analytics primarily to businesses in the consumer packaged goods industry. This segment offers data on retail measurement services, such as market share, competitive sales volumes, and insights into activities, such as distribution, pricing, merchandising, and promotion; consumer panel measurement, which offers insight into shopper behavior comprising trial and repeat purchase for new products, brand or retailer loyalty, and customer segmentation; and consumer intelligence and analytical services that help clients in taking business decisions in product development and marketing cycles. The Watch segment provides viewership and listening data, and analytics principally to the media and advertising industries covering television, radio, print, online, digital, mobile viewing, and listening platforms. This segment offers television audience measurement services; audio audience measurement services; digital audience measurement services, such as digital media and market research, audience analytics, and social media measurement; mobile measurement services comprising measurement and consumer research for telecom and media companies; and total audience measurement services. Nielsen Holdings plc provides media and marketing information, analytics, and manufacturer and retailer expertise about what and where consumers buy, read, watch, and listen. The company has a strategic partnership with Quotient Technology to create new industry omni-channel data sets. The company was formerly known as Nielsen N.V. and changed its name to Nielsen Holdings plc in August 2015. Nielsen Holdings plc was founded in 1923 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12600,6 +14930,11 @@
       <c r="F470" t="n">
         <v>8.694215</v>
       </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Comerica Incorporated, through its subsidiaries, provides various financial products and services. It operates through three segments: Business Bank, Retail Bank, and Wealth Management. The Business Bank segment offers various products and services, including commercial loans and lines of credit, deposits, cash management, capital market products, international trade finance, letters of credit, foreign exchange management services, and loan syndication services for small and middle market businesses, multinational corporations, and governmental entities. The Retail Bank segment provides personal financial services, such as consumer lending, consumer deposit gathering, and mortgage loan origination. It also offers various consumer products that include deposit accounts, installment loans, credit cards, student loans, home equity lines of credit, and residential mortgage loans. The Wealth Management segment provides products and services comprising fiduciary, private banking, retirement, investment management and advisory, and investment banking and brokerage services. It also sells annuity products; and life, disability, and long-term care insurance products. The Finance segment engages in the securities portfolio, and asset and liability management activities. It operates in Texas, California, Michigan, Arizona and Florida, as well as in Canada and Mexico. The company was formerly known as DETROITBANK Corporation and changed its name to Comerica Incorporated in July 1982. Comerica Incorporated was founded in 1849 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12626,6 +14961,11 @@
       <c r="F471" t="n">
         <v>11</v>
       </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>HollyFrontier Corporation operates as an independent petroleum refiner and marketer in the United States. The company operates through three segments: Refining, Lubricants and Specialty Products, and HEP. It primarily produces light products, such as gasoline, diesel fuel, jet fuel, and specialty lubricant products, as well as asphalt. The company offers its products to other refiners, convenience store chains, independent marketers, retailers, truck stop chains, wholesalers, railroads, governmental entities, and paving contractors or manufacturers, as well as for commercial airline use. It owns and operates five refineries with a combined crude oil processing capacity of approximately 457,000 barrels per stream day in El Dorado, Kansas; Tulsa, Oklahoma; Artesia, New Mexico; Cheyenne, Wyoming; and Woods Cross, Utah. The company also owns and operates vacuum distillation and other facilities in Lovington, New Mexico, as well as asphalt terminals in Arizona, New Mexico, and Oklahoma. Its refineries serve markets in the Mid-Continent, Southwest, and Rocky Mountain regions of the United States. In addition, the company produces base oils and other specialized lubricant products; and owns and operates logistic and refinery assets consisting of petroleum product and crude oil pipelines, terminals, tankage, loading rack facilities, and refinery processing units. Further, it exports its products to approximately 80 countries. The company was formerly known as Holly Corporation and changed its name to HollyFrontier Corporation in July 2011. HollyFrontier Corporation was incorporated in 1947 and is headquartered in Dallas, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12643,17 +14983,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>4906158592</v>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Howmet Aerospace Inc. provides advanced engineered solutions for the aerospace and transportation industries. It offers jet engine components, aerospace fastening systems, and titanium structural parts for mission-critical performance and efficiency in aerospace and defense applications, as well as forged wheels for commercial transportation. The company, formerly known as Arconic Inc., is headquartered in Pittsburgh, Pennsylvania.</t>
         </is>
       </c>
     </row>
@@ -12682,6 +15021,11 @@
       <c r="F473" t="n">
         <v>-11.582191</v>
       </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Noble Energy, Inc., an independent energy company, engages in the acquisition, exploration, development, and production of crude oil and natural gas worldwide. The company also owns, operates, develops, and acquires domestic midstream infrastructure assets in the DJ and Delaware Basins. Its assets are located in the US onshore unconventional basins and various global offshore conventional basins in the Eastern Mediterranean and off the west coast of Africa. As of December 31, 2019, the company had 2,050 million barrels oil equivalent of total proved reserves. Noble Energy, Inc. was founded in 1932 and is headquartered in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -12708,6 +15052,11 @@
       <c r="F474" t="n">
         <v>-7.453237</v>
       </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Apache Corporation, an independent energy company, explores for, develops, and produces natural gas, crude oil, and natural gas liquids (NGLs). The company has operations in onshore assets located in the Permian and Midcontinent/Gulf Coast onshore regions; and offshore assets situated in the Gulf of Mexico region. It also holds onshore assets in Egypt's Western desert; and offshore assets in the North Sea region, including the United Kingdom. In addition, the company has an offshore exploration program in Suriname. As of December 31, 2019, it had total estimated proved reserves of 551 million barrels of crude oil, 186 million barrels of NGLs, and 1.6 trillion cubic feet of natural gas. Apache Corporation was founded in 1954 and is based in Houston, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12734,6 +15083,11 @@
       <c r="F475" t="n">
         <v>71.533325</v>
       </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>News Corporation, a media and information services company, creates and distributes content for consumers and businesses worldwide. It operates in five segments: News and Information Services, Subscription Video Services, Book Publishing, Digital Real Estate Services, and Other. The company distributes content and data products, including The Wall Street Journal, Factiva, Dow Jones Risk &amp; Compliance, Dow Jones Newswires, Barron's, and MarketWatch through various media channels, such as newspapers, newswires, Websites, applications for mobile devices, tablets and e-book readers, newsletters, magazines, proprietary databases, live journalism, videos, and podcasts. It also owns and operates daily, Sunday, weekly, and bi-weekly newspapers comprising The Australian, The Weekend Australian, The Daily Telegraph, The Sunday Telegraph, Herald Sun, Sunday Herald Sun, The Courier Mail, The Sunday Mail, The Advertiser, Sunday Mail, The Sun, The Sun on Sunday, The Times, The Sunday Times, and New York Post, as well as digital mastheads and other Websites. In addition, the company offers in-store marketing products and services primarily to consumer packaged goods manufacturers; home-delivered shopper media, including free-standing inserts and direct mail products; digital marketing solutions; and in-store merchandising services. Further, it publishes general fiction, nonfiction, children's, and religious books; provides video sports, entertainment, and news services to pay-TV subscribers and other commercial licensees primarily through cable, satellite, and Internet distribution; and broadcasts rights to live sporting events. Additionally, the company offers property and property-related services on its Websites and mobile applications; online real estate services; and professional software and services products, which comprise Top Producer and ListHub. News Corporation was incorporated in 2012 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12760,6 +15114,11 @@
       <c r="F476" t="n">
         <v>10.689363</v>
       </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Fox Corporation operates as a news, sports, and entertainment company in the United States. The company operates through Cable Network Programming; Television; and Other, Corporate and Eliminations segments. The Cable Network Programming segment produces and licenses news, business news, and sports content for distribution primarily through cable television systems, direct broadcast satellite operators, telecommunications companies, and online multi-channel video programming distributors. It operates FOX News, a national cable news channel; FOX Business, a business news national cable channel; FS1 and FS2 multi-sport national networks; FOX Sports Racing, a video programming service that comprise motor sports programming; and FOX Soccer Plus video programming network for live soccer and rugby competitions; FOX Deportes, a Spanish-language sports programming service; and Big Ten Network, a national video programming service. The Television segment acquires, produces, markets, and distributes broadcast network programming. It operates The FOX Network, a national television broadcast network that broadcasts sports programming and entertainment. This segment owns and operates 28 broadcast television stations. The Other, Corporate and Eliminations segment owns the FOX Studios lot that provides production services, including 15 sound stages, 4 scoring and mixing stages, 2 broadcast studios, theaters and screening rooms, editing bays, and other production facilities in Los Angeles, California. The company was incorporated in 2018 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12786,6 +15145,11 @@
       <c r="F477" t="n">
         <v>2.9417474</v>
       </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>DXC Technology Company, together with its subsidiaries, provides information technology services and solutions primarily in North America, Europe, Asia, and Australia. It operates in two segments, Global Business Services (GBS) and Global Infrastructure Services (GIS). The GBS segment offers technology solutions comprising enterprise, cloud application, and consulting services; application services; analytics services; business process services; and industry software and solutions. The GIS segment provides cloud and platform services; workplace, mobility, and Internet of Things services; and security solutions. The company was formerly known as Computer Sciences Corporation and changed its name to DXC Technology Company in April 2017 as a result of its merger with the Enterprise Services business of Hewlett Packard Enterprise Company. DXC Technology Company was founded in 1959 and is headquartered in Tysons, Virginia.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12812,6 +15176,11 @@
       <c r="F478" t="n">
         <v>13.969697</v>
       </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Kimco Realty Corp. (NYSE: KIM) is a real estate investment trust (REIT) headquartered in Jericho, N.Y. that is one of North America's largest publicly traded owners and operators of open-air shopping centers. As of December 31, 2019, the company owned interests in 409 U.S. shopping centers and mixed-use assets comprising 72.4 million square feet of gross leasable space primarily concentrated in the top major metropolitan markets. Publicly traded on the NYSE since 1991, and included in the S&amp;P 500 Index, the company has specialized in shopping center acquisitions, development and management for more than 60 years.</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12838,6 +15207,11 @@
       <c r="F479" t="n">
         <v>-228.75</v>
       </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>American Airlines Group Inc., through its subsidiaries, operates as a network air carrier. It provides scheduled air transportation services for passengers and cargo. As of December 31, 2019, the company operated a mainline fleet of 942 aircraft. It serves 365 destinations in approximately 61 countries, principally from its hubs and gateways in Charlotte, Chicago, Dallas/Fort Worth, London Heathrow, Los Angeles, Miami, New York, Philadelphia, Phoenix, and Washington, D.C. The company was formerly known as AMR Corporation and changed its name to American Airlines Group Inc. in December 2013. American Airlines Group Inc. was founded in 1930 and is headquartered in Fort Worth, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -12864,6 +15238,11 @@
       <c r="F480" t="n">
         <v>10.097087</v>
       </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>The Mosaic Company, through its subsidiaries, produces and markets concentrated phosphate and potash crop nutrients in North America and internationally. The company operates through three segments: Phosphates, Potash, and Mosaic Fertilizantes. It owns and operates mines, which produce concentrated phosphate crop nutrients, such as diammonium phosphate, monoammonium phosphate, and ammoniated phosphate products; and phosphate-based animal feed ingredients primarily under the Biofos and Nexfos brand names, as well as produce a double sulfate of potash magnesia product under K-Mag brand name. The company also produces and sells potash for use in the manufacturing of mixed crop nutrients and animal feed ingredients, and for industrial use; and for use in the de-icing and as a water softener regenerant, as well as fluorosilicic acid for water fluoridation. In addition, it provides nitrogen-based crop nutrients and animal feed ingredients, and other ancillary services; and purchases and sells phosphates, potash, and nitrogen products. The company sells its products to wholesale distributors, retail chains, cooperatives, independent retailers, and national accounts. The Mosaic Company was founded in 2004 and is headquartered in Tampa, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -12890,6 +15269,11 @@
       <c r="F481" t="n">
         <v>7.660494</v>
       </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Tapestry, Inc. provides luxury accessories and branded lifestyle products in the United States, Japan, China, Hong Kong, Macau, Europe, Canada, Taiwan, South Korea, Malaysia, Australia, New Zealand, and Singapore. The company operates through three segments: Coach, Kate Spade, and Stuart Weitzman. It offers women's accessories, including handbags, such as wallets, money pieces, wristlets, and cosmetic cases; novelty accessories comprising address books, time management accessories, travel accessories, sketchbooks, and portfolios; key rings; and charms. The company also provides bag collections, including business cases, computer bags, messenger-style bags, backpacks, and totes; small leather goods, such as wallets, card cases, travel organizers, and belts; and footwear, watches, sunglasses, novelty accessories, and ready-to-wear for men. In addition, it offers women's footwear; sunglasses; bracelets, necklaces, rings, and earrings; fragrances and watches; various women's seasonal lifestyle apparel collections that include outerwear; and ready-to-wear and cold weather accessories, which comprise gloves, scarves, and hats. Further, the company provides kids ready-to-wear items; fashion bedding and tableware; and stationery and gifts. Additionally, it licenses rights to market and distribute its eyewear, watches, and fragrances under the Coach brand; and fashion beddings, eyewear, footwear, tableware, stationery and gifts, tech accessories, and watches under the Kate Spade brand. The company sells its products to consumers through a network of Coach, Kate Spade, and Stuart Weitzman operated stores, including the Internet and concession shop-in-shops; and wholesale customers, as well as through independent third party distributors. As of June 29, 2019, it operated 1,540 stores. The company was formerly known as Coach, Inc. and changed its name to Tapestry, Inc. in October 2017. Tapestry, Inc. was founded in 1941 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -12916,6 +15300,11 @@
       <c r="F482" t="n">
         <v>11.658407</v>
       </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Ralph Lauren Corporation designs, markets, and distributes lifestyle products in North America, Europe, Asia, and internationally. The company offers apparel, including a range of men's, women's, and children's clothing accessories, which comprise footwear, eyewear, watches, fashion and fine jewelry, scarves, hats, gloves, umbrellas, and belts, as well as leather goods, such as handbags, luggage, small leather goods, and belts; home products consisting of bedding and bath products, furniture, fabrics and wallpapers, lightings, tabletops, floorcoverings, and giftware; and fragrances. It sells apparel and accessories under the Ralph Lauren Collection, Ralph Lauren Purple Label, Polo Ralph Lauren, Double RL, Lauren Ralph Lauren, Polo Golf Ralph Lauren, Ralph Lauren Golf, RLX Ralph Lauren, Polo Ralph Lauren Children, Chaps, Club Monaco, and other brand names; women's fragrances under the Ralph Lauren Collection, Woman by Ralph Lauren, Romance Collection, Ralph Collection, and Big Pony Women's brand names; and men's fragrances under the Polo Blue, Safari, Purple Label, Polo Red, Polo Green, Polo Black, Polo Supreme, Polo Sport, and Big Pony Men's brand names. The company's restaurant concepts include The Polo Bar in New York City; RL Restaurant in Chicago; Ralph's in Paris; and Ralph's Coffee concept. It sells its products to department stores, specialty stores, and golf and pro shops, as well as directly to consumers through its retail stores, concession-based shop-within-shops, and its digital commerce sites. The company directly operates 501 retail stores and 653 concession-based shop-within-shops; and operates 108 Ralph Lauren stores, 39 Ralph Lauren concession shops, and 138 Club Monaco stores and shops through licensing partners. Ralph Lauren Corporation was founded in 1967 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -12942,6 +15331,11 @@
       <c r="F483" t="n">
         <v>12.690141</v>
       </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Leggett &amp; Platt, Incorporated designs and produces various engineered components and products worldwide. It operates through three segments: Bedding Products; Furniture, Flooring &amp; Textile Products; and Specialized Products. The company offers innersprings, wire forms, specialty foams, and machines to shape wire into various types of innersprings; industrial sewing/finishing machines, conveyor lines, mattress packaging, and glue-drying equipment, as well as quilting machines; and structural fabrics, carpet cushions and hard surface flooring underlayment, and geo components to manufacturers of finished bedding, upholstered furniture, packaging, filtration, and draperies; flooring retailers and distributors of carpet cushions; and contractors, landscapers, road construction companies, and government agencies using geo components. It also provides drawn wires and steel rods to packaging and baling companies, mechanical spring manufacturers, and wire distributors, as well as bedding and furniture components, and automotive seat support and lumbar systems. In addition, the company offers bases, columns, back rests, control devices, and casters and frames; private-label finished furniture; beds and bed frames; adjustable beds; and steel mechanisms and hardware, and springs and seat suspensions to upholstered and office furniture manufacturers; department stores and big box retailers; e-commerce retailers; and mattress and furniture retailers. Further, it provides mechanical and pneumatic lumbar support and massage systems, seat suspension systems, motors and actuators, and cables; titanium, nickel, and stainless steel tubing, formed tube, and tube assemblies; and engineered hydraulic cylinders to automobile and aerospace OEMs, mobile equipment OEMs, and aerospace suppliers. The company sells its products through sales representatives and distributors. Leggett &amp; Platt, Incorporated was founded in 1883 and is based in Carthage, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -12968,6 +15362,11 @@
       <c r="F484" t="n">
         <v>36.47222</v>
       </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>SL Green Realty Corp., an S&amp;P 500 company and Manhattan's largest office landlord, is a fully integrated real estate investment trust, or REIT, that is focused primarily on acquiring, managing and maximizing value of Manhattan commercial properties. As of March 31, 2020, SL Green held interests in 102 buildings totaling 49.4 million square feet. This included ownership interests in 28.8 million square feet of Manhattan buildings and 19.6 million square feet securing debt and preferred equity investments.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -12994,6 +15393,11 @@
       <c r="F485" t="n">
         <v>6.8789473</v>
       </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Alaska Air Group, Inc., through its subsidiaries, provides passenger and cargo air transportation services. The company operates through three segments: Mainline, Regional, and Horizon. It has a network of approximately 1,300 daily flights to 115 destinations across the United States, Mexico, Canada, and Costa Rica. The company was founded in 1932 and is based in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -13020,6 +15424,11 @@
       <c r="F486" t="n">
         <v>8.688889</v>
       </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Harley-Davidson, Inc. manufactures and sells custom, cruiser, and touring motorcycles. The company operates in two segments, Motorcycles and Related Products and Financial Services. The Motorcycles and Related Products segment designs, manufactures, and sells on-road Harley-Davidson motorcycles, including cruiser, touring, standard, sportbike, and dual models, as well as motorcycle parts, accessories, general merchandise, and related services. This segment sells its products to retail customers through a network of independent dealers, as well as e-commerce channels in the United States, Canada, Latin America, Europe, the Middle East, Africa, and the Asia-Pacific. The Financial Services segment provides wholesale financing services, such as floorplan and open account financing of motorcycles, and parts and accessories; and retail financing services, including installment lending for the purchase of new and used Harley-Davidson motorcycles, as well as point-of-sale protection products comprising motorcycle insurance, extended service contracts, and motorcycle maintenance protection. This segment also licenses the Harley-Davidson brand to third-party financial institutions. The company was founded in 1903 and is based in Milwaukee, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -13046,6 +15455,11 @@
       <c r="F487" t="n">
         <v>5.902299</v>
       </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Discovery, Inc. operates as a media company in the United States and internationally. The company operates in two segments, U.S. Networks and International Networks. The company owns and operates various television networks under the Discovery Channel, TLC, Animal Planet, Investigation Discovery, Science Channel, MotorTrend, Food Network, HGTV, Travel Channel, TVN, DIY Network, Cooking Channel, Discovery Family Channel, American Heroes Channel, Destination America, Discovery Life, Discovery en Espanol, Discovery Familia, Great American Country, ID, the Oprah Winfrey Network, Eurosport, Discovery Kids, DMAX, and Discovery Home &amp; Health brands, as well as other regional television networks. Its content spans genres, including survival, exploration, sports, lifestyle, general entertainment, home, food and travel, heroes, adventure, crime and investigation, health, and kids. The company also operates production studios that develop and produce content; and digital products and Websites. It provides content through various distribution platforms comprising pay-television, free-to-air and broadcast television, authenticated GO applications, digital distribution arrangements, and content licensing agreements, as well as various platforms that include brand-aligned Websites, online streaming, mobile devices, video on demand, and broadband channels. As of February 27, 2020, the company delivered approximately 8,000 hours of original programming each year in approximately 50 languages worldwide. Discovery, Inc. was founded in 1985 and is headquartered in Silver Spring, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -13063,17 +15477,18 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>2968738560</v>
+      </c>
+      <c r="F488" t="n">
+        <v>6.0496454</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Hanesbrands Inc., a consumer goods company, designs, manufactures, sources, and sells a range of basic apparel for men, women, and children in the United States. The company operates through three segments: Innerwear, Activewear, and International. It sells men's underwear, women's panties, children's underwear, activewear, socks, and hosiery, as well as intimate apparel, such as bras and shapewears; home goods; and T-shirts, fleece, sport shirts, performance T-shirts and shorts, sports bras, and thermals, as well as licensed logo apparel in collegiate bookstores, mass retailers, and other channels. The company licenses its Champion name for footwear and sports accessories. Hanesbrands Inc. provides its products primarily under the Hanes, Champion, Maidenform, Bali, JMS/Just My Size, Polo Ralph Lauren, Playtex, DKNY, Donna Karan, Alternative, Gear for Sports, Hanes Beefy-T, Bonds, DIM, Sheridan, Bras N Things, Nur Die/Nur Der, Lovable, Wonderbra, Berlei, Abanderado, Shock Absorber, Zorba, Explorer, Sol y Oro, and Bellinda brand names. The company markets its products through retailers, wholesalers, and third party embellishers, as well as directly to consumers through Internet. As of December 29, 2018, it operated 243 retail and direct outlet stores in the United States and the Commonwealth of Puerto Rico, as well as 690 retail and outlet stores internationally. The company also sells its products in Europe, Australia, Asia, Latin America, Canada, the Middle East, Africa, Mexico, and Brazil. Hanesbrands Inc. was founded in 1901 and is headquartered in Winston-Salem, North Carolina.</t>
         </is>
       </c>
     </row>
@@ -13102,6 +15517,11 @@
       <c r="F489" t="n">
         <v>4.210959</v>
       </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>H&amp;R Block, Inc., through its subsidiaries, provides assisted income tax return preparation, do-it-yourself (DIY) tax, and virtual tax preparation services and products to the general public primarily in the United States, Canada, and Australia. The company offers assisted income tax return preparation and related services through a system of retail offices operated directly by the company or by franchisees. It also develops and markets DIY income tax preparation software online, as well as through third-party retail stores and direct mail; and provides DIY tax services, including preparation of federal and state income tax returns, access to tax tips, advice and tax-related news, use of calculators for tax planning, and error checking and electronic filing. In addition, the company offers Refund Transfers and H&amp;R Block Emerald Prepaid Mastercard, which enables clients to receive their tax refunds; Peace of Mind extended service plans; H&amp;R Block Emerald Advance lines of credit; Tax Identity Shield that provides clients assistance in helping protect their tax identity and access to services to help restore their tax identity; refund advance loans; H&amp;R Block Instant Refund; and H&amp;R Block Pay With Refund services. H&amp;R Block, Inc. was founded in 1955 and is headquartered in Kansas City, Missouri.</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -13128,6 +15548,11 @@
       <c r="F490" t="n">
         <v>5.988327</v>
       </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Xerox Holdings Corporation designs, develops, and sells document management systems and solutions worldwide. It offers intelligent workplace services, including managed print services; digitization services; and digital solutions that leverage its software capabilities in workflow automation, personalization and communication software, and content management solutions. The company also provides desktop monochrome, and color and multifunction printers; digital printing presses and light production devices, and solutions; graphic communications and production solutions; inkjet presses; and IT services, such as PC and network infrastructure, communications technology, and network administration, as well as cloud and on-server support services. In addition, it provides FreeFlow a portfolio of software solutions for the automation and integration to the processing of print job comprises file preparation, final production, and electronic publishing; XMPie, a personalization and communication software that can support the needs of omni-channel communications customers from onboarding to retention; and DocuShare, a content management platform to capture, store and share paper and digital content. In addition, it sells paper products, wide-format systems, and software and IT services. The company sells its products and services directly to its customers through sales force, as well as through independent agents, dealers, value-added resellers, systems integrators, and the Web. Xerox Holdings Corporation was founded in 1906 and is based in Norwalk, Connecticut.</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -13154,6 +15579,11 @@
       <c r="F491" t="n">
         <v>6.2280965</v>
       </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>PVH Corp. operates as an apparel company in the United States and internationally. The company operates through six segments: Tommy Hilfiger North America, Tommy Hilfiger International, Calvin Klein North America, Calvin Klein International, Heritage Brands Wholesale, and Heritage Brands Retail. It designs, markets, and retails men's and women's apparel and accessories, including branded dress shirts, neckwear, sportswear, jeans wear, performance apparel, intimate apparel, underwear, outerwear, luggage products, swimwear, swim products, handbags, accessories, footwear, sleepwear, loungewear, hats, scarves, gloves, socks, watches and jewelry, eyeglasses and non-ophthalmic sunglasses, fragrance, bath products, cosmetics, furnishings, small leather goods, accessories, and other products. The company offers its products under its own brands, such as Tommy Hilfiger, Calvin Klein, Van Heusen, IZOD, ARROW, Warner's, Olga, Geoffrey Beene, and True&amp;Co.; and licensed brands comprising Speedo, Kenneth Cole New York, Kenneth Cole Reaction, Unlisted, a Kenneth Cole Production, MICHAEL Michael Kors, Michael Kors Collection, DKNY, and Chaps, as well as various other licensed and private label brands. It also licenses its own brands over various products. The company distributes its products at wholesale in department, chain, and specialty stores, as well as through warehouse clubs, mass market, and off-price and independent retailers; and through company-operated full-price specialty and outlet stores, as well as through digital commerce sites. PVH Corp. was founded in 1881 and is based in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -13180,6 +15610,11 @@
       <c r="F492" t="n">
         <v>10.23077</v>
       </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>TechnipFMC plc engages in the oil and gas projects, technologies, and systems and services businesses. It operates through three segments: Subsea, Onshore/Offshore, and Surface Technologies. The Subsea segment manufactures and designs products and systems; performs engineering, procurement, and project management; and provides services used by oil and gas companies involved in offshore exploration and production of crude oil and natural gas. The Onshore/Offshore segment designs and builds onshore facilities related to the production, treatment, and transportation of hydrocarbons and renewable feedstock; and designs, manufactures, and installs fixed and floating platforms for the offshore production and processing of oil and gas reserves. The Surface Technologies segment designs and manufactures systems, as well as provides services used by oil and gas companies involved in the land and shallow water exploration and production of crude oil and natural gas. This segment also designs, manufactures, and supplies technologically advanced high pressure valves and fittings for oilfield service companies; and provides flowback and well testing services. The company operates in Russia, the United States, Norway, Brazil, Israel, the United Kingdom, India, Angola, Australia, the United Arab Emirates, Malaysia, China, Indonesia, and internationally. It operates a fleet of 18 vessels. The company was formerly known as Technip SA and changed its name to TechnipFMC plc in January 2017. TechnipFMC plc was founded in 1958 and is headquartered in London, the United Kingdom.</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -13206,6 +15641,11 @@
       <c r="F493" t="n">
         <v>12.557377</v>
       </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Flowserve Corporation designs, develops, manufactures, distributes, and services industrial flow management equipment in the United States, Europe, the Middle East, Africa, Asia, and internationally. The company operates through two segments: Flowserve Pump Division (FPD) and Flow Control Division (FCD). The FPD segment offers custom and pre-configured pumps and pump systems, mechanical seals, auxiliary systems, replacement parts, upgrades, and related aftermarket services, including product installation and commissioning services, seal systems spare parts, repairs, re-rate and upgrade solutions, and machining and asset management solutions, as well as manufactures a gas-lubricated mechanical seal for use in high-speed compressors for gas pipelines. The FCD segment offers industrial valve and automation solutions, including isolation and control valves, actuation, controls, and related equipment, as well as provides equipment maintenance services for flow control systems, including advanced diagnostics, retrofit programs, and field machining capabilities. This segment's products are used to control, direct, and manage the flow of liquids and gases. It primarily serves oil and gas, chemical and pharmaceuticals, power generation, and water management markets, as well as general industries, including mining and ore processing, pulp and paper, food and beverage, and other smaller applications. The company distributes its products through direct sales, distributors, and sales representatives. Flowserve Corporation was incorporated in 1912 and is headquartered in Irving, Texas.</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -13232,6 +15672,11 @@
       <c r="F494" t="n">
         <v>2.3623931</v>
       </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Unum Group, together with its subsidiaries, provides financial protection benefit solutions in the United States, the United Kingdom, Poland, and internationally. It operates through Unum US, Unum International, Colonial Life, and Closed Block segments. The company offers group long-term and short-term disability, group life, and accidental death and dismemberment products; supplemental and voluntary products, such as individual disability, voluntary benefits, and dental and vision products; and accident, sickness, disability, life, and cancer and critical illness products. It also provides group pension, individual life and corporate-owned life insurance, reinsurance pools and management operations, and other products. The company sells its products primarily to employers for the benefit of employees. Unum Group sells its products through field sales personnel, independent brokers, and consultants, as well as independent contractor agency sales force. The company was founded in 1848 and is based in Chattanooga, Tennessee.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -13258,6 +15703,11 @@
       <c r="F495" t="n">
         <v>5.795139</v>
       </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Kohl's Corporation operates as a retail company in the United States. Its stores and Website offer apparel, footwear, accessories, beauty, and home products. The company provides its products primarily under the brand names of Apt. 9, Croft &amp; Barrow, Jumping Beans, SO, and Sonoma Goods for Life, as well as Food Network, LC Lauren Conrad, and Simply Vera Vera Wang. As of February 1, 2020, it operated 1,159 department stores; a Website Kohls.com; and 12 FILA outlets. Kohl's Corporation was founded in 1962 and is headquartered in Menomonee Falls, Wisconsin.</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -13284,6 +15734,11 @@
       <c r="F496" t="n">
         <v>4.4240503</v>
       </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Invesco Ltd. is a publicly owned investment manager. The firm provides its services to retail clients, institutional clients, high-net worth clients, public entities, corporations, unions, non-profit organizations, endowments, foundations, pension funds, financial institutions, and sovereign wealth funds. It manages separate client-focused equity and fixed income portfolios. The firm also launches equity, fixed income, commodity, multi-asset, and balanced mutual funds for its clients. It launches equity, fixed income, multi-asset, and balanced exchange-traded funds. The firm also launches and manages private funds. It invests in the public equity and fixed income markets across the globe. The firm also invests in alternative markets, such as commodities and currencies. For the equity portion of its portfolio, it invests in growth and value stocks of large-cap, mid-cap, and small-cap companies. For the fixed income portion of its portfolio, the firm invests in convertibles, government bonds, municipal bonds, treasury securities, and cash. It also invests in short term and intermediate term bonds, investment grade and high yield bonds, taxable and tax-free bonds, senior secured loans, and structured securities such as asset-backed securities, mortgage-backed securities, and commercial mortgage-backed securities. The firm employs absolute return, global macro, and long/short strategies. It employs quantitative analysis to make its investments. The firm was formerly known as Invesco Plc, AMVESCAP plc, Amvesco plc, Invesco PLC, Invesco MIM, and H. Lotery &amp; Co. Ltd. Invesco Ltd. was founded in December 1935 and is based in Atlanta, Georgia with an additional office in Hamilton, Bermuda.</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -13310,6 +15765,11 @@
       <c r="F497" t="n">
         <v>5.5744677</v>
       </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>L Brands, Inc. operates as a specialty retailer of women's intimate and other apparel, beauty and personal care products, home fragrance products, and accessories. The company operates in three segments: Victoria's Secret, Bath &amp; Body Works, and Victoria's Secret and Bath &amp; Body Works International. Its products include loungewear, bras, panties, athletic attire, shower gels and lotions, aromatherapy, body care, soaps and sanitizers, handbags, jewelry, and personal care accessories. The company offers its products under the Victoria's Secret, PINK, Bath &amp; Body Works, La Senza, Henri Bendel, White Barn, C.O. Bigelow, and other brand names. L Brands, Inc. sells its merchandise through company-owned specialty retail stores, which are primarily mall-based; through its Websites; and through franchises, licenses, and wholesale partners. As of February 27, 2019, the company operated 2,943 company-owned specialty stores in the United States, Canada, the United Kingdom, Ireland, and Greater China, as well as sold its brands through approximately 600 franchised locations and online worldwide. The company was formerly known as Limited Brands, Inc. and changed its name to L Brands, Inc. in March 2013. L Brands, Inc. was founded in 1963 and is headquartered in Columbus, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -13336,6 +15796,11 @@
       <c r="F498" t="n">
         <v>20.301888</v>
       </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Norwegian Cruise Line Holdings Ltd., together with its subsidiaries, operates as a cruise company in the North America, Europe, the Asia-Pacific, and internationally. The company operates the Norwegian Cruise Line, Oceania Cruises, and Regent Seven Seas Cruises brands. It offers cruise itineraries ranging from a few days to 180-days calling on various locations, including destinations in Scandinavia, Russia, the Mediterranean, the Greek Isles, Alaska, Canada and New England, India and the rest of Asia, Tahiti and the South Pacific, Australia and New Zealand, Africa, South America, the Panama Canal, the Caribbean, and Harvest Caye. As of February 20, 2020, the company had 28 ships with approximately 59,150 berths. It distributes its products through retail/travel advisor, international travel advisor, and onboard cruise sales channels, as well as meetings, incentives, and charters. The company was founded in 1966 and is headquartered in Miami, Florida.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -13362,6 +15827,11 @@
       <c r="F499" t="n">
         <v>-9.083769999999999</v>
       </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Helmerich &amp; Payne, Inc. primarily engages in drilling oil and gas wells for exploration and production companies. The company operates through U.S. Land, Offshore, International Land, and H&amp;P Technologies segments. The U.S. Land segment drills primarily in Colorado, Louisiana, Ohio, Oklahoma, New Mexico, North Dakota, Pennsylvania, Texas, Utah, West Virginia, and Wyoming. The Offshore segment has drilling operations in the Gulf of Mexico. The International Land segment conducts drilling operations in Argentina, Bahrain, Colombia, and the United Arab Emirates. The H&amp;P Technologies segment develops technologies designed to enhance the drilling operations, as well as wellbore quality and placement operations. As of September 30, 2019, the company operated a fleet of 299 land rigs in the United States; 31 international land rigs; and 8 offshore platform rigs. It also owns, develops, and operates commercial real estate properties. The company's real estate investments include a shopping center comprising approximately 389,000 leasable square feet; multi-tenant industrial warehouse properties covering approximately one million leasable square feet; and approximately 210 acres of undeveloped real estate located in Tulsa, Oklahoma. Helmerich &amp; Payne, Inc. was founded in 1920 and is headquartered in Tulsa, Oklahoma.</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -13388,6 +15858,11 @@
       <c r="F500" t="n">
         <v>6.0976562</v>
       </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Nordstrom, Inc., a fashion retailer, provides apparel, shoes, cosmetics, and accessories for women, men, young adults, and children. It offers a range of brand name and private label merchandise through various channels, such as Nordstrom branded full-line stores and online store at Nordstrom.com; Nordstrom Rack stores; Nordstromrack.com and HauteLook; Jeffrey boutiques; clearance stores that operate under the Last Chance name; Trunk Club clubhouses and TrunkClub.com; and Nordstrom Locals. As of October 24, 2019, the company operated 382 stores in 40 states, including 117 full-line stores in the United States, Canada, and Puerto Rico; 249 Nordstrom Rack stores; 3 Jeffrey boutiques; 2 clearance stores; 6 Trunk Club clubhouses; and 5 Nordstrom Local service concepts, as well as online through Nordstrom.com, Nordstromrack.com, HauteLook, and TrunkClub.com. Nordstrom, Inc. was founded in 1901 and is headquartered in Seattle, Washington.</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -13414,6 +15889,11 @@
       <c r="F501" t="n">
         <v>2.9586778</v>
       </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Alliance Data Systems Corporation provides data-driven marketing and loyalty solutions in the United States, Canada, Europe, the Middle East, Africa, the Asia Pacific, and others. It operates through two segments, LoyaltyOne and Card Services. The LoyaltyOne segment offers AIR MILES reward program; short term loyalty program; and loyalty services, which include loyalty consulting, customer analytics, creative services, and mobile solutions. The Card Services segment provides receivable financing services comprising underwriting and risk management; processing services, such as new account processing, bill processing, remittance processing, and customer care; and marketing services to private label and co-brand retail credit card programs. The company captures and analyzes data created during each customer interaction, leveraging the insight derived from that data to enable clients to identify and acquire new customers and to enhance customer loyalty. It serves clients across various end-markets, including financial services, specialty retail, grocery and drugstore chains, petroleum retail, home furnishing and hardware, beauty and jewelry, hospitality and travel, and telecommunications. Alliance Data Systems Corporation was founded in 1996 and is headquartered in Columbus, Ohio.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -13440,6 +15920,11 @@
       <c r="F502" t="n">
         <v>5.1214285</v>
       </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>The Gap, Inc. operates as an apparel retail company worldwide. The company offers apparel, accessories, and personal care products for men, women, and children under the Old Navy, Gap, Banana Republic, Athleta, Intermix, Janie and Jack, and Hill City brands. Its products include denim, tees, fleece, khakis, and other products; and fitness and lifestyle products for use in yoga, training, sports, travel, and everyday activities to women and girls. The company offers its products through company-operated stores, franchise stores, Websites, third-party arrangements, and catalogs. It has franchise agreements with unaffiliated franchisees to operate Old Navy, Gap, and Banana Republic stores in Asia, Europe, Latin America, the Middle East, and Africa. As of February 1, 2020, the company had 3,345 company-operated stores; and 574 franchise stores, as well as online. The Gap, Inc. was founded in 1969 and is headquartered in San Francisco, California.</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -13466,6 +15951,11 @@
       <c r="F503" t="n">
         <v>38.55</v>
       </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Under Armour, Inc., together with its subsidiaries, develops, markets, and distributes branded performance apparel, footwear, and accessories for men, women, and youth primarily in North America, Europe, the Middle East, Africa, the Asia-Pacific, and Latin America. The company offers its apparel in compression, fitted, and loose types to be worn in hot and cold. It also provides various footwear products for running, basketball, cleated sports, training, and outdoor. In addition, the company offers accessories, which include gloves, bags, and headwear; and digital fitness subscriptions, as well as digital advertising through MapMyFitness, MyFitnessPal, and Endomondo platforms. It primarily offers its products under the HEATGEAR, COLDGEAR, RUSH or RECOVER, UA Logo, UNDER ARMOUR, UA, ARMOUR, PROTECT THIS HOUSE, I WILL, ARMOURBOX, ARMOUR BRA, and ARMOUR FLEECE, as well as MyFitnessPal, MapMyFitness, and UNDER ARMOUR CONNECTED FITNESS brands. The company sells its products through wholesale channels, including national and regional sporting goods chains, independent and specialty retailers, department store chains, institutional athletic departments, and leagues and teams, as well as independent distributors; and directly to consumers through a network of 388 brand and factory house stores, as well as through e-commerce websites. Under Armour, Inc. was founded in 1996 and is headquartered in Baltimore, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -13490,6 +15980,11 @@
         <v>6348122112</v>
       </c>
       <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>News Corporation, a media and information services company, creates and distributes content for consumers and businesses worldwide. It operates in five segments: News and Information Services, Subscription Video Services, Book Publishing, Digital Real Estate Services, and Other. The company distributes content and data products, including The Wall Street Journal, Factiva, Dow Jones Risk &amp; Compliance, Dow Jones Newswires, Barron's, and MarketWatch through various media channels, such as newspapers, newswires, Websites, applications for mobile devices, tablets and e-book readers, newsletters, magazines, proprietary databases, live journalism, videos, and podcasts. It also owns and operates daily, Sunday, weekly, and bi-weekly newspapers comprising The Australian, The Weekend Australian, The Daily Telegraph, The Sunday Telegraph, Herald Sun, Sunday Herald Sun, The Courier Mail, The Sunday Mail, The Advertiser, Sunday Mail, The Sun, The Sun on Sunday, The Times, The Sunday Times, and New York Post, as well as digital mastheads and other Websites. In addition, the company offers in-store marketing products and services primarily to consumer packaged goods manufacturers; home-delivered shopper media, including free-standing inserts and direct mail products; digital marketing solutions; and in-store merchandising services. Further, it publishes general fiction, nonfiction, children's, and religious books; provides video sports, entertainment, and news services to pay-TV subscribers and other commercial licensees primarily through cable, satellite, and Internet distribution; and broadcasts rights to live sporting events. Additionally, the company offers property and property-related services on its Websites and mobile applications; online real estate services; and professional software and services products, which comprise Top Producer and ListHub. News Corporation was incorporated in 2012 and is headquartered in New York, New York.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -13516,6 +16011,11 @@
       <c r="F505" t="n">
         <v>23.033333</v>
       </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Under Armour, Inc., together with its subsidiaries, develops, markets, and distributes branded performance apparel, footwear, and accessories for men, women, and youth primarily in North America, Europe, the Middle East, Africa, the Asia-Pacific, and Latin America. The company offers its apparel in compression, fitted, and loose types to be worn in hot and cold. It also provides various footwear products for running, basketball, cleated sports, training, and outdoor. In addition, the company offers accessories, which include gloves, bags, and headwear; and digital fitness subscriptions, as well as digital advertising through MapMyFitness, MyFitnessPal, and Endomondo platforms. It primarily offers its products under the HEATGEAR, COLDGEAR, RUSH or RECOVER, UA Logo, UNDER ARMOUR, UA, ARMOUR, PROTECT THIS HOUSE, I WILL, ARMOURBOX, ARMOUR BRA, and ARMOUR FLEECE, as well as MyFitnessPal, MapMyFitness, and UNDER ARMOUR CONNECTED FITNESS brands. The company sells its products through wholesale channels, including national and regional sporting goods chains, independent and specialty retailers, department store chains, institutional athletic departments, and leagues and teams, as well as independent distributors; and directly to consumers through a network of 388 brand and factory house stores, as well as through e-commerce websites. Under Armour, Inc. was founded in 1996 and is headquartered in Baltimore, Maryland.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -13541,6 +16041,11 @@
       </c>
       <c r="F506" t="n">
         <v>6.339623</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Coty Inc., together with its subsidiaries, manufactures, markets, distributes, and sells beauty products worldwide. The company operates in three segments: Luxury, Consumer Beauty, and Professional Beauty. The Luxury segment offers prestige fragrances, and skincare and cosmetics products through various retailers, including perfumeries, department stores, and e-retailers and duty-free shops under the Alexander McQueen, Balenciaga, Burberry, Bottega Veneta, Calvin Klein, Cavalli, Chloe, Davidoff, Escada, Gucci, Hugo Boss, Jil Sander, Joop!, Lacoste, Lancaster, Marc Jacobs, Miu Miu, philosophy, Stella McCartney, and Tiffany &amp; Co. brands. The Consumer Beauty segment offers color cosmetics, retail hair coloring and styling products, mass fragrance, and body care and mass skin care products primarily through hypermarkets, supermarkets, drug stores, pharmacies, mid-tier department stores, traditional food and drug retailers, and e-commerce retailers. It provides its products under the Adidas, Beckham, Beyonce, Biocolor, Bozzano, Bourjois, Bruno Banani, Clairol, CoverGirl, Enrique, Jovan, Nautica, Max Factor, Mexx, Monange, Paixao, Rimmel, Risque, Sally Hansen, Stetson, Wella, Younique, and 007 James Bond brands. The Professional Beauty segment offers hair and nail care products to nail and hair salons, nail and hair professionals, and professional stores through direct sales forces and e-commerce platforms under the Clairol Professional, ghd, Kadus Professional, Londa Professional, Nioxin, O P I, Sassoon Professional, Sebastian, System Professional, and Wella Professionals brands. The company also sells its products to third-party distributors. It sells its products to approximately 150 countries. The company was founded in 1904 and is based in New York, New York. Coty Inc. operates as a subsidiary of Cottage Holdco B.V.</t>
+        </is>
       </c>
     </row>
   </sheetData>
